--- a/Data/PFAF-Current.xlsx
+++ b/Data/PFAF-Current.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="PFAF0309 " sheetId="1" r:id="rId2"/>
+    <sheet name="PFAF0313 " sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="381">
   <si>
-    <t xml:space="preserve">PFAF for 03/09/2023  </t>
+    <t xml:space="preserve">PFAF for 03/13/2023  </t>
   </si>
   <si>
     <t>Cusip</t>
@@ -1430,13 +1430,13 @@
         <v>501.276</v>
       </c>
       <c r="O3" s="0">
-        <v>73.88</v>
+        <v>70.64</v>
       </c>
       <c r="P3" s="0">
         <v>0</v>
       </c>
       <c r="Q3" s="0">
-        <v>0.5505</v>
+        <v>0.5655</v>
       </c>
       <c r="R3" s="0">
         <v>0.55665</v>
@@ -1445,49 +1445,49 @@
         <v>0</v>
       </c>
       <c r="T3" s="0">
-        <v>200</v>
+        <v>269</v>
       </c>
       <c r="U3" s="0">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="V3" s="0">
-        <v>163</v>
+        <v>239</v>
       </c>
       <c r="W3" s="0">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="X3" s="0">
-        <v>5.89</v>
+        <v>6.35</v>
       </c>
       <c r="Y3" s="0">
-        <v>6.28</v>
+        <v>6.58</v>
       </c>
       <c r="Z3" s="0">
-        <v>6.28</v>
+        <v>6.58</v>
       </c>
       <c r="AA3" s="0">
-        <v>-4.052</v>
+        <v>-8.26</v>
       </c>
       <c r="AB3" s="0">
-        <v>-4.318</v>
+        <v>-11.982</v>
       </c>
       <c r="AC3" s="0">
-        <v>12.12</v>
+        <v>12.62</v>
       </c>
       <c r="AD3" s="0">
-        <v>15.61</v>
+        <v>14.88</v>
       </c>
       <c r="AE3" s="0">
-        <v>15.61</v>
+        <v>14.88</v>
       </c>
       <c r="AF3" s="0">
-        <v>1.58</v>
+        <v>1.49</v>
       </c>
       <c r="AG3" s="0">
-        <v>5.01</v>
+        <v>4.56</v>
       </c>
       <c r="AH3" s="0">
-        <v>5.01</v>
+        <v>4.56</v>
       </c>
       <c r="AI3" s="0" t="s">
         <v>47</v>
@@ -1537,13 +1537,13 @@
         <v>330.842</v>
       </c>
       <c r="O4" s="0">
-        <v>89.32</v>
+        <v>85.12</v>
       </c>
       <c r="P4" s="0">
         <v>0</v>
       </c>
       <c r="Q4" s="0">
-        <v>0.43926</v>
+        <v>0.44974</v>
       </c>
       <c r="R4" s="0">
         <v>0.43361</v>
@@ -1552,49 +1552,49 @@
         <v>0</v>
       </c>
       <c r="T4" s="0">
-        <v>108</v>
+        <v>207</v>
       </c>
       <c r="U4" s="0">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="V4" s="0">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c r="W4" s="0">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="X4" s="0">
-        <v>4.94</v>
+        <v>5.72</v>
       </c>
       <c r="Y4" s="0">
-        <v>6.22</v>
+        <v>6.54</v>
       </c>
       <c r="Z4" s="0">
-        <v>6.22</v>
+        <v>6.54</v>
       </c>
       <c r="AA4" s="0">
-        <v>-1.717</v>
+        <v>-6.338</v>
       </c>
       <c r="AB4" s="0">
-        <v>-1.816</v>
+        <v>-9.247</v>
       </c>
       <c r="AC4" s="0">
-        <v>8.2</v>
+        <v>9.51</v>
       </c>
       <c r="AD4" s="0">
-        <v>15.77</v>
+        <v>14.98</v>
       </c>
       <c r="AE4" s="0">
-        <v>15.77</v>
+        <v>14.98</v>
       </c>
       <c r="AF4" s="0">
-        <v>-0.95</v>
+        <v>-0.08</v>
       </c>
       <c r="AG4" s="0">
-        <v>5.11</v>
+        <v>4.62</v>
       </c>
       <c r="AH4" s="0">
-        <v>5.11</v>
+        <v>4.62</v>
       </c>
       <c r="AI4" s="0" t="s">
         <v>47</v>
@@ -1644,13 +1644,13 @@
         <v>401.02</v>
       </c>
       <c r="O5" s="0">
-        <v>86.68</v>
+        <v>82.6</v>
       </c>
       <c r="P5" s="0">
         <v>0</v>
       </c>
       <c r="Q5" s="0">
-        <v>0.5167</v>
+        <v>0.529</v>
       </c>
       <c r="R5" s="0">
         <v>0.51657</v>
@@ -1659,43 +1659,43 @@
         <v>0</v>
       </c>
       <c r="T5" s="0">
-        <v>489</v>
+        <v>535</v>
       </c>
       <c r="U5" s="0">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="V5" s="0">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="W5" s="0">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="X5" s="0">
-        <v>9.24</v>
+        <v>9.28</v>
       </c>
       <c r="Y5" s="0">
-        <v>15.23</v>
+        <v>18.55</v>
       </c>
       <c r="Z5" s="0">
-        <v>15.23</v>
+        <v>18.55</v>
       </c>
       <c r="AA5" s="0">
-        <v>-2.956</v>
+        <v>-7.524</v>
       </c>
       <c r="AB5" s="0">
-        <v>-3.113</v>
+        <v>-7.962</v>
       </c>
       <c r="AC5" s="0">
-        <v>0.66</v>
+        <v>0.07</v>
       </c>
       <c r="AD5" s="0">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="AE5" s="0">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="AF5" s="0">
-        <v>-0.18</v>
+        <v>-0.32</v>
       </c>
       <c r="AG5" s="0">
         <v>0.03</v>
@@ -1751,13 +1751,13 @@
         <v>300.765</v>
       </c>
       <c r="O6" s="0">
-        <v>95.24</v>
+        <v>94</v>
       </c>
       <c r="P6" s="0">
         <v>0</v>
       </c>
       <c r="Q6" s="0">
-        <v>0.42579</v>
+        <v>0.45151</v>
       </c>
       <c r="R6" s="0">
         <v>0.42213</v>
@@ -1766,43 +1766,43 @@
         <v>0</v>
       </c>
       <c r="T6" s="0">
-        <v>411</v>
+        <v>531</v>
       </c>
       <c r="U6" s="0">
-        <v>97</v>
+        <v>217</v>
       </c>
       <c r="V6" s="0">
-        <v>524</v>
+        <v>598</v>
       </c>
       <c r="W6" s="0">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="X6" s="0">
-        <v>8.42</v>
+        <v>9.23</v>
       </c>
       <c r="Y6" s="0">
-        <v>8.96</v>
+        <v>9.61</v>
       </c>
       <c r="Z6" s="0">
-        <v>8.96</v>
+        <v>9.61</v>
       </c>
       <c r="AA6" s="0">
-        <v>-2.137</v>
+        <v>-3.411</v>
       </c>
       <c r="AB6" s="0">
-        <v>-2.004</v>
+        <v>-5.012</v>
       </c>
       <c r="AC6" s="0">
+        <v>2.11</v>
+      </c>
+      <c r="AD6" s="0">
         <v>2.18</v>
       </c>
-      <c r="AD6" s="0">
-        <v>2.2</v>
-      </c>
       <c r="AE6" s="0">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="AF6" s="0">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="AG6" s="0">
         <v>0.07</v>
@@ -1858,13 +1858,13 @@
         <v>250.638</v>
       </c>
       <c r="O7" s="0">
-        <v>83.32</v>
+        <v>75.2</v>
       </c>
       <c r="P7" s="0">
         <v>0</v>
       </c>
       <c r="Q7" s="0">
-        <v>0.31042</v>
+        <v>0.30101</v>
       </c>
       <c r="R7" s="0">
         <v>0.30406</v>
@@ -1873,49 +1873,49 @@
         <v>0</v>
       </c>
       <c r="T7" s="0">
-        <v>230</v>
+        <v>375</v>
       </c>
       <c r="U7" s="0">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="V7" s="0">
-        <v>199</v>
+        <v>333</v>
       </c>
       <c r="W7" s="0">
-        <v>8</v>
+        <v>142</v>
       </c>
       <c r="X7" s="0">
-        <v>6.19</v>
+        <v>7.43</v>
       </c>
       <c r="Y7" s="0">
-        <v>6.9</v>
+        <v>7.67</v>
       </c>
       <c r="Z7" s="0">
-        <v>6.9</v>
+        <v>7.67</v>
       </c>
       <c r="AA7" s="0">
-        <v>-0.951</v>
+        <v>-10.603</v>
       </c>
       <c r="AB7" s="0">
-        <v>-1.117</v>
+        <v>-13.925</v>
       </c>
       <c r="AC7" s="0">
-        <v>9.58</v>
+        <v>10.81</v>
       </c>
       <c r="AD7" s="0">
-        <v>14.19</v>
+        <v>12.73</v>
       </c>
       <c r="AE7" s="0">
-        <v>14.19</v>
+        <v>12.73</v>
       </c>
       <c r="AF7" s="0">
-        <v>0.06</v>
+        <v>1.24</v>
       </c>
       <c r="AG7" s="0">
-        <v>4.15</v>
+        <v>3.35</v>
       </c>
       <c r="AH7" s="0">
-        <v>4.15</v>
+        <v>3.35</v>
       </c>
       <c r="AI7" s="0" t="s">
         <v>47</v>
@@ -1965,13 +1965,13 @@
         <v>250.638</v>
       </c>
       <c r="O8" s="0">
-        <v>83.88</v>
+        <v>73.66</v>
       </c>
       <c r="P8" s="0">
         <v>0</v>
       </c>
       <c r="Q8" s="0">
-        <v>0.3125</v>
+        <v>0.29484</v>
       </c>
       <c r="R8" s="0">
         <v>0.31664</v>
@@ -1980,49 +1980,49 @@
         <v>0</v>
       </c>
       <c r="T8" s="0">
-        <v>224</v>
+        <v>397</v>
       </c>
       <c r="U8" s="0">
-        <v>54</v>
+        <v>227</v>
       </c>
       <c r="V8" s="0">
-        <v>197</v>
+        <v>339</v>
       </c>
       <c r="W8" s="0">
-        <v>34</v>
+        <v>176</v>
       </c>
       <c r="X8" s="0">
-        <v>6.13</v>
+        <v>7.65</v>
       </c>
       <c r="Y8" s="0">
-        <v>6.85</v>
+        <v>7.83</v>
       </c>
       <c r="Z8" s="0">
-        <v>6.85</v>
+        <v>7.83</v>
       </c>
       <c r="AA8" s="0">
-        <v>-4.247</v>
+        <v>-15.913</v>
       </c>
       <c r="AB8" s="0">
-        <v>-4.396</v>
+        <v>-19.203</v>
       </c>
       <c r="AC8" s="0">
-        <v>9.83</v>
+        <v>10.97</v>
       </c>
       <c r="AD8" s="0">
-        <v>14.29</v>
+        <v>12.45</v>
       </c>
       <c r="AE8" s="0">
-        <v>14.29</v>
+        <v>12.45</v>
       </c>
       <c r="AF8" s="0">
-        <v>0.54</v>
+        <v>1.23</v>
       </c>
       <c r="AG8" s="0">
-        <v>4.21</v>
+        <v>3.21</v>
       </c>
       <c r="AH8" s="0">
-        <v>4.21</v>
+        <v>3.21</v>
       </c>
       <c r="AI8" s="0" t="s">
         <v>47</v>
@@ -2072,13 +2072,13 @@
         <v>275.702</v>
       </c>
       <c r="O9" s="0">
-        <v>99.03</v>
+        <v>96.44</v>
       </c>
       <c r="P9" s="0">
         <v>0</v>
       </c>
       <c r="Q9" s="0">
-        <v>0.40582</v>
+        <v>0.42463</v>
       </c>
       <c r="R9" s="0">
         <v>0.39777</v>
@@ -2087,43 +2087,43 @@
         <v>0</v>
       </c>
       <c r="T9" s="0">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="U9" s="0">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="V9" s="0">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="W9" s="0">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="X9" s="0">
-        <v>8.96</v>
+        <v>9.08</v>
       </c>
       <c r="Y9" s="0">
-        <v>13.26</v>
+        <v>23.63</v>
       </c>
       <c r="Z9" s="0">
-        <v>13.26</v>
+        <v>23.63</v>
       </c>
       <c r="AA9" s="0">
-        <v>-1.014</v>
+        <v>-3.599</v>
       </c>
       <c r="AB9" s="0">
-        <v>-1.091</v>
+        <v>-3.892</v>
       </c>
       <c r="AC9" s="0">
-        <v>-0.13</v>
+        <v>-0.51</v>
       </c>
       <c r="AD9" s="0">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AE9" s="0">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AF9" s="0">
-        <v>-0.14</v>
+        <v>-0.2</v>
       </c>
       <c r="AG9" s="0">
         <v>0</v>
@@ -2179,13 +2179,13 @@
         <v>501.276</v>
       </c>
       <c r="O10" s="0">
-        <v>95.28</v>
+        <v>87.24</v>
       </c>
       <c r="P10" s="0">
         <v>0</v>
       </c>
       <c r="Q10" s="0">
-        <v>0.70995</v>
+        <v>0.6984</v>
       </c>
       <c r="R10" s="0">
         <v>0.68099</v>
@@ -2194,49 +2194,49 @@
         <v>0</v>
       </c>
       <c r="T10" s="0">
-        <v>10</v>
+        <v>209</v>
       </c>
       <c r="U10" s="0">
-        <v>-33</v>
+        <v>166</v>
       </c>
       <c r="V10" s="0">
-        <v>46</v>
+        <v>192</v>
       </c>
       <c r="W10" s="0">
-        <v>-26</v>
+        <v>120</v>
       </c>
       <c r="X10" s="0">
-        <v>3.92</v>
+        <v>5.75</v>
       </c>
       <c r="Y10" s="0">
-        <v>6.18</v>
+        <v>6.76</v>
       </c>
       <c r="Z10" s="0">
-        <v>6.18</v>
+        <v>6.76</v>
       </c>
       <c r="AA10" s="0">
-        <v>1.146</v>
+        <v>-7.389</v>
       </c>
       <c r="AB10" s="0">
-        <v>1.104</v>
+        <v>-9.858</v>
       </c>
       <c r="AC10" s="0">
-        <v>5.49</v>
+        <v>8.48</v>
       </c>
       <c r="AD10" s="0">
-        <v>16.07</v>
+        <v>14.67</v>
       </c>
       <c r="AE10" s="0">
-        <v>16.07</v>
+        <v>14.67</v>
       </c>
       <c r="AF10" s="0">
-        <v>-1.8</v>
+        <v>-0.7</v>
       </c>
       <c r="AG10" s="0">
-        <v>5.24</v>
+        <v>4.38</v>
       </c>
       <c r="AH10" s="0">
-        <v>5.24</v>
+        <v>4.38</v>
       </c>
       <c r="AI10" s="0" t="s">
         <v>47</v>
@@ -2286,13 +2286,13 @@
         <v>250.638</v>
       </c>
       <c r="O11" s="0">
-        <v>88.88</v>
+        <v>86.2</v>
       </c>
       <c r="P11" s="0">
         <v>0</v>
       </c>
       <c r="Q11" s="0">
-        <v>0.33113</v>
+        <v>0.34503</v>
       </c>
       <c r="R11" s="0">
         <v>0.3551</v>
@@ -2301,43 +2301,43 @@
         <v>0</v>
       </c>
       <c r="T11" s="0">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="U11" s="0">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="V11" s="0">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="W11" s="0">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="X11" s="0">
-        <v>9.66</v>
+        <v>9.72</v>
       </c>
       <c r="Y11" s="0">
-        <v>18.74</v>
+        <v>22.42</v>
       </c>
       <c r="Z11" s="0">
-        <v>18.74</v>
+        <v>22.42</v>
       </c>
       <c r="AA11" s="0">
-        <v>-9.528</v>
+        <v>-12.256</v>
       </c>
       <c r="AB11" s="0">
-        <v>-9.513</v>
+        <v>-12.959</v>
       </c>
       <c r="AC11" s="0">
-        <v>-0.35</v>
+        <v>-0.82</v>
       </c>
       <c r="AD11" s="0">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="AE11" s="0">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="AF11" s="0">
-        <v>-0.31</v>
+        <v>-0.41</v>
       </c>
       <c r="AG11" s="0">
         <v>0.01</v>
@@ -2393,13 +2393,13 @@
         <v>300.765</v>
       </c>
       <c r="O12" s="0">
-        <v>85.96</v>
+        <v>82.2</v>
       </c>
       <c r="P12" s="0">
         <v>0</v>
       </c>
       <c r="Q12" s="0">
-        <v>0.3843</v>
+        <v>0.39483</v>
       </c>
       <c r="R12" s="0">
         <v>0.38135</v>
@@ -2408,49 +2408,49 @@
         <v>0</v>
       </c>
       <c r="T12" s="0">
-        <v>63</v>
+        <v>146</v>
       </c>
       <c r="U12" s="0">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="V12" s="0">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="W12" s="0">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="X12" s="0">
-        <v>4.47</v>
+        <v>5.1</v>
       </c>
       <c r="Y12" s="0">
-        <v>5.61</v>
+        <v>5.88</v>
       </c>
       <c r="Z12" s="0">
-        <v>5.61</v>
+        <v>5.88</v>
       </c>
       <c r="AA12" s="0">
-        <v>-2.229</v>
+        <v>-6.506</v>
       </c>
       <c r="AB12" s="0">
-        <v>-2.379</v>
+        <v>-9.785</v>
       </c>
       <c r="AC12" s="0">
-        <v>9.66</v>
+        <v>10.78</v>
       </c>
       <c r="AD12" s="0">
-        <v>17.55</v>
+        <v>16.74</v>
       </c>
       <c r="AE12" s="0">
-        <v>17.55</v>
+        <v>16.74</v>
       </c>
       <c r="AF12" s="0">
-        <v>-0.54</v>
+        <v>-0.1</v>
       </c>
       <c r="AG12" s="0">
-        <v>6.3</v>
+        <v>5.74</v>
       </c>
       <c r="AH12" s="0">
-        <v>6.3</v>
+        <v>5.74</v>
       </c>
       <c r="AI12" s="0" t="s">
         <v>47</v>
@@ -2500,13 +2500,13 @@
         <v>1152.934</v>
       </c>
       <c r="O13" s="0">
-        <v>88</v>
+        <v>84.16</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
       </c>
       <c r="Q13" s="0">
-        <v>1.50813</v>
+        <v>1.5496</v>
       </c>
       <c r="R13" s="0">
         <v>1.51174</v>
@@ -2515,49 +2515,49 @@
         <v>0</v>
       </c>
       <c r="T13" s="0">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="U13" s="0">
-        <v>48</v>
+        <v>137</v>
       </c>
       <c r="V13" s="0">
-        <v>97</v>
+        <v>155</v>
       </c>
       <c r="W13" s="0">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="X13" s="0">
-        <v>4.64</v>
+        <v>5.32</v>
       </c>
       <c r="Y13" s="0">
-        <v>5.89</v>
+        <v>6.17</v>
       </c>
       <c r="Z13" s="0">
-        <v>5.89</v>
+        <v>6.17</v>
       </c>
       <c r="AA13" s="0">
-        <v>-3.212</v>
+        <v>-7.435</v>
       </c>
       <c r="AB13" s="0">
-        <v>-3.315</v>
+        <v>-10.425</v>
       </c>
       <c r="AC13" s="0">
-        <v>8.86</v>
+        <v>9.99</v>
       </c>
       <c r="AD13" s="0">
-        <v>16.71</v>
+        <v>15.93</v>
       </c>
       <c r="AE13" s="0">
-        <v>16.71</v>
+        <v>15.93</v>
       </c>
       <c r="AF13" s="0">
-        <v>-0.8</v>
+        <v>-0.01</v>
       </c>
       <c r="AG13" s="0">
-        <v>5.71</v>
+        <v>5.21</v>
       </c>
       <c r="AH13" s="0">
-        <v>5.71</v>
+        <v>5.21</v>
       </c>
       <c r="AI13" s="0" t="s">
         <v>47</v>
@@ -2607,13 +2607,13 @@
         <v>576.467</v>
       </c>
       <c r="O14" s="0">
-        <v>100.84</v>
+        <v>100.8</v>
       </c>
       <c r="P14" s="0">
         <v>0</v>
       </c>
       <c r="Q14" s="0">
-        <v>0.86409</v>
+        <v>0.92799</v>
       </c>
       <c r="R14" s="0">
         <v>0.83634</v>
@@ -2643,10 +2643,10 @@
         <v>5.67</v>
       </c>
       <c r="AA14" s="0">
-        <v>0.239</v>
+        <v>0.199</v>
       </c>
       <c r="AB14" s="0">
-        <v>0.135</v>
+        <v>-0.051</v>
       </c>
       <c r="AC14" s="0">
         <v>0.15</v>
@@ -2714,13 +2714,13 @@
         <v>300.765</v>
       </c>
       <c r="O15" s="0">
-        <v>89.77</v>
+        <v>83.2</v>
       </c>
       <c r="P15" s="0">
         <v>0</v>
       </c>
       <c r="Q15" s="0">
-        <v>0.40135</v>
+        <v>0.39963</v>
       </c>
       <c r="R15" s="0">
         <v>0.42039</v>
@@ -2729,49 +2729,49 @@
         <v>0</v>
       </c>
       <c r="T15" s="0">
-        <v>201</v>
+        <v>348</v>
       </c>
       <c r="U15" s="0">
-        <v>169</v>
+        <v>316</v>
       </c>
       <c r="V15" s="0">
-        <v>192</v>
+        <v>284</v>
       </c>
       <c r="W15" s="0">
-        <v>132</v>
+        <v>224</v>
       </c>
       <c r="X15" s="0">
-        <v>5.9</v>
+        <v>7.15</v>
       </c>
       <c r="Y15" s="0">
-        <v>7.16</v>
+        <v>7.73</v>
       </c>
       <c r="Z15" s="0">
-        <v>7.16</v>
+        <v>7.73</v>
       </c>
       <c r="AA15" s="0">
-        <v>-7.374</v>
+        <v>-14.156</v>
       </c>
       <c r="AB15" s="0">
-        <v>-7.394</v>
+        <v>-16.037</v>
       </c>
       <c r="AC15" s="0">
-        <v>7.29</v>
+        <v>9.13</v>
       </c>
       <c r="AD15" s="0">
-        <v>13.86</v>
+        <v>12.81</v>
       </c>
       <c r="AE15" s="0">
-        <v>13.86</v>
+        <v>12.81</v>
       </c>
       <c r="AF15" s="0">
-        <v>-0.94</v>
+        <v>-0.07</v>
       </c>
       <c r="AG15" s="0">
-        <v>3.91</v>
+        <v>3.34</v>
       </c>
       <c r="AH15" s="0">
-        <v>3.91</v>
+        <v>3.34</v>
       </c>
       <c r="AI15" s="0" t="s">
         <v>47</v>
@@ -2821,13 +2821,13 @@
         <v>275.702</v>
       </c>
       <c r="O16" s="0">
-        <v>89.64</v>
+        <v>84</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>0.36736</v>
+        <v>0.36985</v>
       </c>
       <c r="R16" s="0">
         <v>0.39427</v>
@@ -2836,49 +2836,49 @@
         <v>0</v>
       </c>
       <c r="T16" s="0">
-        <v>204</v>
+        <v>335</v>
       </c>
       <c r="U16" s="0">
-        <v>272</v>
+        <v>403</v>
       </c>
       <c r="V16" s="0">
-        <v>194</v>
+        <v>276</v>
       </c>
       <c r="W16" s="0">
-        <v>224</v>
+        <v>306</v>
       </c>
       <c r="X16" s="0">
-        <v>5.93</v>
+        <v>7.02</v>
       </c>
       <c r="Y16" s="0">
-        <v>7.17</v>
+        <v>7.66</v>
       </c>
       <c r="Z16" s="0">
-        <v>7.17</v>
+        <v>7.66</v>
       </c>
       <c r="AA16" s="0">
-        <v>-9.6</v>
+        <v>-15.288</v>
       </c>
       <c r="AB16" s="0">
-        <v>-9.647</v>
+        <v>-16.356</v>
       </c>
       <c r="AC16" s="0">
-        <v>7.34</v>
+        <v>8.97</v>
       </c>
       <c r="AD16" s="0">
-        <v>13.84</v>
+        <v>12.94</v>
       </c>
       <c r="AE16" s="0">
-        <v>13.84</v>
+        <v>12.94</v>
       </c>
       <c r="AF16" s="0">
-        <v>-0.93</v>
+        <v>-0.14</v>
       </c>
       <c r="AG16" s="0">
-        <v>3.9</v>
+        <v>3.41</v>
       </c>
       <c r="AH16" s="0">
-        <v>3.9</v>
+        <v>3.41</v>
       </c>
       <c r="AI16" s="0" t="s">
         <v>47</v>
@@ -2928,13 +2928,13 @@
         <v>576.467</v>
       </c>
       <c r="O17" s="0">
-        <v>72.64</v>
+        <v>65.24</v>
       </c>
       <c r="P17" s="0">
         <v>0</v>
       </c>
       <c r="Q17" s="0">
-        <v>0.62244</v>
+        <v>0.60062</v>
       </c>
       <c r="R17" s="0">
         <v>0.62917</v>
@@ -2943,49 +2943,49 @@
         <v>0</v>
       </c>
       <c r="T17" s="0">
-        <v>266</v>
+        <v>391</v>
       </c>
       <c r="U17" s="0">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="V17" s="0">
-        <v>248</v>
+        <v>292</v>
       </c>
       <c r="W17" s="0">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="X17" s="0">
-        <v>6.57</v>
+        <v>7.59</v>
       </c>
       <c r="Y17" s="0">
-        <v>6.86</v>
+        <v>7.66</v>
       </c>
       <c r="Z17" s="0">
-        <v>6.86</v>
+        <v>7.66</v>
       </c>
       <c r="AA17" s="0">
-        <v>-4.017</v>
+        <v>-13.795</v>
       </c>
       <c r="AB17" s="0">
-        <v>-4.277</v>
+        <v>-17.514</v>
       </c>
       <c r="AC17" s="0">
-        <v>11.79</v>
+        <v>11.89</v>
       </c>
       <c r="AD17" s="0">
-        <v>14.27</v>
+        <v>12.73</v>
       </c>
       <c r="AE17" s="0">
-        <v>14.27</v>
+        <v>12.73</v>
       </c>
       <c r="AF17" s="0">
-        <v>1.44</v>
+        <v>2.59</v>
       </c>
       <c r="AG17" s="0">
-        <v>4.2</v>
+        <v>3.36</v>
       </c>
       <c r="AH17" s="0">
-        <v>4.2</v>
+        <v>3.36</v>
       </c>
       <c r="AI17" s="0" t="s">
         <v>47</v>
@@ -3035,13 +3035,13 @@
         <v>345.88</v>
       </c>
       <c r="O18" s="0">
-        <v>84.28</v>
+        <v>75.2</v>
       </c>
       <c r="P18" s="0">
         <v>0</v>
       </c>
       <c r="Q18" s="0">
-        <v>0.43331</v>
+        <v>0.41539</v>
       </c>
       <c r="R18" s="0">
         <v>0.42579</v>
@@ -3050,49 +3050,49 @@
         <v>0</v>
       </c>
       <c r="T18" s="0">
-        <v>215</v>
+        <v>376</v>
       </c>
       <c r="U18" s="0">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="V18" s="0">
-        <v>190</v>
+        <v>333</v>
       </c>
       <c r="W18" s="0">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="X18" s="0">
-        <v>6.05</v>
+        <v>7.43</v>
       </c>
       <c r="Y18" s="0">
-        <v>6.82</v>
+        <v>7.67</v>
       </c>
       <c r="Z18" s="0">
-        <v>6.82</v>
+        <v>7.67</v>
       </c>
       <c r="AA18" s="0">
-        <v>-1.265</v>
+        <v>-11.903</v>
       </c>
       <c r="AB18" s="0">
-        <v>-1.419</v>
+        <v>-15.149</v>
       </c>
       <c r="AC18" s="0">
-        <v>9.39</v>
+        <v>10.81</v>
       </c>
       <c r="AD18" s="0">
-        <v>14.36</v>
+        <v>12.72</v>
       </c>
       <c r="AE18" s="0">
-        <v>14.36</v>
+        <v>12.72</v>
       </c>
       <c r="AF18" s="0">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AG18" s="0">
-        <v>4.25</v>
+        <v>3.35</v>
       </c>
       <c r="AH18" s="0">
-        <v>4.25</v>
+        <v>3.35</v>
       </c>
       <c r="AI18" s="0" t="s">
         <v>47</v>
@@ -3142,13 +3142,13 @@
         <v>864.7</v>
       </c>
       <c r="O19" s="0">
-        <v>95.28</v>
+        <v>86.12</v>
       </c>
       <c r="P19" s="0">
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>1.22467</v>
+        <v>1.18926</v>
       </c>
       <c r="R19" s="0">
         <v>1.23357</v>
@@ -3157,49 +3157,49 @@
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>329</v>
+        <v>453</v>
       </c>
       <c r="U19" s="0">
-        <v>60</v>
+        <v>184</v>
       </c>
       <c r="V19" s="0">
-        <v>385</v>
+        <v>453</v>
       </c>
       <c r="W19" s="0">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="X19" s="0">
-        <v>8.35</v>
+        <v>9.3</v>
       </c>
       <c r="Y19" s="0">
-        <v>7.62</v>
+        <v>9.71</v>
       </c>
       <c r="Z19" s="0">
-        <v>7.62</v>
+        <v>9.71</v>
       </c>
       <c r="AA19" s="0">
-        <v>-3.68</v>
+        <v>-12.94</v>
       </c>
       <c r="AB19" s="0">
-        <v>-3.576</v>
+        <v>-15.438</v>
       </c>
       <c r="AC19" s="0">
-        <v>4.81</v>
+        <v>4.03</v>
       </c>
       <c r="AD19" s="0">
-        <v>4.95</v>
+        <v>4.82</v>
       </c>
       <c r="AE19" s="0">
-        <v>4.95</v>
+        <v>4.82</v>
       </c>
       <c r="AF19" s="0">
-        <v>0.26</v>
+        <v>0.02</v>
       </c>
       <c r="AG19" s="0">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="AH19" s="0">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="AI19" s="0" t="s">
         <v>47</v>
@@ -3249,13 +3249,13 @@
         <v>601.531</v>
       </c>
       <c r="O20" s="0">
-        <v>100.04</v>
+        <v>90.72</v>
       </c>
       <c r="P20" s="0">
         <v>0</v>
       </c>
       <c r="Q20" s="0">
-        <v>0.8945</v>
+        <v>0.8715</v>
       </c>
       <c r="R20" s="0">
         <v>0.87479</v>
@@ -3264,43 +3264,43 @@
         <v>0</v>
       </c>
       <c r="T20" s="0">
-        <v>207</v>
+        <v>592</v>
       </c>
       <c r="U20" s="0">
-        <v>33</v>
+        <v>418</v>
       </c>
       <c r="V20" s="0">
-        <v>338</v>
+        <v>606</v>
       </c>
       <c r="W20" s="0">
-        <v>51</v>
+        <v>319</v>
       </c>
       <c r="X20" s="0">
-        <v>6.24</v>
+        <v>9.78</v>
       </c>
       <c r="Y20" s="0">
-        <v>6.95</v>
+        <v>11.37</v>
       </c>
       <c r="Z20" s="0">
-        <v>6.95</v>
+        <v>11.37</v>
       </c>
       <c r="AA20" s="0">
-        <v>-0.793</v>
+        <v>-10.036</v>
       </c>
       <c r="AB20" s="0">
-        <v>-0.664</v>
+        <v>-11.617</v>
       </c>
       <c r="AC20" s="0">
-        <v>2.17</v>
+        <v>1.93</v>
       </c>
       <c r="AD20" s="0">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="AE20" s="0">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="AF20" s="0">
-        <v>0.02</v>
+        <v>-0.02</v>
       </c>
       <c r="AG20" s="0">
         <v>0.07</v>
@@ -3356,64 +3356,64 @@
         <v>501.276</v>
       </c>
       <c r="O21" s="0">
-        <v>105.4</v>
+        <v>93.08</v>
       </c>
       <c r="P21" s="0">
         <v>0</v>
       </c>
       <c r="Q21" s="0">
-        <v>0.78536</v>
+        <v>0.74515</v>
       </c>
       <c r="R21" s="0">
         <v>0.7527</v>
       </c>
       <c r="S21" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T21" s="0">
-        <v>259</v>
+        <v>443</v>
       </c>
       <c r="U21" s="0">
-        <v>-29</v>
+        <v>155</v>
       </c>
       <c r="V21" s="0">
-        <v>331</v>
+        <v>440</v>
       </c>
       <c r="W21" s="0">
-        <v>-17</v>
+        <v>92</v>
       </c>
       <c r="X21" s="0">
-        <v>6.87</v>
+        <v>8.26</v>
       </c>
       <c r="Y21" s="0">
-        <v>6.95</v>
+        <v>10.24</v>
       </c>
       <c r="Z21" s="0">
-        <v>6.95</v>
+        <v>10.24</v>
       </c>
       <c r="AA21" s="0">
-        <v>1.229</v>
+        <v>-10.603</v>
       </c>
       <c r="AB21" s="0">
-        <v>1.307</v>
+        <v>-12.235</v>
       </c>
       <c r="AC21" s="0">
-        <v>3.83</v>
+        <v>3</v>
       </c>
       <c r="AD21" s="0">
-        <v>3.87</v>
+        <v>3.73</v>
       </c>
       <c r="AE21" s="0">
-        <v>3.87</v>
+        <v>3.73</v>
       </c>
       <c r="AF21" s="0">
-        <v>0.18</v>
+        <v>-0.06</v>
       </c>
       <c r="AG21" s="0">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AH21" s="0">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AI21" s="0" t="s">
         <v>47</v>
@@ -3463,13 +3463,13 @@
         <v>551.403</v>
       </c>
       <c r="O22" s="0">
-        <v>86.78</v>
+        <v>82.96</v>
       </c>
       <c r="P22" s="0">
         <v>0</v>
       </c>
       <c r="Q22" s="0">
-        <v>0.71128</v>
+        <v>0.73054</v>
       </c>
       <c r="R22" s="0">
         <v>0.69597</v>
@@ -3478,49 +3478,49 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>154</v>
+        <v>243</v>
       </c>
       <c r="U22" s="0">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="V22" s="0">
-        <v>150</v>
+        <v>205</v>
       </c>
       <c r="W22" s="0">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="X22" s="0">
-        <v>5.41</v>
+        <v>6.09</v>
       </c>
       <c r="Y22" s="0">
-        <v>6.45</v>
+        <v>6.76</v>
       </c>
       <c r="Z22" s="0">
-        <v>6.45</v>
+        <v>6.76</v>
       </c>
       <c r="AA22" s="0">
-        <v>-0.846</v>
+        <v>-5.21</v>
       </c>
       <c r="AB22" s="0">
-        <v>-0.979</v>
+        <v>-8.349</v>
       </c>
       <c r="AC22" s="0">
-        <v>8.83</v>
+        <v>9.91</v>
       </c>
       <c r="AD22" s="0">
-        <v>15.23</v>
+        <v>14.52</v>
       </c>
       <c r="AE22" s="0">
-        <v>15.23</v>
+        <v>14.52</v>
       </c>
       <c r="AF22" s="0">
-        <v>-0.65</v>
+        <v>-0.07</v>
       </c>
       <c r="AG22" s="0">
-        <v>4.76</v>
+        <v>4.33</v>
       </c>
       <c r="AH22" s="0">
-        <v>4.76</v>
+        <v>4.33</v>
       </c>
       <c r="AI22" s="0" t="s">
         <v>47</v>
@@ -3570,13 +3570,13 @@
         <v>911</v>
       </c>
       <c r="O23" s="0">
-        <v>70.88</v>
+        <v>69.4</v>
       </c>
       <c r="P23" s="0">
         <v>0</v>
       </c>
       <c r="Q23" s="0">
-        <v>0.95983</v>
+        <v>1.00969</v>
       </c>
       <c r="R23" s="0">
         <v>0.96644</v>
@@ -3585,49 +3585,49 @@
         <v>0</v>
       </c>
       <c r="T23" s="0">
-        <v>166</v>
+        <v>210</v>
       </c>
       <c r="U23" s="0">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="V23" s="0">
-        <v>137</v>
+        <v>198</v>
       </c>
       <c r="W23" s="0">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="X23" s="0">
-        <v>5.53</v>
+        <v>5.76</v>
       </c>
       <c r="Y23" s="0">
-        <v>5.9</v>
+        <v>6.03</v>
       </c>
       <c r="Z23" s="0">
-        <v>5.9</v>
+        <v>6.03</v>
       </c>
       <c r="AA23" s="0">
-        <v>-3.643</v>
+        <v>-5.655</v>
       </c>
       <c r="AB23" s="0">
-        <v>-3.958</v>
+        <v>-9.659</v>
       </c>
       <c r="AC23" s="0">
-        <v>13.13</v>
+        <v>13.5</v>
       </c>
       <c r="AD23" s="0">
-        <v>16.73</v>
+        <v>16.35</v>
       </c>
       <c r="AE23" s="0">
-        <v>16.73</v>
+        <v>16.35</v>
       </c>
       <c r="AF23" s="0">
-        <v>1.6</v>
+        <v>1.49</v>
       </c>
       <c r="AG23" s="0">
-        <v>5.72</v>
+        <v>5.46</v>
       </c>
       <c r="AH23" s="0">
-        <v>5.72</v>
+        <v>5.46</v>
       </c>
       <c r="AI23" s="0" t="s">
         <v>47</v>
@@ -3677,13 +3677,13 @@
         <v>1296</v>
       </c>
       <c r="O24" s="0">
-        <v>71.68</v>
+        <v>70.48</v>
       </c>
       <c r="P24" s="0">
         <v>0</v>
       </c>
       <c r="Q24" s="0">
-        <v>1.38087</v>
+        <v>1.45875</v>
       </c>
       <c r="R24" s="0">
         <v>1.39131</v>
@@ -3692,49 +3692,49 @@
         <v>0</v>
       </c>
       <c r="T24" s="0">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="U24" s="0">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="V24" s="0">
-        <v>144</v>
+        <v>205</v>
       </c>
       <c r="W24" s="0">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="X24" s="0">
-        <v>5.61</v>
+        <v>5.81</v>
       </c>
       <c r="Y24" s="0">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z24" s="0">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AA24" s="0">
-        <v>-3.708</v>
+        <v>-5.32</v>
       </c>
       <c r="AB24" s="0">
-        <v>-4.009</v>
+        <v>-9.26</v>
       </c>
       <c r="AC24" s="0">
-        <v>12.85</v>
+        <v>13.19</v>
       </c>
       <c r="AD24" s="0">
-        <v>16.5</v>
+        <v>16.19</v>
       </c>
       <c r="AE24" s="0">
-        <v>16.5</v>
+        <v>16.19</v>
       </c>
       <c r="AF24" s="0">
-        <v>1.81</v>
+        <v>1.39</v>
       </c>
       <c r="AG24" s="0">
-        <v>5.54</v>
+        <v>5.35</v>
       </c>
       <c r="AH24" s="0">
-        <v>5.54</v>
+        <v>5.35</v>
       </c>
       <c r="AI24" s="0" t="s">
         <v>47</v>
@@ -3784,13 +3784,13 @@
         <v>1094.5</v>
       </c>
       <c r="O25" s="0">
-        <v>74.74</v>
+        <v>73.72</v>
       </c>
       <c r="P25" s="0">
         <v>0</v>
       </c>
       <c r="Q25" s="0">
-        <v>1.21596</v>
+        <v>1.28858</v>
       </c>
       <c r="R25" s="0">
         <v>1.22361</v>
@@ -3799,49 +3799,49 @@
         <v>0</v>
       </c>
       <c r="T25" s="0">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="U25" s="0">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="V25" s="0">
-        <v>138</v>
+        <v>204</v>
       </c>
       <c r="W25" s="0">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="X25" s="0">
-        <v>5.44</v>
+        <v>5.62</v>
       </c>
       <c r="Y25" s="0">
-        <v>5.93</v>
+        <v>6.02</v>
       </c>
       <c r="Z25" s="0">
-        <v>5.93</v>
+        <v>6.02</v>
       </c>
       <c r="AA25" s="0">
-        <v>-3.586</v>
+        <v>-4.902</v>
       </c>
       <c r="AB25" s="0">
-        <v>-3.852</v>
+        <v>-8.645</v>
       </c>
       <c r="AC25" s="0">
-        <v>12.27</v>
+        <v>12.58</v>
       </c>
       <c r="AD25" s="0">
-        <v>16.64</v>
+        <v>16.38</v>
       </c>
       <c r="AE25" s="0">
-        <v>16.64</v>
+        <v>16.38</v>
       </c>
       <c r="AF25" s="0">
-        <v>1.41</v>
+        <v>1.59</v>
       </c>
       <c r="AG25" s="0">
-        <v>5.65</v>
+        <v>5.48</v>
       </c>
       <c r="AH25" s="0">
-        <v>5.65</v>
+        <v>5.48</v>
       </c>
       <c r="AI25" s="0" t="s">
         <v>47</v>
@@ -3891,13 +3891,13 @@
         <v>696</v>
       </c>
       <c r="O26" s="0">
-        <v>80.08</v>
+        <v>78.8</v>
       </c>
       <c r="P26" s="0">
         <v>0</v>
       </c>
       <c r="Q26" s="0">
-        <v>0.82848</v>
+        <v>0.87588</v>
       </c>
       <c r="R26" s="0">
         <v>0.82949</v>
@@ -3906,49 +3906,49 @@
         <v>0</v>
       </c>
       <c r="T26" s="0">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="U26" s="0">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="V26" s="0">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="W26" s="0">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="X26" s="0">
-        <v>5.3</v>
+        <v>5.53</v>
       </c>
       <c r="Y26" s="0">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z26" s="0">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AA26" s="0">
-        <v>-3.098</v>
+        <v>-4.647</v>
       </c>
       <c r="AB26" s="0">
-        <v>-3.318</v>
+        <v>-8.297</v>
       </c>
       <c r="AC26" s="0">
-        <v>11.28</v>
+        <v>11.63</v>
       </c>
       <c r="AD26" s="0">
-        <v>16.49</v>
+        <v>16.2</v>
       </c>
       <c r="AE26" s="0">
-        <v>16.49</v>
+        <v>16.2</v>
       </c>
       <c r="AF26" s="0">
-        <v>0.62</v>
+        <v>0.9</v>
       </c>
       <c r="AG26" s="0">
-        <v>5.54</v>
+        <v>5.35</v>
       </c>
       <c r="AH26" s="0">
-        <v>5.54</v>
+        <v>5.35</v>
       </c>
       <c r="AI26" s="0" t="s">
         <v>47</v>
@@ -3998,13 +3998,13 @@
         <v>1305</v>
       </c>
       <c r="O27" s="0">
-        <v>83.52</v>
+        <v>82.4</v>
       </c>
       <c r="P27" s="0">
         <v>0</v>
       </c>
       <c r="Q27" s="0">
-        <v>1.62014</v>
+        <v>1.7173</v>
       </c>
       <c r="R27" s="0">
         <v>1.64413</v>
@@ -4013,49 +4013,49 @@
         <v>0</v>
       </c>
       <c r="T27" s="0">
-        <v>122</v>
+        <v>167</v>
       </c>
       <c r="U27" s="0">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="V27" s="0">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="W27" s="0">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="X27" s="0">
-        <v>5.08</v>
+        <v>5.32</v>
       </c>
       <c r="Y27" s="0">
-        <v>6.02</v>
+        <v>6.11</v>
       </c>
       <c r="Z27" s="0">
-        <v>6.02</v>
+        <v>6.11</v>
       </c>
       <c r="AA27" s="0">
-        <v>-4.396</v>
+        <v>-5.678</v>
       </c>
       <c r="AB27" s="0">
-        <v>-4.534</v>
+        <v>-8.896</v>
       </c>
       <c r="AC27" s="0">
-        <v>9.9</v>
+        <v>10.39</v>
       </c>
       <c r="AD27" s="0">
-        <v>16.5</v>
+        <v>16.25</v>
       </c>
       <c r="AE27" s="0">
-        <v>16.5</v>
+        <v>16.25</v>
       </c>
       <c r="AF27" s="0">
-        <v>-0.08</v>
+        <v>-0.15</v>
       </c>
       <c r="AG27" s="0">
-        <v>5.52</v>
+        <v>5.36</v>
       </c>
       <c r="AH27" s="0">
-        <v>5.52</v>
+        <v>5.36</v>
       </c>
       <c r="AI27" s="0" t="s">
         <v>47</v>
@@ -4105,13 +4105,13 @@
         <v>1393.5</v>
       </c>
       <c r="O28" s="0">
-        <v>88.84</v>
+        <v>88.28</v>
       </c>
       <c r="P28" s="0">
         <v>0</v>
       </c>
       <c r="Q28" s="0">
-        <v>1.8402</v>
+        <v>1.96462</v>
       </c>
       <c r="R28" s="0">
         <v>1.86736</v>
@@ -4120,49 +4120,49 @@
         <v>0</v>
       </c>
       <c r="T28" s="0">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="U28" s="0">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="V28" s="0">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="W28" s="0">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="X28" s="0">
-        <v>4.69</v>
+        <v>4.88</v>
       </c>
       <c r="Y28" s="0">
-        <v>6.08</v>
+        <v>6.12</v>
       </c>
       <c r="Z28" s="0">
-        <v>6.08</v>
+        <v>6.12</v>
       </c>
       <c r="AA28" s="0">
-        <v>-4.391</v>
+        <v>-4.994</v>
       </c>
       <c r="AB28" s="0">
-        <v>-4.451</v>
+        <v>-7.677</v>
       </c>
       <c r="AC28" s="0">
-        <v>8.12</v>
+        <v>8.55</v>
       </c>
       <c r="AD28" s="0">
-        <v>16.36</v>
+        <v>16.24</v>
       </c>
       <c r="AE28" s="0">
-        <v>16.36</v>
+        <v>16.24</v>
       </c>
       <c r="AF28" s="0">
-        <v>-0.93</v>
+        <v>-1.03</v>
       </c>
       <c r="AG28" s="0">
-        <v>5.42</v>
+        <v>5.34</v>
       </c>
       <c r="AH28" s="0">
-        <v>5.42</v>
+        <v>5.34</v>
       </c>
       <c r="AI28" s="0" t="s">
         <v>47</v>
@@ -4212,13 +4212,13 @@
         <v>850</v>
       </c>
       <c r="O29" s="0">
-        <v>97.52</v>
+        <v>95.56</v>
       </c>
       <c r="P29" s="0">
         <v>0</v>
       </c>
       <c r="Q29" s="0">
-        <v>1.23215</v>
+        <v>1.29719</v>
       </c>
       <c r="R29" s="0">
         <v>1.22485</v>
@@ -4227,49 +4227,49 @@
         <v>0</v>
       </c>
       <c r="T29" s="0">
-        <v>-31</v>
+        <v>55</v>
       </c>
       <c r="U29" s="0">
-        <v>86</v>
+        <v>172</v>
       </c>
       <c r="V29" s="0">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="W29" s="0">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="X29" s="0">
-        <v>3.49</v>
+        <v>4.17</v>
       </c>
       <c r="Y29" s="0">
-        <v>6.12</v>
+        <v>6.25</v>
       </c>
       <c r="Z29" s="0">
-        <v>6.12</v>
+        <v>6.25</v>
       </c>
       <c r="AA29" s="0">
-        <v>-2.402</v>
+        <v>-4.363</v>
       </c>
       <c r="AB29" s="0">
-        <v>-2.43</v>
+        <v>-5.686</v>
       </c>
       <c r="AC29" s="0">
-        <v>4.43</v>
+        <v>5.52</v>
       </c>
       <c r="AD29" s="0">
-        <v>16.1</v>
+        <v>15.75</v>
       </c>
       <c r="AE29" s="0">
-        <v>16.1</v>
+        <v>15.75</v>
       </c>
       <c r="AF29" s="0">
-        <v>-2.13</v>
+        <v>-1.97</v>
       </c>
       <c r="AG29" s="0">
-        <v>5.3</v>
+        <v>5.08</v>
       </c>
       <c r="AH29" s="0">
-        <v>5.3</v>
+        <v>5.08</v>
       </c>
       <c r="AI29" s="0" t="s">
         <v>47</v>
@@ -4319,13 +4319,13 @@
         <v>1350</v>
       </c>
       <c r="O30" s="0">
-        <v>99.04</v>
+        <v>96.88</v>
       </c>
       <c r="P30" s="0">
         <v>0</v>
       </c>
       <c r="Q30" s="0">
-        <v>1.98744</v>
+        <v>2.0887</v>
       </c>
       <c r="R30" s="0">
         <v>1.9586</v>
@@ -4334,49 +4334,49 @@
         <v>0</v>
       </c>
       <c r="T30" s="0">
-        <v>-90</v>
+        <v>21</v>
       </c>
       <c r="U30" s="0">
-        <v>105</v>
+        <v>216</v>
       </c>
       <c r="V30" s="0">
-        <v>-42</v>
+        <v>57</v>
       </c>
       <c r="W30" s="0">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="X30" s="0">
-        <v>2.88</v>
+        <v>3.82</v>
       </c>
       <c r="Y30" s="0">
-        <v>6.13</v>
+        <v>6.27</v>
       </c>
       <c r="Z30" s="0">
-        <v>6.13</v>
+        <v>6.27</v>
       </c>
       <c r="AA30" s="0">
-        <v>-1.551</v>
+        <v>-3.698</v>
       </c>
       <c r="AB30" s="0">
-        <v>-1.621</v>
+        <v>-4.317</v>
       </c>
       <c r="AC30" s="0">
-        <v>3</v>
+        <v>4.52</v>
       </c>
       <c r="AD30" s="0">
-        <v>16.13</v>
+        <v>15.75</v>
       </c>
       <c r="AE30" s="0">
-        <v>16.13</v>
+        <v>15.75</v>
       </c>
       <c r="AF30" s="0">
-        <v>-2.53</v>
+        <v>-2.37</v>
       </c>
       <c r="AG30" s="0">
-        <v>5.3</v>
+        <v>5.06</v>
       </c>
       <c r="AH30" s="0">
-        <v>5.3</v>
+        <v>5.06</v>
       </c>
       <c r="AI30" s="0" t="s">
         <v>47</v>
@@ -4426,13 +4426,13 @@
         <v>350.893</v>
       </c>
       <c r="O31" s="0">
-        <v>65.56</v>
+        <v>58.64</v>
       </c>
       <c r="P31" s="0">
         <v>0</v>
       </c>
       <c r="Q31" s="0">
-        <v>0.34195</v>
+        <v>0.32861</v>
       </c>
       <c r="R31" s="0">
         <v>0.36698</v>
@@ -4441,49 +4441,49 @@
         <v>1.16</v>
       </c>
       <c r="T31" s="0">
-        <v>303</v>
+        <v>425</v>
       </c>
       <c r="U31" s="0">
-        <v>76</v>
+        <v>198</v>
       </c>
       <c r="V31" s="0">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="W31" s="0">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="X31" s="0">
-        <v>6.95</v>
+        <v>7.93</v>
       </c>
       <c r="Y31" s="0">
-        <v>7.1</v>
+        <v>7.95</v>
       </c>
       <c r="Z31" s="0">
-        <v>7.1</v>
+        <v>7.95</v>
       </c>
       <c r="AA31" s="0">
-        <v>-8.003</v>
+        <v>-17.545</v>
       </c>
       <c r="AB31" s="0">
-        <v>-8.296</v>
+        <v>-21.384</v>
       </c>
       <c r="AC31" s="0">
-        <v>12.65</v>
+        <v>12.18</v>
       </c>
       <c r="AD31" s="0">
-        <v>14.01</v>
+        <v>12.49</v>
       </c>
       <c r="AE31" s="0">
-        <v>14.01</v>
+        <v>12.49</v>
       </c>
       <c r="AF31" s="0">
-        <v>2.59</v>
+        <v>2.23</v>
       </c>
       <c r="AG31" s="0">
-        <v>3.98</v>
+        <v>3.18</v>
       </c>
       <c r="AH31" s="0">
-        <v>3.98</v>
+        <v>3.18</v>
       </c>
       <c r="AI31" s="0" t="s">
         <v>47</v>
@@ -4533,13 +4533,13 @@
         <v>576.467</v>
       </c>
       <c r="O32" s="0">
-        <v>74.36</v>
+        <v>66.76</v>
       </c>
       <c r="P32" s="0">
         <v>0</v>
       </c>
       <c r="Q32" s="0">
-        <v>0.63718</v>
+        <v>0.61461</v>
       </c>
       <c r="R32" s="0">
         <v>0.68171</v>
@@ -4548,49 +4548,49 @@
         <v>1.34</v>
       </c>
       <c r="T32" s="0">
-        <v>302</v>
+        <v>435</v>
       </c>
       <c r="U32" s="0">
-        <v>88</v>
+        <v>221</v>
       </c>
       <c r="V32" s="0">
-        <v>287</v>
+        <v>333</v>
       </c>
       <c r="W32" s="0">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="X32" s="0">
-        <v>6.94</v>
+        <v>8.03</v>
       </c>
       <c r="Y32" s="0">
-        <v>7.27</v>
+        <v>8.11</v>
       </c>
       <c r="Z32" s="0">
-        <v>7.27</v>
+        <v>8.11</v>
       </c>
       <c r="AA32" s="0">
-        <v>-7.678</v>
+        <v>-16.947</v>
       </c>
       <c r="AB32" s="0">
-        <v>-7.875</v>
+        <v>-20.385</v>
       </c>
       <c r="AC32" s="0">
-        <v>11.09</v>
+        <v>11.45</v>
       </c>
       <c r="AD32" s="0">
-        <v>13.67</v>
+        <v>12.23</v>
       </c>
       <c r="AE32" s="0">
-        <v>13.67</v>
+        <v>12.23</v>
       </c>
       <c r="AF32" s="0">
-        <v>1.25</v>
+        <v>2.38</v>
       </c>
       <c r="AG32" s="0">
-        <v>3.79</v>
+        <v>3.05</v>
       </c>
       <c r="AH32" s="0">
-        <v>3.79</v>
+        <v>3.05</v>
       </c>
       <c r="AI32" s="0" t="s">
         <v>47</v>
@@ -4640,13 +4640,13 @@
         <v>426.084</v>
       </c>
       <c r="O33" s="0">
-        <v>96.6</v>
+        <v>86.76</v>
       </c>
       <c r="P33" s="0">
         <v>0</v>
       </c>
       <c r="Q33" s="0">
-        <v>0.61182</v>
+        <v>0.59037</v>
       </c>
       <c r="R33" s="0">
         <v>0.62431</v>
@@ -4655,49 +4655,49 @@
         <v>1.65</v>
       </c>
       <c r="T33" s="0">
-        <v>59</v>
+        <v>315</v>
       </c>
       <c r="U33" s="0">
-        <v>114</v>
+        <v>370</v>
       </c>
       <c r="V33" s="0">
-        <v>83</v>
+        <v>270</v>
       </c>
       <c r="W33" s="0">
-        <v>110</v>
+        <v>297</v>
       </c>
       <c r="X33" s="0">
-        <v>4.43</v>
+        <v>6.82</v>
       </c>
       <c r="Y33" s="0">
-        <v>6.87</v>
+        <v>7.66</v>
       </c>
       <c r="Z33" s="0">
-        <v>6.87</v>
+        <v>7.66</v>
       </c>
       <c r="AA33" s="0">
-        <v>-3.297</v>
+        <v>-12.982</v>
       </c>
       <c r="AB33" s="0">
-        <v>-3.282</v>
+        <v>-14.487</v>
       </c>
       <c r="AC33" s="0">
-        <v>4.6</v>
+        <v>8.14</v>
       </c>
       <c r="AD33" s="0">
-        <v>14.47</v>
+        <v>12.96</v>
       </c>
       <c r="AE33" s="0">
-        <v>14.47</v>
+        <v>12.96</v>
       </c>
       <c r="AF33" s="0">
-        <v>-1.58</v>
+        <v>-0.37</v>
       </c>
       <c r="AG33" s="0">
-        <v>4.25</v>
+        <v>3.42</v>
       </c>
       <c r="AH33" s="0">
-        <v>4.25</v>
+        <v>3.42</v>
       </c>
       <c r="AI33" s="0" t="s">
         <v>47</v>
@@ -4747,13 +4747,13 @@
         <v>403.527</v>
       </c>
       <c r="O34" s="0">
-        <v>96.4</v>
+        <v>87.6</v>
       </c>
       <c r="P34" s="0">
         <v>0</v>
       </c>
       <c r="Q34" s="0">
-        <v>0.57823</v>
+        <v>0.56453</v>
       </c>
       <c r="R34" s="0">
         <v>0.5901</v>
@@ -4762,49 +4762,49 @@
         <v>1.69</v>
       </c>
       <c r="T34" s="0">
-        <v>109</v>
+        <v>321</v>
       </c>
       <c r="U34" s="0">
-        <v>77</v>
+        <v>289</v>
       </c>
       <c r="V34" s="0">
-        <v>127</v>
+        <v>277</v>
       </c>
       <c r="W34" s="0">
-        <v>73</v>
+        <v>223</v>
       </c>
       <c r="X34" s="0">
-        <v>4.95</v>
+        <v>6.88</v>
       </c>
       <c r="Y34" s="0">
-        <v>7.04</v>
+        <v>7.76</v>
       </c>
       <c r="Z34" s="0">
-        <v>7.04</v>
+        <v>7.76</v>
       </c>
       <c r="AA34" s="0">
-        <v>-3.267</v>
+        <v>-11.945</v>
       </c>
       <c r="AB34" s="0">
-        <v>-3.231</v>
+        <v>-14.241</v>
       </c>
       <c r="AC34" s="0">
-        <v>5.8</v>
+        <v>8.11</v>
       </c>
       <c r="AD34" s="0">
-        <v>14.12</v>
+        <v>12.79</v>
       </c>
       <c r="AE34" s="0">
-        <v>14.12</v>
+        <v>12.79</v>
       </c>
       <c r="AF34" s="0">
-        <v>-1.13</v>
+        <v>-0.18</v>
       </c>
       <c r="AG34" s="0">
-        <v>4.04</v>
+        <v>3.33</v>
       </c>
       <c r="AH34" s="0">
-        <v>4.04</v>
+        <v>3.33</v>
       </c>
       <c r="AI34" s="0" t="s">
         <v>47</v>
@@ -4854,13 +4854,13 @@
         <v>1498.814</v>
       </c>
       <c r="O35" s="0">
-        <v>100.63</v>
+        <v>97.84</v>
       </c>
       <c r="P35" s="0">
         <v>0</v>
       </c>
       <c r="Q35" s="0">
-        <v>2.24187</v>
+        <v>2.34192</v>
       </c>
       <c r="R35" s="0">
         <v>2.1745</v>
@@ -4869,43 +4869,43 @@
         <v>0</v>
       </c>
       <c r="T35" s="0">
-        <v>134</v>
+        <v>352</v>
       </c>
       <c r="U35" s="0">
-        <v>7</v>
+        <v>225</v>
       </c>
       <c r="V35" s="0">
-        <v>162</v>
+        <v>399</v>
       </c>
       <c r="W35" s="0">
-        <v>7</v>
+        <v>244</v>
       </c>
       <c r="X35" s="0">
-        <v>6.48</v>
+        <v>8.82</v>
       </c>
       <c r="Y35" s="0">
-        <v>6.7</v>
+        <v>11.28</v>
       </c>
       <c r="Z35" s="0">
-        <v>6.7</v>
+        <v>11.28</v>
       </c>
       <c r="AA35" s="0">
-        <v>0.026</v>
+        <v>-2.744</v>
       </c>
       <c r="AB35" s="0">
-        <v>-0.001</v>
+        <v>-3.277</v>
       </c>
       <c r="AC35" s="0">
-        <v>0.65</v>
+        <v>0.16</v>
       </c>
       <c r="AD35" s="0">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="AE35" s="0">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="AF35" s="0">
-        <v>0.01</v>
+        <v>-0.14</v>
       </c>
       <c r="AG35" s="0">
         <v>0.01</v>
@@ -4961,58 +4961,58 @@
         <v>952.424</v>
       </c>
       <c r="O36" s="0">
-        <v>101.8</v>
+        <v>99.92</v>
       </c>
       <c r="P36" s="0">
         <v>0</v>
       </c>
       <c r="Q36" s="0">
-        <v>1.44121</v>
+        <v>1.51982</v>
       </c>
       <c r="R36" s="0">
         <v>1.39772</v>
       </c>
       <c r="S36" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T36" s="0">
-        <v>107</v>
+        <v>328</v>
       </c>
       <c r="U36" s="0">
-        <v>8</v>
+        <v>229</v>
       </c>
       <c r="V36" s="0">
-        <v>128</v>
+        <v>381</v>
       </c>
       <c r="W36" s="0">
-        <v>8</v>
+        <v>261</v>
       </c>
       <c r="X36" s="0">
-        <v>6.12</v>
+        <v>8.49</v>
       </c>
       <c r="Y36" s="0">
-        <v>6.41</v>
+        <v>10.2</v>
       </c>
       <c r="Z36" s="0">
-        <v>6.41</v>
+        <v>10.2</v>
       </c>
       <c r="AA36" s="0">
-        <v>0.039</v>
+        <v>-1.808</v>
       </c>
       <c r="AB36" s="0">
-        <v>-0.005</v>
+        <v>-2.268</v>
       </c>
       <c r="AC36" s="0">
-        <v>0.52</v>
+        <v>0.17</v>
       </c>
       <c r="AD36" s="0">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="AE36" s="0">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="AF36" s="0">
-        <v>0.01</v>
+        <v>-0.12</v>
       </c>
       <c r="AG36" s="0">
         <v>0.01</v>
@@ -5041,7 +5041,7 @@
         <v>4.537</v>
       </c>
       <c r="F37" s="2">
-        <v>44994</v>
+        <v>44998</v>
       </c>
       <c r="G37" s="0" t="s">
         <v>149</v>
@@ -5074,7 +5074,7 @@
         <v>0</v>
       </c>
       <c r="Q37" s="0">
-        <v>0.0708</v>
+        <v>0.07607</v>
       </c>
       <c r="R37" s="0">
         <v>0</v>
@@ -5175,13 +5175,13 @@
         <v>451.148</v>
       </c>
       <c r="O38" s="0">
-        <v>81.56</v>
+        <v>71.8</v>
       </c>
       <c r="P38" s="0">
         <v>0</v>
       </c>
       <c r="Q38" s="0">
-        <v>0.54695</v>
+        <v>0.51731</v>
       </c>
       <c r="R38" s="0">
         <v>0.54783</v>
@@ -5190,49 +5190,49 @@
         <v>0</v>
       </c>
       <c r="T38" s="0">
-        <v>165</v>
+        <v>324</v>
       </c>
       <c r="U38" s="0">
-        <v>38</v>
+        <v>197</v>
       </c>
       <c r="V38" s="0">
-        <v>151</v>
+        <v>281</v>
       </c>
       <c r="W38" s="0">
-        <v>23</v>
+        <v>153</v>
       </c>
       <c r="X38" s="0">
-        <v>5.53</v>
+        <v>6.91</v>
       </c>
       <c r="Y38" s="0">
-        <v>6.25</v>
+        <v>7.12</v>
       </c>
       <c r="Z38" s="0">
-        <v>6.25</v>
+        <v>7.12</v>
       </c>
       <c r="AA38" s="0">
-        <v>-3.135</v>
+        <v>-14.727</v>
       </c>
       <c r="AB38" s="0">
-        <v>-3.32</v>
+        <v>-18.144</v>
       </c>
       <c r="AC38" s="0">
-        <v>10.46</v>
+        <v>11.86</v>
       </c>
       <c r="AD38" s="0">
-        <v>15.72</v>
+        <v>13.74</v>
       </c>
       <c r="AE38" s="0">
-        <v>15.72</v>
+        <v>13.74</v>
       </c>
       <c r="AF38" s="0">
-        <v>0.1</v>
+        <v>1.43</v>
       </c>
       <c r="AG38" s="0">
-        <v>5.07</v>
+        <v>3.9</v>
       </c>
       <c r="AH38" s="0">
-        <v>5.07</v>
+        <v>3.9</v>
       </c>
       <c r="AI38" s="0" t="s">
         <v>47</v>
@@ -5282,13 +5282,13 @@
         <v>300.765</v>
       </c>
       <c r="O39" s="0">
-        <v>100.12</v>
+        <v>79.2</v>
       </c>
       <c r="P39" s="0">
         <v>0</v>
       </c>
       <c r="Q39" s="0">
-        <v>0.44761</v>
+        <v>0.38042</v>
       </c>
       <c r="R39" s="0">
         <v>0.44069</v>
@@ -5297,49 +5297,49 @@
         <v>0</v>
       </c>
       <c r="T39" s="0">
-        <v>205</v>
+        <v>502</v>
       </c>
       <c r="U39" s="0">
-        <v>145</v>
+        <v>442</v>
       </c>
       <c r="V39" s="0">
-        <v>231</v>
+        <v>438</v>
       </c>
       <c r="W39" s="0">
-        <v>185</v>
+        <v>392</v>
       </c>
       <c r="X39" s="0">
-        <v>7.41</v>
+        <v>10.64</v>
       </c>
       <c r="Y39" s="0">
-        <v>7.4</v>
+        <v>32.77</v>
       </c>
       <c r="Z39" s="0">
-        <v>7.4</v>
+        <v>32.77</v>
       </c>
       <c r="AA39" s="0">
-        <v>-1.456</v>
+        <v>-22.047</v>
       </c>
       <c r="AB39" s="0">
-        <v>-1.437</v>
+        <v>-22.81</v>
       </c>
       <c r="AC39" s="0">
-        <v>0.98</v>
+        <v>-1.78</v>
       </c>
       <c r="AD39" s="0">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="AE39" s="0">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="AF39" s="0">
+        <v>-0.61</v>
+      </c>
+      <c r="AG39" s="0">
         <v>0.01</v>
       </c>
-      <c r="AG39" s="0">
-        <v>0.02</v>
-      </c>
       <c r="AH39" s="0">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AI39" s="0" t="s">
         <v>47</v>
@@ -5389,13 +5389,13 @@
         <v>412.017</v>
       </c>
       <c r="O40" s="0">
-        <v>69.72</v>
+        <v>64.08</v>
       </c>
       <c r="P40" s="0">
         <v>0</v>
       </c>
       <c r="Q40" s="0">
-        <v>0.42699</v>
+        <v>0.42164</v>
       </c>
       <c r="R40" s="0">
         <v>0.42734</v>
@@ -5404,49 +5404,49 @@
         <v>0</v>
       </c>
       <c r="T40" s="0">
-        <v>196</v>
+        <v>292</v>
       </c>
       <c r="U40" s="0">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="V40" s="0">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="W40" s="0">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="X40" s="0">
-        <v>5.85</v>
+        <v>6.58</v>
       </c>
       <c r="Y40" s="0">
-        <v>6.15</v>
+        <v>6.7</v>
       </c>
       <c r="Z40" s="0">
-        <v>6.15</v>
+        <v>6.7</v>
       </c>
       <c r="AA40" s="0">
-        <v>-3.059</v>
+        <v>-10.901</v>
       </c>
       <c r="AB40" s="0">
-        <v>-3.379</v>
+        <v>-14.919</v>
       </c>
       <c r="AC40" s="0">
-        <v>13.15</v>
+        <v>13.34</v>
       </c>
       <c r="AD40" s="0">
-        <v>16.11</v>
+        <v>14.76</v>
       </c>
       <c r="AE40" s="0">
-        <v>16.11</v>
+        <v>14.76</v>
       </c>
       <c r="AF40" s="0">
-        <v>1.46</v>
+        <v>3.28</v>
       </c>
       <c r="AG40" s="0">
-        <v>5.28</v>
+        <v>4.44</v>
       </c>
       <c r="AH40" s="0">
-        <v>5.28</v>
+        <v>4.44</v>
       </c>
       <c r="AI40" s="0" t="s">
         <v>47</v>
@@ -5496,13 +5496,13 @@
         <v>654.381</v>
       </c>
       <c r="O41" s="0">
-        <v>71</v>
+        <v>65.64</v>
       </c>
       <c r="P41" s="0">
         <v>0</v>
       </c>
       <c r="Q41" s="0">
-        <v>0.69062</v>
+        <v>0.68597</v>
       </c>
       <c r="R41" s="0">
         <v>0.68741</v>
@@ -5511,49 +5511,49 @@
         <v>0</v>
       </c>
       <c r="T41" s="0">
-        <v>200</v>
+        <v>293</v>
       </c>
       <c r="U41" s="0">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="V41" s="0">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="W41" s="0">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="X41" s="0">
-        <v>5.89</v>
+        <v>6.59</v>
       </c>
       <c r="Y41" s="0">
-        <v>6.22</v>
+        <v>6.74</v>
       </c>
       <c r="Z41" s="0">
-        <v>6.22</v>
+        <v>6.74</v>
       </c>
       <c r="AA41" s="0">
-        <v>-2.526</v>
+        <v>-9.885</v>
       </c>
       <c r="AB41" s="0">
-        <v>-2.833</v>
+        <v>-13.844</v>
       </c>
       <c r="AC41" s="0">
-        <v>12.8</v>
+        <v>13.18</v>
       </c>
       <c r="AD41" s="0">
-        <v>15.93</v>
+        <v>14.69</v>
       </c>
       <c r="AE41" s="0">
-        <v>15.93</v>
+        <v>14.69</v>
       </c>
       <c r="AF41" s="0">
-        <v>1.5</v>
+        <v>3.09</v>
       </c>
       <c r="AG41" s="0">
-        <v>5.16</v>
+        <v>4.4</v>
       </c>
       <c r="AH41" s="0">
-        <v>5.16</v>
+        <v>4.4</v>
       </c>
       <c r="AI41" s="0" t="s">
         <v>47</v>
@@ -5603,13 +5603,13 @@
         <v>1211.816</v>
       </c>
       <c r="O42" s="0">
-        <v>75.8</v>
+        <v>70.56</v>
       </c>
       <c r="P42" s="0">
         <v>0</v>
       </c>
       <c r="Q42" s="0">
-        <v>1.36539</v>
+        <v>1.36554</v>
       </c>
       <c r="R42" s="0">
         <v>1.37783</v>
@@ -5618,49 +5618,49 @@
         <v>0</v>
       </c>
       <c r="T42" s="0">
-        <v>204</v>
+        <v>300</v>
       </c>
       <c r="U42" s="0">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="V42" s="0">
-        <v>172</v>
+        <v>262</v>
       </c>
       <c r="W42" s="0">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="X42" s="0">
-        <v>5.93</v>
+        <v>6.66</v>
       </c>
       <c r="Y42" s="0">
-        <v>6.39</v>
+        <v>6.88</v>
       </c>
       <c r="Z42" s="0">
-        <v>6.39</v>
+        <v>6.88</v>
       </c>
       <c r="AA42" s="0">
-        <v>-3.856</v>
+        <v>-10.502</v>
       </c>
       <c r="AB42" s="0">
-        <v>-4.094</v>
+        <v>-14.141</v>
       </c>
       <c r="AC42" s="0">
-        <v>11.66</v>
+        <v>12.36</v>
       </c>
       <c r="AD42" s="0">
-        <v>15.5</v>
+        <v>14.38</v>
       </c>
       <c r="AE42" s="0">
-        <v>15.5</v>
+        <v>14.38</v>
       </c>
       <c r="AF42" s="0">
-        <v>1.18</v>
+        <v>1.49</v>
       </c>
       <c r="AG42" s="0">
-        <v>4.89</v>
+        <v>4.22</v>
       </c>
       <c r="AH42" s="0">
-        <v>4.89</v>
+        <v>4.22</v>
       </c>
       <c r="AI42" s="0" t="s">
         <v>47</v>
@@ -5710,13 +5710,13 @@
         <v>1454.179</v>
       </c>
       <c r="O43" s="0">
-        <v>80.84</v>
+        <v>74.28</v>
       </c>
       <c r="P43" s="0">
         <v>0</v>
       </c>
       <c r="Q43" s="0">
-        <v>1.74733</v>
+        <v>1.72504</v>
       </c>
       <c r="R43" s="0">
         <v>1.75742</v>
@@ -5725,49 +5725,49 @@
         <v>0</v>
       </c>
       <c r="T43" s="0">
-        <v>166</v>
+        <v>282</v>
       </c>
       <c r="U43" s="0">
-        <v>42</v>
+        <v>158</v>
       </c>
       <c r="V43" s="0">
-        <v>154</v>
+        <v>267</v>
       </c>
       <c r="W43" s="0">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="X43" s="0">
-        <v>5.54</v>
+        <v>6.49</v>
       </c>
       <c r="Y43" s="0">
-        <v>6.24</v>
+        <v>6.8</v>
       </c>
       <c r="Z43" s="0">
-        <v>6.24</v>
+        <v>6.8</v>
       </c>
       <c r="AA43" s="0">
-        <v>-3.537</v>
+        <v>-11.36</v>
       </c>
       <c r="AB43" s="0">
-        <v>-3.721</v>
+        <v>-14.811</v>
       </c>
       <c r="AC43" s="0">
-        <v>10.63</v>
+        <v>11.74</v>
       </c>
       <c r="AD43" s="0">
-        <v>15.87</v>
+        <v>14.54</v>
       </c>
       <c r="AE43" s="0">
-        <v>15.87</v>
+        <v>14.54</v>
       </c>
       <c r="AF43" s="0">
-        <v>0.12</v>
+        <v>1.4</v>
       </c>
       <c r="AG43" s="0">
-        <v>5.12</v>
+        <v>4.31</v>
       </c>
       <c r="AH43" s="0">
-        <v>5.12</v>
+        <v>4.31</v>
       </c>
       <c r="AI43" s="0" t="s">
         <v>47</v>
@@ -5817,13 +5817,13 @@
         <v>300.765</v>
       </c>
       <c r="O44" s="0">
-        <v>72.16</v>
+        <v>68.24</v>
       </c>
       <c r="P44" s="0">
         <v>0</v>
       </c>
       <c r="Q44" s="0">
-        <v>0.32261</v>
+        <v>0.32777</v>
       </c>
       <c r="R44" s="0">
         <v>0.33052</v>
@@ -5832,49 +5832,49 @@
         <v>1.07</v>
       </c>
       <c r="T44" s="0">
-        <v>172</v>
+        <v>247</v>
       </c>
       <c r="U44" s="0">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="V44" s="0">
-        <v>145</v>
+        <v>219</v>
       </c>
       <c r="W44" s="0">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="X44" s="0">
-        <v>5.6</v>
+        <v>6.13</v>
       </c>
       <c r="Y44" s="0">
-        <v>6</v>
+        <v>6.35</v>
       </c>
       <c r="Z44" s="0">
-        <v>6</v>
+        <v>6.35</v>
       </c>
       <c r="AA44" s="0">
-        <v>-3.892</v>
+        <v>-9.035</v>
       </c>
       <c r="AB44" s="0">
-        <v>-4.183</v>
+        <v>-12.875</v>
       </c>
       <c r="AC44" s="0">
-        <v>12.8</v>
+        <v>13.36</v>
       </c>
       <c r="AD44" s="0">
-        <v>16.56</v>
+        <v>15.63</v>
       </c>
       <c r="AE44" s="0">
-        <v>16.56</v>
+        <v>15.63</v>
       </c>
       <c r="AF44" s="0">
-        <v>1.65</v>
+        <v>2.01</v>
       </c>
       <c r="AG44" s="0">
-        <v>5.56</v>
+        <v>4.96</v>
       </c>
       <c r="AH44" s="0">
-        <v>5.56</v>
+        <v>4.96</v>
       </c>
       <c r="AI44" s="0" t="s">
         <v>47</v>
@@ -5924,13 +5924,13 @@
         <v>802.041</v>
       </c>
       <c r="O45" s="0">
-        <v>83.36</v>
+        <v>77.92</v>
       </c>
       <c r="P45" s="0">
         <v>0</v>
       </c>
       <c r="Q45" s="0">
-        <v>0.99381</v>
+        <v>0.99805</v>
       </c>
       <c r="R45" s="0">
         <v>1.02018</v>
@@ -5939,49 +5939,49 @@
         <v>1.31</v>
       </c>
       <c r="T45" s="0">
-        <v>162</v>
+        <v>268</v>
       </c>
       <c r="U45" s="0">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c r="V45" s="0">
-        <v>155</v>
+        <v>276</v>
       </c>
       <c r="W45" s="0">
-        <v>37</v>
+        <v>158</v>
       </c>
       <c r="X45" s="0">
-        <v>5.5</v>
+        <v>6.34</v>
       </c>
       <c r="Y45" s="0">
-        <v>6.34</v>
+        <v>6.79</v>
       </c>
       <c r="Z45" s="0">
-        <v>6.34</v>
+        <v>6.79</v>
       </c>
       <c r="AA45" s="0">
-        <v>-3.999</v>
+        <v>-10.167</v>
       </c>
       <c r="AB45" s="0">
-        <v>-4.141</v>
+        <v>-13.356</v>
       </c>
       <c r="AC45" s="0">
-        <v>9.88</v>
+        <v>11.04</v>
       </c>
       <c r="AD45" s="0">
-        <v>15.66</v>
+        <v>14.6</v>
       </c>
       <c r="AE45" s="0">
-        <v>15.66</v>
+        <v>14.6</v>
       </c>
       <c r="AF45" s="0">
-        <v>-0.04</v>
+        <v>0.98</v>
       </c>
       <c r="AG45" s="0">
-        <v>4.98</v>
+        <v>4.34</v>
       </c>
       <c r="AH45" s="0">
-        <v>4.98</v>
+        <v>4.34</v>
       </c>
       <c r="AI45" s="0" t="s">
         <v>47</v>
@@ -6031,13 +6031,13 @@
         <v>401.02</v>
       </c>
       <c r="O46" s="0">
-        <v>93.32</v>
+        <v>88.24</v>
       </c>
       <c r="P46" s="0">
         <v>0</v>
       </c>
       <c r="Q46" s="0">
-        <v>0.55628</v>
+        <v>0.56512</v>
       </c>
       <c r="R46" s="0">
         <v>0.54502</v>
@@ -6046,49 +6046,49 @@
         <v>0</v>
       </c>
       <c r="T46" s="0">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="U46" s="0">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="V46" s="0">
-        <v>394</v>
+        <v>433</v>
       </c>
       <c r="W46" s="0">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="X46" s="0">
-        <v>8.79</v>
+        <v>9.28</v>
       </c>
       <c r="Y46" s="0">
-        <v>8.67</v>
+        <v>9.99</v>
       </c>
       <c r="Z46" s="0">
-        <v>8.67</v>
+        <v>9.99</v>
       </c>
       <c r="AA46" s="0">
-        <v>-0.976</v>
+        <v>-6.367</v>
       </c>
       <c r="AB46" s="0">
-        <v>-0.852</v>
+        <v>-8.561</v>
       </c>
       <c r="AC46" s="0">
-        <v>3.85</v>
+        <v>3.31</v>
       </c>
       <c r="AD46" s="0">
-        <v>4.36</v>
+        <v>4.29</v>
       </c>
       <c r="AE46" s="0">
-        <v>4.36</v>
+        <v>4.29</v>
       </c>
       <c r="AF46" s="0">
-        <v>0.07</v>
+        <v>-0.09</v>
       </c>
       <c r="AG46" s="0">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AH46" s="0">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AI46" s="0" t="s">
         <v>47</v>
@@ -6138,13 +6138,13 @@
         <v>345.88</v>
       </c>
       <c r="O47" s="0">
-        <v>87.16</v>
+        <v>82.2</v>
       </c>
       <c r="P47" s="0">
         <v>0</v>
       </c>
       <c r="Q47" s="0">
-        <v>0.44812</v>
+        <v>0.45405</v>
       </c>
       <c r="R47" s="0">
         <v>0.43896</v>
@@ -6153,49 +6153,49 @@
         <v>0</v>
       </c>
       <c r="T47" s="0">
-        <v>121</v>
+        <v>227</v>
       </c>
       <c r="U47" s="0">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="V47" s="0">
-        <v>130</v>
+        <v>195</v>
       </c>
       <c r="W47" s="0">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="X47" s="0">
-        <v>5.07</v>
+        <v>5.92</v>
       </c>
       <c r="Y47" s="0">
-        <v>6.21</v>
+        <v>6.59</v>
       </c>
       <c r="Z47" s="0">
-        <v>6.21</v>
+        <v>6.59</v>
       </c>
       <c r="AA47" s="0">
-        <v>-0.955</v>
+        <v>-6.591</v>
       </c>
       <c r="AB47" s="0">
-        <v>-1.08</v>
+        <v>-9.773</v>
       </c>
       <c r="AC47" s="0">
-        <v>8.91</v>
+        <v>10.22</v>
       </c>
       <c r="AD47" s="0">
-        <v>16</v>
+        <v>15.05</v>
       </c>
       <c r="AE47" s="0">
-        <v>16</v>
+        <v>15.05</v>
       </c>
       <c r="AF47" s="0">
-        <v>-0.74</v>
+        <v>-0.02</v>
       </c>
       <c r="AG47" s="0">
-        <v>5.19</v>
+        <v>4.6</v>
       </c>
       <c r="AH47" s="0">
-        <v>5.19</v>
+        <v>4.6</v>
       </c>
       <c r="AI47" s="0" t="s">
         <v>47</v>
@@ -6245,13 +6245,13 @@
         <v>250.638</v>
       </c>
       <c r="O48" s="0">
-        <v>87.88</v>
+        <v>75.16</v>
       </c>
       <c r="P48" s="0">
         <v>0</v>
       </c>
       <c r="Q48" s="0">
-        <v>0.32741</v>
+        <v>0.30084</v>
       </c>
       <c r="R48" s="0">
         <v>0.32821</v>
@@ -6260,49 +6260,49 @@
         <v>0</v>
       </c>
       <c r="T48" s="0">
-        <v>63</v>
+        <v>273</v>
       </c>
       <c r="U48" s="0">
-        <v>47</v>
+        <v>257</v>
       </c>
       <c r="V48" s="0">
-        <v>86</v>
+        <v>261</v>
       </c>
       <c r="W48" s="0">
-        <v>35</v>
+        <v>210</v>
       </c>
       <c r="X48" s="0">
-        <v>4.47</v>
+        <v>6.39</v>
       </c>
       <c r="Y48" s="0">
-        <v>5.74</v>
+        <v>6.73</v>
       </c>
       <c r="Z48" s="0">
-        <v>5.74</v>
+        <v>6.73</v>
       </c>
       <c r="AA48" s="0">
-        <v>-3.216</v>
+        <v>-17.225</v>
       </c>
       <c r="AB48" s="0">
-        <v>-3.327</v>
+        <v>-20.239</v>
       </c>
       <c r="AC48" s="0">
-        <v>9.01</v>
+        <v>11.61</v>
       </c>
       <c r="AD48" s="0">
-        <v>17.12</v>
+        <v>14.53</v>
       </c>
       <c r="AE48" s="0">
-        <v>17.12</v>
+        <v>14.53</v>
       </c>
       <c r="AF48" s="0">
-        <v>-0.86</v>
+        <v>1.38</v>
       </c>
       <c r="AG48" s="0">
-        <v>6.01</v>
+        <v>4.35</v>
       </c>
       <c r="AH48" s="0">
-        <v>6.01</v>
+        <v>4.35</v>
       </c>
       <c r="AI48" s="0" t="s">
         <v>47</v>
@@ -6352,13 +6352,13 @@
         <v>451.148</v>
       </c>
       <c r="O49" s="0">
-        <v>100.36</v>
+        <v>86.36</v>
       </c>
       <c r="P49" s="0">
         <v>0</v>
       </c>
       <c r="Q49" s="0">
-        <v>0.67302</v>
+        <v>0.62221</v>
       </c>
       <c r="R49" s="0">
         <v>0.65453</v>
@@ -6367,43 +6367,43 @@
         <v>0</v>
       </c>
       <c r="T49" s="0">
-        <v>236</v>
+        <v>438</v>
       </c>
       <c r="U49" s="0">
-        <v>33</v>
+        <v>235</v>
       </c>
       <c r="V49" s="0">
-        <v>266</v>
+        <v>419</v>
       </c>
       <c r="W49" s="0">
-        <v>36</v>
+        <v>189</v>
       </c>
       <c r="X49" s="0">
-        <v>7.78</v>
+        <v>9.88</v>
       </c>
       <c r="Y49" s="0">
-        <v>7.9</v>
+        <v>29.37</v>
       </c>
       <c r="Z49" s="0">
-        <v>7.9</v>
+        <v>29.37</v>
       </c>
       <c r="AA49" s="0">
-        <v>-0.239</v>
+        <v>-14.155</v>
       </c>
       <c r="AB49" s="0">
-        <v>-0.252</v>
+        <v>-14.755</v>
       </c>
       <c r="AC49" s="0">
-        <v>0.72</v>
+        <v>-1.21</v>
       </c>
       <c r="AD49" s="0">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AE49" s="0">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AF49" s="0">
-        <v>-0</v>
+        <v>-0.46</v>
       </c>
       <c r="AG49" s="0">
         <v>0.01</v>
@@ -6459,64 +6459,64 @@
         <v>751.913</v>
       </c>
       <c r="O50" s="0">
-        <v>64.8</v>
+        <v>40.72</v>
       </c>
       <c r="P50" s="0">
         <v>0</v>
       </c>
       <c r="Q50" s="0">
-        <v>0.72426</v>
+        <v>0.48897</v>
       </c>
       <c r="R50" s="0">
         <v>0.74085</v>
       </c>
       <c r="S50" s="0">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T50" s="0">
-        <v>218</v>
+        <v>637</v>
       </c>
       <c r="U50" s="0">
-        <v>44</v>
+        <v>463</v>
       </c>
       <c r="V50" s="0">
-        <v>188</v>
+        <v>278</v>
       </c>
       <c r="W50" s="0">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="X50" s="0">
-        <v>6.08</v>
+        <v>10.06</v>
       </c>
       <c r="Y50" s="0">
-        <v>6.26</v>
+        <v>10.07</v>
       </c>
       <c r="Z50" s="0">
-        <v>6.26</v>
+        <v>10.07</v>
       </c>
       <c r="AA50" s="0">
-        <v>-5.152</v>
+        <v>-40.398</v>
       </c>
       <c r="AB50" s="0">
-        <v>-5.499</v>
+        <v>-44.463</v>
       </c>
       <c r="AC50" s="0">
-        <v>13.77</v>
+        <v>9.78</v>
       </c>
       <c r="AD50" s="0">
-        <v>15.74</v>
+        <v>9.7</v>
       </c>
       <c r="AE50" s="0">
-        <v>15.74</v>
+        <v>9.7</v>
       </c>
       <c r="AF50" s="0">
-        <v>3.02</v>
+        <v>1.96</v>
       </c>
       <c r="AG50" s="0">
-        <v>5.06</v>
+        <v>1.95</v>
       </c>
       <c r="AH50" s="0">
-        <v>5.06</v>
+        <v>1.95</v>
       </c>
       <c r="AI50" s="0" t="s">
         <v>47</v>
@@ -6566,13 +6566,13 @@
         <v>501.276</v>
       </c>
       <c r="O51" s="0">
-        <v>65.8</v>
+        <v>41.12</v>
       </c>
       <c r="P51" s="0">
         <v>0</v>
       </c>
       <c r="Q51" s="0">
-        <v>0.49029</v>
+        <v>0.32918</v>
       </c>
       <c r="R51" s="0">
         <v>0.50778</v>
@@ -6581,49 +6581,49 @@
         <v>0</v>
       </c>
       <c r="T51" s="0">
-        <v>227</v>
+        <v>658</v>
       </c>
       <c r="U51" s="0">
-        <v>55</v>
+        <v>486</v>
       </c>
       <c r="V51" s="0">
-        <v>197</v>
+        <v>289</v>
       </c>
       <c r="W51" s="0">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="X51" s="0">
-        <v>6.17</v>
+        <v>10.28</v>
       </c>
       <c r="Y51" s="0">
-        <v>6.36</v>
+        <v>10.28</v>
       </c>
       <c r="Z51" s="0">
-        <v>6.36</v>
+        <v>10.28</v>
       </c>
       <c r="AA51" s="0">
-        <v>-6.321</v>
+        <v>-41.458</v>
       </c>
       <c r="AB51" s="0">
-        <v>-6.656</v>
+        <v>-45.501</v>
       </c>
       <c r="AC51" s="0">
-        <v>13.5</v>
+        <v>9.57</v>
       </c>
       <c r="AD51" s="0">
-        <v>15.49</v>
+        <v>9.49</v>
       </c>
       <c r="AE51" s="0">
-        <v>15.49</v>
+        <v>9.49</v>
       </c>
       <c r="AF51" s="0">
-        <v>2.63</v>
+        <v>1.88</v>
       </c>
       <c r="AG51" s="0">
-        <v>4.91</v>
+        <v>1.87</v>
       </c>
       <c r="AH51" s="0">
-        <v>4.91</v>
+        <v>1.87</v>
       </c>
       <c r="AI51" s="0" t="s">
         <v>47</v>
@@ -6673,13 +6673,13 @@
         <v>749.407</v>
       </c>
       <c r="O52" s="0">
-        <v>66.32</v>
+        <v>41.12</v>
       </c>
       <c r="P52" s="0">
         <v>0</v>
       </c>
       <c r="Q52" s="0">
-        <v>0.73878</v>
+        <v>0.49213</v>
       </c>
       <c r="R52" s="0">
         <v>0.76518</v>
@@ -6688,49 +6688,49 @@
         <v>0</v>
       </c>
       <c r="T52" s="0">
-        <v>242</v>
+        <v>690</v>
       </c>
       <c r="U52" s="0">
-        <v>57</v>
+        <v>505</v>
       </c>
       <c r="V52" s="0">
-        <v>208</v>
+        <v>302</v>
       </c>
       <c r="W52" s="0">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="X52" s="0">
-        <v>6.32</v>
+        <v>10.6</v>
       </c>
       <c r="Y52" s="0">
-        <v>6.51</v>
+        <v>10.6</v>
       </c>
       <c r="Z52" s="0">
-        <v>6.51</v>
+        <v>10.6</v>
       </c>
       <c r="AA52" s="0">
-        <v>-6.328</v>
+        <v>-41.921</v>
       </c>
       <c r="AB52" s="0">
-        <v>-6.651</v>
+        <v>-45.916</v>
       </c>
       <c r="AC52" s="0">
-        <v>13.24</v>
+        <v>9.28</v>
       </c>
       <c r="AD52" s="0">
-        <v>15.14</v>
+        <v>9.19</v>
       </c>
       <c r="AE52" s="0">
-        <v>15.14</v>
+        <v>9.19</v>
       </c>
       <c r="AF52" s="0">
-        <v>2.45</v>
+        <v>1.77</v>
       </c>
       <c r="AG52" s="0">
-        <v>4.69</v>
+        <v>1.76</v>
       </c>
       <c r="AH52" s="0">
-        <v>4.69</v>
+        <v>1.76</v>
       </c>
       <c r="AI52" s="0" t="s">
         <v>47</v>
@@ -6780,13 +6780,13 @@
         <v>741.888</v>
       </c>
       <c r="O53" s="0">
-        <v>68.92</v>
+        <v>41.28</v>
       </c>
       <c r="P53" s="0">
         <v>0</v>
       </c>
       <c r="Q53" s="0">
-        <v>0.76004</v>
+        <v>0.48909</v>
       </c>
       <c r="R53" s="0">
         <v>0.79431</v>
@@ -6795,49 +6795,49 @@
         <v>0</v>
       </c>
       <c r="T53" s="0">
-        <v>250</v>
+        <v>749</v>
       </c>
       <c r="U53" s="0">
-        <v>69</v>
+        <v>568</v>
       </c>
       <c r="V53" s="0">
-        <v>224</v>
+        <v>326</v>
       </c>
       <c r="W53" s="0">
-        <v>71</v>
+        <v>173</v>
       </c>
       <c r="X53" s="0">
-        <v>6.4</v>
+        <v>11.2</v>
       </c>
       <c r="Y53" s="0">
-        <v>6.63</v>
+        <v>11.2</v>
       </c>
       <c r="Z53" s="0">
-        <v>6.63</v>
+        <v>11.2</v>
       </c>
       <c r="AA53" s="0">
-        <v>-7.166</v>
+        <v>-44.397</v>
       </c>
       <c r="AB53" s="0">
-        <v>-7.455</v>
+        <v>-48.273</v>
       </c>
       <c r="AC53" s="0">
-        <v>12.69</v>
+        <v>8.77</v>
       </c>
       <c r="AD53" s="0">
-        <v>14.85</v>
+        <v>8.69</v>
       </c>
       <c r="AE53" s="0">
-        <v>14.85</v>
+        <v>8.69</v>
       </c>
       <c r="AF53" s="0">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AG53" s="0">
-        <v>4.52</v>
+        <v>1.57</v>
       </c>
       <c r="AH53" s="0">
-        <v>4.52</v>
+        <v>1.57</v>
       </c>
       <c r="AI53" s="0" t="s">
         <v>47</v>
@@ -6887,13 +6887,13 @@
         <v>396.008</v>
       </c>
       <c r="O54" s="0">
-        <v>74.84</v>
+        <v>41.36</v>
       </c>
       <c r="P54" s="0">
         <v>0</v>
       </c>
       <c r="Q54" s="0">
-        <v>0.44054</v>
+        <v>0.26157</v>
       </c>
       <c r="R54" s="0">
         <v>0.45186</v>
@@ -6902,49 +6902,49 @@
         <v>0</v>
       </c>
       <c r="T54" s="0">
-        <v>206</v>
+        <v>798</v>
       </c>
       <c r="U54" s="0">
-        <v>57</v>
+        <v>649</v>
       </c>
       <c r="V54" s="0">
-        <v>170</v>
+        <v>346</v>
       </c>
       <c r="W54" s="0">
-        <v>32</v>
+        <v>208</v>
       </c>
       <c r="X54" s="0">
-        <v>5.95</v>
+        <v>11.69</v>
       </c>
       <c r="Y54" s="0">
-        <v>6.37</v>
+        <v>11.69</v>
       </c>
       <c r="Z54" s="0">
-        <v>6.37</v>
+        <v>11.69</v>
       </c>
       <c r="AA54" s="0">
-        <v>-5.41</v>
+        <v>-47.725</v>
       </c>
       <c r="AB54" s="0">
-        <v>-5.65</v>
+        <v>-51.365</v>
       </c>
       <c r="AC54" s="0">
-        <v>11.82</v>
+        <v>8.39</v>
       </c>
       <c r="AD54" s="0">
-        <v>15.46</v>
+        <v>8.32</v>
       </c>
       <c r="AE54" s="0">
-        <v>15.46</v>
+        <v>8.32</v>
       </c>
       <c r="AF54" s="0">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="AG54" s="0">
-        <v>4.89</v>
+        <v>1.44</v>
       </c>
       <c r="AH54" s="0">
-        <v>4.89</v>
+        <v>1.44</v>
       </c>
       <c r="AI54" s="0" t="s">
         <v>47</v>
@@ -6994,13 +6994,13 @@
         <v>300.765</v>
       </c>
       <c r="O55" s="0">
-        <v>86.72</v>
+        <v>50.96</v>
       </c>
       <c r="P55" s="0">
         <v>0</v>
       </c>
       <c r="Q55" s="0">
-        <v>0.3877</v>
+        <v>0.24477</v>
       </c>
       <c r="R55" s="0">
         <v>0.402</v>
@@ -7009,49 +7009,49 @@
         <v>0</v>
       </c>
       <c r="T55" s="0">
-        <v>257</v>
+        <v>748</v>
       </c>
       <c r="U55" s="0">
-        <v>48</v>
+        <v>539</v>
       </c>
       <c r="V55" s="0">
-        <v>273</v>
+        <v>398</v>
       </c>
       <c r="W55" s="0">
-        <v>28</v>
+        <v>153</v>
       </c>
       <c r="X55" s="0">
-        <v>6.47</v>
+        <v>11.19</v>
       </c>
       <c r="Y55" s="0">
-        <v>6.48</v>
+        <v>11.2</v>
       </c>
       <c r="Z55" s="0">
-        <v>6.48</v>
+        <v>11.2</v>
       </c>
       <c r="AA55" s="0">
-        <v>-6.431</v>
+        <v>-45.015</v>
       </c>
       <c r="AB55" s="0">
-        <v>-6.807</v>
+        <v>-48.797</v>
       </c>
       <c r="AC55" s="0">
-        <v>14.69</v>
+        <v>8.7</v>
       </c>
       <c r="AD55" s="0">
-        <v>15.13</v>
+        <v>8.61</v>
       </c>
       <c r="AE55" s="0">
-        <v>15.13</v>
+        <v>8.61</v>
       </c>
       <c r="AF55" s="0">
-        <v>2.14</v>
+        <v>1.57</v>
       </c>
       <c r="AG55" s="0">
-        <v>4.71</v>
+        <v>1.56</v>
       </c>
       <c r="AH55" s="0">
-        <v>4.71</v>
+        <v>1.56</v>
       </c>
       <c r="AI55" s="0" t="s">
         <v>47</v>
@@ -7101,13 +7101,13 @@
         <v>1002.551</v>
       </c>
       <c r="O56" s="0">
-        <v>100.12</v>
+        <v>97.84</v>
       </c>
       <c r="P56" s="0">
         <v>0</v>
       </c>
       <c r="Q56" s="0">
-        <v>1.49203</v>
+        <v>1.5665</v>
       </c>
       <c r="R56" s="0">
         <v>1.44352</v>
@@ -7116,43 +7116,43 @@
         <v>0</v>
       </c>
       <c r="T56" s="0">
-        <v>248</v>
+        <v>306</v>
       </c>
       <c r="U56" s="0">
-        <v>-13</v>
+        <v>45</v>
       </c>
       <c r="V56" s="0">
-        <v>276</v>
+        <v>352</v>
       </c>
       <c r="W56" s="0">
-        <v>-37</v>
+        <v>39</v>
       </c>
       <c r="X56" s="0">
-        <v>7.97</v>
+        <v>8.4</v>
       </c>
       <c r="Y56" s="0">
-        <v>7.62</v>
+        <v>24.17</v>
       </c>
       <c r="Z56" s="0">
-        <v>7.62</v>
+        <v>24.17</v>
       </c>
       <c r="AA56" s="0">
-        <v>0.28</v>
+        <v>-2.003</v>
       </c>
       <c r="AB56" s="0">
-        <v>0.184</v>
+        <v>-2.251</v>
       </c>
       <c r="AC56" s="0">
+        <v>-0.47</v>
+      </c>
+      <c r="AD56" s="0">
         <v>0.14</v>
       </c>
-      <c r="AD56" s="0">
-        <v>0.16</v>
-      </c>
       <c r="AE56" s="0">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="AF56" s="0">
-        <v>-0.01</v>
+        <v>-0.17</v>
       </c>
       <c r="AG56" s="0">
         <v>0</v>
@@ -7208,13 +7208,13 @@
         <v>701.786</v>
       </c>
       <c r="O57" s="0">
-        <v>100.56</v>
+        <v>98.84</v>
       </c>
       <c r="P57" s="0">
         <v>0</v>
       </c>
       <c r="Q57" s="0">
-        <v>1.04901</v>
+        <v>1.10776</v>
       </c>
       <c r="R57" s="0">
         <v>1.02504</v>
@@ -7223,43 +7223,43 @@
         <v>0</v>
       </c>
       <c r="T57" s="0">
-        <v>111</v>
+        <v>263</v>
       </c>
       <c r="U57" s="0">
-        <v>63</v>
+        <v>215</v>
       </c>
       <c r="V57" s="0">
-        <v>121</v>
+        <v>320</v>
       </c>
       <c r="W57" s="0">
-        <v>100</v>
+        <v>299</v>
       </c>
       <c r="X57" s="0">
-        <v>6.3</v>
+        <v>7.83</v>
       </c>
       <c r="Y57" s="0">
-        <v>6.4</v>
+        <v>8.06</v>
       </c>
       <c r="Z57" s="0">
-        <v>6.4</v>
+        <v>8.06</v>
       </c>
       <c r="AA57" s="0">
-        <v>-0.711</v>
+        <v>-2.409</v>
       </c>
       <c r="AB57" s="0">
-        <v>-0.681</v>
+        <v>-3.238</v>
       </c>
       <c r="AC57" s="0">
-        <v>1.09</v>
+        <v>0.78</v>
       </c>
       <c r="AD57" s="0">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="AE57" s="0">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="AF57" s="0">
-        <v>0.02</v>
+        <v>-0.1</v>
       </c>
       <c r="AG57" s="0">
         <v>0.02</v>
@@ -7315,13 +7315,13 @@
         <v>501.276</v>
       </c>
       <c r="O58" s="0">
-        <v>75.8</v>
+        <v>66.64</v>
       </c>
       <c r="P58" s="0">
         <v>0</v>
       </c>
       <c r="Q58" s="0">
-        <v>0.5648</v>
+        <v>0.53348</v>
       </c>
       <c r="R58" s="0">
         <v>0.56677</v>
@@ -7330,49 +7330,49 @@
         <v>0</v>
       </c>
       <c r="T58" s="0">
-        <v>166</v>
+        <v>308</v>
       </c>
       <c r="U58" s="0">
-        <v>34</v>
+        <v>176</v>
       </c>
       <c r="V58" s="0">
-        <v>145</v>
+        <v>248</v>
       </c>
       <c r="W58" s="0">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="X58" s="0">
-        <v>5.53</v>
+        <v>6.74</v>
       </c>
       <c r="Y58" s="0">
-        <v>6.04</v>
+        <v>6.89</v>
       </c>
       <c r="Z58" s="0">
-        <v>6.04</v>
+        <v>6.89</v>
       </c>
       <c r="AA58" s="0">
-        <v>-3.316</v>
+        <v>-15</v>
       </c>
       <c r="AB58" s="0">
-        <v>-3.573</v>
+        <v>-18.707</v>
       </c>
       <c r="AC58" s="0">
-        <v>12</v>
+        <v>12.82</v>
       </c>
       <c r="AD58" s="0">
-        <v>16.3</v>
+        <v>14.24</v>
       </c>
       <c r="AE58" s="0">
-        <v>16.3</v>
+        <v>14.24</v>
       </c>
       <c r="AF58" s="0">
-        <v>1.32</v>
+        <v>2.88</v>
       </c>
       <c r="AG58" s="0">
-        <v>5.44</v>
+        <v>4.17</v>
       </c>
       <c r="AH58" s="0">
-        <v>5.44</v>
+        <v>4.17</v>
       </c>
       <c r="AI58" s="0" t="s">
         <v>47</v>
@@ -7422,13 +7422,13 @@
         <v>345.88</v>
       </c>
       <c r="O59" s="0">
-        <v>99.8</v>
+        <v>98.24</v>
       </c>
       <c r="P59" s="0">
         <v>0</v>
       </c>
       <c r="Q59" s="0">
-        <v>0.51311</v>
+        <v>0.54265</v>
       </c>
       <c r="R59" s="0">
         <v>0.5048</v>
@@ -7437,49 +7437,49 @@
         <v>0</v>
       </c>
       <c r="T59" s="0">
-        <v>-117</v>
+        <v>-23</v>
       </c>
       <c r="U59" s="0">
-        <v>63</v>
+        <v>157</v>
       </c>
       <c r="V59" s="0">
-        <v>-71</v>
+        <v>22</v>
       </c>
       <c r="W59" s="0">
-        <v>70</v>
+        <v>163</v>
       </c>
       <c r="X59" s="0">
-        <v>2.59</v>
+        <v>3.36</v>
       </c>
       <c r="Y59" s="0">
-        <v>6.08</v>
+        <v>6.18</v>
       </c>
       <c r="Z59" s="0">
-        <v>6.08</v>
+        <v>6.18</v>
       </c>
       <c r="AA59" s="0">
-        <v>-1.383</v>
+        <v>-2.925</v>
       </c>
       <c r="AB59" s="0">
-        <v>-1.394</v>
+        <v>-4.037</v>
       </c>
       <c r="AC59" s="0">
-        <v>3.02</v>
+        <v>4.07</v>
       </c>
       <c r="AD59" s="0">
-        <v>16.25</v>
+        <v>15.97</v>
       </c>
       <c r="AE59" s="0">
-        <v>16.25</v>
+        <v>15.97</v>
       </c>
       <c r="AF59" s="0">
-        <v>-1.75</v>
+        <v>-1.84</v>
       </c>
       <c r="AG59" s="0">
-        <v>5.38</v>
+        <v>5.2</v>
       </c>
       <c r="AH59" s="0">
-        <v>5.38</v>
+        <v>5.2</v>
       </c>
       <c r="AI59" s="0" t="s">
         <v>47</v>
@@ -7529,13 +7529,13 @@
         <v>2000</v>
       </c>
       <c r="O60" s="0">
-        <v>73.2</v>
+        <v>74.24</v>
       </c>
       <c r="P60" s="0">
         <v>0</v>
       </c>
       <c r="Q60" s="0">
-        <v>2.17616</v>
+        <v>2.37125</v>
       </c>
       <c r="R60" s="0">
         <v>2.18054</v>
@@ -7544,49 +7544,49 @@
         <v>0</v>
       </c>
       <c r="T60" s="0">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="U60" s="0">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="V60" s="0">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="W60" s="0">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="X60" s="0">
-        <v>5.33</v>
+        <v>5.24</v>
       </c>
       <c r="Y60" s="0">
-        <v>5.79</v>
+        <v>5.71</v>
       </c>
       <c r="Z60" s="0">
-        <v>5.79</v>
+        <v>5.71</v>
       </c>
       <c r="AA60" s="0">
-        <v>-3.175</v>
+        <v>-1.799</v>
       </c>
       <c r="AB60" s="0">
-        <v>-3.47</v>
+        <v>-5.698</v>
       </c>
       <c r="AC60" s="0">
-        <v>12.82</v>
+        <v>12.89</v>
       </c>
       <c r="AD60" s="0">
-        <v>17.13</v>
+        <v>17.36</v>
       </c>
       <c r="AE60" s="0">
-        <v>17.13</v>
+        <v>17.36</v>
       </c>
       <c r="AF60" s="0">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="AG60" s="0">
-        <v>5.97</v>
+        <v>6.13</v>
       </c>
       <c r="AH60" s="0">
-        <v>5.97</v>
+        <v>6.13</v>
       </c>
       <c r="AI60" s="0" t="s">
         <v>47</v>
@@ -7636,13 +7636,13 @@
         <v>1500</v>
       </c>
       <c r="O61" s="0">
-        <v>78.36</v>
+        <v>78.12</v>
       </c>
       <c r="P61" s="0">
         <v>0</v>
       </c>
       <c r="Q61" s="0">
-        <v>1.74717</v>
+        <v>1.87138</v>
       </c>
       <c r="R61" s="0">
         <v>1.74963</v>
@@ -7651,49 +7651,49 @@
         <v>0</v>
       </c>
       <c r="T61" s="0">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="U61" s="0">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="V61" s="0">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="W61" s="0">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="X61" s="0">
-        <v>5.21</v>
+        <v>5.29</v>
       </c>
       <c r="Y61" s="0">
-        <v>5.86</v>
+        <v>5.88</v>
       </c>
       <c r="Z61" s="0">
-        <v>5.86</v>
+        <v>5.88</v>
       </c>
       <c r="AA61" s="0">
-        <v>-3.116</v>
+        <v>-3.412</v>
       </c>
       <c r="AB61" s="0">
-        <v>-3.354</v>
+        <v>-7.11</v>
       </c>
       <c r="AC61" s="0">
-        <v>11.67</v>
+        <v>11.9</v>
       </c>
       <c r="AD61" s="0">
-        <v>16.93</v>
+        <v>16.85</v>
       </c>
       <c r="AE61" s="0">
-        <v>16.93</v>
+        <v>16.85</v>
       </c>
       <c r="AF61" s="0">
-        <v>0.62</v>
+        <v>1.07</v>
       </c>
       <c r="AG61" s="0">
-        <v>5.82</v>
+        <v>5.78</v>
       </c>
       <c r="AH61" s="0">
-        <v>5.82</v>
+        <v>5.78</v>
       </c>
       <c r="AI61" s="0" t="s">
         <v>47</v>
@@ -7743,13 +7743,13 @@
         <v>1850</v>
       </c>
       <c r="O62" s="0">
-        <v>79.72</v>
+        <v>79.52</v>
       </c>
       <c r="P62" s="0">
         <v>0</v>
       </c>
       <c r="Q62" s="0">
-        <v>2.19225</v>
+        <v>2.3494</v>
       </c>
       <c r="R62" s="0">
         <v>2.19202</v>
@@ -7758,49 +7758,49 @@
         <v>0</v>
       </c>
       <c r="T62" s="0">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="U62" s="0">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="V62" s="0">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="W62" s="0">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="X62" s="0">
-        <v>5.14</v>
+        <v>5.22</v>
       </c>
       <c r="Y62" s="0">
-        <v>5.85</v>
+        <v>5.87</v>
       </c>
       <c r="Z62" s="0">
-        <v>5.85</v>
+        <v>5.87</v>
       </c>
       <c r="AA62" s="0">
-        <v>-2.97</v>
+        <v>-3.213</v>
       </c>
       <c r="AB62" s="0">
-        <v>-3.192</v>
+        <v>-6.876</v>
       </c>
       <c r="AC62" s="0">
-        <v>11.37</v>
+        <v>11.6</v>
       </c>
       <c r="AD62" s="0">
-        <v>16.94</v>
+        <v>16.88</v>
       </c>
       <c r="AE62" s="0">
-        <v>16.94</v>
+        <v>16.88</v>
       </c>
       <c r="AF62" s="0">
-        <v>0.38</v>
+        <v>0.62</v>
       </c>
       <c r="AG62" s="0">
-        <v>5.83</v>
+        <v>5.79</v>
       </c>
       <c r="AH62" s="0">
-        <v>5.83</v>
+        <v>5.79</v>
       </c>
       <c r="AI62" s="0" t="s">
         <v>47</v>
@@ -7850,13 +7850,13 @@
         <v>900</v>
       </c>
       <c r="O63" s="0">
-        <v>81.72</v>
+        <v>81.76</v>
       </c>
       <c r="P63" s="0">
         <v>0</v>
       </c>
       <c r="Q63" s="0">
-        <v>1.09326</v>
+        <v>1.17515</v>
       </c>
       <c r="R63" s="0">
         <v>1.09494</v>
@@ -7865,19 +7865,19 @@
         <v>0</v>
       </c>
       <c r="T63" s="0">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="U63" s="0">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="V63" s="0">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="W63" s="0">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="X63" s="0">
-        <v>5.04</v>
+        <v>5.1</v>
       </c>
       <c r="Y63" s="0">
         <v>5.86</v>
@@ -7886,28 +7886,28 @@
         <v>5.86</v>
       </c>
       <c r="AA63" s="0">
-        <v>-3.129</v>
+        <v>-3.082</v>
       </c>
       <c r="AB63" s="0">
-        <v>-3.318</v>
+        <v>-6.535</v>
       </c>
       <c r="AC63" s="0">
-        <v>10.68</v>
+        <v>10.89</v>
       </c>
       <c r="AD63" s="0">
-        <v>16.91</v>
+        <v>16.9</v>
       </c>
       <c r="AE63" s="0">
-        <v>16.91</v>
+        <v>16.9</v>
       </c>
       <c r="AF63" s="0">
-        <v>0.07</v>
+        <v>-0.14</v>
       </c>
       <c r="AG63" s="0">
-        <v>5.81</v>
+        <v>5.8</v>
       </c>
       <c r="AH63" s="0">
-        <v>5.81</v>
+        <v>5.8</v>
       </c>
       <c r="AI63" s="0" t="s">
         <v>47</v>
@@ -7957,13 +7957,13 @@
         <v>1696.25</v>
       </c>
       <c r="O64" s="0">
-        <v>97.4</v>
+        <v>97</v>
       </c>
       <c r="P64" s="0">
         <v>0</v>
       </c>
       <c r="Q64" s="0">
-        <v>2.45583</v>
+        <v>2.62767</v>
       </c>
       <c r="R64" s="0">
         <v>2.43061</v>
@@ -7972,49 +7972,49 @@
         <v>0</v>
       </c>
       <c r="T64" s="0">
-        <v>-53</v>
+        <v>-11</v>
       </c>
       <c r="U64" s="0">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="V64" s="0">
-        <v>-8</v>
+        <v>33</v>
       </c>
       <c r="W64" s="0">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="X64" s="0">
-        <v>3.27</v>
+        <v>3.49</v>
       </c>
       <c r="Y64" s="0">
-        <v>5.96</v>
+        <v>5.98</v>
       </c>
       <c r="Z64" s="0">
-        <v>5.96</v>
+        <v>5.98</v>
       </c>
       <c r="AA64" s="0">
-        <v>-1.973</v>
+        <v>-2.375</v>
       </c>
       <c r="AB64" s="0">
-        <v>-1.982</v>
+        <v>-3.924</v>
       </c>
       <c r="AC64" s="0">
-        <v>4.44</v>
+        <v>4.8</v>
       </c>
       <c r="AD64" s="0">
-        <v>16.64</v>
+        <v>16.55</v>
       </c>
       <c r="AE64" s="0">
-        <v>16.64</v>
+        <v>16.55</v>
       </c>
       <c r="AF64" s="0">
-        <v>-2.03</v>
+        <v>-2.12</v>
       </c>
       <c r="AG64" s="0">
-        <v>5.63</v>
+        <v>5.57</v>
       </c>
       <c r="AH64" s="0">
-        <v>5.63</v>
+        <v>5.57</v>
       </c>
       <c r="AI64" s="0" t="s">
         <v>47</v>
@@ -8064,13 +8064,13 @@
         <v>1850</v>
       </c>
       <c r="O65" s="0">
-        <v>99.72</v>
+        <v>99.2</v>
       </c>
       <c r="P65" s="0">
         <v>0</v>
       </c>
       <c r="Q65" s="0">
-        <v>2.74223</v>
+        <v>2.93084</v>
       </c>
       <c r="R65" s="0">
         <v>2.70108</v>
@@ -8079,49 +8079,49 @@
         <v>0</v>
       </c>
       <c r="T65" s="0">
-        <v>-102</v>
+        <v>-49</v>
       </c>
       <c r="U65" s="0">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="V65" s="0">
-        <v>-61</v>
+        <v>-1</v>
       </c>
       <c r="W65" s="0">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="X65" s="0">
-        <v>2.74</v>
+        <v>3.09</v>
       </c>
       <c r="Y65" s="0">
-        <v>6.07</v>
+        <v>6.11</v>
       </c>
       <c r="Z65" s="0">
-        <v>6.07</v>
+        <v>6.11</v>
       </c>
       <c r="AA65" s="0">
-        <v>-1.501</v>
+        <v>-2.015</v>
       </c>
       <c r="AB65" s="0">
-        <v>-1.489</v>
+        <v>-3.345</v>
       </c>
       <c r="AC65" s="0">
-        <v>3.38</v>
+        <v>3.9</v>
       </c>
       <c r="AD65" s="0">
-        <v>16.32</v>
+        <v>16.22</v>
       </c>
       <c r="AE65" s="0">
-        <v>16.32</v>
+        <v>16.22</v>
       </c>
       <c r="AF65" s="0">
-        <v>-1.71</v>
+        <v>-1.64</v>
       </c>
       <c r="AG65" s="0">
-        <v>5.42</v>
+        <v>5.35</v>
       </c>
       <c r="AH65" s="0">
-        <v>5.42</v>
+        <v>5.35</v>
       </c>
       <c r="AI65" s="0" t="s">
         <v>47</v>
@@ -8171,13 +8171,13 @@
         <v>451.148</v>
       </c>
       <c r="O66" s="0">
-        <v>92.6</v>
+        <v>67.32</v>
       </c>
       <c r="P66" s="0">
         <v>0</v>
       </c>
       <c r="Q66" s="0">
-        <v>0.62098</v>
+        <v>0.48503</v>
       </c>
       <c r="R66" s="0">
         <v>0.61471</v>
@@ -8186,49 +8186,49 @@
         <v>0</v>
       </c>
       <c r="T66" s="0">
-        <v>48</v>
+        <v>469</v>
       </c>
       <c r="U66" s="0">
-        <v>36</v>
+        <v>457</v>
       </c>
       <c r="V66" s="0">
-        <v>77</v>
+        <v>357</v>
       </c>
       <c r="W66" s="0">
-        <v>30</v>
+        <v>310</v>
       </c>
       <c r="X66" s="0">
-        <v>4.31</v>
+        <v>8.37</v>
       </c>
       <c r="Y66" s="0">
-        <v>6.12</v>
+        <v>8.44</v>
       </c>
       <c r="Z66" s="0">
-        <v>6.12</v>
+        <v>8.44</v>
       </c>
       <c r="AA66" s="0">
-        <v>-1.99</v>
+        <v>-28.747</v>
       </c>
       <c r="AB66" s="0">
-        <v>-2.029</v>
+        <v>-31.331</v>
       </c>
       <c r="AC66" s="0">
-        <v>6.93</v>
+        <v>11.06</v>
       </c>
       <c r="AD66" s="0">
-        <v>16.24</v>
+        <v>11.73</v>
       </c>
       <c r="AE66" s="0">
-        <v>16.24</v>
+        <v>11.73</v>
       </c>
       <c r="AF66" s="0">
-        <v>-1.2</v>
+        <v>2.22</v>
       </c>
       <c r="AG66" s="0">
-        <v>5.35</v>
+        <v>2.81</v>
       </c>
       <c r="AH66" s="0">
-        <v>5.35</v>
+        <v>2.81</v>
       </c>
       <c r="AI66" s="0" t="s">
         <v>47</v>
@@ -8278,13 +8278,13 @@
         <v>426.084</v>
       </c>
       <c r="O67" s="0">
-        <v>91.64</v>
+        <v>68.72</v>
       </c>
       <c r="P67" s="0">
         <v>0</v>
       </c>
       <c r="Q67" s="0">
-        <v>0.5804</v>
+        <v>0.46761</v>
       </c>
       <c r="R67" s="0">
         <v>0.57319</v>
@@ -8293,49 +8293,49 @@
         <v>0</v>
       </c>
       <c r="T67" s="0">
-        <v>75</v>
+        <v>453</v>
       </c>
       <c r="U67" s="0">
-        <v>30</v>
+        <v>408</v>
       </c>
       <c r="V67" s="0">
-        <v>98</v>
+        <v>355</v>
       </c>
       <c r="W67" s="0">
-        <v>24</v>
+        <v>281</v>
       </c>
       <c r="X67" s="0">
-        <v>4.59</v>
+        <v>8.21</v>
       </c>
       <c r="Y67" s="0">
-        <v>6.21</v>
+        <v>8.3</v>
       </c>
       <c r="Z67" s="0">
-        <v>6.21</v>
+        <v>8.3</v>
       </c>
       <c r="AA67" s="0">
-        <v>-1.758</v>
+        <v>-26.329</v>
       </c>
       <c r="AB67" s="0">
-        <v>-1.817</v>
+        <v>-28.901</v>
       </c>
       <c r="AC67" s="0">
-        <v>7.07</v>
+        <v>11.1</v>
       </c>
       <c r="AD67" s="0">
-        <v>16</v>
+        <v>11.92</v>
       </c>
       <c r="AE67" s="0">
-        <v>16</v>
+        <v>11.92</v>
       </c>
       <c r="AF67" s="0">
-        <v>-1.56</v>
+        <v>2.11</v>
       </c>
       <c r="AG67" s="0">
-        <v>5.19</v>
+        <v>2.9</v>
       </c>
       <c r="AH67" s="0">
-        <v>5.19</v>
+        <v>2.9</v>
       </c>
       <c r="AI67" s="0" t="s">
         <v>47</v>
@@ -8385,13 +8385,13 @@
         <v>501.276</v>
       </c>
       <c r="O68" s="0">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="P68" s="0">
         <v>0</v>
       </c>
       <c r="Q68" s="0">
-        <v>0.73767</v>
+        <v>0.60041</v>
       </c>
       <c r="R68" s="0">
         <v>0.72581</v>
@@ -8400,49 +8400,49 @@
         <v>0</v>
       </c>
       <c r="T68" s="0">
-        <v>187</v>
+        <v>536</v>
       </c>
       <c r="U68" s="0">
-        <v>39</v>
+        <v>388</v>
       </c>
       <c r="V68" s="0">
-        <v>258</v>
+        <v>462</v>
       </c>
       <c r="W68" s="0">
-        <v>44</v>
+        <v>248</v>
       </c>
       <c r="X68" s="0">
-        <v>7.04</v>
+        <v>10.72</v>
       </c>
       <c r="Y68" s="0">
-        <v>6.45</v>
+        <v>15.22</v>
       </c>
       <c r="Z68" s="0">
-        <v>6.45</v>
+        <v>15.22</v>
       </c>
       <c r="AA68" s="0">
-        <v>-1.394</v>
+        <v>-25.299</v>
       </c>
       <c r="AB68" s="0">
-        <v>-1.238</v>
+        <v>-27.337</v>
       </c>
       <c r="AC68" s="0">
-        <v>3.23</v>
+        <v>0.93</v>
       </c>
       <c r="AD68" s="0">
-        <v>3.28</v>
+        <v>3.07</v>
       </c>
       <c r="AE68" s="0">
-        <v>3.28</v>
+        <v>3.07</v>
       </c>
       <c r="AF68" s="0">
+        <v>-0.49</v>
+      </c>
+      <c r="AG68" s="0">
         <v>0.12</v>
       </c>
-      <c r="AG68" s="0">
-        <v>0.14</v>
-      </c>
       <c r="AH68" s="0">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="AI68" s="0" t="s">
         <v>47</v>
@@ -8492,13 +8492,13 @@
         <v>601.531</v>
       </c>
       <c r="O69" s="0">
-        <v>96.96</v>
+        <v>70.04</v>
       </c>
       <c r="P69" s="0">
         <v>0</v>
       </c>
       <c r="Q69" s="0">
-        <v>0.86696</v>
+        <v>0.67284</v>
       </c>
       <c r="R69" s="0">
         <v>0.8623</v>
@@ -8507,49 +8507,49 @@
         <v>0</v>
       </c>
       <c r="T69" s="0">
-        <v>225</v>
+        <v>541</v>
       </c>
       <c r="U69" s="0">
-        <v>40</v>
+        <v>356</v>
       </c>
       <c r="V69" s="0">
-        <v>276</v>
+        <v>424</v>
       </c>
       <c r="W69" s="0">
-        <v>37</v>
+        <v>185</v>
       </c>
       <c r="X69" s="0">
-        <v>6.64</v>
+        <v>9.49</v>
       </c>
       <c r="Y69" s="0">
-        <v>6.99</v>
+        <v>15.44</v>
       </c>
       <c r="Z69" s="0">
-        <v>6.99</v>
+        <v>15.44</v>
       </c>
       <c r="AA69" s="0">
-        <v>-2.455</v>
+        <v>-29.537</v>
       </c>
       <c r="AB69" s="0">
-        <v>-2.357</v>
+        <v>-31.38</v>
       </c>
       <c r="AC69" s="0">
-        <v>3.77</v>
+        <v>1.13</v>
       </c>
       <c r="AD69" s="0">
-        <v>4.01</v>
+        <v>3.72</v>
       </c>
       <c r="AE69" s="0">
-        <v>4.01</v>
+        <v>3.72</v>
       </c>
       <c r="AF69" s="0">
-        <v>0.12</v>
+        <v>-0.57</v>
       </c>
       <c r="AG69" s="0">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="AH69" s="0">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="AI69" s="0" t="s">
         <v>47</v>
@@ -8599,64 +8599,64 @@
         <v>501.276</v>
       </c>
       <c r="O70" s="0">
-        <v>111.16</v>
+        <v>105</v>
       </c>
       <c r="P70" s="0">
         <v>0</v>
       </c>
       <c r="Q70" s="0">
-        <v>0.82828</v>
+        <v>0.84057</v>
       </c>
       <c r="R70" s="0">
         <v>0.80215</v>
       </c>
       <c r="S70" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T70" s="0">
-        <v>149</v>
+        <v>310</v>
       </c>
       <c r="U70" s="0">
-        <v>-7</v>
+        <v>154</v>
       </c>
       <c r="V70" s="0">
-        <v>174</v>
+        <v>313</v>
       </c>
       <c r="W70" s="0">
-        <v>-6</v>
+        <v>133</v>
       </c>
       <c r="X70" s="0">
-        <v>5.36</v>
+        <v>6.77</v>
       </c>
       <c r="Y70" s="0">
-        <v>6.36</v>
+        <v>7.88</v>
       </c>
       <c r="Z70" s="0">
-        <v>8.19</v>
+        <v>8.69</v>
       </c>
       <c r="AA70" s="0">
-        <v>0.18</v>
+        <v>-5.371</v>
       </c>
       <c r="AB70" s="0">
-        <v>0.235</v>
+        <v>-7.859</v>
       </c>
       <c r="AC70" s="0">
-        <v>5.27</v>
+        <v>6</v>
       </c>
       <c r="AD70" s="0">
-        <v>3.82</v>
+        <v>3.76</v>
       </c>
       <c r="AE70" s="0">
-        <v>12.06</v>
+        <v>11.35</v>
       </c>
       <c r="AF70" s="0">
-        <v>-0.32</v>
+        <v>-0.16</v>
       </c>
       <c r="AG70" s="0">
         <v>0.19</v>
       </c>
       <c r="AH70" s="0">
-        <v>2.97</v>
+        <v>2.64</v>
       </c>
       <c r="AI70" s="0" t="s">
         <v>47</v>
@@ -8706,13 +8706,13 @@
         <v>1002.551</v>
       </c>
       <c r="O71" s="0">
-        <v>84</v>
+        <v>81.68</v>
       </c>
       <c r="P71" s="0">
         <v>0</v>
       </c>
       <c r="Q71" s="0">
-        <v>1.2518</v>
+        <v>1.30777</v>
       </c>
       <c r="R71" s="0">
         <v>1.25557</v>
@@ -8721,49 +8721,49 @@
         <v>0</v>
       </c>
       <c r="T71" s="0">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="U71" s="0">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="V71" s="0">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="W71" s="0">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="X71" s="0">
-        <v>4.65</v>
+        <v>5.06</v>
       </c>
       <c r="Y71" s="0">
-        <v>5.69</v>
+        <v>5.86</v>
       </c>
       <c r="Z71" s="0">
-        <v>5.69</v>
+        <v>5.86</v>
       </c>
       <c r="AA71" s="0">
-        <v>-3.27</v>
+        <v>-5.942</v>
       </c>
       <c r="AB71" s="0">
-        <v>-3.424</v>
+        <v>-9.271</v>
       </c>
       <c r="AC71" s="0">
-        <v>10.05</v>
+        <v>10.84</v>
       </c>
       <c r="AD71" s="0">
-        <v>17.47</v>
+        <v>16.96</v>
       </c>
       <c r="AE71" s="0">
-        <v>17.47</v>
+        <v>16.96</v>
       </c>
       <c r="AF71" s="0">
-        <v>-0.11</v>
+        <v>-0.01</v>
       </c>
       <c r="AG71" s="0">
-        <v>6.18</v>
+        <v>5.83</v>
       </c>
       <c r="AH71" s="0">
-        <v>6.18</v>
+        <v>5.83</v>
       </c>
       <c r="AI71" s="0" t="s">
         <v>47</v>
@@ -8813,13 +8813,13 @@
         <v>807.054</v>
       </c>
       <c r="O72" s="0">
-        <v>98.04</v>
+        <v>94.88</v>
       </c>
       <c r="P72" s="0">
         <v>0</v>
       </c>
       <c r="Q72" s="0">
-        <v>1.17613</v>
+        <v>1.22289</v>
       </c>
       <c r="R72" s="0">
         <v>1.15505</v>
@@ -8828,49 +8828,49 @@
         <v>0</v>
       </c>
       <c r="T72" s="0">
-        <v>-112</v>
+        <v>18</v>
       </c>
       <c r="U72" s="0">
-        <v>46</v>
+        <v>176</v>
       </c>
       <c r="V72" s="0">
-        <v>-59</v>
+        <v>57</v>
       </c>
       <c r="W72" s="0">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="X72" s="0">
-        <v>2.64</v>
+        <v>3.79</v>
       </c>
       <c r="Y72" s="0">
-        <v>5.77</v>
+        <v>5.97</v>
       </c>
       <c r="Z72" s="0">
-        <v>5.77</v>
+        <v>5.97</v>
       </c>
       <c r="AA72" s="0">
-        <v>-1.209</v>
+        <v>-4.393</v>
       </c>
       <c r="AB72" s="0">
-        <v>-1.246</v>
+        <v>-5.599</v>
       </c>
       <c r="AC72" s="0">
-        <v>3.55</v>
+        <v>5.54</v>
       </c>
       <c r="AD72" s="0">
-        <v>17.21</v>
+        <v>16.63</v>
       </c>
       <c r="AE72" s="0">
-        <v>17.21</v>
+        <v>16.63</v>
       </c>
       <c r="AF72" s="0">
-        <v>-2.36</v>
+        <v>-2.14</v>
       </c>
       <c r="AG72" s="0">
-        <v>6</v>
+        <v>5.61</v>
       </c>
       <c r="AH72" s="0">
-        <v>6</v>
+        <v>5.61</v>
       </c>
       <c r="AI72" s="0" t="s">
         <v>47</v>
@@ -8920,13 +8920,13 @@
         <v>1300</v>
       </c>
       <c r="O73" s="0">
-        <v>72.96</v>
+        <v>71.24</v>
       </c>
       <c r="P73" s="0">
         <v>0</v>
       </c>
       <c r="Q73" s="0">
-        <v>1.40987</v>
+        <v>1.47903</v>
       </c>
       <c r="R73" s="0">
         <v>1.41285</v>
@@ -8935,49 +8935,49 @@
         <v>0</v>
       </c>
       <c r="T73" s="0">
-        <v>162</v>
+        <v>211</v>
       </c>
       <c r="U73" s="0">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="V73" s="0">
-        <v>138</v>
+        <v>204</v>
       </c>
       <c r="W73" s="0">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="X73" s="0">
-        <v>5.5</v>
+        <v>5.76</v>
       </c>
       <c r="Y73" s="0">
-        <v>5.92</v>
+        <v>6.07</v>
       </c>
       <c r="Z73" s="0">
-        <v>5.92</v>
+        <v>6.07</v>
       </c>
       <c r="AA73" s="0">
-        <v>-3.185</v>
+        <v>-5.467</v>
       </c>
       <c r="AB73" s="0">
-        <v>-3.482</v>
+        <v>-9.371</v>
       </c>
       <c r="AC73" s="0">
-        <v>12.72</v>
+        <v>13.11</v>
       </c>
       <c r="AD73" s="0">
-        <v>16.62</v>
+        <v>16.19</v>
       </c>
       <c r="AE73" s="0">
-        <v>16.62</v>
+        <v>16.19</v>
       </c>
       <c r="AF73" s="0">
-        <v>1.86</v>
+        <v>1.38</v>
       </c>
       <c r="AG73" s="0">
-        <v>5.66</v>
+        <v>5.38</v>
       </c>
       <c r="AH73" s="0">
-        <v>5.66</v>
+        <v>5.38</v>
       </c>
       <c r="AI73" s="0" t="s">
         <v>47</v>
@@ -9027,13 +9027,13 @@
         <v>500</v>
       </c>
       <c r="O74" s="0">
-        <v>85.72</v>
+        <v>82.64</v>
       </c>
       <c r="P74" s="0">
         <v>0</v>
       </c>
       <c r="Q74" s="0">
-        <v>0.63709</v>
+        <v>0.65989</v>
       </c>
       <c r="R74" s="0">
         <v>0.63426</v>
@@ -9042,49 +9042,49 @@
         <v>0</v>
       </c>
       <c r="T74" s="0">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="U74" s="0">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="V74" s="0">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="W74" s="0">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="X74" s="0">
-        <v>4.69</v>
+        <v>5.22</v>
       </c>
       <c r="Y74" s="0">
-        <v>5.78</v>
+        <v>6</v>
       </c>
       <c r="Z74" s="0">
-        <v>5.78</v>
+        <v>6</v>
       </c>
       <c r="AA74" s="0">
-        <v>-2.547</v>
+        <v>-6.048</v>
       </c>
       <c r="AB74" s="0">
-        <v>-2.692</v>
+        <v>-9.305</v>
       </c>
       <c r="AC74" s="0">
-        <v>9.61</v>
+        <v>10.56</v>
       </c>
       <c r="AD74" s="0">
-        <v>17.04</v>
+        <v>16.38</v>
       </c>
       <c r="AE74" s="0">
-        <v>17.04</v>
+        <v>16.38</v>
       </c>
       <c r="AF74" s="0">
-        <v>-0.41</v>
+        <v>-0.11</v>
       </c>
       <c r="AG74" s="0">
-        <v>5.94</v>
+        <v>5.5</v>
       </c>
       <c r="AH74" s="0">
-        <v>5.94</v>
+        <v>5.5</v>
       </c>
       <c r="AI74" s="0" t="s">
         <v>47</v>
@@ -9134,13 +9134,13 @@
         <v>1000</v>
       </c>
       <c r="O75" s="0">
-        <v>97.32</v>
+        <v>95.2</v>
       </c>
       <c r="P75" s="0">
         <v>0</v>
       </c>
       <c r="Q75" s="0">
-        <v>1.44661</v>
+        <v>1.52036</v>
       </c>
       <c r="R75" s="0">
         <v>1.44504</v>
@@ -9149,43 +9149,43 @@
         <v>0</v>
       </c>
       <c r="T75" s="0">
-        <v>237</v>
+        <v>297</v>
       </c>
       <c r="U75" s="0">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="V75" s="0">
-        <v>292</v>
+        <v>342</v>
       </c>
       <c r="W75" s="0">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="X75" s="0">
-        <v>7.65</v>
+        <v>7.97</v>
       </c>
       <c r="Y75" s="0">
-        <v>6.92</v>
+        <v>7.57</v>
       </c>
       <c r="Z75" s="0">
-        <v>6.92</v>
+        <v>7.57</v>
       </c>
       <c r="AA75" s="0">
-        <v>-2.874</v>
+        <v>-4.99</v>
       </c>
       <c r="AB75" s="0">
-        <v>-2.726</v>
+        <v>-7.095</v>
       </c>
       <c r="AC75" s="0">
-        <v>3.42</v>
+        <v>3.09</v>
       </c>
       <c r="AD75" s="0">
-        <v>3.51</v>
+        <v>3.48</v>
       </c>
       <c r="AE75" s="0">
-        <v>3.51</v>
+        <v>3.48</v>
       </c>
       <c r="AF75" s="0">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="AG75" s="0">
         <v>0.16</v>
@@ -9241,13 +9241,13 @@
         <v>1000</v>
       </c>
       <c r="O76" s="0">
-        <v>101.2</v>
+        <v>99.68</v>
       </c>
       <c r="P76" s="0">
         <v>0</v>
       </c>
       <c r="Q76" s="0">
-        <v>1.50429</v>
+        <v>1.5919</v>
       </c>
       <c r="R76" s="0">
         <v>1.4635</v>
@@ -9256,43 +9256,43 @@
         <v>0</v>
       </c>
       <c r="T76" s="0">
-        <v>118</v>
+        <v>283</v>
       </c>
       <c r="U76" s="0">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="V76" s="0">
-        <v>146</v>
+        <v>338</v>
       </c>
       <c r="W76" s="0">
-        <v>27</v>
+        <v>219</v>
       </c>
       <c r="X76" s="0">
-        <v>6.38</v>
+        <v>8.01</v>
       </c>
       <c r="Y76" s="0">
-        <v>6.27</v>
+        <v>7.36</v>
       </c>
       <c r="Z76" s="0">
-        <v>6.27</v>
+        <v>7.36</v>
       </c>
       <c r="AA76" s="0">
-        <v>-0.276</v>
+        <v>-1.774</v>
       </c>
       <c r="AB76" s="0">
-        <v>-0.202</v>
+        <v>-2.895</v>
       </c>
       <c r="AC76" s="0">
-        <v>1.47</v>
+        <v>1.35</v>
       </c>
       <c r="AD76" s="0">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="AE76" s="0">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="AF76" s="0">
-        <v>0.03</v>
+        <v>-0.01</v>
       </c>
       <c r="AG76" s="0">
         <v>0.03</v>
@@ -9348,13 +9348,13 @@
         <v>1000</v>
       </c>
       <c r="O77" s="0">
-        <v>101.72</v>
+        <v>100.2</v>
       </c>
       <c r="P77" s="0">
         <v>0</v>
       </c>
       <c r="Q77" s="0">
-        <v>1.51202</v>
+        <v>1.60021</v>
       </c>
       <c r="R77" s="0">
         <v>1.47446</v>
@@ -9363,49 +9363,49 @@
         <v>0</v>
       </c>
       <c r="T77" s="0">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="U77" s="0">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="V77" s="0">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="W77" s="0">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="X77" s="0">
-        <v>4.45</v>
+        <v>4.84</v>
       </c>
       <c r="Y77" s="0">
-        <v>6.37</v>
+        <v>6.61</v>
       </c>
       <c r="Z77" s="0">
-        <v>6.5</v>
+        <v>6.61</v>
       </c>
       <c r="AA77" s="0">
-        <v>-0.509</v>
+        <v>-1.995</v>
       </c>
       <c r="AB77" s="0">
-        <v>-0.538</v>
+        <v>-4.894</v>
       </c>
       <c r="AC77" s="0">
-        <v>7.16</v>
+        <v>7.62</v>
       </c>
       <c r="AD77" s="0">
-        <v>3.86</v>
+        <v>14.85</v>
       </c>
       <c r="AE77" s="0">
-        <v>15.1</v>
+        <v>14.85</v>
       </c>
       <c r="AF77" s="0">
-        <v>-0.31</v>
+        <v>-0.17</v>
       </c>
       <c r="AG77" s="0">
-        <v>0.19</v>
+        <v>4.53</v>
       </c>
       <c r="AH77" s="0">
-        <v>4.68</v>
+        <v>4.53</v>
       </c>
       <c r="AI77" s="0" t="s">
         <v>47</v>
@@ -9455,58 +9455,58 @@
         <v>850</v>
       </c>
       <c r="O78" s="0">
-        <v>101.6</v>
+        <v>100.04</v>
       </c>
       <c r="P78" s="0">
         <v>0</v>
       </c>
       <c r="Q78" s="0">
-        <v>1.2837</v>
+        <v>1.358</v>
       </c>
       <c r="R78" s="0">
         <v>1.24251</v>
       </c>
       <c r="S78" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T78" s="0">
-        <v>87</v>
+        <v>319</v>
       </c>
       <c r="U78" s="0">
-        <v>-25</v>
+        <v>207</v>
       </c>
       <c r="V78" s="0">
-        <v>104</v>
+        <v>372</v>
       </c>
       <c r="W78" s="0">
-        <v>-34</v>
+        <v>234</v>
       </c>
       <c r="X78" s="0">
-        <v>5.97</v>
+        <v>8.45</v>
       </c>
       <c r="Y78" s="0">
-        <v>6.25</v>
+        <v>8.31</v>
       </c>
       <c r="Z78" s="0">
-        <v>6.25</v>
+        <v>8.31</v>
       </c>
       <c r="AA78" s="0">
-        <v>0.237</v>
+        <v>-1.302</v>
       </c>
       <c r="AB78" s="0">
-        <v>0.229</v>
+        <v>-1.929</v>
       </c>
       <c r="AC78" s="0">
-        <v>0.8</v>
+        <v>0.64</v>
       </c>
       <c r="AD78" s="0">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="AE78" s="0">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="AF78" s="0">
-        <v>0.01</v>
+        <v>-0.04</v>
       </c>
       <c r="AG78" s="0">
         <v>0.01</v>
@@ -9562,13 +9562,13 @@
         <v>862.5</v>
       </c>
       <c r="O79" s="0">
-        <v>102.12</v>
+        <v>100.72</v>
       </c>
       <c r="P79" s="0">
         <v>0</v>
       </c>
       <c r="Q79" s="0">
-        <v>1.30924</v>
+        <v>1.38734</v>
       </c>
       <c r="R79" s="0">
         <v>1.26973</v>
@@ -9577,43 +9577,43 @@
         <v>0</v>
       </c>
       <c r="T79" s="0">
-        <v>4</v>
+        <v>329</v>
       </c>
       <c r="U79" s="0">
-        <v>1</v>
+        <v>326</v>
       </c>
       <c r="V79" s="0">
-        <v>-37</v>
+        <v>377</v>
       </c>
       <c r="W79" s="0">
-        <v>-1</v>
+        <v>413</v>
       </c>
       <c r="X79" s="0">
-        <v>4.92</v>
+        <v>8.5</v>
       </c>
       <c r="Y79" s="0">
-        <v>5.39</v>
+        <v>7.99</v>
       </c>
       <c r="Z79" s="0">
-        <v>5.39</v>
+        <v>7.99</v>
       </c>
       <c r="AA79" s="0">
-        <v>0.039</v>
+        <v>-1.332</v>
       </c>
       <c r="AB79" s="0">
-        <v>0.001</v>
+        <v>-1.818</v>
       </c>
       <c r="AC79" s="0">
-        <v>0.57</v>
+        <v>0.55</v>
       </c>
       <c r="AD79" s="0">
-        <v>0.57</v>
+        <v>0.56</v>
       </c>
       <c r="AE79" s="0">
-        <v>0.57</v>
+        <v>0.56</v>
       </c>
       <c r="AF79" s="0">
-        <v>0.01</v>
+        <v>-0.01</v>
       </c>
       <c r="AG79" s="0">
         <v>0.01</v>
@@ -9669,13 +9669,13 @@
         <v>250.638</v>
       </c>
       <c r="O80" s="0">
-        <v>97.75</v>
+        <v>93.96</v>
       </c>
       <c r="P80" s="0">
         <v>0</v>
       </c>
       <c r="Q80" s="0">
-        <v>0.36416</v>
+        <v>0.3761</v>
       </c>
       <c r="R80" s="0">
         <v>0.3658</v>
@@ -9684,43 +9684,43 @@
         <v>0</v>
       </c>
       <c r="T80" s="0">
-        <v>185</v>
+        <v>316</v>
       </c>
       <c r="U80" s="0">
-        <v>102</v>
+        <v>233</v>
       </c>
       <c r="V80" s="0">
-        <v>259</v>
+        <v>371</v>
       </c>
       <c r="W80" s="0">
-        <v>119</v>
+        <v>231</v>
       </c>
       <c r="X80" s="0">
-        <v>6.94</v>
+        <v>8.1</v>
       </c>
       <c r="Y80" s="0">
-        <v>6.33</v>
+        <v>7.55</v>
       </c>
       <c r="Z80" s="0">
-        <v>6.33</v>
+        <v>7.55</v>
       </c>
       <c r="AA80" s="0">
-        <v>-3.413</v>
+        <v>-7.154</v>
       </c>
       <c r="AB80" s="0">
-        <v>-3.255</v>
+        <v>-9.211</v>
       </c>
       <c r="AC80" s="0">
-        <v>3.26</v>
+        <v>2.92</v>
       </c>
       <c r="AD80" s="0">
-        <v>3.31</v>
+        <v>3.27</v>
       </c>
       <c r="AE80" s="0">
-        <v>3.31</v>
+        <v>3.27</v>
       </c>
       <c r="AF80" s="0">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="AG80" s="0">
         <v>0.14</v>
@@ -9776,13 +9776,13 @@
         <v>401.02</v>
       </c>
       <c r="O81" s="0">
-        <v>84.32</v>
+        <v>80.8</v>
       </c>
       <c r="P81" s="0">
         <v>0</v>
       </c>
       <c r="Q81" s="0">
-        <v>0.50263</v>
+        <v>0.51747</v>
       </c>
       <c r="R81" s="0">
         <v>0.49505</v>
@@ -9791,49 +9791,49 @@
         <v>0</v>
       </c>
       <c r="T81" s="0">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="U81" s="0">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="V81" s="0">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="W81" s="0">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="X81" s="0">
-        <v>4.69</v>
+        <v>5.26</v>
       </c>
       <c r="Y81" s="0">
-        <v>5.67</v>
+        <v>5.93</v>
       </c>
       <c r="Z81" s="0">
-        <v>5.67</v>
+        <v>5.93</v>
       </c>
       <c r="AA81" s="0">
-        <v>-1.495</v>
+        <v>-5.607</v>
       </c>
       <c r="AB81" s="0">
-        <v>-1.677</v>
+        <v>-8.997</v>
       </c>
       <c r="AC81" s="0">
-        <v>10.22</v>
+        <v>11.23</v>
       </c>
       <c r="AD81" s="0">
-        <v>17.32</v>
+        <v>16.55</v>
       </c>
       <c r="AE81" s="0">
-        <v>17.32</v>
+        <v>16.55</v>
       </c>
       <c r="AF81" s="0">
-        <v>-0.14</v>
+        <v>0.09</v>
       </c>
       <c r="AG81" s="0">
-        <v>6.15</v>
+        <v>5.62</v>
       </c>
       <c r="AH81" s="0">
-        <v>6.15</v>
+        <v>5.62</v>
       </c>
       <c r="AI81" s="0" t="s">
         <v>47</v>
@@ -9883,13 +9883,13 @@
         <v>516.314</v>
       </c>
       <c r="O82" s="0">
-        <v>89.72</v>
+        <v>70.4</v>
       </c>
       <c r="P82" s="0">
         <v>0</v>
       </c>
       <c r="Q82" s="0">
-        <v>0.68858</v>
+        <v>0.58049</v>
       </c>
       <c r="R82" s="0">
         <v>0.73686</v>
@@ -9898,49 +9898,49 @@
         <v>1.59</v>
       </c>
       <c r="T82" s="0">
-        <v>356</v>
+        <v>597</v>
       </c>
       <c r="U82" s="0">
-        <v>109</v>
+        <v>350</v>
       </c>
       <c r="V82" s="0">
-        <v>386</v>
+        <v>475</v>
       </c>
       <c r="W82" s="0">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="X82" s="0">
-        <v>9.04</v>
+        <v>11.38</v>
       </c>
       <c r="Y82" s="0">
-        <v>9.55</v>
+        <v>16.96</v>
       </c>
       <c r="Z82" s="0">
-        <v>9.55</v>
+        <v>16.96</v>
       </c>
       <c r="AA82" s="0">
-        <v>-7.727</v>
+        <v>-27.25</v>
       </c>
       <c r="AB82" s="0">
-        <v>-7.577</v>
+        <v>-29.264</v>
       </c>
       <c r="AC82" s="0">
-        <v>2.67</v>
+        <v>0.59</v>
       </c>
       <c r="AD82" s="0">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="AE82" s="0">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="AF82" s="0">
-        <v>-0.08</v>
+        <v>-0.57</v>
       </c>
       <c r="AG82" s="0">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AH82" s="0">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AI82" s="0" t="s">
         <v>47</v>
@@ -9990,13 +9990,13 @@
         <v>350.893</v>
       </c>
       <c r="O83" s="0">
-        <v>67.04</v>
+        <v>59.64</v>
       </c>
       <c r="P83" s="0">
         <v>0</v>
       </c>
       <c r="Q83" s="0">
-        <v>0.34967</v>
+        <v>0.33421</v>
       </c>
       <c r="R83" s="0">
         <v>0.3688</v>
@@ -10005,49 +10005,49 @@
         <v>0</v>
       </c>
       <c r="T83" s="0">
-        <v>291</v>
+        <v>419</v>
       </c>
       <c r="U83" s="0">
-        <v>75</v>
+        <v>203</v>
       </c>
       <c r="V83" s="0">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="W83" s="0">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="X83" s="0">
-        <v>6.83</v>
+        <v>7.87</v>
       </c>
       <c r="Y83" s="0">
-        <v>6.99</v>
+        <v>7.88</v>
       </c>
       <c r="Z83" s="0">
-        <v>6.99</v>
+        <v>7.88</v>
       </c>
       <c r="AA83" s="0">
-        <v>-8.013</v>
+        <v>-18.167</v>
       </c>
       <c r="AB83" s="0">
-        <v>-8.305</v>
+        <v>-22.038</v>
       </c>
       <c r="AC83" s="0">
-        <v>12.58</v>
+        <v>12.11</v>
       </c>
       <c r="AD83" s="0">
-        <v>14.11</v>
+        <v>12.49</v>
       </c>
       <c r="AE83" s="0">
-        <v>14.11</v>
+        <v>12.49</v>
       </c>
       <c r="AF83" s="0">
-        <v>2.3</v>
+        <v>2.33</v>
       </c>
       <c r="AG83" s="0">
-        <v>4.07</v>
+        <v>3.2</v>
       </c>
       <c r="AH83" s="0">
-        <v>4.07</v>
+        <v>3.2</v>
       </c>
       <c r="AI83" s="0" t="s">
         <v>47</v>
@@ -10097,13 +10097,13 @@
         <v>401.02</v>
       </c>
       <c r="O84" s="0">
-        <v>75.36</v>
+        <v>67.84</v>
       </c>
       <c r="P84" s="0">
         <v>0</v>
       </c>
       <c r="Q84" s="0">
-        <v>0.44922</v>
+        <v>0.43447</v>
       </c>
       <c r="R84" s="0">
         <v>0.44532</v>
@@ -10112,49 +10112,49 @@
         <v>0</v>
       </c>
       <c r="T84" s="0">
-        <v>155</v>
+        <v>276</v>
       </c>
       <c r="U84" s="0">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="V84" s="0">
-        <v>139</v>
+        <v>236</v>
       </c>
       <c r="W84" s="0">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="X84" s="0">
-        <v>5.43</v>
+        <v>6.42</v>
       </c>
       <c r="Y84" s="0">
-        <v>5.95</v>
+        <v>6.63</v>
       </c>
       <c r="Z84" s="0">
-        <v>5.95</v>
+        <v>6.63</v>
       </c>
       <c r="AA84" s="0">
-        <v>-2.13</v>
+        <v>-11.896</v>
       </c>
       <c r="AB84" s="0">
-        <v>-2.398</v>
+        <v>-15.668</v>
       </c>
       <c r="AC84" s="0">
-        <v>12.21</v>
+        <v>13.09</v>
       </c>
       <c r="AD84" s="0">
-        <v>16.66</v>
+        <v>14.94</v>
       </c>
       <c r="AE84" s="0">
-        <v>16.66</v>
+        <v>14.94</v>
       </c>
       <c r="AF84" s="0">
-        <v>1.33</v>
+        <v>2.3</v>
       </c>
       <c r="AG84" s="0">
-        <v>5.64</v>
+        <v>4.55</v>
       </c>
       <c r="AH84" s="0">
-        <v>5.64</v>
+        <v>4.55</v>
       </c>
       <c r="AI84" s="0" t="s">
         <v>47</v>
@@ -10204,13 +10204,13 @@
         <v>501.276</v>
       </c>
       <c r="O85" s="0">
-        <v>88.32</v>
+        <v>77.28</v>
       </c>
       <c r="P85" s="0">
         <v>0</v>
       </c>
       <c r="Q85" s="0">
-        <v>0.65809</v>
+        <v>0.61866</v>
       </c>
       <c r="R85" s="0">
         <v>0.71135</v>
@@ -10219,49 +10219,49 @@
         <v>0</v>
       </c>
       <c r="T85" s="0">
-        <v>288</v>
+        <v>418</v>
       </c>
       <c r="U85" s="0">
-        <v>113</v>
+        <v>243</v>
       </c>
       <c r="V85" s="0">
-        <v>320</v>
+        <v>380</v>
       </c>
       <c r="W85" s="0">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="X85" s="0">
-        <v>8.09</v>
+        <v>9.16</v>
       </c>
       <c r="Y85" s="0">
-        <v>8.21</v>
+        <v>10.89</v>
       </c>
       <c r="Z85" s="0">
-        <v>8.21</v>
+        <v>10.89</v>
       </c>
       <c r="AA85" s="0">
-        <v>-10.244</v>
+        <v>-21.463</v>
       </c>
       <c r="AB85" s="0">
-        <v>-10.133</v>
+        <v>-24.003</v>
       </c>
       <c r="AC85" s="0">
-        <v>4.34</v>
+        <v>3.14</v>
       </c>
       <c r="AD85" s="0">
-        <v>5.11</v>
+        <v>4.95</v>
       </c>
       <c r="AE85" s="0">
-        <v>5.11</v>
+        <v>4.95</v>
       </c>
       <c r="AF85" s="0">
-        <v>0.04</v>
+        <v>-0.3</v>
       </c>
       <c r="AG85" s="0">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AH85" s="0">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AI85" s="0" t="s">
         <v>47</v>
@@ -10311,13 +10311,13 @@
         <v>501.276</v>
       </c>
       <c r="O86" s="0">
-        <v>100.36</v>
+        <v>78.4</v>
       </c>
       <c r="P86" s="0">
         <v>0</v>
       </c>
       <c r="Q86" s="0">
-        <v>0.7478</v>
+        <v>0.62763</v>
       </c>
       <c r="R86" s="0">
         <v>0.74027</v>
@@ -10326,43 +10326,43 @@
         <v>0</v>
       </c>
       <c r="T86" s="0">
-        <v>95</v>
+        <v>481</v>
       </c>
       <c r="U86" s="0">
-        <v>137</v>
+        <v>523</v>
       </c>
       <c r="V86" s="0">
-        <v>104</v>
+        <v>425</v>
       </c>
       <c r="W86" s="0">
-        <v>261</v>
+        <v>582</v>
       </c>
       <c r="X86" s="0">
-        <v>6.13</v>
+        <v>10.52</v>
       </c>
       <c r="Y86" s="0">
-        <v>6.11</v>
+        <v>24.6</v>
       </c>
       <c r="Z86" s="0">
-        <v>6.11</v>
+        <v>24.6</v>
       </c>
       <c r="AA86" s="0">
-        <v>-1.992</v>
+        <v>-23.438</v>
       </c>
       <c r="AB86" s="0">
-        <v>-1.923</v>
+        <v>-24.512</v>
       </c>
       <c r="AC86" s="0">
-        <v>1.41</v>
+        <v>-1.28</v>
       </c>
       <c r="AD86" s="0">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="AE86" s="0">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="AF86" s="0">
-        <v>0.03</v>
+        <v>-0.6</v>
       </c>
       <c r="AG86" s="0">
         <v>0.03</v>
@@ -10418,13 +10418,13 @@
         <v>501.276</v>
       </c>
       <c r="O87" s="0">
-        <v>67.44</v>
+        <v>64.76</v>
       </c>
       <c r="P87" s="0">
         <v>0</v>
       </c>
       <c r="Q87" s="0">
-        <v>0.50251</v>
+        <v>0.51843</v>
       </c>
       <c r="R87" s="0">
         <v>0.49881</v>
@@ -10433,49 +10433,49 @@
         <v>0</v>
       </c>
       <c r="T87" s="0">
-        <v>216</v>
+        <v>275</v>
       </c>
       <c r="U87" s="0">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="V87" s="0">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="W87" s="0">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="X87" s="0">
-        <v>6.05</v>
+        <v>6.41</v>
       </c>
       <c r="Y87" s="0">
-        <v>6.29</v>
+        <v>6.55</v>
       </c>
       <c r="Z87" s="0">
-        <v>6.29</v>
+        <v>6.55</v>
       </c>
       <c r="AA87" s="0">
-        <v>-2.261</v>
+        <v>-6.145</v>
       </c>
       <c r="AB87" s="0">
-        <v>-2.592</v>
+        <v>-10.159</v>
       </c>
       <c r="AC87" s="0">
-        <v>13.36</v>
+        <v>13.5</v>
       </c>
       <c r="AD87" s="0">
-        <v>15.76</v>
+        <v>15.1</v>
       </c>
       <c r="AE87" s="0">
-        <v>15.76</v>
+        <v>15.1</v>
       </c>
       <c r="AF87" s="0">
-        <v>1.63</v>
+        <v>3.3</v>
       </c>
       <c r="AG87" s="0">
-        <v>5.06</v>
+        <v>4.65</v>
       </c>
       <c r="AH87" s="0">
-        <v>5.06</v>
+        <v>4.65</v>
       </c>
       <c r="AI87" s="0" t="s">
         <v>47</v>
@@ -10525,13 +10525,13 @@
         <v>250.638</v>
       </c>
       <c r="O88" s="0">
-        <v>91.06</v>
+        <v>87.4</v>
       </c>
       <c r="P88" s="0">
         <v>0</v>
       </c>
       <c r="Q88" s="0">
-        <v>0.33925</v>
+        <v>0.34984</v>
       </c>
       <c r="R88" s="0">
         <v>0.33543</v>
@@ -10540,49 +10540,49 @@
         <v>0</v>
       </c>
       <c r="T88" s="0">
-        <v>99</v>
+        <v>197</v>
       </c>
       <c r="U88" s="0">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="V88" s="0">
-        <v>115</v>
+        <v>182</v>
       </c>
       <c r="W88" s="0">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="X88" s="0">
-        <v>4.84</v>
+        <v>5.62</v>
       </c>
       <c r="Y88" s="0">
-        <v>6.37</v>
+        <v>6.65</v>
       </c>
       <c r="Z88" s="0">
-        <v>6.37</v>
+        <v>6.65</v>
       </c>
       <c r="AA88" s="0">
-        <v>-1.875</v>
+        <v>-5.819</v>
       </c>
       <c r="AB88" s="0">
-        <v>-1.937</v>
+        <v>-8.452</v>
       </c>
       <c r="AC88" s="0">
-        <v>7.21</v>
+        <v>8.53</v>
       </c>
       <c r="AD88" s="0">
-        <v>15.54</v>
+        <v>14.88</v>
       </c>
       <c r="AE88" s="0">
-        <v>15.54</v>
+        <v>14.88</v>
       </c>
       <c r="AF88" s="0">
-        <v>-1.36</v>
+        <v>-0.74</v>
       </c>
       <c r="AG88" s="0">
-        <v>4.91</v>
+        <v>4.51</v>
       </c>
       <c r="AH88" s="0">
-        <v>4.91</v>
+        <v>4.51</v>
       </c>
       <c r="AI88" s="0" t="s">
         <v>47</v>
@@ -10632,13 +10632,13 @@
         <v>731.862</v>
       </c>
       <c r="O89" s="0">
-        <v>65.4</v>
+        <v>47.6</v>
       </c>
       <c r="P89" s="0">
         <v>0</v>
       </c>
       <c r="Q89" s="0">
-        <v>0.71147</v>
+        <v>0.55635</v>
       </c>
       <c r="R89" s="0">
         <v>0.76078</v>
@@ -10647,49 +10647,49 @@
         <v>0</v>
       </c>
       <c r="T89" s="0">
-        <v>382</v>
+        <v>718</v>
       </c>
       <c r="U89" s="0">
-        <v>91</v>
+        <v>427</v>
       </c>
       <c r="V89" s="0">
-        <v>291</v>
+        <v>358</v>
       </c>
       <c r="W89" s="0">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="X89" s="0">
-        <v>7.76</v>
+        <v>10.88</v>
       </c>
       <c r="Y89" s="0">
-        <v>7.84</v>
+        <v>10.88</v>
       </c>
       <c r="Z89" s="0">
-        <v>7.84</v>
+        <v>10.88</v>
       </c>
       <c r="AA89" s="0">
-        <v>-9.267</v>
+        <v>-33.962</v>
       </c>
       <c r="AB89" s="0">
-        <v>-9.538</v>
+        <v>-37.671</v>
       </c>
       <c r="AC89" s="0">
-        <v>11.66</v>
+        <v>8.95</v>
       </c>
       <c r="AD89" s="0">
-        <v>12.45</v>
+        <v>8.88</v>
       </c>
       <c r="AE89" s="0">
-        <v>12.45</v>
+        <v>8.88</v>
       </c>
       <c r="AF89" s="0">
-        <v>2.51</v>
+        <v>1.66</v>
       </c>
       <c r="AG89" s="0">
-        <v>3.21</v>
+        <v>1.65</v>
       </c>
       <c r="AH89" s="0">
-        <v>3.21</v>
+        <v>1.65</v>
       </c>
       <c r="AI89" s="0" t="s">
         <v>47</v>
@@ -10739,13 +10739,13 @@
         <v>601.531</v>
       </c>
       <c r="O90" s="0">
-        <v>80.32</v>
+        <v>71.76</v>
       </c>
       <c r="P90" s="0">
         <v>0</v>
       </c>
       <c r="Q90" s="0">
-        <v>0.71815</v>
+        <v>0.68936</v>
       </c>
       <c r="R90" s="0">
         <v>0.72072</v>
@@ -10754,49 +10754,49 @@
         <v>0</v>
       </c>
       <c r="T90" s="0">
-        <v>94</v>
+        <v>230</v>
       </c>
       <c r="U90" s="0">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="V90" s="0">
-        <v>104</v>
+        <v>220</v>
       </c>
       <c r="W90" s="0">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="X90" s="0">
-        <v>4.8</v>
+        <v>5.95</v>
       </c>
       <c r="Y90" s="0">
-        <v>5.59</v>
+        <v>6.26</v>
       </c>
       <c r="Z90" s="0">
-        <v>5.59</v>
+        <v>6.26</v>
       </c>
       <c r="AA90" s="0">
-        <v>-3.325</v>
+        <v>-13.625</v>
       </c>
       <c r="AB90" s="0">
-        <v>-3.546</v>
+        <v>-17.288</v>
       </c>
       <c r="AC90" s="0">
-        <v>11.48</v>
+        <v>12.8</v>
       </c>
       <c r="AD90" s="0">
-        <v>17.75</v>
+        <v>15.81</v>
       </c>
       <c r="AE90" s="0">
-        <v>17.75</v>
+        <v>15.81</v>
       </c>
       <c r="AF90" s="0">
-        <v>0.3</v>
+        <v>1.36</v>
       </c>
       <c r="AG90" s="0">
-        <v>6.4</v>
+        <v>5.09</v>
       </c>
       <c r="AH90" s="0">
-        <v>6.4</v>
+        <v>5.09</v>
       </c>
       <c r="AI90" s="0" t="s">
         <v>47</v>
@@ -10846,13 +10846,13 @@
         <v>751.913</v>
       </c>
       <c r="O91" s="0">
-        <v>97.56</v>
+        <v>91.2</v>
       </c>
       <c r="P91" s="0">
         <v>0</v>
       </c>
       <c r="Q91" s="0">
-        <v>1.09041</v>
+        <v>1.09514</v>
       </c>
       <c r="R91" s="0">
         <v>1.08394</v>
@@ -10861,49 +10861,49 @@
         <v>0</v>
       </c>
       <c r="T91" s="0">
-        <v>-34</v>
+        <v>157</v>
       </c>
       <c r="U91" s="0">
-        <v>109</v>
+        <v>300</v>
       </c>
       <c r="V91" s="0">
-        <v>7</v>
+        <v>159</v>
       </c>
       <c r="W91" s="0">
-        <v>105</v>
+        <v>257</v>
       </c>
       <c r="X91" s="0">
-        <v>3.46</v>
+        <v>5.21</v>
       </c>
       <c r="Y91" s="0">
-        <v>6.15</v>
+        <v>6.59</v>
       </c>
       <c r="Z91" s="0">
-        <v>6.15</v>
+        <v>6.59</v>
       </c>
       <c r="AA91" s="0">
-        <v>-2.401</v>
+        <v>-8.764</v>
       </c>
       <c r="AB91" s="0">
-        <v>-2.449</v>
+        <v>-9.701</v>
       </c>
       <c r="AC91" s="0">
-        <v>4.1</v>
+        <v>7.28</v>
       </c>
       <c r="AD91" s="0">
-        <v>16.1</v>
+        <v>15.01</v>
       </c>
       <c r="AE91" s="0">
-        <v>16.1</v>
+        <v>15.01</v>
       </c>
       <c r="AF91" s="0">
-        <v>-2.4</v>
+        <v>-1.14</v>
       </c>
       <c r="AG91" s="0">
-        <v>5.27</v>
+        <v>4.59</v>
       </c>
       <c r="AH91" s="0">
-        <v>5.27</v>
+        <v>4.59</v>
       </c>
       <c r="AI91" s="0" t="s">
         <v>47</v>
@@ -10953,13 +10953,13 @@
         <v>300.765</v>
       </c>
       <c r="O92" s="0">
-        <v>69.6</v>
+        <v>61.84</v>
       </c>
       <c r="P92" s="0">
         <v>0</v>
       </c>
       <c r="Q92" s="0">
-        <v>0.31116</v>
+        <v>0.29703</v>
       </c>
       <c r="R92" s="0">
         <v>0.32722</v>
@@ -10968,49 +10968,49 @@
         <v>0</v>
       </c>
       <c r="T92" s="0">
-        <v>234</v>
+        <v>361</v>
       </c>
       <c r="U92" s="0">
-        <v>75</v>
+        <v>202</v>
       </c>
       <c r="V92" s="0">
-        <v>218</v>
+        <v>263</v>
       </c>
       <c r="W92" s="0">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="X92" s="0">
-        <v>6.24</v>
+        <v>7.28</v>
       </c>
       <c r="Y92" s="0">
-        <v>6.51</v>
+        <v>7.34</v>
       </c>
       <c r="Z92" s="0">
-        <v>6.51</v>
+        <v>7.34</v>
       </c>
       <c r="AA92" s="0">
-        <v>-7.741</v>
+        <v>-18.028</v>
       </c>
       <c r="AB92" s="0">
-        <v>-8.017</v>
+        <v>-21.845</v>
       </c>
       <c r="AC92" s="0">
-        <v>12.71</v>
+        <v>12.61</v>
       </c>
       <c r="AD92" s="0">
-        <v>15.25</v>
+        <v>13.5</v>
       </c>
       <c r="AE92" s="0">
-        <v>15.25</v>
+        <v>13.5</v>
       </c>
       <c r="AF92" s="0">
-        <v>1.47</v>
+        <v>2.82</v>
       </c>
       <c r="AG92" s="0">
-        <v>4.72</v>
+        <v>3.71</v>
       </c>
       <c r="AH92" s="0">
-        <v>4.72</v>
+        <v>3.71</v>
       </c>
       <c r="AI92" s="0" t="s">
         <v>47</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="Q93" s="0">
-        <v>0.31775</v>
+        <v>0.34138</v>
       </c>
       <c r="R93" s="0">
         <v>0.41151</v>
@@ -11075,49 +11075,49 @@
         <v>0</v>
       </c>
       <c r="T93" s="0">
-        <v>479</v>
+        <v>508</v>
       </c>
       <c r="U93" s="0">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="V93" s="0">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="W93" s="0">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="X93" s="0">
-        <v>8.75</v>
+        <v>8.77</v>
       </c>
       <c r="Y93" s="0">
-        <v>8.76</v>
+        <v>8.77</v>
       </c>
       <c r="Z93" s="0">
-        <v>8.76</v>
+        <v>8.77</v>
       </c>
       <c r="AA93" s="0">
         <v>-25.086</v>
       </c>
       <c r="AB93" s="0">
-        <v>-25.288</v>
+        <v>-28.575</v>
       </c>
       <c r="AC93" s="0">
-        <v>11</v>
+        <v>11.06</v>
       </c>
       <c r="AD93" s="0">
-        <v>11.22</v>
+        <v>11.2</v>
       </c>
       <c r="AE93" s="0">
-        <v>11.22</v>
+        <v>11.2</v>
       </c>
       <c r="AF93" s="0">
-        <v>2.08</v>
+        <v>1.88</v>
       </c>
       <c r="AG93" s="0">
-        <v>2.59</v>
+        <v>2.58</v>
       </c>
       <c r="AH93" s="0">
-        <v>2.59</v>
+        <v>2.58</v>
       </c>
       <c r="AI93" s="0" t="s">
         <v>47</v>
@@ -11167,13 +11167,13 @@
         <v>350.893</v>
       </c>
       <c r="O94" s="0">
-        <v>96.08</v>
+        <v>65.56</v>
       </c>
       <c r="P94" s="0">
         <v>0</v>
       </c>
       <c r="Q94" s="0">
-        <v>0.50114</v>
+        <v>0.36739</v>
       </c>
       <c r="R94" s="0">
         <v>0.49795</v>
@@ -11182,49 +11182,49 @@
         <v>0</v>
       </c>
       <c r="T94" s="0">
-        <v>401</v>
+        <v>822</v>
       </c>
       <c r="U94" s="0">
-        <v>56</v>
+        <v>477</v>
       </c>
       <c r="V94" s="0">
-        <v>394</v>
+        <v>528</v>
       </c>
       <c r="W94" s="0">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="X94" s="0">
-        <v>8.17</v>
+        <v>11.82</v>
       </c>
       <c r="Y94" s="0">
-        <v>12.59</v>
+        <v>71.26</v>
       </c>
       <c r="Z94" s="0">
-        <v>12.59</v>
+        <v>71.26</v>
       </c>
       <c r="AA94" s="0">
-        <v>-2.358</v>
+        <v>-33.374</v>
       </c>
       <c r="AB94" s="0">
-        <v>-2.3</v>
+        <v>-34.2</v>
       </c>
       <c r="AC94" s="0">
-        <v>0.36</v>
+        <v>-3.26</v>
       </c>
       <c r="AD94" s="0">
-        <v>0.94</v>
+        <v>0.64</v>
       </c>
       <c r="AE94" s="0">
-        <v>0.94</v>
+        <v>0.64</v>
       </c>
       <c r="AF94" s="0">
-        <v>-0.09</v>
+        <v>-0.7</v>
       </c>
       <c r="AG94" s="0">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AH94" s="0">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AI94" s="0" t="s">
         <v>47</v>
@@ -11274,13 +11274,13 @@
         <v>501.276</v>
       </c>
       <c r="O95" s="0">
-        <v>97.48</v>
+        <v>94.92</v>
       </c>
       <c r="P95" s="0">
         <v>0</v>
       </c>
       <c r="Q95" s="0">
-        <v>0.72634</v>
+        <v>0.75988</v>
       </c>
       <c r="R95" s="0">
         <v>0.7287</v>
@@ -11289,43 +11289,43 @@
         <v>0</v>
       </c>
       <c r="T95" s="0">
-        <v>163</v>
+        <v>295</v>
       </c>
       <c r="U95" s="0">
-        <v>119</v>
+        <v>251</v>
       </c>
       <c r="V95" s="0">
-        <v>227</v>
+        <v>348</v>
       </c>
       <c r="W95" s="0">
-        <v>149</v>
+        <v>270</v>
       </c>
       <c r="X95" s="0">
-        <v>6.89</v>
+        <v>8.09</v>
       </c>
       <c r="Y95" s="0">
-        <v>6.3</v>
+        <v>7.31</v>
       </c>
       <c r="Z95" s="0">
-        <v>6.3</v>
+        <v>7.31</v>
       </c>
       <c r="AA95" s="0">
-        <v>-3.294</v>
+        <v>-5.833</v>
       </c>
       <c r="AB95" s="0">
-        <v>-3.136</v>
+        <v>-7.683</v>
       </c>
       <c r="AC95" s="0">
-        <v>2.7</v>
+        <v>2.48</v>
       </c>
       <c r="AD95" s="0">
-        <v>2.72</v>
+        <v>2.69</v>
       </c>
       <c r="AE95" s="0">
-        <v>2.72</v>
+        <v>2.69</v>
       </c>
       <c r="AF95" s="0">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="AG95" s="0">
         <v>0.1</v>
@@ -11381,13 +11381,13 @@
         <v>751.913</v>
       </c>
       <c r="O96" s="0">
-        <v>97.48</v>
+        <v>94.4</v>
       </c>
       <c r="P96" s="0">
         <v>0</v>
       </c>
       <c r="Q96" s="0">
-        <v>1.08952</v>
+        <v>1.13357</v>
       </c>
       <c r="R96" s="0">
         <v>1.08525</v>
@@ -11396,43 +11396,43 @@
         <v>0</v>
       </c>
       <c r="T96" s="0">
-        <v>237</v>
+        <v>282</v>
       </c>
       <c r="U96" s="0">
-        <v>189</v>
+        <v>234</v>
       </c>
       <c r="V96" s="0">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="W96" s="0">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="X96" s="0">
-        <v>8.07</v>
+        <v>8.27</v>
       </c>
       <c r="Y96" s="0">
-        <v>8.52</v>
+        <v>12.07</v>
       </c>
       <c r="Z96" s="0">
-        <v>8.52</v>
+        <v>12.07</v>
       </c>
       <c r="AA96" s="0">
-        <v>-2.598</v>
+        <v>-5.675</v>
       </c>
       <c r="AB96" s="0">
-        <v>-2.584</v>
+        <v>-6.407</v>
       </c>
       <c r="AC96" s="0">
-        <v>0.72</v>
+        <v>0.14</v>
       </c>
       <c r="AD96" s="0">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="AE96" s="0">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="AF96" s="0">
-        <v>-0.07</v>
+        <v>-0.23</v>
       </c>
       <c r="AG96" s="0">
         <v>0.02</v>
@@ -11488,13 +11488,13 @@
         <v>751.913</v>
       </c>
       <c r="O97" s="0">
-        <v>72.12</v>
+        <v>59.26</v>
       </c>
       <c r="P97" s="0">
         <v>0</v>
       </c>
       <c r="Q97" s="0">
-        <v>0.80607</v>
+        <v>0.7116</v>
       </c>
       <c r="R97" s="0">
         <v>0.81632</v>
@@ -11503,49 +11503,49 @@
         <v>0</v>
       </c>
       <c r="T97" s="0">
-        <v>379</v>
+        <v>598</v>
       </c>
       <c r="U97" s="0">
-        <v>46</v>
+        <v>265</v>
       </c>
       <c r="V97" s="0">
-        <v>326</v>
+        <v>384</v>
       </c>
       <c r="W97" s="0">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="X97" s="0">
-        <v>7.73</v>
+        <v>9.68</v>
       </c>
       <c r="Y97" s="0">
-        <v>7.92</v>
+        <v>9.68</v>
       </c>
       <c r="Z97" s="0">
-        <v>7.92</v>
+        <v>9.68</v>
       </c>
       <c r="AA97" s="0">
-        <v>-4.198</v>
+        <v>-21.281</v>
       </c>
       <c r="AB97" s="0">
-        <v>-4.425</v>
+        <v>-24.843</v>
       </c>
       <c r="AC97" s="0">
-        <v>10.96</v>
+        <v>10.23</v>
       </c>
       <c r="AD97" s="0">
-        <v>12.44</v>
+        <v>10.13</v>
       </c>
       <c r="AE97" s="0">
-        <v>12.44</v>
+        <v>10.13</v>
       </c>
       <c r="AF97" s="0">
-        <v>1.36</v>
+        <v>2.14</v>
       </c>
       <c r="AG97" s="0">
-        <v>3.17</v>
+        <v>2.12</v>
       </c>
       <c r="AH97" s="0">
-        <v>3.17</v>
+        <v>2.12</v>
       </c>
       <c r="AI97" s="0" t="s">
         <v>47</v>
@@ -11595,13 +11595,13 @@
         <v>300.765</v>
       </c>
       <c r="O98" s="0">
-        <v>77.2</v>
+        <v>67.6</v>
       </c>
       <c r="P98" s="0">
         <v>0</v>
       </c>
       <c r="Q98" s="0">
-        <v>0.34514</v>
+        <v>0.3247</v>
       </c>
       <c r="R98" s="0">
         <v>0.37823</v>
@@ -11610,49 +11610,49 @@
         <v>0</v>
       </c>
       <c r="T98" s="0">
-        <v>321</v>
+        <v>484</v>
       </c>
       <c r="U98" s="0">
-        <v>146</v>
+        <v>309</v>
       </c>
       <c r="V98" s="0">
-        <v>314</v>
+        <v>369</v>
       </c>
       <c r="W98" s="0">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="X98" s="0">
-        <v>7.13</v>
+        <v>8.53</v>
       </c>
       <c r="Y98" s="0">
-        <v>7.51</v>
+        <v>8.59</v>
       </c>
       <c r="Z98" s="0">
-        <v>7.51</v>
+        <v>8.59</v>
       </c>
       <c r="AA98" s="0">
-        <v>-11.468</v>
+        <v>-22.477</v>
       </c>
       <c r="AB98" s="0">
-        <v>-11.602</v>
+        <v>-25.737</v>
       </c>
       <c r="AC98" s="0">
-        <v>10.47</v>
+        <v>10.9</v>
       </c>
       <c r="AD98" s="0">
-        <v>13.21</v>
+        <v>11.52</v>
       </c>
       <c r="AE98" s="0">
-        <v>13.21</v>
+        <v>11.52</v>
       </c>
       <c r="AF98" s="0">
-        <v>0.96</v>
+        <v>2.15</v>
       </c>
       <c r="AG98" s="0">
-        <v>3.55</v>
+        <v>2.71</v>
       </c>
       <c r="AH98" s="0">
-        <v>3.55</v>
+        <v>2.71</v>
       </c>
       <c r="AI98" s="0" t="s">
         <v>47</v>
@@ -11702,13 +11702,13 @@
         <v>927.36</v>
       </c>
       <c r="O99" s="0">
-        <v>80.28</v>
+        <v>73.44</v>
       </c>
       <c r="P99" s="0">
         <v>0</v>
       </c>
       <c r="Q99" s="0">
-        <v>1.10664</v>
+        <v>1.08765</v>
       </c>
       <c r="R99" s="0">
         <v>1.11432</v>
@@ -11717,49 +11717,49 @@
         <v>0</v>
       </c>
       <c r="T99" s="0">
+        <v>255</v>
+      </c>
+      <c r="U99" s="0">
+        <v>159</v>
+      </c>
+      <c r="V99" s="0">
+        <v>245</v>
+      </c>
+      <c r="W99" s="0">
         <v>138</v>
       </c>
-      <c r="U99" s="0">
-        <v>42</v>
-      </c>
-      <c r="V99" s="0">
-        <v>133</v>
-      </c>
-      <c r="W99" s="0">
-        <v>26</v>
-      </c>
       <c r="X99" s="0">
-        <v>5.24</v>
+        <v>6.21</v>
       </c>
       <c r="Y99" s="0">
-        <v>5.97</v>
+        <v>6.54</v>
       </c>
       <c r="Z99" s="0">
-        <v>5.97</v>
+        <v>6.54</v>
       </c>
       <c r="AA99" s="0">
-        <v>-3.649</v>
+        <v>-11.858</v>
       </c>
       <c r="AB99" s="0">
-        <v>-3.849</v>
+        <v>-15.405</v>
       </c>
       <c r="AC99" s="0">
-        <v>11.02</v>
+        <v>12.17</v>
       </c>
       <c r="AD99" s="0">
-        <v>16.61</v>
+        <v>15.14</v>
       </c>
       <c r="AE99" s="0">
-        <v>16.61</v>
+        <v>15.14</v>
       </c>
       <c r="AF99" s="0">
-        <v>0.23</v>
+        <v>1.39</v>
       </c>
       <c r="AG99" s="0">
-        <v>5.6</v>
+        <v>4.67</v>
       </c>
       <c r="AH99" s="0">
-        <v>5.6</v>
+        <v>4.67</v>
       </c>
       <c r="AI99" s="0" t="s">
         <v>47</v>
@@ -11809,13 +11809,13 @@
         <v>576.467</v>
       </c>
       <c r="O100" s="0">
-        <v>90.4</v>
+        <v>82.08</v>
       </c>
       <c r="P100" s="0">
         <v>0</v>
       </c>
       <c r="Q100" s="0">
-        <v>0.77463</v>
+        <v>0.75565</v>
       </c>
       <c r="R100" s="0">
         <v>0.77482</v>
@@ -11824,49 +11824,49 @@
         <v>0</v>
       </c>
       <c r="T100" s="0">
-        <v>53</v>
+        <v>213</v>
       </c>
       <c r="U100" s="0">
-        <v>47</v>
+        <v>207</v>
       </c>
       <c r="V100" s="0">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="W100" s="0">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="X100" s="0">
-        <v>4.36</v>
+        <v>5.78</v>
       </c>
       <c r="Y100" s="0">
-        <v>5.86</v>
+        <v>6.46</v>
       </c>
       <c r="Z100" s="0">
-        <v>5.86</v>
+        <v>6.46</v>
       </c>
       <c r="AA100" s="0">
-        <v>-3.004</v>
+        <v>-11.931</v>
       </c>
       <c r="AB100" s="0">
-        <v>-3.073</v>
+        <v>-14.865</v>
       </c>
       <c r="AC100" s="0">
-        <v>8.19</v>
+        <v>10.37</v>
       </c>
       <c r="AD100" s="0">
-        <v>16.92</v>
+        <v>15.32</v>
       </c>
       <c r="AE100" s="0">
-        <v>16.92</v>
+        <v>15.32</v>
       </c>
       <c r="AF100" s="0">
-        <v>-0.69</v>
+        <v>0.08</v>
       </c>
       <c r="AG100" s="0">
-        <v>5.82</v>
+        <v>4.78</v>
       </c>
       <c r="AH100" s="0">
-        <v>5.82</v>
+        <v>4.78</v>
       </c>
       <c r="AI100" s="0" t="s">
         <v>47</v>
@@ -11916,13 +11916,13 @@
         <v>501.276</v>
       </c>
       <c r="O101" s="0">
-        <v>66.44</v>
+        <v>62.52</v>
       </c>
       <c r="P101" s="0">
         <v>0</v>
       </c>
       <c r="Q101" s="0">
-        <v>0.49506</v>
+        <v>0.5005</v>
       </c>
       <c r="R101" s="0">
         <v>0.49534</v>
@@ -11931,49 +11931,49 @@
         <v>0</v>
       </c>
       <c r="T101" s="0">
-        <v>159</v>
+        <v>231</v>
       </c>
       <c r="U101" s="0">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="V101" s="0">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="W101" s="0">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="X101" s="0">
-        <v>5.46</v>
+        <v>5.96</v>
       </c>
       <c r="Y101" s="0">
-        <v>5.73</v>
+        <v>6.1</v>
       </c>
       <c r="Z101" s="0">
-        <v>5.73</v>
+        <v>6.1</v>
       </c>
       <c r="AA101" s="0">
-        <v>-3.036</v>
+        <v>-8.757</v>
       </c>
       <c r="AB101" s="0">
-        <v>-3.404</v>
+        <v>-12.931</v>
       </c>
       <c r="AC101" s="0">
-        <v>14.26</v>
+        <v>14.28</v>
       </c>
       <c r="AD101" s="0">
-        <v>17.17</v>
+        <v>16.1</v>
       </c>
       <c r="AE101" s="0">
-        <v>17.17</v>
+        <v>16.1</v>
       </c>
       <c r="AF101" s="0">
-        <v>1.99</v>
+        <v>3.79</v>
       </c>
       <c r="AG101" s="0">
-        <v>6.04</v>
+        <v>5.32</v>
       </c>
       <c r="AH101" s="0">
-        <v>6.04</v>
+        <v>5.32</v>
       </c>
       <c r="AI101" s="0" t="s">
         <v>47</v>
@@ -12023,13 +12023,13 @@
         <v>751.913</v>
       </c>
       <c r="O102" s="0">
-        <v>71.4</v>
+        <v>67</v>
       </c>
       <c r="P102" s="0">
         <v>0</v>
       </c>
       <c r="Q102" s="0">
-        <v>0.79802</v>
+        <v>0.80455</v>
       </c>
       <c r="R102" s="0">
         <v>0.7916</v>
@@ -12038,49 +12038,49 @@
         <v>0</v>
       </c>
       <c r="T102" s="0">
-        <v>141</v>
+        <v>220</v>
       </c>
       <c r="U102" s="0">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="V102" s="0">
-        <v>123</v>
+        <v>195</v>
       </c>
       <c r="W102" s="0">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="X102" s="0">
-        <v>5.28</v>
+        <v>5.85</v>
       </c>
       <c r="Y102" s="0">
-        <v>5.69</v>
+        <v>6.07</v>
       </c>
       <c r="Z102" s="0">
-        <v>5.69</v>
+        <v>6.07</v>
       </c>
       <c r="AA102" s="0">
-        <v>-2.192</v>
+        <v>-8.219</v>
       </c>
       <c r="AB102" s="0">
-        <v>-2.519</v>
+        <v>-12.276</v>
       </c>
       <c r="AC102" s="0">
-        <v>13.25</v>
+        <v>13.85</v>
       </c>
       <c r="AD102" s="0">
-        <v>17.3</v>
+        <v>16.18</v>
       </c>
       <c r="AE102" s="0">
-        <v>17.3</v>
+        <v>16.18</v>
       </c>
       <c r="AF102" s="0">
-        <v>1.76</v>
+        <v>2.63</v>
       </c>
       <c r="AG102" s="0">
-        <v>6.13</v>
+        <v>5.37</v>
       </c>
       <c r="AH102" s="0">
-        <v>6.13</v>
+        <v>5.37</v>
       </c>
       <c r="AI102" s="0" t="s">
         <v>47</v>
@@ -12130,13 +12130,13 @@
         <v>451.148</v>
       </c>
       <c r="O103" s="0">
-        <v>78.6</v>
+        <v>74.16</v>
       </c>
       <c r="P103" s="0">
         <v>0</v>
       </c>
       <c r="Q103" s="0">
-        <v>0.5271</v>
+        <v>0.53432</v>
       </c>
       <c r="R103" s="0">
         <v>0.52987</v>
@@ -12145,49 +12145,49 @@
         <v>0</v>
       </c>
       <c r="T103" s="0">
-        <v>130</v>
+        <v>214</v>
       </c>
       <c r="U103" s="0">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="V103" s="0">
-        <v>125</v>
+        <v>217</v>
       </c>
       <c r="W103" s="0">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="X103" s="0">
-        <v>5.17</v>
+        <v>5.79</v>
       </c>
       <c r="Y103" s="0">
-        <v>5.82</v>
+        <v>6.18</v>
       </c>
       <c r="Z103" s="0">
-        <v>5.82</v>
+        <v>6.18</v>
       </c>
       <c r="AA103" s="0">
-        <v>-3.487</v>
+        <v>-8.939</v>
       </c>
       <c r="AB103" s="0">
-        <v>-3.733</v>
+        <v>-12.663</v>
       </c>
       <c r="AC103" s="0">
-        <v>11.8</v>
+        <v>12.42</v>
       </c>
       <c r="AD103" s="0">
-        <v>16.92</v>
+        <v>15.91</v>
       </c>
       <c r="AE103" s="0">
-        <v>16.92</v>
+        <v>15.91</v>
       </c>
       <c r="AF103" s="0">
-        <v>0.74</v>
+        <v>1.78</v>
       </c>
       <c r="AG103" s="0">
-        <v>5.86</v>
+        <v>5.19</v>
       </c>
       <c r="AH103" s="0">
-        <v>5.86</v>
+        <v>5.19</v>
       </c>
       <c r="AI103" s="0" t="s">
         <v>47</v>
@@ -12237,13 +12237,13 @@
         <v>576.467</v>
       </c>
       <c r="O104" s="0">
-        <v>95.64</v>
+        <v>90.76</v>
       </c>
       <c r="P104" s="0">
         <v>0</v>
       </c>
       <c r="Q104" s="0">
-        <v>0.81953</v>
+        <v>0.83556</v>
       </c>
       <c r="R104" s="0">
         <v>0.81406</v>
@@ -12252,49 +12252,49 @@
         <v>0</v>
       </c>
       <c r="T104" s="0">
-        <v>-22</v>
+        <v>114</v>
       </c>
       <c r="U104" s="0">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="V104" s="0">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="W104" s="0">
-        <v>49</v>
+        <v>152</v>
       </c>
       <c r="X104" s="0">
-        <v>3.59</v>
+        <v>4.77</v>
       </c>
       <c r="Y104" s="0">
-        <v>5.84</v>
+        <v>6.17</v>
       </c>
       <c r="Z104" s="0">
-        <v>5.84</v>
+        <v>6.17</v>
       </c>
       <c r="AA104" s="0">
-        <v>-2.328</v>
+        <v>-7.312</v>
       </c>
       <c r="AB104" s="0">
-        <v>-2.355</v>
+        <v>-9.25</v>
       </c>
       <c r="AC104" s="0">
-        <v>5.62</v>
+        <v>7.76</v>
       </c>
       <c r="AD104" s="0">
-        <v>16.84</v>
+        <v>15.93</v>
       </c>
       <c r="AE104" s="0">
-        <v>16.84</v>
+        <v>15.93</v>
       </c>
       <c r="AF104" s="0">
-        <v>-1.96</v>
+        <v>-1.19</v>
       </c>
       <c r="AG104" s="0">
-        <v>5.8</v>
+        <v>5.21</v>
       </c>
       <c r="AH104" s="0">
-        <v>5.8</v>
+        <v>5.21</v>
       </c>
       <c r="AI104" s="0" t="s">
         <v>47</v>
@@ -12344,13 +12344,13 @@
         <v>300.765</v>
       </c>
       <c r="O105" s="0">
-        <v>93.92</v>
+        <v>89.8</v>
       </c>
       <c r="P105" s="0">
         <v>0</v>
       </c>
       <c r="Q105" s="0">
-        <v>0.41989</v>
+        <v>0.43133</v>
       </c>
       <c r="R105" s="0">
         <v>0.41727</v>
@@ -12359,49 +12359,49 @@
         <v>0</v>
       </c>
       <c r="T105" s="0">
-        <v>224</v>
+        <v>310</v>
       </c>
       <c r="U105" s="0">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="V105" s="0">
-        <v>256</v>
+        <v>309</v>
       </c>
       <c r="W105" s="0">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="X105" s="0">
-        <v>6.36</v>
+        <v>6.76</v>
       </c>
       <c r="Y105" s="0">
-        <v>6.54</v>
+        <v>7.4</v>
       </c>
       <c r="Z105" s="0">
-        <v>6.54</v>
+        <v>7.4</v>
       </c>
       <c r="AA105" s="0">
-        <v>-2.37</v>
+        <v>-6.653</v>
       </c>
       <c r="AB105" s="0">
-        <v>-2.26</v>
+        <v>-9.284</v>
       </c>
       <c r="AC105" s="0">
-        <v>5.15</v>
+        <v>4.8</v>
       </c>
       <c r="AD105" s="0">
-        <v>5.33</v>
+        <v>5.27</v>
       </c>
       <c r="AE105" s="0">
-        <v>5.33</v>
+        <v>5.27</v>
       </c>
       <c r="AF105" s="0">
-        <v>0.29</v>
+        <v>0.17</v>
       </c>
       <c r="AG105" s="0">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="AH105" s="0">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="AI105" s="0" t="s">
         <v>47</v>
@@ -12451,13 +12451,13 @@
         <v>300.765</v>
       </c>
       <c r="O106" s="0">
-        <v>74.56</v>
+        <v>56</v>
       </c>
       <c r="P106" s="0">
         <v>0</v>
       </c>
       <c r="Q106" s="0">
-        <v>0.33334</v>
+        <v>0.26898</v>
       </c>
       <c r="R106" s="0">
         <v>0.34093</v>
@@ -12466,49 +12466,49 @@
         <v>0</v>
       </c>
       <c r="T106" s="0">
-        <v>239</v>
+        <v>524</v>
       </c>
       <c r="U106" s="0">
-        <v>54</v>
+        <v>339</v>
       </c>
       <c r="V106" s="0">
-        <v>238</v>
+        <v>320</v>
       </c>
       <c r="W106" s="0">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="X106" s="0">
-        <v>6.29</v>
+        <v>8.93</v>
       </c>
       <c r="Y106" s="0">
-        <v>6.66</v>
+        <v>8.93</v>
       </c>
       <c r="Z106" s="0">
-        <v>6.66</v>
+        <v>8.93</v>
       </c>
       <c r="AA106" s="0">
-        <v>-5.14</v>
+        <v>-28.753</v>
       </c>
       <c r="AB106" s="0">
-        <v>-5.377</v>
+        <v>-32.361</v>
       </c>
       <c r="AC106" s="0">
-        <v>11.64</v>
+        <v>11.02</v>
       </c>
       <c r="AD106" s="0">
-        <v>14.75</v>
+        <v>10.92</v>
       </c>
       <c r="AE106" s="0">
-        <v>14.75</v>
+        <v>10.92</v>
       </c>
       <c r="AF106" s="0">
-        <v>1.41</v>
+        <v>2.5</v>
       </c>
       <c r="AG106" s="0">
-        <v>4.47</v>
+        <v>2.47</v>
       </c>
       <c r="AH106" s="0">
-        <v>4.47</v>
+        <v>2.47</v>
       </c>
       <c r="AI106" s="0" t="s">
         <v>47</v>
@@ -12558,64 +12558,64 @@
         <v>300.765</v>
       </c>
       <c r="O107" s="0">
-        <v>82.92</v>
+        <v>32.04</v>
       </c>
       <c r="P107" s="0">
         <v>0</v>
       </c>
       <c r="Q107" s="0">
-        <v>0.37071</v>
+        <v>0.1539</v>
       </c>
       <c r="R107" s="0">
         <v>0.36782</v>
       </c>
       <c r="S107" s="0">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T107" s="0">
-        <v>360</v>
+        <v>1433</v>
       </c>
       <c r="U107" s="0">
-        <v>21</v>
+        <v>1094</v>
       </c>
       <c r="V107" s="0">
-        <v>369</v>
+        <v>565</v>
       </c>
       <c r="W107" s="0">
-        <v>16</v>
+        <v>212</v>
       </c>
       <c r="X107" s="0">
-        <v>8.04</v>
+        <v>18.27</v>
       </c>
       <c r="Y107" s="0">
-        <v>10.46</v>
+        <v>45.18</v>
       </c>
       <c r="Z107" s="0">
-        <v>10.46</v>
+        <v>45.18</v>
       </c>
       <c r="AA107" s="0">
-        <v>-2.217</v>
+        <v>-62.217</v>
       </c>
       <c r="AB107" s="0">
-        <v>-2.15</v>
+        <v>-63.857</v>
       </c>
       <c r="AC107" s="0">
-        <v>2.26</v>
+        <v>-3.18</v>
       </c>
       <c r="AD107" s="0">
-        <v>3.09</v>
+        <v>2.42</v>
       </c>
       <c r="AE107" s="0">
-        <v>3.09</v>
+        <v>2.42</v>
       </c>
       <c r="AF107" s="0">
-        <v>-0.13</v>
+        <v>-0.93</v>
       </c>
       <c r="AG107" s="0">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="AH107" s="0">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="AI107" s="0" t="s">
         <v>47</v>
@@ -12665,13 +12665,13 @@
         <v>1250</v>
       </c>
       <c r="O108" s="0">
-        <v>70.32</v>
+        <v>67.72</v>
       </c>
       <c r="P108" s="0">
         <v>0</v>
       </c>
       <c r="Q108" s="0">
-        <v>1.30659</v>
+        <v>1.35187</v>
       </c>
       <c r="R108" s="0">
         <v>1.31958</v>
@@ -12680,49 +12680,49 @@
         <v>0</v>
       </c>
       <c r="T108" s="0">
-        <v>187</v>
+        <v>245</v>
       </c>
       <c r="U108" s="0">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="V108" s="0">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="W108" s="0">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="X108" s="0">
-        <v>5.75</v>
+        <v>6.11</v>
       </c>
       <c r="Y108" s="0">
-        <v>6.08</v>
+        <v>6.32</v>
       </c>
       <c r="Z108" s="0">
-        <v>6.08</v>
+        <v>6.32</v>
       </c>
       <c r="AA108" s="0">
-        <v>-3.934</v>
+        <v>-7.486</v>
       </c>
       <c r="AB108" s="0">
-        <v>-4.245</v>
+        <v>-11.483</v>
       </c>
       <c r="AC108" s="0">
-        <v>13.1</v>
+        <v>13.48</v>
       </c>
       <c r="AD108" s="0">
-        <v>16.33</v>
+        <v>15.69</v>
       </c>
       <c r="AE108" s="0">
-        <v>16.33</v>
+        <v>15.69</v>
       </c>
       <c r="AF108" s="0">
-        <v>1.61</v>
+        <v>2.24</v>
       </c>
       <c r="AG108" s="0">
-        <v>5.41</v>
+        <v>5</v>
       </c>
       <c r="AH108" s="0">
-        <v>5.41</v>
+        <v>5</v>
       </c>
       <c r="AI108" s="0" t="s">
         <v>47</v>
@@ -12772,13 +12772,13 @@
         <v>1050</v>
       </c>
       <c r="O109" s="0">
-        <v>70.72</v>
+        <v>68.2</v>
       </c>
       <c r="P109" s="0">
         <v>0</v>
       </c>
       <c r="Q109" s="0">
-        <v>1.10378</v>
+        <v>1.14362</v>
       </c>
       <c r="R109" s="0">
         <v>1.10965</v>
@@ -12787,49 +12787,49 @@
         <v>0</v>
       </c>
       <c r="T109" s="0">
-        <v>202</v>
+        <v>260</v>
       </c>
       <c r="U109" s="0">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="V109" s="0">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="W109" s="0">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="X109" s="0">
-        <v>5.91</v>
+        <v>6.26</v>
       </c>
       <c r="Y109" s="0">
-        <v>6.23</v>
+        <v>6.47</v>
       </c>
       <c r="Z109" s="0">
-        <v>6.23</v>
+        <v>6.47</v>
       </c>
       <c r="AA109" s="0">
-        <v>-3.493</v>
+        <v>-6.932</v>
       </c>
       <c r="AB109" s="0">
-        <v>-3.796</v>
+        <v>-10.886</v>
       </c>
       <c r="AC109" s="0">
-        <v>12.85</v>
+        <v>13.22</v>
       </c>
       <c r="AD109" s="0">
-        <v>15.95</v>
+        <v>15.35</v>
       </c>
       <c r="AE109" s="0">
-        <v>15.95</v>
+        <v>15.35</v>
       </c>
       <c r="AF109" s="0">
-        <v>1.59</v>
+        <v>2.09</v>
       </c>
       <c r="AG109" s="0">
-        <v>5.16</v>
+        <v>4.79</v>
       </c>
       <c r="AH109" s="0">
-        <v>5.16</v>
+        <v>4.79</v>
       </c>
       <c r="AI109" s="0" t="s">
         <v>47</v>
@@ -12879,13 +12879,13 @@
         <v>1170</v>
       </c>
       <c r="O110" s="0">
-        <v>75.24</v>
+        <v>72.92</v>
       </c>
       <c r="P110" s="0">
         <v>0</v>
       </c>
       <c r="Q110" s="0">
-        <v>1.30853</v>
+        <v>1.36251</v>
       </c>
       <c r="R110" s="0">
         <v>1.33029</v>
@@ -12894,49 +12894,49 @@
         <v>0</v>
       </c>
       <c r="T110" s="0">
-        <v>194</v>
+        <v>252</v>
       </c>
       <c r="U110" s="0">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="V110" s="0">
-        <v>165</v>
+        <v>241</v>
       </c>
       <c r="W110" s="0">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="X110" s="0">
-        <v>5.83</v>
+        <v>6.18</v>
       </c>
       <c r="Y110" s="0">
-        <v>6.29</v>
+        <v>6.5</v>
       </c>
       <c r="Z110" s="0">
-        <v>6.29</v>
+        <v>6.5</v>
       </c>
       <c r="AA110" s="0">
-        <v>-4.566</v>
+        <v>-7.509</v>
       </c>
       <c r="AB110" s="0">
-        <v>-4.809</v>
+        <v>-11.198</v>
       </c>
       <c r="AC110" s="0">
-        <v>11.86</v>
+        <v>12.32</v>
       </c>
       <c r="AD110" s="0">
-        <v>15.79</v>
+        <v>15.27</v>
       </c>
       <c r="AE110" s="0">
-        <v>15.79</v>
+        <v>15.27</v>
       </c>
       <c r="AF110" s="0">
-        <v>1.21</v>
+        <v>1.38</v>
       </c>
       <c r="AG110" s="0">
-        <v>5.06</v>
+        <v>4.74</v>
       </c>
       <c r="AH110" s="0">
-        <v>5.06</v>
+        <v>4.74</v>
       </c>
       <c r="AI110" s="0" t="s">
         <v>47</v>
@@ -12986,13 +12986,13 @@
         <v>2012.5</v>
       </c>
       <c r="O111" s="0">
-        <v>75.8</v>
+        <v>72.68</v>
       </c>
       <c r="P111" s="0">
         <v>0</v>
       </c>
       <c r="Q111" s="0">
-        <v>2.26754</v>
+        <v>2.33593</v>
       </c>
       <c r="R111" s="0">
         <v>2.32884</v>
@@ -13001,49 +13001,49 @@
         <v>0</v>
       </c>
       <c r="T111" s="0">
-        <v>195</v>
+        <v>263</v>
       </c>
       <c r="U111" s="0">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="V111" s="0">
-        <v>166</v>
+        <v>247</v>
       </c>
       <c r="W111" s="0">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="X111" s="0">
-        <v>5.83</v>
+        <v>6.29</v>
       </c>
       <c r="Y111" s="0">
-        <v>6.31</v>
+        <v>6.59</v>
       </c>
       <c r="Z111" s="0">
-        <v>6.31</v>
+        <v>6.59</v>
       </c>
       <c r="AA111" s="0">
-        <v>-5.533</v>
+        <v>-9.422</v>
       </c>
       <c r="AB111" s="0">
-        <v>-5.763</v>
+        <v>-13.062</v>
       </c>
       <c r="AC111" s="0">
-        <v>11.73</v>
+        <v>12.28</v>
       </c>
       <c r="AD111" s="0">
-        <v>15.74</v>
+        <v>15.06</v>
       </c>
       <c r="AE111" s="0">
-        <v>15.74</v>
+        <v>15.06</v>
       </c>
       <c r="AF111" s="0">
-        <v>1.12</v>
+        <v>1.36</v>
       </c>
       <c r="AG111" s="0">
-        <v>5.03</v>
+        <v>4.61</v>
       </c>
       <c r="AH111" s="0">
-        <v>5.03</v>
+        <v>4.61</v>
       </c>
       <c r="AI111" s="0" t="s">
         <v>47</v>
@@ -13093,13 +13093,13 @@
         <v>690</v>
       </c>
       <c r="O112" s="0">
-        <v>91.36</v>
+        <v>88.72</v>
       </c>
       <c r="P112" s="0">
         <v>0</v>
       </c>
       <c r="Q112" s="0">
-        <v>0.93703</v>
+        <v>0.97764</v>
       </c>
       <c r="R112" s="0">
         <v>0.9517</v>
@@ -13108,49 +13108,49 @@
         <v>0</v>
       </c>
       <c r="T112" s="0">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="U112" s="0">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="V112" s="0">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="W112" s="0">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="X112" s="0">
-        <v>4.57</v>
+        <v>5.17</v>
       </c>
       <c r="Y112" s="0">
-        <v>6.2</v>
+        <v>6.39</v>
       </c>
       <c r="Z112" s="0">
-        <v>6.2</v>
+        <v>6.39</v>
       </c>
       <c r="AA112" s="0">
-        <v>-4.475</v>
+        <v>-7.235</v>
       </c>
       <c r="AB112" s="0">
-        <v>-4.511</v>
+        <v>-9.436</v>
       </c>
       <c r="AC112" s="0">
-        <v>7.11</v>
+        <v>8.21</v>
       </c>
       <c r="AD112" s="0">
-        <v>16.02</v>
+        <v>15.53</v>
       </c>
       <c r="AE112" s="0">
-        <v>16.02</v>
+        <v>15.53</v>
       </c>
       <c r="AF112" s="0">
-        <v>-1.54</v>
+        <v>-1.14</v>
       </c>
       <c r="AG112" s="0">
-        <v>5.21</v>
+        <v>4.9</v>
       </c>
       <c r="AH112" s="0">
-        <v>5.21</v>
+        <v>4.9</v>
       </c>
       <c r="AI112" s="0" t="s">
         <v>47</v>
@@ -13200,13 +13200,13 @@
         <v>1725</v>
       </c>
       <c r="O113" s="0">
-        <v>97.88</v>
+        <v>94.2</v>
       </c>
       <c r="P113" s="0">
         <v>0</v>
       </c>
       <c r="Q113" s="0">
-        <v>2.50977</v>
+        <v>2.59507</v>
       </c>
       <c r="R113" s="0">
         <v>2.46285</v>
@@ -13215,43 +13215,43 @@
         <v>0</v>
       </c>
       <c r="T113" s="0">
-        <v>247</v>
+        <v>286</v>
       </c>
       <c r="U113" s="0">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="V113" s="0">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="W113" s="0">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="X113" s="0">
-        <v>8.19</v>
+        <v>8.37</v>
       </c>
       <c r="Y113" s="0">
-        <v>10.1</v>
+        <v>18.56</v>
       </c>
       <c r="Z113" s="0">
-        <v>10.1</v>
+        <v>18.56</v>
       </c>
       <c r="AA113" s="0">
-        <v>-1.131</v>
+        <v>-4.848</v>
       </c>
       <c r="AB113" s="0">
-        <v>-1.18</v>
+        <v>-5.277</v>
       </c>
       <c r="AC113" s="0">
-        <v>0.13</v>
+        <v>-0.44</v>
       </c>
       <c r="AD113" s="0">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="AE113" s="0">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="AF113" s="0">
-        <v>-0.12</v>
+        <v>-0.25</v>
       </c>
       <c r="AG113" s="0">
         <v>0.01</v>
@@ -13307,13 +13307,13 @@
         <v>840</v>
       </c>
       <c r="O114" s="0">
-        <v>99.08</v>
+        <v>96.68</v>
       </c>
       <c r="P114" s="0">
         <v>0</v>
       </c>
       <c r="Q114" s="0">
-        <v>1.23713</v>
+        <v>1.29695</v>
       </c>
       <c r="R114" s="0">
         <v>1.22401</v>
@@ -13322,43 +13322,43 @@
         <v>0</v>
       </c>
       <c r="T114" s="0">
-        <v>224</v>
+        <v>325</v>
       </c>
       <c r="U114" s="0">
-        <v>202</v>
+        <v>303</v>
       </c>
       <c r="V114" s="0">
-        <v>254</v>
+        <v>368</v>
       </c>
       <c r="W114" s="0">
-        <v>260</v>
+        <v>374</v>
       </c>
       <c r="X114" s="0">
-        <v>7.76</v>
+        <v>8.65</v>
       </c>
       <c r="Y114" s="0">
-        <v>7.55</v>
+        <v>10.26</v>
       </c>
       <c r="Z114" s="0">
-        <v>7.55</v>
+        <v>10.26</v>
       </c>
       <c r="AA114" s="0">
-        <v>-1.94</v>
+        <v>-4.315</v>
       </c>
       <c r="AB114" s="0">
-        <v>-1.926</v>
+        <v>-5.046</v>
       </c>
       <c r="AC114" s="0">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AD114" s="0">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="AE114" s="0">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="AF114" s="0">
-        <v>0.01</v>
+        <v>-0.14</v>
       </c>
       <c r="AG114" s="0">
         <v>0.02</v>

--- a/Data/PFAF-Current.xlsx
+++ b/Data/PFAF-Current.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="PFAF0313 " sheetId="1" r:id="rId2"/>
+    <sheet name="PFAF0330 " sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="381">
   <si>
-    <t xml:space="preserve">PFAF for 03/13/2023  </t>
+    <t xml:space="preserve">PFAF for 03/30/2023  </t>
   </si>
   <si>
     <t>Cusip</t>
@@ -1430,64 +1430,64 @@
         <v>501.276</v>
       </c>
       <c r="O3" s="0">
-        <v>70.64</v>
+        <v>76.4</v>
       </c>
       <c r="P3" s="0">
         <v>0</v>
       </c>
       <c r="Q3" s="0">
-        <v>0.5655</v>
+        <v>0.59166</v>
       </c>
       <c r="R3" s="0">
         <v>0.55665</v>
       </c>
       <c r="S3" s="0">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="T3" s="0">
-        <v>269</v>
+        <v>182</v>
       </c>
       <c r="U3" s="0">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="V3" s="0">
-        <v>239</v>
+        <v>157</v>
       </c>
       <c r="W3" s="0">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="X3" s="0">
-        <v>6.35</v>
+        <v>5.53</v>
       </c>
       <c r="Y3" s="0">
-        <v>6.58</v>
+        <v>6</v>
       </c>
       <c r="Z3" s="0">
-        <v>6.58</v>
+        <v>6</v>
       </c>
       <c r="AA3" s="0">
-        <v>-8.26</v>
+        <v>0.698</v>
       </c>
       <c r="AB3" s="0">
-        <v>-11.982</v>
+        <v>-2.469</v>
       </c>
       <c r="AC3" s="0">
-        <v>12.62</v>
+        <v>12.25</v>
       </c>
       <c r="AD3" s="0">
-        <v>14.88</v>
+        <v>16.55</v>
       </c>
       <c r="AE3" s="0">
-        <v>14.88</v>
+        <v>16.55</v>
       </c>
       <c r="AF3" s="0">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="AG3" s="0">
-        <v>4.56</v>
+        <v>5.56</v>
       </c>
       <c r="AH3" s="0">
-        <v>4.56</v>
+        <v>5.56</v>
       </c>
       <c r="AI3" s="0" t="s">
         <v>47</v>
@@ -1537,64 +1537,64 @@
         <v>330.842</v>
       </c>
       <c r="O4" s="0">
-        <v>85.12</v>
+        <v>90.48</v>
       </c>
       <c r="P4" s="0">
         <v>0</v>
       </c>
       <c r="Q4" s="0">
-        <v>0.44974</v>
+        <v>0.46246</v>
       </c>
       <c r="R4" s="0">
         <v>0.43361</v>
       </c>
       <c r="S4" s="0">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="T4" s="0">
-        <v>207</v>
+        <v>103</v>
       </c>
       <c r="U4" s="0">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="V4" s="0">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="W4" s="0">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="X4" s="0">
-        <v>5.72</v>
+        <v>4.73</v>
       </c>
       <c r="Y4" s="0">
-        <v>6.54</v>
+        <v>6.07</v>
       </c>
       <c r="Z4" s="0">
-        <v>6.54</v>
+        <v>6.07</v>
       </c>
       <c r="AA4" s="0">
-        <v>-6.338</v>
+        <v>1.059</v>
       </c>
       <c r="AB4" s="0">
-        <v>-9.247</v>
+        <v>-1.586</v>
       </c>
       <c r="AC4" s="0">
-        <v>9.51</v>
+        <v>7.91</v>
       </c>
       <c r="AD4" s="0">
-        <v>14.98</v>
+        <v>16.36</v>
       </c>
       <c r="AE4" s="0">
-        <v>14.98</v>
+        <v>16.36</v>
       </c>
       <c r="AF4" s="0">
-        <v>-0.08</v>
+        <v>-1.42</v>
       </c>
       <c r="AG4" s="0">
-        <v>4.62</v>
+        <v>5.43</v>
       </c>
       <c r="AH4" s="0">
-        <v>4.62</v>
+        <v>5.43</v>
       </c>
       <c r="AI4" s="0" t="s">
         <v>47</v>
@@ -1644,13 +1644,13 @@
         <v>401.02</v>
       </c>
       <c r="O5" s="0">
-        <v>82.6</v>
+        <v>89.49</v>
       </c>
       <c r="P5" s="0">
         <v>0</v>
       </c>
       <c r="Q5" s="0">
-        <v>0.529</v>
+        <v>0.55441</v>
       </c>
       <c r="R5" s="0">
         <v>0.51657</v>
@@ -1659,34 +1659,34 @@
         <v>0</v>
       </c>
       <c r="T5" s="0">
-        <v>535</v>
+        <v>455</v>
       </c>
       <c r="U5" s="0">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="V5" s="0">
-        <v>490</v>
+        <v>446</v>
       </c>
       <c r="W5" s="0">
-        <v>36</v>
+        <v>-8</v>
       </c>
       <c r="X5" s="0">
-        <v>9.28</v>
+        <v>8.51</v>
       </c>
       <c r="Y5" s="0">
-        <v>18.55</v>
+        <v>13.65</v>
       </c>
       <c r="Z5" s="0">
-        <v>18.55</v>
+        <v>13.65</v>
       </c>
       <c r="AA5" s="0">
-        <v>-7.524</v>
+        <v>0.188</v>
       </c>
       <c r="AB5" s="0">
-        <v>-7.962</v>
+        <v>0.189</v>
       </c>
       <c r="AC5" s="0">
-        <v>0.07</v>
+        <v>0.66</v>
       </c>
       <c r="AD5" s="0">
         <v>1.49</v>
@@ -1695,7 +1695,7 @@
         <v>1.49</v>
       </c>
       <c r="AF5" s="0">
-        <v>-0.32</v>
+        <v>-0.19</v>
       </c>
       <c r="AG5" s="0">
         <v>0.03</v>
@@ -1751,13 +1751,13 @@
         <v>300.765</v>
       </c>
       <c r="O6" s="0">
-        <v>94</v>
+        <v>96.08</v>
       </c>
       <c r="P6" s="0">
         <v>0</v>
       </c>
       <c r="Q6" s="0">
-        <v>0.45151</v>
+        <v>0.44644</v>
       </c>
       <c r="R6" s="0">
         <v>0.42213</v>
@@ -1766,49 +1766,49 @@
         <v>0</v>
       </c>
       <c r="T6" s="0">
-        <v>531</v>
+        <v>461</v>
       </c>
       <c r="U6" s="0">
-        <v>217</v>
+        <v>147</v>
       </c>
       <c r="V6" s="0">
-        <v>598</v>
+        <v>548</v>
       </c>
       <c r="W6" s="0">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="X6" s="0">
-        <v>9.23</v>
+        <v>8.56</v>
       </c>
       <c r="Y6" s="0">
-        <v>9.61</v>
+        <v>8.79</v>
       </c>
       <c r="Z6" s="0">
-        <v>9.61</v>
+        <v>8.79</v>
       </c>
       <c r="AA6" s="0">
-        <v>-3.411</v>
+        <v>-1.274</v>
       </c>
       <c r="AB6" s="0">
-        <v>-5.012</v>
+        <v>-2.904</v>
       </c>
       <c r="AC6" s="0">
-        <v>2.11</v>
+        <v>2.12</v>
       </c>
       <c r="AD6" s="0">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="AE6" s="0">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="AF6" s="0">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="AG6" s="0">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="AH6" s="0">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="AI6" s="0" t="s">
         <v>47</v>
@@ -1858,64 +1858,64 @@
         <v>250.638</v>
       </c>
       <c r="O7" s="0">
-        <v>75.2</v>
+        <v>76.34</v>
       </c>
       <c r="P7" s="0">
         <v>0</v>
       </c>
       <c r="Q7" s="0">
-        <v>0.30101</v>
+        <v>0.2956</v>
       </c>
       <c r="R7" s="0">
         <v>0.30406</v>
       </c>
       <c r="S7" s="0">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="T7" s="0">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="U7" s="0">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="V7" s="0">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="W7" s="0">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="X7" s="0">
-        <v>7.43</v>
+        <v>7.14</v>
       </c>
       <c r="Y7" s="0">
-        <v>7.67</v>
+        <v>7.44</v>
       </c>
       <c r="Z7" s="0">
-        <v>7.67</v>
+        <v>7.44</v>
       </c>
       <c r="AA7" s="0">
-        <v>-10.603</v>
+        <v>-7.577</v>
       </c>
       <c r="AB7" s="0">
-        <v>-13.925</v>
+        <v>-10.523</v>
       </c>
       <c r="AC7" s="0">
-        <v>10.81</v>
+        <v>10.92</v>
       </c>
       <c r="AD7" s="0">
-        <v>12.73</v>
+        <v>13.33</v>
       </c>
       <c r="AE7" s="0">
-        <v>12.73</v>
+        <v>13.33</v>
       </c>
       <c r="AF7" s="0">
-        <v>1.24</v>
+        <v>1.11</v>
       </c>
       <c r="AG7" s="0">
-        <v>3.35</v>
+        <v>3.62</v>
       </c>
       <c r="AH7" s="0">
-        <v>3.35</v>
+        <v>3.62</v>
       </c>
       <c r="AI7" s="0" t="s">
         <v>47</v>
@@ -1965,64 +1965,64 @@
         <v>250.638</v>
       </c>
       <c r="O8" s="0">
-        <v>73.66</v>
+        <v>74.76</v>
       </c>
       <c r="P8" s="0">
         <v>0</v>
       </c>
       <c r="Q8" s="0">
-        <v>0.29484</v>
+        <v>0.28948</v>
       </c>
       <c r="R8" s="0">
         <v>0.31664</v>
       </c>
       <c r="S8" s="0">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="T8" s="0">
-        <v>397</v>
+        <v>363</v>
       </c>
       <c r="U8" s="0">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="V8" s="0">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="W8" s="0">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="X8" s="0">
-        <v>7.65</v>
+        <v>7.36</v>
       </c>
       <c r="Y8" s="0">
-        <v>7.83</v>
+        <v>7.59</v>
       </c>
       <c r="Z8" s="0">
-        <v>7.83</v>
+        <v>7.59</v>
       </c>
       <c r="AA8" s="0">
-        <v>-15.913</v>
+        <v>-13.052</v>
       </c>
       <c r="AB8" s="0">
-        <v>-19.203</v>
+        <v>-15.999</v>
       </c>
       <c r="AC8" s="0">
-        <v>10.97</v>
+        <v>11.1</v>
       </c>
       <c r="AD8" s="0">
-        <v>12.45</v>
+        <v>13.05</v>
       </c>
       <c r="AE8" s="0">
-        <v>12.45</v>
+        <v>13.05</v>
       </c>
       <c r="AF8" s="0">
-        <v>1.23</v>
+        <v>1.4</v>
       </c>
       <c r="AG8" s="0">
-        <v>3.21</v>
+        <v>3.47</v>
       </c>
       <c r="AH8" s="0">
-        <v>3.21</v>
+        <v>3.47</v>
       </c>
       <c r="AI8" s="0" t="s">
         <v>47</v>
@@ -2072,58 +2072,58 @@
         <v>275.702</v>
       </c>
       <c r="O9" s="0">
-        <v>96.44</v>
+        <v>91.24</v>
       </c>
       <c r="P9" s="0">
         <v>0</v>
       </c>
       <c r="Q9" s="0">
-        <v>0.42463</v>
+        <v>0.38862</v>
       </c>
       <c r="R9" s="0">
         <v>0.39777</v>
       </c>
       <c r="S9" s="0">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="T9" s="0">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="U9" s="0">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="V9" s="0">
-        <v>409</v>
+        <v>430</v>
       </c>
       <c r="W9" s="0">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="X9" s="0">
-        <v>9.08</v>
+        <v>10.09</v>
       </c>
       <c r="Y9" s="0">
-        <v>23.63</v>
+        <v>47.45</v>
       </c>
       <c r="Z9" s="0">
-        <v>23.63</v>
+        <v>47.45</v>
       </c>
       <c r="AA9" s="0">
-        <v>-3.599</v>
+        <v>-7.309</v>
       </c>
       <c r="AB9" s="0">
-        <v>-3.892</v>
+        <v>-7.783</v>
       </c>
       <c r="AC9" s="0">
-        <v>-0.51</v>
+        <v>-1.04</v>
       </c>
       <c r="AD9" s="0">
-        <v>0.27</v>
+        <v>0.21</v>
       </c>
       <c r="AE9" s="0">
-        <v>0.27</v>
+        <v>0.21</v>
       </c>
       <c r="AF9" s="0">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="AG9" s="0">
         <v>0</v>
@@ -2179,13 +2179,13 @@
         <v>501.276</v>
       </c>
       <c r="O10" s="0">
-        <v>87.24</v>
+        <v>97.68</v>
       </c>
       <c r="P10" s="0">
         <v>0</v>
       </c>
       <c r="Q10" s="0">
-        <v>0.6984</v>
+        <v>0.75646</v>
       </c>
       <c r="R10" s="0">
         <v>0.68099</v>
@@ -2194,49 +2194,49 @@
         <v>0</v>
       </c>
       <c r="T10" s="0">
-        <v>209</v>
+        <v>-6</v>
       </c>
       <c r="U10" s="0">
-        <v>166</v>
+        <v>-49</v>
       </c>
       <c r="V10" s="0">
-        <v>192</v>
+        <v>33</v>
       </c>
       <c r="W10" s="0">
-        <v>120</v>
+        <v>-39</v>
       </c>
       <c r="X10" s="0">
-        <v>5.75</v>
+        <v>3.61</v>
       </c>
       <c r="Y10" s="0">
-        <v>6.76</v>
+        <v>6.05</v>
       </c>
       <c r="Z10" s="0">
-        <v>6.76</v>
+        <v>6.05</v>
       </c>
       <c r="AA10" s="0">
-        <v>-7.389</v>
+        <v>3.694</v>
       </c>
       <c r="AB10" s="0">
-        <v>-9.858</v>
+        <v>1.383</v>
       </c>
       <c r="AC10" s="0">
-        <v>8.48</v>
+        <v>4.75</v>
       </c>
       <c r="AD10" s="0">
-        <v>14.67</v>
+        <v>16.36</v>
       </c>
       <c r="AE10" s="0">
-        <v>14.67</v>
+        <v>16.36</v>
       </c>
       <c r="AF10" s="0">
-        <v>-0.7</v>
+        <v>-2.01</v>
       </c>
       <c r="AG10" s="0">
-        <v>4.38</v>
+        <v>5.45</v>
       </c>
       <c r="AH10" s="0">
-        <v>4.38</v>
+        <v>5.45</v>
       </c>
       <c r="AI10" s="0" t="s">
         <v>47</v>
@@ -2286,13 +2286,13 @@
         <v>250.638</v>
       </c>
       <c r="O11" s="0">
-        <v>86.2</v>
+        <v>84</v>
       </c>
       <c r="P11" s="0">
         <v>0</v>
       </c>
       <c r="Q11" s="0">
-        <v>0.34503</v>
+        <v>0.32526</v>
       </c>
       <c r="R11" s="0">
         <v>0.3551</v>
@@ -2301,43 +2301,43 @@
         <v>0</v>
       </c>
       <c r="T11" s="0">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="U11" s="0">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="V11" s="0">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="W11" s="0">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="X11" s="0">
-        <v>9.72</v>
+        <v>10.34</v>
       </c>
       <c r="Y11" s="0">
-        <v>22.42</v>
+        <v>26.75</v>
       </c>
       <c r="Z11" s="0">
-        <v>22.42</v>
+        <v>26.75</v>
       </c>
       <c r="AA11" s="0">
-        <v>-12.256</v>
+        <v>-14.495</v>
       </c>
       <c r="AB11" s="0">
-        <v>-12.959</v>
+        <v>-15.276</v>
       </c>
       <c r="AC11" s="0">
-        <v>-0.82</v>
+        <v>-1.14</v>
       </c>
       <c r="AD11" s="0">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AE11" s="0">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AF11" s="0">
-        <v>-0.41</v>
+        <v>-0.48</v>
       </c>
       <c r="AG11" s="0">
         <v>0.01</v>
@@ -2393,64 +2393,64 @@
         <v>300.765</v>
       </c>
       <c r="O12" s="0">
-        <v>82.2</v>
+        <v>87.68</v>
       </c>
       <c r="P12" s="0">
         <v>0</v>
       </c>
       <c r="Q12" s="0">
-        <v>0.39483</v>
+        <v>0.40741</v>
       </c>
       <c r="R12" s="0">
         <v>0.38135</v>
       </c>
       <c r="S12" s="0">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="T12" s="0">
-        <v>146</v>
+        <v>57</v>
       </c>
       <c r="U12" s="0">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="V12" s="0">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="W12" s="0">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="X12" s="0">
-        <v>5.1</v>
+        <v>4.25</v>
       </c>
       <c r="Y12" s="0">
-        <v>5.88</v>
+        <v>5.52</v>
       </c>
       <c r="Z12" s="0">
-        <v>5.88</v>
+        <v>5.52</v>
       </c>
       <c r="AA12" s="0">
-        <v>-6.506</v>
+        <v>1.078</v>
       </c>
       <c r="AB12" s="0">
-        <v>-9.785</v>
+        <v>-1.831</v>
       </c>
       <c r="AC12" s="0">
-        <v>10.78</v>
+        <v>9.65</v>
       </c>
       <c r="AD12" s="0">
-        <v>16.74</v>
+        <v>17.8</v>
       </c>
       <c r="AE12" s="0">
-        <v>16.74</v>
+        <v>17.8</v>
       </c>
       <c r="AF12" s="0">
-        <v>-0.1</v>
+        <v>-0.88</v>
       </c>
       <c r="AG12" s="0">
-        <v>5.74</v>
+        <v>6.49</v>
       </c>
       <c r="AH12" s="0">
-        <v>5.74</v>
+        <v>6.49</v>
       </c>
       <c r="AI12" s="0" t="s">
         <v>47</v>
@@ -2500,64 +2500,64 @@
         <v>1152.934</v>
       </c>
       <c r="O13" s="0">
-        <v>84.16</v>
+        <v>89</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
       </c>
       <c r="Q13" s="0">
-        <v>1.5496</v>
+        <v>1.58524</v>
       </c>
       <c r="R13" s="0">
         <v>1.51174</v>
       </c>
       <c r="S13" s="0">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="T13" s="0">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="U13" s="0">
-        <v>137</v>
+        <v>48</v>
       </c>
       <c r="V13" s="0">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="W13" s="0">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="X13" s="0">
-        <v>5.32</v>
+        <v>4.48</v>
       </c>
       <c r="Y13" s="0">
-        <v>6.17</v>
+        <v>5.84</v>
       </c>
       <c r="Z13" s="0">
-        <v>6.17</v>
+        <v>5.84</v>
       </c>
       <c r="AA13" s="0">
-        <v>-7.435</v>
+        <v>-0.709</v>
       </c>
       <c r="AB13" s="0">
-        <v>-10.425</v>
+        <v>-3.415</v>
       </c>
       <c r="AC13" s="0">
-        <v>9.99</v>
+        <v>8.83</v>
       </c>
       <c r="AD13" s="0">
-        <v>15.93</v>
+        <v>16.79</v>
       </c>
       <c r="AE13" s="0">
-        <v>15.93</v>
+        <v>16.79</v>
       </c>
       <c r="AF13" s="0">
-        <v>-0.01</v>
+        <v>-1.1</v>
       </c>
       <c r="AG13" s="0">
-        <v>5.21</v>
+        <v>5.79</v>
       </c>
       <c r="AH13" s="0">
-        <v>5.21</v>
+        <v>5.79</v>
       </c>
       <c r="AI13" s="0" t="s">
         <v>47</v>
@@ -2607,19 +2607,19 @@
         <v>576.467</v>
       </c>
       <c r="O14" s="0">
-        <v>100.8</v>
+        <v>99.96</v>
       </c>
       <c r="P14" s="0">
         <v>0</v>
       </c>
       <c r="Q14" s="0">
-        <v>0.92799</v>
+        <v>0.89023</v>
       </c>
       <c r="R14" s="0">
         <v>0.83634</v>
       </c>
       <c r="S14" s="0">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="T14" s="0">
         <v>0</v>
@@ -2634,37 +2634,37 @@
         <v>0</v>
       </c>
       <c r="X14" s="0">
-        <v>5.67</v>
+        <v>3.43</v>
       </c>
       <c r="Y14" s="0">
-        <v>5.67</v>
+        <v>3.43</v>
       </c>
       <c r="Z14" s="0">
-        <v>5.67</v>
+        <v>5.65</v>
       </c>
       <c r="AA14" s="0">
-        <v>0.199</v>
+        <v>0.762</v>
       </c>
       <c r="AB14" s="0">
-        <v>-0.051</v>
+        <v>0.305</v>
       </c>
       <c r="AC14" s="0">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="AD14" s="0">
-        <v>17.4</v>
+        <v>0.08</v>
       </c>
       <c r="AE14" s="0">
-        <v>17.4</v>
+        <v>17.6</v>
       </c>
       <c r="AF14" s="0">
         <v>0</v>
       </c>
       <c r="AG14" s="0">
-        <v>6.17</v>
+        <v>0</v>
       </c>
       <c r="AH14" s="0">
-        <v>6.17</v>
+        <v>6.27</v>
       </c>
       <c r="AI14" s="0" t="s">
         <v>47</v>
@@ -2714,13 +2714,13 @@
         <v>300.765</v>
       </c>
       <c r="O15" s="0">
-        <v>83.2</v>
+        <v>90.08</v>
       </c>
       <c r="P15" s="0">
         <v>0</v>
       </c>
       <c r="Q15" s="0">
-        <v>0.39963</v>
+        <v>0.41856</v>
       </c>
       <c r="R15" s="0">
         <v>0.42039</v>
@@ -2729,49 +2729,49 @@
         <v>0</v>
       </c>
       <c r="T15" s="0">
-        <v>348</v>
+        <v>239</v>
       </c>
       <c r="U15" s="0">
-        <v>316</v>
+        <v>207</v>
       </c>
       <c r="V15" s="0">
-        <v>284</v>
+        <v>219</v>
       </c>
       <c r="W15" s="0">
-        <v>224</v>
+        <v>159</v>
       </c>
       <c r="X15" s="0">
-        <v>7.15</v>
+        <v>6.1</v>
       </c>
       <c r="Y15" s="0">
-        <v>7.73</v>
+        <v>7.16</v>
       </c>
       <c r="Z15" s="0">
-        <v>7.73</v>
+        <v>7.16</v>
       </c>
       <c r="AA15" s="0">
-        <v>-14.156</v>
+        <v>-7.057</v>
       </c>
       <c r="AB15" s="0">
-        <v>-16.037</v>
+        <v>-8.885</v>
       </c>
       <c r="AC15" s="0">
-        <v>9.13</v>
+        <v>7.68</v>
       </c>
       <c r="AD15" s="0">
-        <v>12.81</v>
+        <v>13.8</v>
       </c>
       <c r="AE15" s="0">
-        <v>12.81</v>
+        <v>13.8</v>
       </c>
       <c r="AF15" s="0">
-        <v>-0.07</v>
+        <v>-1.17</v>
       </c>
       <c r="AG15" s="0">
-        <v>3.34</v>
+        <v>3.89</v>
       </c>
       <c r="AH15" s="0">
-        <v>3.34</v>
+        <v>3.89</v>
       </c>
       <c r="AI15" s="0" t="s">
         <v>47</v>
@@ -2821,13 +2821,13 @@
         <v>275.702</v>
       </c>
       <c r="O16" s="0">
-        <v>84</v>
+        <v>86.36</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>0.36985</v>
+        <v>0.36784</v>
       </c>
       <c r="R16" s="0">
         <v>0.39427</v>
@@ -2836,49 +2836,49 @@
         <v>0</v>
       </c>
       <c r="T16" s="0">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="U16" s="0">
-        <v>403</v>
+        <v>371</v>
       </c>
       <c r="V16" s="0">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="W16" s="0">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="X16" s="0">
-        <v>7.02</v>
+        <v>6.76</v>
       </c>
       <c r="Y16" s="0">
-        <v>7.66</v>
+        <v>7.47</v>
       </c>
       <c r="Z16" s="0">
-        <v>7.66</v>
+        <v>7.47</v>
       </c>
       <c r="AA16" s="0">
-        <v>-15.288</v>
+        <v>-12.908</v>
       </c>
       <c r="AB16" s="0">
-        <v>-16.356</v>
+        <v>-14.052</v>
       </c>
       <c r="AC16" s="0">
-        <v>8.97</v>
+        <v>8.72</v>
       </c>
       <c r="AD16" s="0">
-        <v>12.94</v>
+        <v>13.21</v>
       </c>
       <c r="AE16" s="0">
-        <v>12.94</v>
+        <v>13.21</v>
       </c>
       <c r="AF16" s="0">
-        <v>-0.14</v>
+        <v>-0.26</v>
       </c>
       <c r="AG16" s="0">
-        <v>3.41</v>
+        <v>3.57</v>
       </c>
       <c r="AH16" s="0">
-        <v>3.41</v>
+        <v>3.57</v>
       </c>
       <c r="AI16" s="0" t="s">
         <v>47</v>
@@ -2928,64 +2928,64 @@
         <v>576.467</v>
       </c>
       <c r="O17" s="0">
-        <v>65.24</v>
+        <v>67</v>
       </c>
       <c r="P17" s="0">
         <v>0</v>
       </c>
       <c r="Q17" s="0">
-        <v>0.60062</v>
+        <v>0.59669</v>
       </c>
       <c r="R17" s="0">
         <v>0.62917</v>
       </c>
       <c r="S17" s="0">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="T17" s="0">
-        <v>391</v>
+        <v>350</v>
       </c>
       <c r="U17" s="0">
-        <v>166</v>
+        <v>125</v>
       </c>
       <c r="V17" s="0">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="W17" s="0">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="X17" s="0">
-        <v>7.59</v>
+        <v>7.23</v>
       </c>
       <c r="Y17" s="0">
-        <v>7.66</v>
+        <v>7.34</v>
       </c>
       <c r="Z17" s="0">
-        <v>7.66</v>
+        <v>7.34</v>
       </c>
       <c r="AA17" s="0">
-        <v>-13.795</v>
+        <v>-9.859</v>
       </c>
       <c r="AB17" s="0">
-        <v>-17.514</v>
+        <v>-13.033</v>
       </c>
       <c r="AC17" s="0">
-        <v>11.89</v>
+        <v>12.34</v>
       </c>
       <c r="AD17" s="0">
-        <v>12.73</v>
+        <v>13.5</v>
       </c>
       <c r="AE17" s="0">
-        <v>12.73</v>
+        <v>13.5</v>
       </c>
       <c r="AF17" s="0">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AG17" s="0">
-        <v>3.36</v>
+        <v>3.71</v>
       </c>
       <c r="AH17" s="0">
-        <v>3.36</v>
+        <v>3.71</v>
       </c>
       <c r="AI17" s="0" t="s">
         <v>47</v>
@@ -3035,64 +3035,64 @@
         <v>345.88</v>
       </c>
       <c r="O18" s="0">
-        <v>75.2</v>
+        <v>80.04</v>
       </c>
       <c r="P18" s="0">
         <v>0</v>
       </c>
       <c r="Q18" s="0">
-        <v>0.41539</v>
+        <v>0.42769</v>
       </c>
       <c r="R18" s="0">
         <v>0.42579</v>
       </c>
       <c r="S18" s="0">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="T18" s="0">
-        <v>376</v>
+        <v>291</v>
       </c>
       <c r="U18" s="0">
-        <v>177</v>
+        <v>92</v>
       </c>
       <c r="V18" s="0">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="W18" s="0">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="X18" s="0">
-        <v>7.43</v>
+        <v>6.63</v>
       </c>
       <c r="Y18" s="0">
-        <v>7.67</v>
+        <v>7.09</v>
       </c>
       <c r="Z18" s="0">
-        <v>7.67</v>
+        <v>7.09</v>
       </c>
       <c r="AA18" s="0">
-        <v>-11.903</v>
+        <v>-4.585</v>
       </c>
       <c r="AB18" s="0">
-        <v>-15.149</v>
+        <v>-7.478</v>
       </c>
       <c r="AC18" s="0">
-        <v>10.81</v>
+        <v>10.48</v>
       </c>
       <c r="AD18" s="0">
-        <v>12.72</v>
+        <v>13.98</v>
       </c>
       <c r="AE18" s="0">
-        <v>12.72</v>
+        <v>13.98</v>
       </c>
       <c r="AF18" s="0">
-        <v>1.24</v>
+        <v>0.64</v>
       </c>
       <c r="AG18" s="0">
-        <v>3.35</v>
+        <v>3.98</v>
       </c>
       <c r="AH18" s="0">
-        <v>3.35</v>
+        <v>3.98</v>
       </c>
       <c r="AI18" s="0" t="s">
         <v>47</v>
@@ -3142,64 +3142,64 @@
         <v>864.7</v>
       </c>
       <c r="O19" s="0">
-        <v>86.12</v>
+        <v>88.12</v>
       </c>
       <c r="P19" s="0">
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>1.18926</v>
+        <v>1.17717</v>
       </c>
       <c r="R19" s="0">
         <v>1.23357</v>
       </c>
       <c r="S19" s="0">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="T19" s="0">
-        <v>453</v>
+        <v>418</v>
       </c>
       <c r="U19" s="0">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="V19" s="0">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="W19" s="0">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="X19" s="0">
-        <v>9.3</v>
+        <v>9.26</v>
       </c>
       <c r="Y19" s="0">
-        <v>9.71</v>
+        <v>8.94</v>
       </c>
       <c r="Z19" s="0">
-        <v>9.71</v>
+        <v>8.94</v>
       </c>
       <c r="AA19" s="0">
-        <v>-12.94</v>
+        <v>-9.313</v>
       </c>
       <c r="AB19" s="0">
-        <v>-15.438</v>
+        <v>-11.914</v>
       </c>
       <c r="AC19" s="0">
-        <v>4.03</v>
+        <v>4.33</v>
       </c>
       <c r="AD19" s="0">
-        <v>4.82</v>
+        <v>4.9</v>
       </c>
       <c r="AE19" s="0">
-        <v>4.82</v>
+        <v>4.9</v>
       </c>
       <c r="AF19" s="0">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="AG19" s="0">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="AH19" s="0">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="AI19" s="0" t="s">
         <v>47</v>
@@ -3249,58 +3249,58 @@
         <v>601.531</v>
       </c>
       <c r="O20" s="0">
-        <v>90.72</v>
+        <v>91.6</v>
       </c>
       <c r="P20" s="0">
         <v>0</v>
       </c>
       <c r="Q20" s="0">
-        <v>0.8715</v>
+        <v>0.85124</v>
       </c>
       <c r="R20" s="0">
         <v>0.87479</v>
       </c>
       <c r="S20" s="0">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="T20" s="0">
-        <v>592</v>
+        <v>558</v>
       </c>
       <c r="U20" s="0">
-        <v>418</v>
+        <v>384</v>
       </c>
       <c r="V20" s="0">
-        <v>606</v>
+        <v>582</v>
       </c>
       <c r="W20" s="0">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="X20" s="0">
-        <v>9.78</v>
+        <v>9.64</v>
       </c>
       <c r="Y20" s="0">
-        <v>11.37</v>
+        <v>10.36</v>
       </c>
       <c r="Z20" s="0">
-        <v>11.37</v>
+        <v>10.36</v>
       </c>
       <c r="AA20" s="0">
-        <v>-10.036</v>
+        <v>-7.583</v>
       </c>
       <c r="AB20" s="0">
-        <v>-11.617</v>
+        <v>-9.193</v>
       </c>
       <c r="AC20" s="0">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="AD20" s="0">
-        <v>2.2</v>
+        <v>2.21</v>
       </c>
       <c r="AE20" s="0">
-        <v>2.2</v>
+        <v>2.21</v>
       </c>
       <c r="AF20" s="0">
-        <v>-0.02</v>
+        <v>0.02</v>
       </c>
       <c r="AG20" s="0">
         <v>0.07</v>
@@ -3356,58 +3356,58 @@
         <v>501.276</v>
       </c>
       <c r="O21" s="0">
-        <v>93.08</v>
+        <v>92.88</v>
       </c>
       <c r="P21" s="0">
         <v>0</v>
       </c>
       <c r="Q21" s="0">
-        <v>0.74515</v>
+        <v>0.71928</v>
       </c>
       <c r="R21" s="0">
         <v>0.7527</v>
       </c>
       <c r="S21" s="0">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="T21" s="0">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="U21" s="0">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="V21" s="0">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="W21" s="0">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="X21" s="0">
-        <v>8.26</v>
+        <v>8.27</v>
       </c>
       <c r="Y21" s="0">
-        <v>10.24</v>
+        <v>9.75</v>
       </c>
       <c r="Z21" s="0">
-        <v>10.24</v>
+        <v>9.75</v>
       </c>
       <c r="AA21" s="0">
-        <v>-10.603</v>
+        <v>-8.562</v>
       </c>
       <c r="AB21" s="0">
-        <v>-12.235</v>
+        <v>-10.295</v>
       </c>
       <c r="AC21" s="0">
-        <v>3</v>
+        <v>3.18</v>
       </c>
       <c r="AD21" s="0">
-        <v>3.73</v>
+        <v>3.8</v>
       </c>
       <c r="AE21" s="0">
-        <v>3.73</v>
+        <v>3.8</v>
       </c>
       <c r="AF21" s="0">
-        <v>-0.06</v>
+        <v>-0.02</v>
       </c>
       <c r="AG21" s="0">
         <v>0.19</v>
@@ -3463,64 +3463,64 @@
         <v>551.403</v>
       </c>
       <c r="O22" s="0">
-        <v>82.96</v>
+        <v>85.88</v>
       </c>
       <c r="P22" s="0">
         <v>0</v>
       </c>
       <c r="Q22" s="0">
-        <v>0.73054</v>
+        <v>0.73158</v>
       </c>
       <c r="R22" s="0">
         <v>0.69597</v>
       </c>
       <c r="S22" s="0">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="T22" s="0">
-        <v>243</v>
+        <v>183</v>
       </c>
       <c r="U22" s="0">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="V22" s="0">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="W22" s="0">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="X22" s="0">
-        <v>6.09</v>
+        <v>5.54</v>
       </c>
       <c r="Y22" s="0">
-        <v>6.76</v>
+        <v>6.54</v>
       </c>
       <c r="Z22" s="0">
-        <v>6.76</v>
+        <v>6.54</v>
       </c>
       <c r="AA22" s="0">
-        <v>-5.21</v>
+        <v>-0.303</v>
       </c>
       <c r="AB22" s="0">
-        <v>-8.349</v>
+        <v>-3.12</v>
       </c>
       <c r="AC22" s="0">
-        <v>9.91</v>
+        <v>9.31</v>
       </c>
       <c r="AD22" s="0">
-        <v>14.52</v>
+        <v>14.95</v>
       </c>
       <c r="AE22" s="0">
-        <v>14.52</v>
+        <v>14.95</v>
       </c>
       <c r="AF22" s="0">
-        <v>-0.07</v>
+        <v>-0.41</v>
       </c>
       <c r="AG22" s="0">
-        <v>4.33</v>
+        <v>4.61</v>
       </c>
       <c r="AH22" s="0">
-        <v>4.33</v>
+        <v>4.61</v>
       </c>
       <c r="AI22" s="0" t="s">
         <v>47</v>
@@ -3570,13 +3570,13 @@
         <v>911</v>
       </c>
       <c r="O23" s="0">
-        <v>69.4</v>
+        <v>70.56</v>
       </c>
       <c r="P23" s="0">
         <v>0</v>
       </c>
       <c r="Q23" s="0">
-        <v>1.00969</v>
+        <v>0.99307</v>
       </c>
       <c r="R23" s="0">
         <v>0.96644</v>
@@ -3585,49 +3585,49 @@
         <v>0</v>
       </c>
       <c r="T23" s="0">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="U23" s="0">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="V23" s="0">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="W23" s="0">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="X23" s="0">
-        <v>5.76</v>
+        <v>5.66</v>
       </c>
       <c r="Y23" s="0">
-        <v>6.03</v>
+        <v>5.95</v>
       </c>
       <c r="Z23" s="0">
-        <v>6.03</v>
+        <v>5.95</v>
       </c>
       <c r="AA23" s="0">
-        <v>-5.655</v>
+        <v>-4.078</v>
       </c>
       <c r="AB23" s="0">
-        <v>-9.659</v>
+        <v>-7.417</v>
       </c>
       <c r="AC23" s="0">
-        <v>13.5</v>
+        <v>13.53</v>
       </c>
       <c r="AD23" s="0">
-        <v>16.35</v>
+        <v>16.54</v>
       </c>
       <c r="AE23" s="0">
-        <v>16.35</v>
+        <v>16.54</v>
       </c>
       <c r="AF23" s="0">
-        <v>1.49</v>
+        <v>1.62</v>
       </c>
       <c r="AG23" s="0">
-        <v>5.46</v>
+        <v>5.6</v>
       </c>
       <c r="AH23" s="0">
-        <v>5.46</v>
+        <v>5.6</v>
       </c>
       <c r="AI23" s="0" t="s">
         <v>47</v>
@@ -3677,13 +3677,13 @@
         <v>1296</v>
       </c>
       <c r="O24" s="0">
-        <v>70.48</v>
+        <v>73.4</v>
       </c>
       <c r="P24" s="0">
         <v>0</v>
       </c>
       <c r="Q24" s="0">
-        <v>1.45875</v>
+        <v>1.46961</v>
       </c>
       <c r="R24" s="0">
         <v>1.39131</v>
@@ -3692,49 +3692,49 @@
         <v>0</v>
       </c>
       <c r="T24" s="0">
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="U24" s="0">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="V24" s="0">
-        <v>205</v>
+        <v>149</v>
       </c>
       <c r="W24" s="0">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="X24" s="0">
-        <v>5.81</v>
+        <v>5.5</v>
       </c>
       <c r="Y24" s="0">
-        <v>6.1</v>
+        <v>5.87</v>
       </c>
       <c r="Z24" s="0">
-        <v>6.1</v>
+        <v>5.87</v>
       </c>
       <c r="AA24" s="0">
-        <v>-5.32</v>
+        <v>-1.397</v>
       </c>
       <c r="AB24" s="0">
-        <v>-9.26</v>
+        <v>-4.703</v>
       </c>
       <c r="AC24" s="0">
-        <v>13.19</v>
+        <v>13.03</v>
       </c>
       <c r="AD24" s="0">
-        <v>16.19</v>
+        <v>16.78</v>
       </c>
       <c r="AE24" s="0">
-        <v>16.19</v>
+        <v>16.78</v>
       </c>
       <c r="AF24" s="0">
-        <v>1.39</v>
+        <v>1.78</v>
       </c>
       <c r="AG24" s="0">
-        <v>5.35</v>
+        <v>5.76</v>
       </c>
       <c r="AH24" s="0">
-        <v>5.35</v>
+        <v>5.76</v>
       </c>
       <c r="AI24" s="0" t="s">
         <v>47</v>
@@ -3784,13 +3784,13 @@
         <v>1094.5</v>
       </c>
       <c r="O25" s="0">
-        <v>73.72</v>
+        <v>74.48</v>
       </c>
       <c r="P25" s="0">
         <v>0</v>
       </c>
       <c r="Q25" s="0">
-        <v>1.28858</v>
+        <v>1.25938</v>
       </c>
       <c r="R25" s="0">
         <v>1.22361</v>
@@ -3799,49 +3799,49 @@
         <v>0</v>
       </c>
       <c r="T25" s="0">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="U25" s="0">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="V25" s="0">
-        <v>204</v>
+        <v>155</v>
       </c>
       <c r="W25" s="0">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="X25" s="0">
-        <v>5.62</v>
+        <v>5.58</v>
       </c>
       <c r="Y25" s="0">
-        <v>6.02</v>
+        <v>5.97</v>
       </c>
       <c r="Z25" s="0">
-        <v>6.02</v>
+        <v>5.97</v>
       </c>
       <c r="AA25" s="0">
-        <v>-4.902</v>
+        <v>-3.922</v>
       </c>
       <c r="AB25" s="0">
-        <v>-8.645</v>
+        <v>-7.104</v>
       </c>
       <c r="AC25" s="0">
-        <v>12.58</v>
+        <v>12.67</v>
       </c>
       <c r="AD25" s="0">
-        <v>16.38</v>
+        <v>16.46</v>
       </c>
       <c r="AE25" s="0">
-        <v>16.38</v>
+        <v>16.46</v>
       </c>
       <c r="AF25" s="0">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="AG25" s="0">
-        <v>5.48</v>
+        <v>5.55</v>
       </c>
       <c r="AH25" s="0">
-        <v>5.48</v>
+        <v>5.55</v>
       </c>
       <c r="AI25" s="0" t="s">
         <v>47</v>
@@ -3891,13 +3891,13 @@
         <v>696</v>
       </c>
       <c r="O26" s="0">
-        <v>78.8</v>
+        <v>82.32</v>
       </c>
       <c r="P26" s="0">
         <v>0</v>
       </c>
       <c r="Q26" s="0">
-        <v>0.87588</v>
+        <v>0.88515</v>
       </c>
       <c r="R26" s="0">
         <v>0.82949</v>
@@ -3906,49 +3906,49 @@
         <v>0</v>
       </c>
       <c r="T26" s="0">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="U26" s="0">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="V26" s="0">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="W26" s="0">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="X26" s="0">
-        <v>5.53</v>
+        <v>5.14</v>
       </c>
       <c r="Y26" s="0">
-        <v>6.1</v>
+        <v>5.85</v>
       </c>
       <c r="Z26" s="0">
-        <v>6.1</v>
+        <v>5.85</v>
       </c>
       <c r="AA26" s="0">
-        <v>-4.647</v>
+        <v>-0.387</v>
       </c>
       <c r="AB26" s="0">
-        <v>-8.297</v>
+        <v>-3.554</v>
       </c>
       <c r="AC26" s="0">
-        <v>11.63</v>
+        <v>11.34</v>
       </c>
       <c r="AD26" s="0">
-        <v>16.2</v>
+        <v>16.84</v>
       </c>
       <c r="AE26" s="0">
-        <v>16.2</v>
+        <v>16.84</v>
       </c>
       <c r="AF26" s="0">
-        <v>0.9</v>
+        <v>0.59</v>
       </c>
       <c r="AG26" s="0">
-        <v>5.35</v>
+        <v>5.8</v>
       </c>
       <c r="AH26" s="0">
-        <v>5.35</v>
+        <v>5.8</v>
       </c>
       <c r="AI26" s="0" t="s">
         <v>47</v>
@@ -3998,13 +3998,13 @@
         <v>1305</v>
       </c>
       <c r="O27" s="0">
-        <v>82.4</v>
+        <v>85.64</v>
       </c>
       <c r="P27" s="0">
         <v>0</v>
       </c>
       <c r="Q27" s="0">
-        <v>1.7173</v>
+        <v>1.72658</v>
       </c>
       <c r="R27" s="0">
         <v>1.64413</v>
@@ -4013,49 +4013,49 @@
         <v>0</v>
       </c>
       <c r="T27" s="0">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="U27" s="0">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="V27" s="0">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="W27" s="0">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="X27" s="0">
-        <v>5.32</v>
+        <v>4.94</v>
       </c>
       <c r="Y27" s="0">
-        <v>6.11</v>
+        <v>5.89</v>
       </c>
       <c r="Z27" s="0">
-        <v>6.11</v>
+        <v>5.89</v>
       </c>
       <c r="AA27" s="0">
-        <v>-5.678</v>
+        <v>-1.969</v>
       </c>
       <c r="AB27" s="0">
-        <v>-8.896</v>
+        <v>-4.839</v>
       </c>
       <c r="AC27" s="0">
-        <v>10.39</v>
+        <v>9.86</v>
       </c>
       <c r="AD27" s="0">
-        <v>16.25</v>
+        <v>16.81</v>
       </c>
       <c r="AE27" s="0">
-        <v>16.25</v>
+        <v>16.81</v>
       </c>
       <c r="AF27" s="0">
-        <v>-0.15</v>
+        <v>-0.22</v>
       </c>
       <c r="AG27" s="0">
-        <v>5.36</v>
+        <v>5.74</v>
       </c>
       <c r="AH27" s="0">
-        <v>5.36</v>
+        <v>5.74</v>
       </c>
       <c r="AI27" s="0" t="s">
         <v>47</v>
@@ -4105,13 +4105,13 @@
         <v>1393.5</v>
       </c>
       <c r="O28" s="0">
-        <v>88.28</v>
+        <v>91.44</v>
       </c>
       <c r="P28" s="0">
         <v>0</v>
       </c>
       <c r="Q28" s="0">
-        <v>1.96462</v>
+        <v>1.96854</v>
       </c>
       <c r="R28" s="0">
         <v>1.86736</v>
@@ -4120,49 +4120,49 @@
         <v>0</v>
       </c>
       <c r="T28" s="0">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="U28" s="0">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="V28" s="0">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="W28" s="0">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="X28" s="0">
-        <v>4.88</v>
+        <v>4.45</v>
       </c>
       <c r="Y28" s="0">
-        <v>6.12</v>
+        <v>5.93</v>
       </c>
       <c r="Z28" s="0">
-        <v>6.12</v>
+        <v>5.93</v>
       </c>
       <c r="AA28" s="0">
-        <v>-4.994</v>
+        <v>-1.593</v>
       </c>
       <c r="AB28" s="0">
-        <v>-7.677</v>
+        <v>-4.068</v>
       </c>
       <c r="AC28" s="0">
-        <v>8.55</v>
+        <v>7.74</v>
       </c>
       <c r="AD28" s="0">
-        <v>16.24</v>
+        <v>16.73</v>
       </c>
       <c r="AE28" s="0">
-        <v>16.24</v>
+        <v>16.73</v>
       </c>
       <c r="AF28" s="0">
-        <v>-1.03</v>
+        <v>-1.18</v>
       </c>
       <c r="AG28" s="0">
-        <v>5.34</v>
+        <v>5.69</v>
       </c>
       <c r="AH28" s="0">
-        <v>5.34</v>
+        <v>5.69</v>
       </c>
       <c r="AI28" s="0" t="s">
         <v>47</v>
@@ -4212,64 +4212,64 @@
         <v>850</v>
       </c>
       <c r="O29" s="0">
-        <v>95.56</v>
+        <v>97</v>
       </c>
       <c r="P29" s="0">
         <v>0</v>
       </c>
       <c r="Q29" s="0">
-        <v>1.29719</v>
+        <v>1.27377</v>
       </c>
       <c r="R29" s="0">
         <v>1.22485</v>
       </c>
       <c r="S29" s="0">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="T29" s="0">
-        <v>55</v>
+        <v>-11</v>
       </c>
       <c r="U29" s="0">
-        <v>172</v>
+        <v>106</v>
       </c>
       <c r="V29" s="0">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="W29" s="0">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="X29" s="0">
-        <v>4.17</v>
+        <v>3.55</v>
       </c>
       <c r="Y29" s="0">
-        <v>6.25</v>
+        <v>6.17</v>
       </c>
       <c r="Z29" s="0">
-        <v>6.25</v>
+        <v>6.17</v>
       </c>
       <c r="AA29" s="0">
-        <v>-4.363</v>
+        <v>-1.452</v>
       </c>
       <c r="AB29" s="0">
-        <v>-5.686</v>
+        <v>-2.799</v>
       </c>
       <c r="AC29" s="0">
-        <v>5.52</v>
+        <v>4.12</v>
       </c>
       <c r="AD29" s="0">
-        <v>15.75</v>
+        <v>15.9</v>
       </c>
       <c r="AE29" s="0">
-        <v>15.75</v>
+        <v>15.9</v>
       </c>
       <c r="AF29" s="0">
-        <v>-1.97</v>
+        <v>-2.47</v>
       </c>
       <c r="AG29" s="0">
-        <v>5.08</v>
+        <v>5.19</v>
       </c>
       <c r="AH29" s="0">
-        <v>5.08</v>
+        <v>5.19</v>
       </c>
       <c r="AI29" s="0" t="s">
         <v>47</v>
@@ -4319,13 +4319,13 @@
         <v>1350</v>
       </c>
       <c r="O30" s="0">
-        <v>96.88</v>
+        <v>99.6</v>
       </c>
       <c r="P30" s="0">
         <v>0</v>
       </c>
       <c r="Q30" s="0">
-        <v>2.0887</v>
+        <v>2.07727</v>
       </c>
       <c r="R30" s="0">
         <v>1.9586</v>
@@ -4334,49 +4334,49 @@
         <v>0</v>
       </c>
       <c r="T30" s="0">
-        <v>21</v>
+        <v>-64</v>
       </c>
       <c r="U30" s="0">
-        <v>216</v>
+        <v>131</v>
       </c>
       <c r="V30" s="0">
-        <v>57</v>
+        <v>-18</v>
       </c>
       <c r="W30" s="0">
-        <v>199</v>
+        <v>124</v>
       </c>
       <c r="X30" s="0">
-        <v>3.82</v>
+        <v>3</v>
       </c>
       <c r="Y30" s="0">
-        <v>6.27</v>
+        <v>6.12</v>
       </c>
       <c r="Z30" s="0">
-        <v>6.27</v>
+        <v>6.12</v>
       </c>
       <c r="AA30" s="0">
-        <v>-3.698</v>
+        <v>-0.994</v>
       </c>
       <c r="AB30" s="0">
-        <v>-4.317</v>
+        <v>-1.754</v>
       </c>
       <c r="AC30" s="0">
-        <v>4.52</v>
+        <v>2.61</v>
       </c>
       <c r="AD30" s="0">
-        <v>15.75</v>
+        <v>16.11</v>
       </c>
       <c r="AE30" s="0">
-        <v>15.75</v>
+        <v>16.11</v>
       </c>
       <c r="AF30" s="0">
-        <v>-2.37</v>
+        <v>-2.62</v>
       </c>
       <c r="AG30" s="0">
-        <v>5.06</v>
+        <v>5.31</v>
       </c>
       <c r="AH30" s="0">
-        <v>5.06</v>
+        <v>5.31</v>
       </c>
       <c r="AI30" s="0" t="s">
         <v>47</v>
@@ -4426,13 +4426,13 @@
         <v>350.893</v>
       </c>
       <c r="O31" s="0">
-        <v>58.64</v>
+        <v>63.2</v>
       </c>
       <c r="P31" s="0">
         <v>0</v>
       </c>
       <c r="Q31" s="0">
-        <v>0.32861</v>
+        <v>0.3426</v>
       </c>
       <c r="R31" s="0">
         <v>0.36698</v>
@@ -4441,49 +4441,49 @@
         <v>1.16</v>
       </c>
       <c r="T31" s="0">
-        <v>425</v>
+        <v>360</v>
       </c>
       <c r="U31" s="0">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="V31" s="0">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="W31" s="0">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="X31" s="0">
-        <v>7.93</v>
+        <v>7.33</v>
       </c>
       <c r="Y31" s="0">
-        <v>7.95</v>
+        <v>7.39</v>
       </c>
       <c r="Z31" s="0">
-        <v>7.95</v>
+        <v>7.39</v>
       </c>
       <c r="AA31" s="0">
-        <v>-17.545</v>
+        <v>-11.257</v>
       </c>
       <c r="AB31" s="0">
-        <v>-21.384</v>
+        <v>-14.49</v>
       </c>
       <c r="AC31" s="0">
-        <v>12.18</v>
+        <v>12.52</v>
       </c>
       <c r="AD31" s="0">
-        <v>12.49</v>
+        <v>13.39</v>
       </c>
       <c r="AE31" s="0">
-        <v>12.49</v>
+        <v>13.39</v>
       </c>
       <c r="AF31" s="0">
-        <v>2.23</v>
+        <v>2.78</v>
       </c>
       <c r="AG31" s="0">
-        <v>3.18</v>
+        <v>3.65</v>
       </c>
       <c r="AH31" s="0">
-        <v>3.18</v>
+        <v>3.65</v>
       </c>
       <c r="AI31" s="0" t="s">
         <v>47</v>
@@ -4533,13 +4533,13 @@
         <v>576.467</v>
       </c>
       <c r="O32" s="0">
-        <v>66.76</v>
+        <v>67</v>
       </c>
       <c r="P32" s="0">
         <v>0</v>
       </c>
       <c r="Q32" s="0">
-        <v>0.61461</v>
+        <v>0.59669</v>
       </c>
       <c r="R32" s="0">
         <v>0.68171</v>
@@ -4548,19 +4548,19 @@
         <v>1.34</v>
       </c>
       <c r="T32" s="0">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="U32" s="0">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="V32" s="0">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="W32" s="0">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="X32" s="0">
-        <v>8.03</v>
+        <v>8.04</v>
       </c>
       <c r="Y32" s="0">
         <v>8.11</v>
@@ -4569,28 +4569,28 @@
         <v>8.11</v>
       </c>
       <c r="AA32" s="0">
-        <v>-16.947</v>
+        <v>-16.654</v>
       </c>
       <c r="AB32" s="0">
-        <v>-20.385</v>
+        <v>-19.669</v>
       </c>
       <c r="AC32" s="0">
-        <v>11.45</v>
+        <v>11.46</v>
       </c>
       <c r="AD32" s="0">
-        <v>12.23</v>
+        <v>12.19</v>
       </c>
       <c r="AE32" s="0">
-        <v>12.23</v>
+        <v>12.19</v>
       </c>
       <c r="AF32" s="0">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="AG32" s="0">
-        <v>3.05</v>
+        <v>3.03</v>
       </c>
       <c r="AH32" s="0">
-        <v>3.05</v>
+        <v>3.03</v>
       </c>
       <c r="AI32" s="0" t="s">
         <v>47</v>
@@ -4640,13 +4640,13 @@
         <v>426.084</v>
       </c>
       <c r="O33" s="0">
-        <v>86.76</v>
+        <v>90.88</v>
       </c>
       <c r="P33" s="0">
         <v>0</v>
       </c>
       <c r="Q33" s="0">
-        <v>0.59037</v>
+        <v>0.59822</v>
       </c>
       <c r="R33" s="0">
         <v>0.62431</v>
@@ -4655,49 +4655,49 @@
         <v>1.65</v>
       </c>
       <c r="T33" s="0">
-        <v>315</v>
+        <v>248</v>
       </c>
       <c r="U33" s="0">
-        <v>370</v>
+        <v>303</v>
       </c>
       <c r="V33" s="0">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="W33" s="0">
-        <v>297</v>
+        <v>256</v>
       </c>
       <c r="X33" s="0">
-        <v>6.82</v>
+        <v>6.2</v>
       </c>
       <c r="Y33" s="0">
-        <v>7.66</v>
+        <v>7.34</v>
       </c>
       <c r="Z33" s="0">
-        <v>7.66</v>
+        <v>7.34</v>
       </c>
       <c r="AA33" s="0">
-        <v>-12.982</v>
+        <v>-8.927</v>
       </c>
       <c r="AB33" s="0">
-        <v>-14.487</v>
+        <v>-10.428</v>
       </c>
       <c r="AC33" s="0">
-        <v>8.14</v>
+        <v>7.27</v>
       </c>
       <c r="AD33" s="0">
-        <v>12.96</v>
+        <v>13.49</v>
       </c>
       <c r="AE33" s="0">
-        <v>12.96</v>
+        <v>13.49</v>
       </c>
       <c r="AF33" s="0">
-        <v>-0.37</v>
+        <v>-1.08</v>
       </c>
       <c r="AG33" s="0">
-        <v>3.42</v>
+        <v>3.71</v>
       </c>
       <c r="AH33" s="0">
-        <v>3.42</v>
+        <v>3.71</v>
       </c>
       <c r="AI33" s="0" t="s">
         <v>47</v>
@@ -4747,13 +4747,13 @@
         <v>403.527</v>
       </c>
       <c r="O34" s="0">
-        <v>87.6</v>
+        <v>96.28</v>
       </c>
       <c r="P34" s="0">
         <v>0</v>
       </c>
       <c r="Q34" s="0">
-        <v>0.56453</v>
+        <v>0.60022</v>
       </c>
       <c r="R34" s="0">
         <v>0.5901</v>
@@ -4762,49 +4762,49 @@
         <v>1.69</v>
       </c>
       <c r="T34" s="0">
-        <v>321</v>
+        <v>164</v>
       </c>
       <c r="U34" s="0">
-        <v>289</v>
+        <v>132</v>
       </c>
       <c r="V34" s="0">
-        <v>277</v>
+        <v>171</v>
       </c>
       <c r="W34" s="0">
-        <v>223</v>
+        <v>117</v>
       </c>
       <c r="X34" s="0">
-        <v>6.88</v>
+        <v>5.34</v>
       </c>
       <c r="Y34" s="0">
-        <v>7.76</v>
+        <v>7.08</v>
       </c>
       <c r="Z34" s="0">
-        <v>7.76</v>
+        <v>7.08</v>
       </c>
       <c r="AA34" s="0">
-        <v>-11.945</v>
+        <v>-3.385</v>
       </c>
       <c r="AB34" s="0">
-        <v>-14.241</v>
+        <v>-5.605</v>
       </c>
       <c r="AC34" s="0">
-        <v>8.11</v>
+        <v>6.24</v>
       </c>
       <c r="AD34" s="0">
-        <v>12.79</v>
+        <v>13.99</v>
       </c>
       <c r="AE34" s="0">
-        <v>12.79</v>
+        <v>13.99</v>
       </c>
       <c r="AF34" s="0">
-        <v>-0.18</v>
+        <v>-1.01</v>
       </c>
       <c r="AG34" s="0">
-        <v>3.33</v>
+        <v>3.98</v>
       </c>
       <c r="AH34" s="0">
-        <v>3.33</v>
+        <v>3.98</v>
       </c>
       <c r="AI34" s="0" t="s">
         <v>47</v>
@@ -4854,13 +4854,13 @@
         <v>1498.814</v>
       </c>
       <c r="O35" s="0">
-        <v>97.84</v>
+        <v>99.44</v>
       </c>
       <c r="P35" s="0">
         <v>0</v>
       </c>
       <c r="Q35" s="0">
-        <v>2.34192</v>
+        <v>2.30255</v>
       </c>
       <c r="R35" s="0">
         <v>2.1745</v>
@@ -4869,43 +4869,43 @@
         <v>0</v>
       </c>
       <c r="T35" s="0">
-        <v>352</v>
+        <v>325</v>
       </c>
       <c r="U35" s="0">
+        <v>198</v>
+      </c>
+      <c r="V35" s="0">
+        <v>380</v>
+      </c>
+      <c r="W35" s="0">
         <v>225</v>
       </c>
-      <c r="V35" s="0">
-        <v>399</v>
-      </c>
-      <c r="W35" s="0">
-        <v>244</v>
-      </c>
       <c r="X35" s="0">
-        <v>8.82</v>
+        <v>8.81</v>
       </c>
       <c r="Y35" s="0">
-        <v>11.28</v>
+        <v>9.38</v>
       </c>
       <c r="Z35" s="0">
-        <v>11.28</v>
+        <v>9.38</v>
       </c>
       <c r="AA35" s="0">
-        <v>-2.744</v>
+        <v>-1.153</v>
       </c>
       <c r="AB35" s="0">
-        <v>-3.277</v>
+        <v>-1.8</v>
       </c>
       <c r="AC35" s="0">
-        <v>0.16</v>
+        <v>0.33</v>
       </c>
       <c r="AD35" s="0">
-        <v>0.62</v>
+        <v>0.58</v>
       </c>
       <c r="AE35" s="0">
-        <v>0.62</v>
+        <v>0.58</v>
       </c>
       <c r="AF35" s="0">
-        <v>-0.14</v>
+        <v>-0.1</v>
       </c>
       <c r="AG35" s="0">
         <v>0.01</v>
@@ -4961,58 +4961,58 @@
         <v>952.424</v>
       </c>
       <c r="O36" s="0">
-        <v>99.92</v>
+        <v>100.76</v>
       </c>
       <c r="P36" s="0">
         <v>0</v>
       </c>
       <c r="Q36" s="0">
-        <v>1.51982</v>
+        <v>1.48258</v>
       </c>
       <c r="R36" s="0">
         <v>1.39772</v>
       </c>
       <c r="S36" s="0">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="T36" s="0">
-        <v>328</v>
+        <v>76</v>
       </c>
       <c r="U36" s="0">
-        <v>229</v>
+        <v>-23</v>
       </c>
       <c r="V36" s="0">
-        <v>381</v>
+        <v>79</v>
       </c>
       <c r="W36" s="0">
-        <v>261</v>
+        <v>-41</v>
       </c>
       <c r="X36" s="0">
-        <v>8.49</v>
+        <v>5.76</v>
       </c>
       <c r="Y36" s="0">
-        <v>10.2</v>
+        <v>5.61</v>
       </c>
       <c r="Z36" s="0">
-        <v>10.2</v>
+        <v>5.61</v>
       </c>
       <c r="AA36" s="0">
-        <v>-1.808</v>
+        <v>0.768</v>
       </c>
       <c r="AB36" s="0">
-        <v>-2.268</v>
+        <v>0.177</v>
       </c>
       <c r="AC36" s="0">
-        <v>0.17</v>
+        <v>0.48</v>
       </c>
       <c r="AD36" s="0">
-        <v>0.51</v>
+        <v>0.48</v>
       </c>
       <c r="AE36" s="0">
-        <v>0.51</v>
+        <v>0.48</v>
       </c>
       <c r="AF36" s="0">
-        <v>-0.12</v>
+        <v>0.01</v>
       </c>
       <c r="AG36" s="0">
         <v>0.01</v>
@@ -5041,7 +5041,7 @@
         <v>4.537</v>
       </c>
       <c r="F37" s="2">
-        <v>44998</v>
+        <v>45015</v>
       </c>
       <c r="G37" s="0" t="s">
         <v>149</v>
@@ -5065,7 +5065,7 @@
         <v>148</v>
       </c>
       <c r="N37" s="0">
-        <v>47.631</v>
+        <v>348.661</v>
       </c>
       <c r="O37" s="0">
         <v>100</v>
@@ -5074,7 +5074,7 @@
         <v>0</v>
       </c>
       <c r="Q37" s="0">
-        <v>0.07607</v>
+        <v>0.53865</v>
       </c>
       <c r="R37" s="0">
         <v>0</v>
@@ -5175,64 +5175,64 @@
         <v>451.148</v>
       </c>
       <c r="O38" s="0">
-        <v>71.8</v>
+        <v>79.04</v>
       </c>
       <c r="P38" s="0">
         <v>0</v>
       </c>
       <c r="Q38" s="0">
-        <v>0.51731</v>
+        <v>0.55089</v>
       </c>
       <c r="R38" s="0">
         <v>0.54783</v>
       </c>
       <c r="S38" s="0">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="T38" s="0">
-        <v>324</v>
+        <v>215</v>
       </c>
       <c r="U38" s="0">
-        <v>197</v>
+        <v>88</v>
       </c>
       <c r="V38" s="0">
-        <v>281</v>
+        <v>184</v>
       </c>
       <c r="W38" s="0">
-        <v>153</v>
+        <v>56</v>
       </c>
       <c r="X38" s="0">
-        <v>6.91</v>
+        <v>5.86</v>
       </c>
       <c r="Y38" s="0">
-        <v>7.12</v>
+        <v>6.37</v>
       </c>
       <c r="Z38" s="0">
-        <v>7.12</v>
+        <v>6.37</v>
       </c>
       <c r="AA38" s="0">
-        <v>-14.727</v>
+        <v>-4.644</v>
       </c>
       <c r="AB38" s="0">
-        <v>-18.144</v>
+        <v>-7.642</v>
       </c>
       <c r="AC38" s="0">
-        <v>11.86</v>
+        <v>11.36</v>
       </c>
       <c r="AD38" s="0">
-        <v>13.74</v>
+        <v>15.59</v>
       </c>
       <c r="AE38" s="0">
-        <v>13.74</v>
+        <v>15.59</v>
       </c>
       <c r="AF38" s="0">
-        <v>1.43</v>
+        <v>0.76</v>
       </c>
       <c r="AG38" s="0">
-        <v>3.9</v>
+        <v>4.93</v>
       </c>
       <c r="AH38" s="0">
-        <v>3.9</v>
+        <v>4.93</v>
       </c>
       <c r="AI38" s="0" t="s">
         <v>47</v>
@@ -5282,64 +5282,64 @@
         <v>300.765</v>
       </c>
       <c r="O39" s="0">
-        <v>79.2</v>
+        <v>94.32</v>
       </c>
       <c r="P39" s="0">
         <v>0</v>
       </c>
       <c r="Q39" s="0">
-        <v>0.38042</v>
+        <v>0.43826</v>
       </c>
       <c r="R39" s="0">
         <v>0.44069</v>
       </c>
       <c r="S39" s="0">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="T39" s="0">
-        <v>502</v>
+        <v>322</v>
       </c>
       <c r="U39" s="0">
-        <v>442</v>
+        <v>262</v>
       </c>
       <c r="V39" s="0">
-        <v>438</v>
+        <v>362</v>
       </c>
       <c r="W39" s="0">
-        <v>392</v>
+        <v>316</v>
       </c>
       <c r="X39" s="0">
-        <v>10.64</v>
+        <v>8.96</v>
       </c>
       <c r="Y39" s="0">
-        <v>32.77</v>
+        <v>12.49</v>
       </c>
       <c r="Z39" s="0">
-        <v>32.77</v>
+        <v>12.49</v>
       </c>
       <c r="AA39" s="0">
-        <v>-22.047</v>
+        <v>-5.603</v>
       </c>
       <c r="AB39" s="0">
-        <v>-22.81</v>
+        <v>-6.436</v>
       </c>
       <c r="AC39" s="0">
-        <v>-1.78</v>
+        <v>0.16</v>
       </c>
       <c r="AD39" s="0">
-        <v>0.87</v>
+        <v>0.93</v>
       </c>
       <c r="AE39" s="0">
-        <v>0.87</v>
+        <v>0.93</v>
       </c>
       <c r="AF39" s="0">
-        <v>-0.61</v>
+        <v>-0.21</v>
       </c>
       <c r="AG39" s="0">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="AH39" s="0">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="AI39" s="0" t="s">
         <v>47</v>
@@ -5389,13 +5389,13 @@
         <v>412.017</v>
       </c>
       <c r="O40" s="0">
-        <v>64.08</v>
+        <v>66.2</v>
       </c>
       <c r="P40" s="0">
         <v>0</v>
       </c>
       <c r="Q40" s="0">
-        <v>0.42164</v>
+        <v>0.42138</v>
       </c>
       <c r="R40" s="0">
         <v>0.42734</v>
@@ -5404,49 +5404,49 @@
         <v>0</v>
       </c>
       <c r="T40" s="0">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="U40" s="0">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="V40" s="0">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="W40" s="0">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="X40" s="0">
-        <v>6.58</v>
+        <v>6.35</v>
       </c>
       <c r="Y40" s="0">
-        <v>6.7</v>
+        <v>6.51</v>
       </c>
       <c r="Z40" s="0">
-        <v>6.7</v>
+        <v>6.51</v>
       </c>
       <c r="AA40" s="0">
-        <v>-10.901</v>
+        <v>-7.953</v>
       </c>
       <c r="AB40" s="0">
-        <v>-14.919</v>
+        <v>-11.299</v>
       </c>
       <c r="AC40" s="0">
-        <v>13.34</v>
+        <v>13.48</v>
       </c>
       <c r="AD40" s="0">
-        <v>14.76</v>
+        <v>15.17</v>
       </c>
       <c r="AE40" s="0">
-        <v>14.76</v>
+        <v>15.17</v>
       </c>
       <c r="AF40" s="0">
-        <v>3.28</v>
+        <v>3.04</v>
       </c>
       <c r="AG40" s="0">
-        <v>4.44</v>
+        <v>4.7</v>
       </c>
       <c r="AH40" s="0">
-        <v>4.44</v>
+        <v>4.7</v>
       </c>
       <c r="AI40" s="0" t="s">
         <v>47</v>
@@ -5496,13 +5496,13 @@
         <v>654.381</v>
       </c>
       <c r="O41" s="0">
-        <v>65.64</v>
+        <v>67.44</v>
       </c>
       <c r="P41" s="0">
         <v>0</v>
       </c>
       <c r="Q41" s="0">
-        <v>0.68597</v>
+        <v>0.68179</v>
       </c>
       <c r="R41" s="0">
         <v>0.68741</v>
@@ -5511,49 +5511,49 @@
         <v>0</v>
       </c>
       <c r="T41" s="0">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="U41" s="0">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="V41" s="0">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="W41" s="0">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="X41" s="0">
-        <v>6.59</v>
+        <v>6.41</v>
       </c>
       <c r="Y41" s="0">
-        <v>6.74</v>
+        <v>6.58</v>
       </c>
       <c r="Z41" s="0">
-        <v>6.74</v>
+        <v>6.58</v>
       </c>
       <c r="AA41" s="0">
-        <v>-9.885</v>
+        <v>-7.414</v>
       </c>
       <c r="AB41" s="0">
-        <v>-13.844</v>
+        <v>-10.728</v>
       </c>
       <c r="AC41" s="0">
-        <v>13.18</v>
+        <v>13.24</v>
       </c>
       <c r="AD41" s="0">
-        <v>14.69</v>
+        <v>15.01</v>
       </c>
       <c r="AE41" s="0">
-        <v>14.69</v>
+        <v>15.01</v>
       </c>
       <c r="AF41" s="0">
-        <v>3.09</v>
+        <v>2.64</v>
       </c>
       <c r="AG41" s="0">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="AH41" s="0">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="AI41" s="0" t="s">
         <v>47</v>
@@ -5603,13 +5603,13 @@
         <v>1211.816</v>
       </c>
       <c r="O42" s="0">
-        <v>70.56</v>
+        <v>75.2</v>
       </c>
       <c r="P42" s="0">
         <v>0</v>
       </c>
       <c r="Q42" s="0">
-        <v>1.36554</v>
+        <v>1.40785</v>
       </c>
       <c r="R42" s="0">
         <v>1.37783</v>
@@ -5618,49 +5618,49 @@
         <v>0</v>
       </c>
       <c r="T42" s="0">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="U42" s="0">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="V42" s="0">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="W42" s="0">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="X42" s="0">
-        <v>6.66</v>
+        <v>6.12</v>
       </c>
       <c r="Y42" s="0">
-        <v>6.88</v>
+        <v>6.47</v>
       </c>
       <c r="Z42" s="0">
-        <v>6.88</v>
+        <v>6.47</v>
       </c>
       <c r="AA42" s="0">
-        <v>-10.502</v>
+        <v>-4.617</v>
       </c>
       <c r="AB42" s="0">
-        <v>-14.141</v>
+        <v>-7.748</v>
       </c>
       <c r="AC42" s="0">
-        <v>12.36</v>
+        <v>12.05</v>
       </c>
       <c r="AD42" s="0">
-        <v>14.38</v>
+        <v>15.26</v>
       </c>
       <c r="AE42" s="0">
-        <v>14.38</v>
+        <v>15.26</v>
       </c>
       <c r="AF42" s="0">
-        <v>1.49</v>
+        <v>1.38</v>
       </c>
       <c r="AG42" s="0">
-        <v>4.22</v>
+        <v>4.76</v>
       </c>
       <c r="AH42" s="0">
-        <v>4.22</v>
+        <v>4.76</v>
       </c>
       <c r="AI42" s="0" t="s">
         <v>47</v>
@@ -5710,13 +5710,13 @@
         <v>1454.179</v>
       </c>
       <c r="O43" s="0">
-        <v>74.28</v>
+        <v>78.96</v>
       </c>
       <c r="P43" s="0">
         <v>0</v>
       </c>
       <c r="Q43" s="0">
-        <v>1.72504</v>
+        <v>1.77389</v>
       </c>
       <c r="R43" s="0">
         <v>1.75742</v>
@@ -5725,49 +5725,49 @@
         <v>0</v>
       </c>
       <c r="T43" s="0">
-        <v>282</v>
+        <v>222</v>
       </c>
       <c r="U43" s="0">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="V43" s="0">
-        <v>267</v>
+        <v>187</v>
       </c>
       <c r="W43" s="0">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="X43" s="0">
-        <v>6.49</v>
+        <v>5.93</v>
       </c>
       <c r="Y43" s="0">
-        <v>6.8</v>
+        <v>6.42</v>
       </c>
       <c r="Z43" s="0">
-        <v>6.8</v>
+        <v>6.42</v>
       </c>
       <c r="AA43" s="0">
-        <v>-11.36</v>
+        <v>-5.776</v>
       </c>
       <c r="AB43" s="0">
-        <v>-14.811</v>
+        <v>-8.802</v>
       </c>
       <c r="AC43" s="0">
-        <v>11.74</v>
+        <v>11.34</v>
       </c>
       <c r="AD43" s="0">
-        <v>14.54</v>
+        <v>15.38</v>
       </c>
       <c r="AE43" s="0">
-        <v>14.54</v>
+        <v>15.38</v>
       </c>
       <c r="AF43" s="0">
-        <v>1.4</v>
+        <v>0.82</v>
       </c>
       <c r="AG43" s="0">
-        <v>4.31</v>
+        <v>4.83</v>
       </c>
       <c r="AH43" s="0">
-        <v>4.31</v>
+        <v>4.83</v>
       </c>
       <c r="AI43" s="0" t="s">
         <v>47</v>
@@ -5817,13 +5817,13 @@
         <v>300.765</v>
       </c>
       <c r="O44" s="0">
-        <v>68.24</v>
+        <v>73.64</v>
       </c>
       <c r="P44" s="0">
         <v>0</v>
       </c>
       <c r="Q44" s="0">
-        <v>0.32777</v>
+        <v>0.34217</v>
       </c>
       <c r="R44" s="0">
         <v>0.33052</v>
@@ -5832,49 +5832,49 @@
         <v>1.07</v>
       </c>
       <c r="T44" s="0">
-        <v>247</v>
+        <v>181</v>
       </c>
       <c r="U44" s="0">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="V44" s="0">
-        <v>219</v>
+        <v>151</v>
       </c>
       <c r="W44" s="0">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="X44" s="0">
-        <v>6.13</v>
+        <v>5.52</v>
       </c>
       <c r="Y44" s="0">
-        <v>6.35</v>
+        <v>5.9</v>
       </c>
       <c r="Z44" s="0">
-        <v>6.35</v>
+        <v>5.9</v>
       </c>
       <c r="AA44" s="0">
-        <v>-9.035</v>
+        <v>-1.949</v>
       </c>
       <c r="AB44" s="0">
-        <v>-12.875</v>
+        <v>-5.183</v>
       </c>
       <c r="AC44" s="0">
-        <v>13.36</v>
+        <v>12.97</v>
       </c>
       <c r="AD44" s="0">
-        <v>15.63</v>
+        <v>16.79</v>
       </c>
       <c r="AE44" s="0">
-        <v>15.63</v>
+        <v>16.79</v>
       </c>
       <c r="AF44" s="0">
-        <v>2.01</v>
+        <v>1.64</v>
       </c>
       <c r="AG44" s="0">
-        <v>4.96</v>
+        <v>5.74</v>
       </c>
       <c r="AH44" s="0">
-        <v>4.96</v>
+        <v>5.74</v>
       </c>
       <c r="AI44" s="0" t="s">
         <v>47</v>
@@ -5924,13 +5924,13 @@
         <v>802.041</v>
       </c>
       <c r="O45" s="0">
-        <v>77.92</v>
+        <v>86.6</v>
       </c>
       <c r="P45" s="0">
         <v>0</v>
       </c>
       <c r="Q45" s="0">
-        <v>0.99805</v>
+        <v>1.07304</v>
       </c>
       <c r="R45" s="0">
         <v>1.02018</v>
@@ -5939,49 +5939,49 @@
         <v>1.31</v>
       </c>
       <c r="T45" s="0">
-        <v>268</v>
+        <v>148</v>
       </c>
       <c r="U45" s="0">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="V45" s="0">
-        <v>276</v>
+        <v>148</v>
       </c>
       <c r="W45" s="0">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c r="X45" s="0">
-        <v>6.34</v>
+        <v>5.18</v>
       </c>
       <c r="Y45" s="0">
-        <v>6.79</v>
+        <v>6.12</v>
       </c>
       <c r="Z45" s="0">
-        <v>6.79</v>
+        <v>6.12</v>
       </c>
       <c r="AA45" s="0">
-        <v>-10.167</v>
+        <v>-0.326</v>
       </c>
       <c r="AB45" s="0">
-        <v>-13.356</v>
+        <v>-3.177</v>
       </c>
       <c r="AC45" s="0">
-        <v>11.04</v>
+        <v>9.52</v>
       </c>
       <c r="AD45" s="0">
-        <v>14.6</v>
+        <v>16.16</v>
       </c>
       <c r="AE45" s="0">
-        <v>14.6</v>
+        <v>16.16</v>
       </c>
       <c r="AF45" s="0">
-        <v>0.98</v>
+        <v>-0.3</v>
       </c>
       <c r="AG45" s="0">
-        <v>4.34</v>
+        <v>5.32</v>
       </c>
       <c r="AH45" s="0">
-        <v>4.34</v>
+        <v>5.32</v>
       </c>
       <c r="AI45" s="0" t="s">
         <v>47</v>
@@ -6031,13 +6031,13 @@
         <v>401.02</v>
       </c>
       <c r="O46" s="0">
-        <v>88.24</v>
+        <v>87.88</v>
       </c>
       <c r="P46" s="0">
         <v>0</v>
       </c>
       <c r="Q46" s="0">
-        <v>0.56512</v>
+        <v>0.54445</v>
       </c>
       <c r="R46" s="0">
         <v>0.54502</v>
@@ -6046,49 +6046,49 @@
         <v>0</v>
       </c>
       <c r="T46" s="0">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="U46" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="V46" s="0">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="W46" s="0">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="X46" s="0">
-        <v>9.28</v>
+        <v>9.53</v>
       </c>
       <c r="Y46" s="0">
-        <v>9.99</v>
+        <v>10.2</v>
       </c>
       <c r="Z46" s="0">
-        <v>9.99</v>
+        <v>10.2</v>
       </c>
       <c r="AA46" s="0">
-        <v>-6.367</v>
+        <v>-6.749</v>
       </c>
       <c r="AB46" s="0">
-        <v>-8.561</v>
+        <v>-9.096</v>
       </c>
       <c r="AC46" s="0">
-        <v>3.31</v>
+        <v>3.21</v>
       </c>
       <c r="AD46" s="0">
-        <v>4.29</v>
+        <v>4.24</v>
       </c>
       <c r="AE46" s="0">
-        <v>4.29</v>
+        <v>4.24</v>
       </c>
       <c r="AF46" s="0">
-        <v>-0.09</v>
+        <v>-0.11</v>
       </c>
       <c r="AG46" s="0">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="AH46" s="0">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="AI46" s="0" t="s">
         <v>47</v>
@@ -6138,13 +6138,13 @@
         <v>345.88</v>
       </c>
       <c r="O47" s="0">
-        <v>82.2</v>
+        <v>87.48</v>
       </c>
       <c r="P47" s="0">
         <v>0</v>
       </c>
       <c r="Q47" s="0">
-        <v>0.45405</v>
+        <v>0.46745</v>
       </c>
       <c r="R47" s="0">
         <v>0.43896</v>
@@ -6153,49 +6153,49 @@
         <v>0</v>
       </c>
       <c r="T47" s="0">
-        <v>227</v>
+        <v>152</v>
       </c>
       <c r="U47" s="0">
-        <v>119</v>
+        <v>44</v>
       </c>
       <c r="V47" s="0">
-        <v>195</v>
+        <v>152</v>
       </c>
       <c r="W47" s="0">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="X47" s="0">
-        <v>5.92</v>
+        <v>5.22</v>
       </c>
       <c r="Y47" s="0">
-        <v>6.59</v>
+        <v>6.21</v>
       </c>
       <c r="Z47" s="0">
-        <v>6.59</v>
+        <v>6.21</v>
       </c>
       <c r="AA47" s="0">
-        <v>-6.591</v>
+        <v>-0.591</v>
       </c>
       <c r="AB47" s="0">
-        <v>-9.773</v>
+        <v>-3.45</v>
       </c>
       <c r="AC47" s="0">
-        <v>10.22</v>
+        <v>9.24</v>
       </c>
       <c r="AD47" s="0">
-        <v>15.05</v>
+        <v>15.94</v>
       </c>
       <c r="AE47" s="0">
-        <v>15.05</v>
+        <v>15.94</v>
       </c>
       <c r="AF47" s="0">
-        <v>-0.02</v>
+        <v>-0.36</v>
       </c>
       <c r="AG47" s="0">
-        <v>4.6</v>
+        <v>5.17</v>
       </c>
       <c r="AH47" s="0">
-        <v>4.6</v>
+        <v>5.17</v>
       </c>
       <c r="AI47" s="0" t="s">
         <v>47</v>
@@ -6245,64 +6245,64 @@
         <v>250.638</v>
       </c>
       <c r="O48" s="0">
-        <v>75.16</v>
+        <v>85.56</v>
       </c>
       <c r="P48" s="0">
         <v>0</v>
       </c>
       <c r="Q48" s="0">
-        <v>0.30084</v>
+        <v>0.3313</v>
       </c>
       <c r="R48" s="0">
         <v>0.32821</v>
       </c>
       <c r="S48" s="0">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="T48" s="0">
-        <v>273</v>
+        <v>116</v>
       </c>
       <c r="U48" s="0">
-        <v>257</v>
+        <v>100</v>
       </c>
       <c r="V48" s="0">
-        <v>261</v>
+        <v>124</v>
       </c>
       <c r="W48" s="0">
-        <v>210</v>
+        <v>73</v>
       </c>
       <c r="X48" s="0">
-        <v>6.39</v>
+        <v>4.86</v>
       </c>
       <c r="Y48" s="0">
-        <v>6.73</v>
+        <v>5.83</v>
       </c>
       <c r="Z48" s="0">
-        <v>6.73</v>
+        <v>5.83</v>
       </c>
       <c r="AA48" s="0">
-        <v>-17.225</v>
+        <v>-4.408</v>
       </c>
       <c r="AB48" s="0">
-        <v>-20.239</v>
+        <v>-7.126</v>
       </c>
       <c r="AC48" s="0">
-        <v>11.61</v>
+        <v>9.9</v>
       </c>
       <c r="AD48" s="0">
-        <v>14.53</v>
+        <v>17.04</v>
       </c>
       <c r="AE48" s="0">
-        <v>14.53</v>
+        <v>17.04</v>
       </c>
       <c r="AF48" s="0">
-        <v>1.38</v>
+        <v>-0.22</v>
       </c>
       <c r="AG48" s="0">
-        <v>4.35</v>
+        <v>5.89</v>
       </c>
       <c r="AH48" s="0">
-        <v>4.35</v>
+        <v>5.89</v>
       </c>
       <c r="AI48" s="0" t="s">
         <v>47</v>
@@ -6352,58 +6352,58 @@
         <v>451.148</v>
       </c>
       <c r="O49" s="0">
-        <v>86.36</v>
+        <v>98.32</v>
       </c>
       <c r="P49" s="0">
         <v>0</v>
       </c>
       <c r="Q49" s="0">
-        <v>0.62221</v>
+        <v>0.68527</v>
       </c>
       <c r="R49" s="0">
         <v>0.65453</v>
       </c>
       <c r="S49" s="0">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="T49" s="0">
-        <v>438</v>
+        <v>282</v>
       </c>
       <c r="U49" s="0">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="V49" s="0">
-        <v>419</v>
+        <v>337</v>
       </c>
       <c r="W49" s="0">
-        <v>189</v>
+        <v>107</v>
       </c>
       <c r="X49" s="0">
-        <v>9.88</v>
+        <v>8.44</v>
       </c>
       <c r="Y49" s="0">
-        <v>29.37</v>
+        <v>9.07</v>
       </c>
       <c r="Z49" s="0">
-        <v>29.37</v>
+        <v>9.07</v>
       </c>
       <c r="AA49" s="0">
-        <v>-14.155</v>
+        <v>-0.62</v>
       </c>
       <c r="AB49" s="0">
-        <v>-14.755</v>
+        <v>-1.319</v>
       </c>
       <c r="AC49" s="0">
-        <v>-1.21</v>
+        <v>0.39</v>
       </c>
       <c r="AD49" s="0">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AE49" s="0">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AF49" s="0">
-        <v>-0.46</v>
+        <v>-0.11</v>
       </c>
       <c r="AG49" s="0">
         <v>0.01</v>
@@ -6459,64 +6459,64 @@
         <v>751.913</v>
       </c>
       <c r="O50" s="0">
-        <v>40.72</v>
+        <v>21.04</v>
       </c>
       <c r="P50" s="0">
         <v>0</v>
       </c>
       <c r="Q50" s="0">
-        <v>0.48897</v>
+        <v>0.24441</v>
       </c>
       <c r="R50" s="0">
         <v>0.74085</v>
       </c>
       <c r="S50" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T50" s="0">
-        <v>637</v>
+        <v>1634</v>
       </c>
       <c r="U50" s="0">
-        <v>463</v>
+        <v>1460</v>
       </c>
       <c r="V50" s="0">
-        <v>278</v>
+        <v>336</v>
       </c>
       <c r="W50" s="0">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="X50" s="0">
-        <v>10.06</v>
+        <v>20.11</v>
       </c>
       <c r="Y50" s="0">
-        <v>10.07</v>
+        <v>20.11</v>
       </c>
       <c r="Z50" s="0">
-        <v>10.07</v>
+        <v>20.11</v>
       </c>
       <c r="AA50" s="0">
-        <v>-40.398</v>
+        <v>-69.204</v>
       </c>
       <c r="AB50" s="0">
-        <v>-44.463</v>
+        <v>-72.551</v>
       </c>
       <c r="AC50" s="0">
-        <v>9.78</v>
+        <v>4.74</v>
       </c>
       <c r="AD50" s="0">
-        <v>9.7</v>
+        <v>4.7</v>
       </c>
       <c r="AE50" s="0">
-        <v>9.7</v>
+        <v>4.7</v>
       </c>
       <c r="AF50" s="0">
-        <v>1.96</v>
+        <v>0.47</v>
       </c>
       <c r="AG50" s="0">
-        <v>1.95</v>
+        <v>0.48</v>
       </c>
       <c r="AH50" s="0">
-        <v>1.95</v>
+        <v>0.48</v>
       </c>
       <c r="AI50" s="0" t="s">
         <v>47</v>
@@ -6566,64 +6566,64 @@
         <v>501.276</v>
       </c>
       <c r="O51" s="0">
-        <v>41.12</v>
+        <v>21.2</v>
       </c>
       <c r="P51" s="0">
         <v>0</v>
       </c>
       <c r="Q51" s="0">
-        <v>0.32918</v>
+        <v>0.16418</v>
       </c>
       <c r="R51" s="0">
         <v>0.50778</v>
       </c>
       <c r="S51" s="0">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T51" s="0">
-        <v>658</v>
+        <v>1684</v>
       </c>
       <c r="U51" s="0">
-        <v>486</v>
+        <v>1512</v>
       </c>
       <c r="V51" s="0">
-        <v>289</v>
+        <v>348</v>
       </c>
       <c r="W51" s="0">
-        <v>149</v>
+        <v>208</v>
       </c>
       <c r="X51" s="0">
-        <v>10.28</v>
+        <v>20.61</v>
       </c>
       <c r="Y51" s="0">
-        <v>10.28</v>
+        <v>20.61</v>
       </c>
       <c r="Z51" s="0">
-        <v>10.28</v>
+        <v>20.61</v>
       </c>
       <c r="AA51" s="0">
-        <v>-41.458</v>
+        <v>-69.818</v>
       </c>
       <c r="AB51" s="0">
-        <v>-45.501</v>
+        <v>-73.166</v>
       </c>
       <c r="AC51" s="0">
-        <v>9.57</v>
+        <v>4.62</v>
       </c>
       <c r="AD51" s="0">
-        <v>9.49</v>
+        <v>4.58</v>
       </c>
       <c r="AE51" s="0">
-        <v>9.49</v>
+        <v>4.58</v>
       </c>
       <c r="AF51" s="0">
-        <v>1.88</v>
+        <v>0.45</v>
       </c>
       <c r="AG51" s="0">
-        <v>1.87</v>
+        <v>0.46</v>
       </c>
       <c r="AH51" s="0">
-        <v>1.87</v>
+        <v>0.46</v>
       </c>
       <c r="AI51" s="0" t="s">
         <v>47</v>
@@ -6673,13 +6673,13 @@
         <v>749.407</v>
       </c>
       <c r="O52" s="0">
-        <v>41.12</v>
+        <v>21.2</v>
       </c>
       <c r="P52" s="0">
         <v>0</v>
       </c>
       <c r="Q52" s="0">
-        <v>0.49213</v>
+        <v>0.24545</v>
       </c>
       <c r="R52" s="0">
         <v>0.76518</v>
@@ -6688,49 +6688,49 @@
         <v>0</v>
       </c>
       <c r="T52" s="0">
-        <v>690</v>
+        <v>1750</v>
       </c>
       <c r="U52" s="0">
-        <v>505</v>
+        <v>1565</v>
       </c>
       <c r="V52" s="0">
-        <v>302</v>
+        <v>360</v>
       </c>
       <c r="W52" s="0">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="X52" s="0">
-        <v>10.6</v>
+        <v>21.27</v>
       </c>
       <c r="Y52" s="0">
-        <v>10.6</v>
+        <v>21.27</v>
       </c>
       <c r="Z52" s="0">
-        <v>10.6</v>
+        <v>21.27</v>
       </c>
       <c r="AA52" s="0">
-        <v>-41.921</v>
+        <v>-70.056</v>
       </c>
       <c r="AB52" s="0">
-        <v>-45.916</v>
+        <v>-73.379</v>
       </c>
       <c r="AC52" s="0">
-        <v>9.28</v>
+        <v>4.47</v>
       </c>
       <c r="AD52" s="0">
-        <v>9.19</v>
+        <v>4.43</v>
       </c>
       <c r="AE52" s="0">
-        <v>9.19</v>
+        <v>4.43</v>
       </c>
       <c r="AF52" s="0">
-        <v>1.77</v>
+        <v>0.42</v>
       </c>
       <c r="AG52" s="0">
-        <v>1.76</v>
+        <v>0.43</v>
       </c>
       <c r="AH52" s="0">
-        <v>1.76</v>
+        <v>0.43</v>
       </c>
       <c r="AI52" s="0" t="s">
         <v>47</v>
@@ -6780,13 +6780,13 @@
         <v>741.888</v>
       </c>
       <c r="O53" s="0">
-        <v>41.28</v>
+        <v>21.48</v>
       </c>
       <c r="P53" s="0">
         <v>0</v>
       </c>
       <c r="Q53" s="0">
-        <v>0.48909</v>
+        <v>0.24619</v>
       </c>
       <c r="R53" s="0">
         <v>0.79431</v>
@@ -6795,49 +6795,49 @@
         <v>0</v>
       </c>
       <c r="T53" s="0">
-        <v>749</v>
+        <v>1852</v>
       </c>
       <c r="U53" s="0">
-        <v>568</v>
+        <v>1671</v>
       </c>
       <c r="V53" s="0">
-        <v>326</v>
+        <v>385</v>
       </c>
       <c r="W53" s="0">
-        <v>173</v>
+        <v>232</v>
       </c>
       <c r="X53" s="0">
-        <v>11.2</v>
+        <v>22.29</v>
       </c>
       <c r="Y53" s="0">
-        <v>11.2</v>
+        <v>22.29</v>
       </c>
       <c r="Z53" s="0">
-        <v>11.2</v>
+        <v>22.29</v>
       </c>
       <c r="AA53" s="0">
-        <v>-44.397</v>
+        <v>-71.067</v>
       </c>
       <c r="AB53" s="0">
-        <v>-48.273</v>
+        <v>-74.335</v>
       </c>
       <c r="AC53" s="0">
-        <v>8.77</v>
+        <v>4.26</v>
       </c>
       <c r="AD53" s="0">
-        <v>8.69</v>
+        <v>4.22</v>
       </c>
       <c r="AE53" s="0">
-        <v>8.69</v>
+        <v>4.22</v>
       </c>
       <c r="AF53" s="0">
-        <v>1.58</v>
+        <v>0.38</v>
       </c>
       <c r="AG53" s="0">
-        <v>1.57</v>
+        <v>0.39</v>
       </c>
       <c r="AH53" s="0">
-        <v>1.57</v>
+        <v>0.39</v>
       </c>
       <c r="AI53" s="0" t="s">
         <v>47</v>
@@ -6887,13 +6887,13 @@
         <v>396.008</v>
       </c>
       <c r="O54" s="0">
-        <v>41.36</v>
+        <v>22.4</v>
       </c>
       <c r="P54" s="0">
         <v>0</v>
       </c>
       <c r="Q54" s="0">
-        <v>0.26157</v>
+        <v>0.13704</v>
       </c>
       <c r="R54" s="0">
         <v>0.45186</v>
@@ -6902,49 +6902,49 @@
         <v>0</v>
       </c>
       <c r="T54" s="0">
-        <v>798</v>
+        <v>1855</v>
       </c>
       <c r="U54" s="0">
-        <v>649</v>
+        <v>1706</v>
       </c>
       <c r="V54" s="0">
-        <v>346</v>
+        <v>402</v>
       </c>
       <c r="W54" s="0">
-        <v>208</v>
+        <v>264</v>
       </c>
       <c r="X54" s="0">
-        <v>11.69</v>
+        <v>22.33</v>
       </c>
       <c r="Y54" s="0">
-        <v>11.69</v>
+        <v>22.33</v>
       </c>
       <c r="Z54" s="0">
-        <v>11.69</v>
+        <v>22.33</v>
       </c>
       <c r="AA54" s="0">
-        <v>-47.725</v>
+        <v>-71.689</v>
       </c>
       <c r="AB54" s="0">
-        <v>-51.365</v>
+        <v>-74.818</v>
       </c>
       <c r="AC54" s="0">
-        <v>8.39</v>
+        <v>4.25</v>
       </c>
       <c r="AD54" s="0">
-        <v>8.32</v>
+        <v>4.21</v>
       </c>
       <c r="AE54" s="0">
-        <v>8.32</v>
+        <v>4.21</v>
       </c>
       <c r="AF54" s="0">
-        <v>1.45</v>
+        <v>0.38</v>
       </c>
       <c r="AG54" s="0">
-        <v>1.44</v>
+        <v>0.39</v>
       </c>
       <c r="AH54" s="0">
-        <v>1.44</v>
+        <v>0.39</v>
       </c>
       <c r="AI54" s="0" t="s">
         <v>47</v>
@@ -6994,64 +6994,64 @@
         <v>300.765</v>
       </c>
       <c r="O55" s="0">
-        <v>50.96</v>
+        <v>25.04</v>
       </c>
       <c r="P55" s="0">
         <v>0</v>
       </c>
       <c r="Q55" s="0">
-        <v>0.24477</v>
+        <v>0.11635</v>
       </c>
       <c r="R55" s="0">
         <v>0.402</v>
       </c>
       <c r="S55" s="0">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="T55" s="0">
-        <v>748</v>
+        <v>1880</v>
       </c>
       <c r="U55" s="0">
-        <v>539</v>
+        <v>1671</v>
       </c>
       <c r="V55" s="0">
-        <v>398</v>
+        <v>471</v>
       </c>
       <c r="W55" s="0">
-        <v>153</v>
+        <v>226</v>
       </c>
       <c r="X55" s="0">
-        <v>11.19</v>
+        <v>22.57</v>
       </c>
       <c r="Y55" s="0">
-        <v>11.2</v>
+        <v>22.61</v>
       </c>
       <c r="Z55" s="0">
-        <v>11.2</v>
+        <v>22.61</v>
       </c>
       <c r="AA55" s="0">
-        <v>-45.015</v>
+        <v>-71.499</v>
       </c>
       <c r="AB55" s="0">
-        <v>-48.797</v>
+        <v>-74.543</v>
       </c>
       <c r="AC55" s="0">
-        <v>8.7</v>
+        <v>4.35</v>
       </c>
       <c r="AD55" s="0">
-        <v>8.61</v>
+        <v>4.3</v>
       </c>
       <c r="AE55" s="0">
-        <v>8.61</v>
+        <v>4.3</v>
       </c>
       <c r="AF55" s="0">
-        <v>1.57</v>
+        <v>0.39</v>
       </c>
       <c r="AG55" s="0">
-        <v>1.56</v>
+        <v>0.39</v>
       </c>
       <c r="AH55" s="0">
-        <v>1.56</v>
+        <v>0.39</v>
       </c>
       <c r="AI55" s="0" t="s">
         <v>47</v>
@@ -7101,13 +7101,13 @@
         <v>1002.551</v>
       </c>
       <c r="O56" s="0">
-        <v>97.84</v>
+        <v>98.56</v>
       </c>
       <c r="P56" s="0">
         <v>0</v>
       </c>
       <c r="Q56" s="0">
-        <v>1.5665</v>
+        <v>1.52654</v>
       </c>
       <c r="R56" s="0">
         <v>1.44352</v>
@@ -7116,40 +7116,40 @@
         <v>0</v>
       </c>
       <c r="T56" s="0">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="U56" s="0">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="V56" s="0">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="W56" s="0">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="X56" s="0">
-        <v>8.4</v>
+        <v>8.65</v>
       </c>
       <c r="Y56" s="0">
-        <v>24.17</v>
+        <v>27.76</v>
       </c>
       <c r="Z56" s="0">
-        <v>24.17</v>
+        <v>27.76</v>
       </c>
       <c r="AA56" s="0">
-        <v>-2.003</v>
+        <v>-1.282</v>
       </c>
       <c r="AB56" s="0">
-        <v>-2.251</v>
+        <v>-1.733</v>
       </c>
       <c r="AC56" s="0">
-        <v>-0.47</v>
+        <v>-0.48</v>
       </c>
       <c r="AD56" s="0">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="AE56" s="0">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="AF56" s="0">
         <v>-0.17</v>
@@ -7208,13 +7208,13 @@
         <v>701.786</v>
       </c>
       <c r="O57" s="0">
-        <v>98.84</v>
+        <v>100.84</v>
       </c>
       <c r="P57" s="0">
         <v>0</v>
       </c>
       <c r="Q57" s="0">
-        <v>1.10776</v>
+        <v>1.0933</v>
       </c>
       <c r="R57" s="0">
         <v>1.02504</v>
@@ -7223,43 +7223,43 @@
         <v>0</v>
       </c>
       <c r="T57" s="0">
-        <v>263</v>
+        <v>183</v>
       </c>
       <c r="U57" s="0">
+        <v>135</v>
+      </c>
+      <c r="V57" s="0">
         <v>215</v>
       </c>
-      <c r="V57" s="0">
-        <v>320</v>
-      </c>
       <c r="W57" s="0">
-        <v>299</v>
+        <v>194</v>
       </c>
       <c r="X57" s="0">
-        <v>7.83</v>
+        <v>7.14</v>
       </c>
       <c r="Y57" s="0">
-        <v>8.06</v>
+        <v>6.48</v>
       </c>
       <c r="Z57" s="0">
-        <v>8.06</v>
+        <v>6.48</v>
       </c>
       <c r="AA57" s="0">
-        <v>-2.409</v>
+        <v>-0.434</v>
       </c>
       <c r="AB57" s="0">
-        <v>-3.238</v>
+        <v>-1.326</v>
       </c>
       <c r="AC57" s="0">
-        <v>0.78</v>
+        <v>1.02</v>
       </c>
       <c r="AD57" s="0">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AE57" s="0">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AF57" s="0">
-        <v>-0.1</v>
+        <v>0.01</v>
       </c>
       <c r="AG57" s="0">
         <v>0.02</v>
@@ -7315,64 +7315,64 @@
         <v>501.276</v>
       </c>
       <c r="O58" s="0">
-        <v>66.64</v>
+        <v>72.28</v>
       </c>
       <c r="P58" s="0">
         <v>0</v>
       </c>
       <c r="Q58" s="0">
-        <v>0.53348</v>
+        <v>0.55975</v>
       </c>
       <c r="R58" s="0">
         <v>0.56677</v>
       </c>
       <c r="S58" s="0">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="T58" s="0">
-        <v>308</v>
+        <v>223</v>
       </c>
       <c r="U58" s="0">
-        <v>176</v>
+        <v>91</v>
       </c>
       <c r="V58" s="0">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="W58" s="0">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="X58" s="0">
-        <v>6.74</v>
+        <v>5.95</v>
       </c>
       <c r="Y58" s="0">
-        <v>6.89</v>
+        <v>6.36</v>
       </c>
       <c r="Z58" s="0">
-        <v>6.89</v>
+        <v>6.36</v>
       </c>
       <c r="AA58" s="0">
-        <v>-15</v>
+        <v>-6.371</v>
       </c>
       <c r="AB58" s="0">
-        <v>-18.707</v>
+        <v>-9.536</v>
       </c>
       <c r="AC58" s="0">
-        <v>12.82</v>
+        <v>12.83</v>
       </c>
       <c r="AD58" s="0">
-        <v>14.24</v>
+        <v>15.4</v>
       </c>
       <c r="AE58" s="0">
-        <v>14.24</v>
+        <v>15.4</v>
       </c>
       <c r="AF58" s="0">
-        <v>2.88</v>
+        <v>1.52</v>
       </c>
       <c r="AG58" s="0">
-        <v>4.17</v>
+        <v>4.88</v>
       </c>
       <c r="AH58" s="0">
-        <v>4.17</v>
+        <v>4.88</v>
       </c>
       <c r="AI58" s="0" t="s">
         <v>47</v>
@@ -7422,13 +7422,13 @@
         <v>345.88</v>
       </c>
       <c r="O59" s="0">
-        <v>98.24</v>
+        <v>101.68</v>
       </c>
       <c r="P59" s="0">
         <v>0</v>
       </c>
       <c r="Q59" s="0">
-        <v>0.54265</v>
+        <v>0.54333</v>
       </c>
       <c r="R59" s="0">
         <v>0.5048</v>
@@ -7437,49 +7437,49 @@
         <v>0</v>
       </c>
       <c r="T59" s="0">
-        <v>-23</v>
+        <v>-166</v>
       </c>
       <c r="U59" s="0">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="V59" s="0">
-        <v>22</v>
+        <v>-118</v>
       </c>
       <c r="W59" s="0">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="X59" s="0">
-        <v>3.36</v>
+        <v>1.93</v>
       </c>
       <c r="Y59" s="0">
-        <v>6.18</v>
+        <v>4.53</v>
       </c>
       <c r="Z59" s="0">
-        <v>6.18</v>
+        <v>5.99</v>
       </c>
       <c r="AA59" s="0">
-        <v>-2.925</v>
+        <v>0.474</v>
       </c>
       <c r="AB59" s="0">
-        <v>-4.037</v>
+        <v>-0.682</v>
       </c>
       <c r="AC59" s="0">
-        <v>4.07</v>
+        <v>1.98</v>
       </c>
       <c r="AD59" s="0">
-        <v>15.97</v>
+        <v>0.6</v>
       </c>
       <c r="AE59" s="0">
-        <v>15.97</v>
+        <v>16.45</v>
       </c>
       <c r="AF59" s="0">
-        <v>-1.84</v>
+        <v>-1.41</v>
       </c>
       <c r="AG59" s="0">
-        <v>5.2</v>
+        <v>0.01</v>
       </c>
       <c r="AH59" s="0">
-        <v>5.2</v>
+        <v>5.53</v>
       </c>
       <c r="AI59" s="0" t="s">
         <v>47</v>
@@ -7529,13 +7529,13 @@
         <v>2000</v>
       </c>
       <c r="O60" s="0">
-        <v>74.24</v>
+        <v>78.16</v>
       </c>
       <c r="P60" s="0">
         <v>0</v>
       </c>
       <c r="Q60" s="0">
-        <v>2.37125</v>
+        <v>2.41499</v>
       </c>
       <c r="R60" s="0">
         <v>2.18054</v>
@@ -7544,49 +7544,49 @@
         <v>0</v>
       </c>
       <c r="T60" s="0">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="U60" s="0">
-        <v>45</v>
+        <v>-2</v>
       </c>
       <c r="V60" s="0">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="W60" s="0">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="X60" s="0">
-        <v>5.24</v>
+        <v>4.82</v>
       </c>
       <c r="Y60" s="0">
-        <v>5.71</v>
+        <v>5.43</v>
       </c>
       <c r="Z60" s="0">
-        <v>5.71</v>
+        <v>5.43</v>
       </c>
       <c r="AA60" s="0">
-        <v>-1.799</v>
+        <v>3.386</v>
       </c>
       <c r="AB60" s="0">
-        <v>-5.698</v>
+        <v>0.11</v>
       </c>
       <c r="AC60" s="0">
-        <v>12.89</v>
+        <v>12.58</v>
       </c>
       <c r="AD60" s="0">
-        <v>17.36</v>
+        <v>18.2</v>
       </c>
       <c r="AE60" s="0">
-        <v>17.36</v>
+        <v>18.2</v>
       </c>
       <c r="AF60" s="0">
-        <v>1.76</v>
+        <v>1.13</v>
       </c>
       <c r="AG60" s="0">
-        <v>6.13</v>
+        <v>6.74</v>
       </c>
       <c r="AH60" s="0">
-        <v>6.13</v>
+        <v>6.74</v>
       </c>
       <c r="AI60" s="0" t="s">
         <v>47</v>
@@ -7636,13 +7636,13 @@
         <v>1500</v>
       </c>
       <c r="O61" s="0">
-        <v>78.12</v>
+        <v>82.4</v>
       </c>
       <c r="P61" s="0">
         <v>0</v>
       </c>
       <c r="Q61" s="0">
-        <v>1.87138</v>
+        <v>1.9095</v>
       </c>
       <c r="R61" s="0">
         <v>1.74963</v>
@@ -7651,49 +7651,49 @@
         <v>0</v>
       </c>
       <c r="T61" s="0">
-        <v>165</v>
+        <v>111</v>
       </c>
       <c r="U61" s="0">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="V61" s="0">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="W61" s="0">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="X61" s="0">
-        <v>5.29</v>
+        <v>4.81</v>
       </c>
       <c r="Y61" s="0">
-        <v>5.88</v>
+        <v>5.59</v>
       </c>
       <c r="Z61" s="0">
-        <v>5.88</v>
+        <v>5.59</v>
       </c>
       <c r="AA61" s="0">
-        <v>-3.412</v>
+        <v>1.879</v>
       </c>
       <c r="AB61" s="0">
-        <v>-7.11</v>
+        <v>-1.299</v>
       </c>
       <c r="AC61" s="0">
-        <v>11.9</v>
+        <v>11.41</v>
       </c>
       <c r="AD61" s="0">
-        <v>16.85</v>
+        <v>17.7</v>
       </c>
       <c r="AE61" s="0">
-        <v>16.85</v>
+        <v>17.7</v>
       </c>
       <c r="AF61" s="0">
-        <v>1.07</v>
+        <v>0.21</v>
       </c>
       <c r="AG61" s="0">
-        <v>5.78</v>
+        <v>6.38</v>
       </c>
       <c r="AH61" s="0">
-        <v>5.78</v>
+        <v>6.38</v>
       </c>
       <c r="AI61" s="0" t="s">
         <v>47</v>
@@ -7743,13 +7743,13 @@
         <v>1850</v>
       </c>
       <c r="O62" s="0">
-        <v>79.52</v>
+        <v>83.64</v>
       </c>
       <c r="P62" s="0">
         <v>0</v>
       </c>
       <c r="Q62" s="0">
-        <v>2.3494</v>
+        <v>2.39049</v>
       </c>
       <c r="R62" s="0">
         <v>2.19202</v>
@@ -7758,49 +7758,49 @@
         <v>0</v>
       </c>
       <c r="T62" s="0">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c r="U62" s="0">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="V62" s="0">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="W62" s="0">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="X62" s="0">
-        <v>5.22</v>
+        <v>4.75</v>
       </c>
       <c r="Y62" s="0">
-        <v>5.87</v>
+        <v>5.59</v>
       </c>
       <c r="Z62" s="0">
-        <v>5.87</v>
+        <v>5.59</v>
       </c>
       <c r="AA62" s="0">
-        <v>-3.213</v>
+        <v>1.801</v>
       </c>
       <c r="AB62" s="0">
-        <v>-6.876</v>
+        <v>-1.365</v>
       </c>
       <c r="AC62" s="0">
-        <v>11.6</v>
+        <v>11.1</v>
       </c>
       <c r="AD62" s="0">
-        <v>16.88</v>
+        <v>17.67</v>
       </c>
       <c r="AE62" s="0">
-        <v>16.88</v>
+        <v>17.67</v>
       </c>
       <c r="AF62" s="0">
-        <v>0.62</v>
+        <v>0.27</v>
       </c>
       <c r="AG62" s="0">
-        <v>5.79</v>
+        <v>6.36</v>
       </c>
       <c r="AH62" s="0">
-        <v>5.79</v>
+        <v>6.36</v>
       </c>
       <c r="AI62" s="0" t="s">
         <v>47</v>
@@ -7850,64 +7850,64 @@
         <v>900</v>
       </c>
       <c r="O63" s="0">
-        <v>81.76</v>
+        <v>86.1</v>
       </c>
       <c r="P63" s="0">
         <v>0</v>
       </c>
       <c r="Q63" s="0">
-        <v>1.17515</v>
+        <v>1.1971</v>
       </c>
       <c r="R63" s="0">
         <v>1.09494</v>
       </c>
       <c r="S63" s="0">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T63" s="0">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="U63" s="0">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="V63" s="0">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="W63" s="0">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="X63" s="0">
-        <v>5.1</v>
+        <v>4.57</v>
       </c>
       <c r="Y63" s="0">
-        <v>5.86</v>
+        <v>5.58</v>
       </c>
       <c r="Z63" s="0">
-        <v>5.86</v>
+        <v>5.58</v>
       </c>
       <c r="AA63" s="0">
-        <v>-3.082</v>
+        <v>2.059</v>
       </c>
       <c r="AB63" s="0">
-        <v>-6.535</v>
+        <v>-0.963</v>
       </c>
       <c r="AC63" s="0">
-        <v>10.89</v>
+        <v>10.05</v>
       </c>
       <c r="AD63" s="0">
-        <v>16.9</v>
+        <v>17.72</v>
       </c>
       <c r="AE63" s="0">
-        <v>16.9</v>
+        <v>17.72</v>
       </c>
       <c r="AF63" s="0">
-        <v>-0.14</v>
+        <v>-0.26</v>
       </c>
       <c r="AG63" s="0">
-        <v>5.8</v>
+        <v>6.39</v>
       </c>
       <c r="AH63" s="0">
-        <v>5.8</v>
+        <v>6.39</v>
       </c>
       <c r="AI63" s="0" t="s">
         <v>47</v>
@@ -7957,13 +7957,13 @@
         <v>1696.25</v>
       </c>
       <c r="O64" s="0">
-        <v>97</v>
+        <v>99.28</v>
       </c>
       <c r="P64" s="0">
         <v>0</v>
       </c>
       <c r="Q64" s="0">
-        <v>2.62767</v>
+        <v>2.60167</v>
       </c>
       <c r="R64" s="0">
         <v>2.43061</v>
@@ -7972,49 +7972,49 @@
         <v>0</v>
       </c>
       <c r="T64" s="0">
-        <v>-11</v>
+        <v>-70</v>
       </c>
       <c r="U64" s="0">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="V64" s="0">
-        <v>33</v>
+        <v>-22</v>
       </c>
       <c r="W64" s="0">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="X64" s="0">
-        <v>3.49</v>
+        <v>2.94</v>
       </c>
       <c r="Y64" s="0">
-        <v>5.98</v>
+        <v>5.86</v>
       </c>
       <c r="Z64" s="0">
-        <v>5.98</v>
+        <v>5.86</v>
       </c>
       <c r="AA64" s="0">
-        <v>-2.375</v>
+        <v>-0.081</v>
       </c>
       <c r="AB64" s="0">
-        <v>-3.924</v>
+        <v>-1.614</v>
       </c>
       <c r="AC64" s="0">
-        <v>4.8</v>
+        <v>3.57</v>
       </c>
       <c r="AD64" s="0">
-        <v>16.55</v>
+        <v>16.86</v>
       </c>
       <c r="AE64" s="0">
-        <v>16.55</v>
+        <v>16.86</v>
       </c>
       <c r="AF64" s="0">
-        <v>-2.12</v>
+        <v>-2.08</v>
       </c>
       <c r="AG64" s="0">
-        <v>5.57</v>
+        <v>5.79</v>
       </c>
       <c r="AH64" s="0">
-        <v>5.57</v>
+        <v>5.79</v>
       </c>
       <c r="AI64" s="0" t="s">
         <v>47</v>
@@ -8064,13 +8064,13 @@
         <v>1850</v>
       </c>
       <c r="O65" s="0">
-        <v>99.2</v>
+        <v>101.32</v>
       </c>
       <c r="P65" s="0">
         <v>0</v>
       </c>
       <c r="Q65" s="0">
-        <v>2.93084</v>
+        <v>2.89579</v>
       </c>
       <c r="R65" s="0">
         <v>2.70108</v>
@@ -8079,49 +8079,49 @@
         <v>0</v>
       </c>
       <c r="T65" s="0">
-        <v>-49</v>
+        <v>-117</v>
       </c>
       <c r="U65" s="0">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="V65" s="0">
-        <v>-1</v>
+        <v>-75</v>
       </c>
       <c r="W65" s="0">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="X65" s="0">
-        <v>3.09</v>
+        <v>2.44</v>
       </c>
       <c r="Y65" s="0">
-        <v>6.11</v>
+        <v>5.11</v>
       </c>
       <c r="Z65" s="0">
-        <v>6.11</v>
+        <v>6</v>
       </c>
       <c r="AA65" s="0">
-        <v>-2.015</v>
+        <v>0.079</v>
       </c>
       <c r="AB65" s="0">
-        <v>-3.345</v>
+        <v>-1.262</v>
       </c>
       <c r="AC65" s="0">
-        <v>3.9</v>
+        <v>2.79</v>
       </c>
       <c r="AD65" s="0">
-        <v>16.22</v>
+        <v>0.88</v>
       </c>
       <c r="AE65" s="0">
-        <v>16.22</v>
+        <v>16.48</v>
       </c>
       <c r="AF65" s="0">
-        <v>-1.64</v>
+        <v>-1.6</v>
       </c>
       <c r="AG65" s="0">
-        <v>5.35</v>
+        <v>0.01</v>
       </c>
       <c r="AH65" s="0">
-        <v>5.35</v>
+        <v>5.54</v>
       </c>
       <c r="AI65" s="0" t="s">
         <v>47</v>
@@ -8171,13 +8171,13 @@
         <v>451.148</v>
       </c>
       <c r="O66" s="0">
-        <v>67.32</v>
+        <v>89.28</v>
       </c>
       <c r="P66" s="0">
         <v>0</v>
       </c>
       <c r="Q66" s="0">
-        <v>0.48503</v>
+        <v>0.62226</v>
       </c>
       <c r="R66" s="0">
         <v>0.61471</v>
@@ -8186,49 +8186,49 @@
         <v>0</v>
       </c>
       <c r="T66" s="0">
-        <v>469</v>
+        <v>153</v>
       </c>
       <c r="U66" s="0">
-        <v>457</v>
+        <v>141</v>
       </c>
       <c r="V66" s="0">
-        <v>357</v>
+        <v>154</v>
       </c>
       <c r="W66" s="0">
-        <v>310</v>
+        <v>107</v>
       </c>
       <c r="X66" s="0">
-        <v>8.37</v>
+        <v>5.24</v>
       </c>
       <c r="Y66" s="0">
-        <v>8.44</v>
+        <v>6.37</v>
       </c>
       <c r="Z66" s="0">
-        <v>8.44</v>
+        <v>6.37</v>
       </c>
       <c r="AA66" s="0">
-        <v>-28.747</v>
+        <v>-5.504</v>
       </c>
       <c r="AB66" s="0">
-        <v>-31.331</v>
+        <v>-7.912</v>
       </c>
       <c r="AC66" s="0">
-        <v>11.06</v>
+        <v>8.46</v>
       </c>
       <c r="AD66" s="0">
-        <v>11.73</v>
+        <v>15.54</v>
       </c>
       <c r="AE66" s="0">
-        <v>11.73</v>
+        <v>15.54</v>
       </c>
       <c r="AF66" s="0">
-        <v>2.22</v>
+        <v>-1.07</v>
       </c>
       <c r="AG66" s="0">
-        <v>2.81</v>
+        <v>4.92</v>
       </c>
       <c r="AH66" s="0">
-        <v>2.81</v>
+        <v>4.92</v>
       </c>
       <c r="AI66" s="0" t="s">
         <v>47</v>
@@ -8278,13 +8278,13 @@
         <v>426.084</v>
       </c>
       <c r="O67" s="0">
-        <v>68.72</v>
+        <v>83.2</v>
       </c>
       <c r="P67" s="0">
         <v>0</v>
       </c>
       <c r="Q67" s="0">
-        <v>0.46761</v>
+        <v>0.54767</v>
       </c>
       <c r="R67" s="0">
         <v>0.57319</v>
@@ -8293,49 +8293,49 @@
         <v>0</v>
       </c>
       <c r="T67" s="0">
-        <v>453</v>
+        <v>254</v>
       </c>
       <c r="U67" s="0">
-        <v>408</v>
+        <v>209</v>
       </c>
       <c r="V67" s="0">
-        <v>355</v>
+        <v>218</v>
       </c>
       <c r="W67" s="0">
-        <v>281</v>
+        <v>144</v>
       </c>
       <c r="X67" s="0">
-        <v>8.21</v>
+        <v>6.26</v>
       </c>
       <c r="Y67" s="0">
-        <v>8.3</v>
+        <v>6.87</v>
       </c>
       <c r="Z67" s="0">
-        <v>8.3</v>
+        <v>6.87</v>
       </c>
       <c r="AA67" s="0">
-        <v>-26.329</v>
+        <v>-10.806</v>
       </c>
       <c r="AB67" s="0">
-        <v>-28.901</v>
+        <v>-13.193</v>
       </c>
       <c r="AC67" s="0">
-        <v>11.1</v>
+        <v>9.97</v>
       </c>
       <c r="AD67" s="0">
-        <v>11.92</v>
+        <v>14.39</v>
       </c>
       <c r="AE67" s="0">
-        <v>11.92</v>
+        <v>14.39</v>
       </c>
       <c r="AF67" s="0">
-        <v>2.11</v>
+        <v>-0.03</v>
       </c>
       <c r="AG67" s="0">
-        <v>2.9</v>
+        <v>4.23</v>
       </c>
       <c r="AH67" s="0">
-        <v>2.9</v>
+        <v>4.23</v>
       </c>
       <c r="AI67" s="0" t="s">
         <v>47</v>
@@ -8385,13 +8385,13 @@
         <v>501.276</v>
       </c>
       <c r="O68" s="0">
-        <v>75</v>
+        <v>91.76</v>
       </c>
       <c r="P68" s="0">
         <v>0</v>
       </c>
       <c r="Q68" s="0">
-        <v>0.60041</v>
+        <v>0.71061</v>
       </c>
       <c r="R68" s="0">
         <v>0.72581</v>
@@ -8400,49 +8400,49 @@
         <v>0</v>
       </c>
       <c r="T68" s="0">
-        <v>536</v>
+        <v>352</v>
       </c>
       <c r="U68" s="0">
-        <v>388</v>
+        <v>204</v>
       </c>
       <c r="V68" s="0">
-        <v>462</v>
+        <v>390</v>
       </c>
       <c r="W68" s="0">
-        <v>248</v>
+        <v>176</v>
       </c>
       <c r="X68" s="0">
-        <v>10.72</v>
+        <v>8.87</v>
       </c>
       <c r="Y68" s="0">
-        <v>15.22</v>
+        <v>8.94</v>
       </c>
       <c r="Z68" s="0">
-        <v>15.22</v>
+        <v>8.94</v>
       </c>
       <c r="AA68" s="0">
-        <v>-25.299</v>
+        <v>-8.606</v>
       </c>
       <c r="AB68" s="0">
-        <v>-27.337</v>
+        <v>-10.695</v>
       </c>
       <c r="AC68" s="0">
-        <v>0.93</v>
+        <v>2.49</v>
       </c>
       <c r="AD68" s="0">
-        <v>3.07</v>
+        <v>3.17</v>
       </c>
       <c r="AE68" s="0">
-        <v>3.07</v>
+        <v>3.17</v>
       </c>
       <c r="AF68" s="0">
-        <v>-0.49</v>
+        <v>-0.1</v>
       </c>
       <c r="AG68" s="0">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="AH68" s="0">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="AI68" s="0" t="s">
         <v>47</v>
@@ -8492,13 +8492,13 @@
         <v>601.531</v>
       </c>
       <c r="O69" s="0">
-        <v>70.04</v>
+        <v>88.24</v>
       </c>
       <c r="P69" s="0">
         <v>0</v>
       </c>
       <c r="Q69" s="0">
-        <v>0.67284</v>
+        <v>0.82002</v>
       </c>
       <c r="R69" s="0">
         <v>0.8623</v>
@@ -8507,49 +8507,49 @@
         <v>0</v>
       </c>
       <c r="T69" s="0">
-        <v>541</v>
+        <v>343</v>
       </c>
       <c r="U69" s="0">
-        <v>356</v>
+        <v>158</v>
       </c>
       <c r="V69" s="0">
-        <v>424</v>
+        <v>347</v>
       </c>
       <c r="W69" s="0">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="X69" s="0">
-        <v>9.49</v>
+        <v>7.43</v>
       </c>
       <c r="Y69" s="0">
-        <v>15.44</v>
+        <v>9.5</v>
       </c>
       <c r="Z69" s="0">
-        <v>15.44</v>
+        <v>9.5</v>
       </c>
       <c r="AA69" s="0">
-        <v>-29.537</v>
+        <v>-11.227</v>
       </c>
       <c r="AB69" s="0">
-        <v>-31.38</v>
+        <v>-13.14</v>
       </c>
       <c r="AC69" s="0">
-        <v>1.13</v>
+        <v>2.88</v>
       </c>
       <c r="AD69" s="0">
-        <v>3.72</v>
+        <v>3.87</v>
       </c>
       <c r="AE69" s="0">
-        <v>3.72</v>
+        <v>3.87</v>
       </c>
       <c r="AF69" s="0">
-        <v>-0.57</v>
+        <v>-0.14</v>
       </c>
       <c r="AG69" s="0">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="AH69" s="0">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="AI69" s="0" t="s">
         <v>47</v>
@@ -8599,13 +8599,13 @@
         <v>501.276</v>
       </c>
       <c r="O70" s="0">
-        <v>105</v>
+        <v>100.64</v>
       </c>
       <c r="P70" s="0">
         <v>0</v>
       </c>
       <c r="Q70" s="0">
-        <v>0.84057</v>
+        <v>0.77938</v>
       </c>
       <c r="R70" s="0">
         <v>0.80215</v>
@@ -8614,49 +8614,49 @@
         <v>0</v>
       </c>
       <c r="T70" s="0">
-        <v>310</v>
+        <v>404</v>
       </c>
       <c r="U70" s="0">
-        <v>154</v>
+        <v>248</v>
       </c>
       <c r="V70" s="0">
-        <v>313</v>
+        <v>382</v>
       </c>
       <c r="W70" s="0">
-        <v>133</v>
+        <v>202</v>
       </c>
       <c r="X70" s="0">
-        <v>6.77</v>
+        <v>7.78</v>
       </c>
       <c r="Y70" s="0">
-        <v>7.88</v>
+        <v>9.11</v>
       </c>
       <c r="Z70" s="0">
-        <v>8.69</v>
+        <v>9.11</v>
       </c>
       <c r="AA70" s="0">
-        <v>-5.371</v>
+        <v>-9.301</v>
       </c>
       <c r="AB70" s="0">
-        <v>-7.859</v>
+        <v>-11.799</v>
       </c>
       <c r="AC70" s="0">
-        <v>6</v>
+        <v>6.41</v>
       </c>
       <c r="AD70" s="0">
-        <v>3.76</v>
+        <v>10.78</v>
       </c>
       <c r="AE70" s="0">
-        <v>11.35</v>
+        <v>10.78</v>
       </c>
       <c r="AF70" s="0">
-        <v>-0.16</v>
+        <v>-0.22</v>
       </c>
       <c r="AG70" s="0">
-        <v>0.19</v>
+        <v>2.39</v>
       </c>
       <c r="AH70" s="0">
-        <v>2.64</v>
+        <v>2.39</v>
       </c>
       <c r="AI70" s="0" t="s">
         <v>47</v>
@@ -8706,13 +8706,13 @@
         <v>1002.551</v>
       </c>
       <c r="O71" s="0">
-        <v>81.68</v>
+        <v>86.92</v>
       </c>
       <c r="P71" s="0">
         <v>0</v>
       </c>
       <c r="Q71" s="0">
-        <v>1.30777</v>
+        <v>1.34625</v>
       </c>
       <c r="R71" s="0">
         <v>1.25557</v>
@@ -8721,49 +8721,49 @@
         <v>0</v>
       </c>
       <c r="T71" s="0">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="U71" s="0">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="V71" s="0">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="W71" s="0">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="X71" s="0">
-        <v>5.06</v>
+        <v>4.4</v>
       </c>
       <c r="Y71" s="0">
-        <v>5.86</v>
+        <v>5.52</v>
       </c>
       <c r="Z71" s="0">
-        <v>5.86</v>
+        <v>5.52</v>
       </c>
       <c r="AA71" s="0">
-        <v>-5.942</v>
+        <v>0.092</v>
       </c>
       <c r="AB71" s="0">
-        <v>-9.271</v>
+        <v>-2.856</v>
       </c>
       <c r="AC71" s="0">
-        <v>10.84</v>
+        <v>9.83</v>
       </c>
       <c r="AD71" s="0">
-        <v>16.96</v>
+        <v>17.97</v>
       </c>
       <c r="AE71" s="0">
-        <v>16.96</v>
+        <v>17.97</v>
       </c>
       <c r="AF71" s="0">
-        <v>-0.01</v>
+        <v>-0.48</v>
       </c>
       <c r="AG71" s="0">
-        <v>5.83</v>
+        <v>6.56</v>
       </c>
       <c r="AH71" s="0">
-        <v>5.83</v>
+        <v>6.56</v>
       </c>
       <c r="AI71" s="0" t="s">
         <v>47</v>
@@ -8813,13 +8813,13 @@
         <v>807.054</v>
       </c>
       <c r="O72" s="0">
-        <v>94.88</v>
+        <v>99.2</v>
       </c>
       <c r="P72" s="0">
         <v>0</v>
       </c>
       <c r="Q72" s="0">
-        <v>1.22289</v>
+        <v>1.23684</v>
       </c>
       <c r="R72" s="0">
         <v>1.15505</v>
@@ -8828,49 +8828,49 @@
         <v>0</v>
       </c>
       <c r="T72" s="0">
-        <v>18</v>
+        <v>-115</v>
       </c>
       <c r="U72" s="0">
-        <v>176</v>
+        <v>43</v>
       </c>
       <c r="V72" s="0">
-        <v>57</v>
+        <v>-59</v>
       </c>
       <c r="W72" s="0">
-        <v>163</v>
+        <v>47</v>
       </c>
       <c r="X72" s="0">
-        <v>3.79</v>
+        <v>2.47</v>
       </c>
       <c r="Y72" s="0">
-        <v>5.97</v>
+        <v>5.73</v>
       </c>
       <c r="Z72" s="0">
-        <v>5.97</v>
+        <v>5.73</v>
       </c>
       <c r="AA72" s="0">
-        <v>-4.393</v>
+        <v>-0.04</v>
       </c>
       <c r="AB72" s="0">
-        <v>-5.599</v>
+        <v>-1.289</v>
       </c>
       <c r="AC72" s="0">
-        <v>5.54</v>
+        <v>2.67</v>
       </c>
       <c r="AD72" s="0">
-        <v>16.63</v>
+        <v>17.3</v>
       </c>
       <c r="AE72" s="0">
-        <v>16.63</v>
+        <v>17.3</v>
       </c>
       <c r="AF72" s="0">
-        <v>-2.14</v>
+        <v>-2.55</v>
       </c>
       <c r="AG72" s="0">
-        <v>5.61</v>
+        <v>6.08</v>
       </c>
       <c r="AH72" s="0">
-        <v>5.61</v>
+        <v>6.08</v>
       </c>
       <c r="AI72" s="0" t="s">
         <v>47</v>
@@ -8920,64 +8920,64 @@
         <v>1300</v>
       </c>
       <c r="O73" s="0">
-        <v>71.24</v>
+        <v>75.4</v>
       </c>
       <c r="P73" s="0">
         <v>0</v>
       </c>
       <c r="Q73" s="0">
-        <v>1.47903</v>
+        <v>1.51431</v>
       </c>
       <c r="R73" s="0">
         <v>1.41285</v>
       </c>
       <c r="S73" s="0">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="T73" s="0">
-        <v>211</v>
+        <v>147</v>
       </c>
       <c r="U73" s="0">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="V73" s="0">
-        <v>204</v>
+        <v>134</v>
       </c>
       <c r="W73" s="0">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="X73" s="0">
-        <v>5.76</v>
+        <v>5.17</v>
       </c>
       <c r="Y73" s="0">
-        <v>6.07</v>
+        <v>5.75</v>
       </c>
       <c r="Z73" s="0">
-        <v>6.07</v>
+        <v>5.75</v>
       </c>
       <c r="AA73" s="0">
-        <v>-5.467</v>
+        <v>1.463</v>
       </c>
       <c r="AB73" s="0">
-        <v>-9.371</v>
+        <v>-1.817</v>
       </c>
       <c r="AC73" s="0">
-        <v>13.11</v>
+        <v>12.93</v>
       </c>
       <c r="AD73" s="0">
-        <v>16.19</v>
+        <v>17.08</v>
       </c>
       <c r="AE73" s="0">
-        <v>16.19</v>
+        <v>17.08</v>
       </c>
       <c r="AF73" s="0">
-        <v>1.38</v>
+        <v>1.92</v>
       </c>
       <c r="AG73" s="0">
-        <v>5.38</v>
+        <v>5.99</v>
       </c>
       <c r="AH73" s="0">
-        <v>5.38</v>
+        <v>5.99</v>
       </c>
       <c r="AI73" s="0" t="s">
         <v>47</v>
@@ -9027,64 +9027,64 @@
         <v>500</v>
       </c>
       <c r="O74" s="0">
-        <v>82.64</v>
+        <v>88.92</v>
       </c>
       <c r="P74" s="0">
         <v>0</v>
       </c>
       <c r="Q74" s="0">
-        <v>0.65989</v>
+        <v>0.68686</v>
       </c>
       <c r="R74" s="0">
         <v>0.63426</v>
       </c>
       <c r="S74" s="0">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="T74" s="0">
-        <v>158</v>
+        <v>55</v>
       </c>
       <c r="U74" s="0">
-        <v>106</v>
+        <v>3</v>
       </c>
       <c r="V74" s="0">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="W74" s="0">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="X74" s="0">
-        <v>5.22</v>
+        <v>4.23</v>
       </c>
       <c r="Y74" s="0">
-        <v>6</v>
+        <v>5.59</v>
       </c>
       <c r="Z74" s="0">
-        <v>6</v>
+        <v>5.59</v>
       </c>
       <c r="AA74" s="0">
-        <v>-6.048</v>
+        <v>2.477</v>
       </c>
       <c r="AB74" s="0">
-        <v>-9.305</v>
+        <v>-0.419</v>
       </c>
       <c r="AC74" s="0">
-        <v>10.56</v>
+        <v>9.22</v>
       </c>
       <c r="AD74" s="0">
-        <v>16.38</v>
+        <v>17.58</v>
       </c>
       <c r="AE74" s="0">
-        <v>16.38</v>
+        <v>17.58</v>
       </c>
       <c r="AF74" s="0">
-        <v>-0.11</v>
+        <v>-1.02</v>
       </c>
       <c r="AG74" s="0">
-        <v>5.5</v>
+        <v>6.34</v>
       </c>
       <c r="AH74" s="0">
-        <v>5.5</v>
+        <v>6.34</v>
       </c>
       <c r="AI74" s="0" t="s">
         <v>47</v>
@@ -9134,58 +9134,58 @@
         <v>1000</v>
       </c>
       <c r="O75" s="0">
-        <v>95.2</v>
+        <v>98</v>
       </c>
       <c r="P75" s="0">
         <v>0</v>
       </c>
       <c r="Q75" s="0">
-        <v>1.52036</v>
+        <v>1.514</v>
       </c>
       <c r="R75" s="0">
         <v>1.44504</v>
       </c>
       <c r="S75" s="0">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="T75" s="0">
-        <v>297</v>
+        <v>240</v>
       </c>
       <c r="U75" s="0">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="V75" s="0">
-        <v>342</v>
+        <v>299</v>
       </c>
       <c r="W75" s="0">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="X75" s="0">
-        <v>7.97</v>
+        <v>7.66</v>
       </c>
       <c r="Y75" s="0">
-        <v>7.57</v>
+        <v>6.83</v>
       </c>
       <c r="Z75" s="0">
-        <v>7.57</v>
+        <v>6.83</v>
       </c>
       <c r="AA75" s="0">
-        <v>-4.99</v>
+        <v>-0.736</v>
       </c>
       <c r="AB75" s="0">
-        <v>-7.095</v>
+        <v>-2.91</v>
       </c>
       <c r="AC75" s="0">
-        <v>3.09</v>
+        <v>3.42</v>
       </c>
       <c r="AD75" s="0">
-        <v>3.48</v>
+        <v>3.46</v>
       </c>
       <c r="AE75" s="0">
-        <v>3.48</v>
+        <v>3.46</v>
       </c>
       <c r="AF75" s="0">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="AG75" s="0">
         <v>0.16</v>
@@ -9241,58 +9241,58 @@
         <v>1000</v>
       </c>
       <c r="O76" s="0">
-        <v>99.68</v>
+        <v>98.8</v>
       </c>
       <c r="P76" s="0">
         <v>0</v>
       </c>
       <c r="Q76" s="0">
-        <v>1.5919</v>
+        <v>1.52636</v>
       </c>
       <c r="R76" s="0">
         <v>1.4635</v>
       </c>
       <c r="S76" s="0">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="T76" s="0">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="U76" s="0">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="V76" s="0">
-        <v>338</v>
+        <v>300</v>
       </c>
       <c r="W76" s="0">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="X76" s="0">
-        <v>8.01</v>
+        <v>8.19</v>
       </c>
       <c r="Y76" s="0">
-        <v>7.36</v>
+        <v>8.23</v>
       </c>
       <c r="Z76" s="0">
-        <v>7.36</v>
+        <v>8.23</v>
       </c>
       <c r="AA76" s="0">
-        <v>-1.774</v>
+        <v>-1.07</v>
       </c>
       <c r="AB76" s="0">
-        <v>-2.895</v>
+        <v>-2.234</v>
       </c>
       <c r="AC76" s="0">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="AD76" s="0">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="AE76" s="0">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="AF76" s="0">
-        <v>-0.01</v>
+        <v>0.01</v>
       </c>
       <c r="AG76" s="0">
         <v>0.03</v>
@@ -9348,64 +9348,64 @@
         <v>1000</v>
       </c>
       <c r="O77" s="0">
-        <v>100.2</v>
+        <v>100.96</v>
       </c>
       <c r="P77" s="0">
         <v>0</v>
       </c>
       <c r="Q77" s="0">
-        <v>1.60021</v>
+        <v>1.55973</v>
       </c>
       <c r="R77" s="0">
         <v>1.47446</v>
       </c>
       <c r="S77" s="0">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="T77" s="0">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="U77" s="0">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="V77" s="0">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="W77" s="0">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="X77" s="0">
-        <v>4.84</v>
+        <v>4.62</v>
       </c>
       <c r="Y77" s="0">
-        <v>6.61</v>
+        <v>6.58</v>
       </c>
       <c r="Z77" s="0">
-        <v>6.61</v>
+        <v>6.58</v>
       </c>
       <c r="AA77" s="0">
-        <v>-1.995</v>
+        <v>0.337</v>
       </c>
       <c r="AB77" s="0">
-        <v>-4.894</v>
+        <v>-2.426</v>
       </c>
       <c r="AC77" s="0">
-        <v>7.62</v>
+        <v>7.49</v>
       </c>
       <c r="AD77" s="0">
-        <v>14.85</v>
+        <v>14.87</v>
       </c>
       <c r="AE77" s="0">
-        <v>14.85</v>
+        <v>14.87</v>
       </c>
       <c r="AF77" s="0">
-        <v>-0.17</v>
+        <v>-0.51</v>
       </c>
       <c r="AG77" s="0">
-        <v>4.53</v>
+        <v>4.56</v>
       </c>
       <c r="AH77" s="0">
-        <v>4.53</v>
+        <v>4.56</v>
       </c>
       <c r="AI77" s="0" t="s">
         <v>47</v>
@@ -9455,58 +9455,58 @@
         <v>850</v>
       </c>
       <c r="O78" s="0">
-        <v>100.04</v>
+        <v>99.32</v>
       </c>
       <c r="P78" s="0">
         <v>0</v>
       </c>
       <c r="Q78" s="0">
-        <v>1.358</v>
+        <v>1.30424</v>
       </c>
       <c r="R78" s="0">
         <v>1.24251</v>
       </c>
       <c r="S78" s="0">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="T78" s="0">
-        <v>319</v>
+        <v>270</v>
       </c>
       <c r="U78" s="0">
-        <v>207</v>
+        <v>158</v>
       </c>
       <c r="V78" s="0">
-        <v>372</v>
+        <v>303</v>
       </c>
       <c r="W78" s="0">
-        <v>234</v>
+        <v>165</v>
       </c>
       <c r="X78" s="0">
-        <v>8.45</v>
+        <v>8.3</v>
       </c>
       <c r="Y78" s="0">
-        <v>8.31</v>
+        <v>9.83</v>
       </c>
       <c r="Z78" s="0">
-        <v>8.31</v>
+        <v>9.83</v>
       </c>
       <c r="AA78" s="0">
-        <v>-1.302</v>
+        <v>-0.317</v>
       </c>
       <c r="AB78" s="0">
-        <v>-1.929</v>
+        <v>-1.036</v>
       </c>
       <c r="AC78" s="0">
-        <v>0.64</v>
+        <v>0.75</v>
       </c>
       <c r="AD78" s="0">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AE78" s="0">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AF78" s="0">
-        <v>-0.04</v>
+        <v>0.01</v>
       </c>
       <c r="AG78" s="0">
         <v>0.01</v>
@@ -9568,52 +9568,52 @@
         <v>0</v>
       </c>
       <c r="Q79" s="0">
-        <v>1.38734</v>
+        <v>1.34207</v>
       </c>
       <c r="R79" s="0">
         <v>1.26973</v>
       </c>
       <c r="S79" s="0">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="T79" s="0">
-        <v>329</v>
+        <v>40</v>
       </c>
       <c r="U79" s="0">
-        <v>326</v>
+        <v>37</v>
       </c>
       <c r="V79" s="0">
-        <v>377</v>
+        <v>31</v>
       </c>
       <c r="W79" s="0">
-        <v>413</v>
+        <v>67</v>
       </c>
       <c r="X79" s="0">
-        <v>8.5</v>
+        <v>5.35</v>
       </c>
       <c r="Y79" s="0">
-        <v>7.99</v>
+        <v>8.72</v>
       </c>
       <c r="Z79" s="0">
-        <v>7.99</v>
+        <v>8.72</v>
       </c>
       <c r="AA79" s="0">
-        <v>-1.332</v>
+        <v>0.413</v>
       </c>
       <c r="AB79" s="0">
-        <v>-1.818</v>
+        <v>-0.198</v>
       </c>
       <c r="AC79" s="0">
-        <v>0.55</v>
+        <v>0.52</v>
       </c>
       <c r="AD79" s="0">
-        <v>0.56</v>
+        <v>0.51</v>
       </c>
       <c r="AE79" s="0">
-        <v>0.56</v>
+        <v>0.51</v>
       </c>
       <c r="AF79" s="0">
-        <v>-0.01</v>
+        <v>0.01</v>
       </c>
       <c r="AG79" s="0">
         <v>0.01</v>
@@ -9669,13 +9669,13 @@
         <v>250.638</v>
       </c>
       <c r="O80" s="0">
-        <v>93.96</v>
+        <v>98.36</v>
       </c>
       <c r="P80" s="0">
         <v>0</v>
       </c>
       <c r="Q80" s="0">
-        <v>0.3761</v>
+        <v>0.38086</v>
       </c>
       <c r="R80" s="0">
         <v>0.3658</v>
@@ -9684,43 +9684,43 @@
         <v>0</v>
       </c>
       <c r="T80" s="0">
-        <v>316</v>
+        <v>232</v>
       </c>
       <c r="U80" s="0">
-        <v>233</v>
+        <v>149</v>
       </c>
       <c r="V80" s="0">
-        <v>371</v>
+        <v>306</v>
       </c>
       <c r="W80" s="0">
-        <v>231</v>
+        <v>166</v>
       </c>
       <c r="X80" s="0">
-        <v>8.1</v>
+        <v>7.36</v>
       </c>
       <c r="Y80" s="0">
-        <v>7.55</v>
+        <v>6.25</v>
       </c>
       <c r="Z80" s="0">
-        <v>7.55</v>
+        <v>6.25</v>
       </c>
       <c r="AA80" s="0">
-        <v>-7.154</v>
+        <v>-2.806</v>
       </c>
       <c r="AB80" s="0">
-        <v>-9.211</v>
+        <v>-4.913</v>
       </c>
       <c r="AC80" s="0">
-        <v>2.92</v>
+        <v>3.17</v>
       </c>
       <c r="AD80" s="0">
-        <v>3.27</v>
+        <v>3.26</v>
       </c>
       <c r="AE80" s="0">
-        <v>3.27</v>
+        <v>3.26</v>
       </c>
       <c r="AF80" s="0">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="AG80" s="0">
         <v>0.14</v>
@@ -9776,64 +9776,64 @@
         <v>401.02</v>
       </c>
       <c r="O81" s="0">
-        <v>80.8</v>
+        <v>90.36</v>
       </c>
       <c r="P81" s="0">
         <v>0</v>
       </c>
       <c r="Q81" s="0">
-        <v>0.51747</v>
+        <v>0.55981</v>
       </c>
       <c r="R81" s="0">
         <v>0.49505</v>
       </c>
       <c r="S81" s="0">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="T81" s="0">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="U81" s="0">
-        <v>97</v>
+        <v>-55</v>
       </c>
       <c r="V81" s="0">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="W81" s="0">
-        <v>61</v>
+        <v>-33</v>
       </c>
       <c r="X81" s="0">
-        <v>5.26</v>
+        <v>3.77</v>
       </c>
       <c r="Y81" s="0">
-        <v>5.93</v>
+        <v>5.24</v>
       </c>
       <c r="Z81" s="0">
-        <v>5.93</v>
+        <v>5.24</v>
       </c>
       <c r="AA81" s="0">
-        <v>-5.607</v>
+        <v>6.933</v>
       </c>
       <c r="AB81" s="0">
-        <v>-8.997</v>
+        <v>3.959</v>
       </c>
       <c r="AC81" s="0">
-        <v>11.23</v>
+        <v>8.89</v>
       </c>
       <c r="AD81" s="0">
-        <v>16.55</v>
+        <v>18.98</v>
       </c>
       <c r="AE81" s="0">
-        <v>16.55</v>
+        <v>18.98</v>
       </c>
       <c r="AF81" s="0">
-        <v>0.09</v>
+        <v>-1.13</v>
       </c>
       <c r="AG81" s="0">
-        <v>5.62</v>
+        <v>7.29</v>
       </c>
       <c r="AH81" s="0">
-        <v>5.62</v>
+        <v>7.29</v>
       </c>
       <c r="AI81" s="0" t="s">
         <v>47</v>
@@ -9883,13 +9883,13 @@
         <v>516.314</v>
       </c>
       <c r="O82" s="0">
-        <v>70.4</v>
+        <v>91.04</v>
       </c>
       <c r="P82" s="0">
         <v>0</v>
       </c>
       <c r="Q82" s="0">
-        <v>0.58049</v>
+        <v>0.72618</v>
       </c>
       <c r="R82" s="0">
         <v>0.73686</v>
@@ -9898,49 +9898,49 @@
         <v>1.59</v>
       </c>
       <c r="T82" s="0">
-        <v>597</v>
+        <v>363</v>
       </c>
       <c r="U82" s="0">
-        <v>350</v>
+        <v>116</v>
       </c>
       <c r="V82" s="0">
-        <v>475</v>
+        <v>392</v>
       </c>
       <c r="W82" s="0">
-        <v>166</v>
+        <v>83</v>
       </c>
       <c r="X82" s="0">
-        <v>11.38</v>
+        <v>8.97</v>
       </c>
       <c r="Y82" s="0">
-        <v>16.96</v>
+        <v>9.28</v>
       </c>
       <c r="Z82" s="0">
-        <v>16.96</v>
+        <v>9.28</v>
       </c>
       <c r="AA82" s="0">
-        <v>-27.25</v>
+        <v>-6.393</v>
       </c>
       <c r="AB82" s="0">
-        <v>-29.264</v>
+        <v>-8.482</v>
       </c>
       <c r="AC82" s="0">
-        <v>0.59</v>
+        <v>2.54</v>
       </c>
       <c r="AD82" s="0">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="AE82" s="0">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="AF82" s="0">
-        <v>-0.57</v>
+        <v>-0.12</v>
       </c>
       <c r="AG82" s="0">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="AH82" s="0">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="AI82" s="0" t="s">
         <v>47</v>
@@ -9990,13 +9990,13 @@
         <v>350.893</v>
       </c>
       <c r="O83" s="0">
-        <v>59.64</v>
+        <v>61</v>
       </c>
       <c r="P83" s="0">
         <v>0</v>
       </c>
       <c r="Q83" s="0">
-        <v>0.33421</v>
+        <v>0.33068</v>
       </c>
       <c r="R83" s="0">
         <v>0.3688</v>
@@ -10005,49 +10005,49 @@
         <v>0</v>
       </c>
       <c r="T83" s="0">
-        <v>419</v>
+        <v>397</v>
       </c>
       <c r="U83" s="0">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="V83" s="0">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="W83" s="0">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="X83" s="0">
-        <v>7.87</v>
+        <v>7.7</v>
       </c>
       <c r="Y83" s="0">
-        <v>7.88</v>
+        <v>7.73</v>
       </c>
       <c r="Z83" s="0">
-        <v>7.88</v>
+        <v>7.73</v>
       </c>
       <c r="AA83" s="0">
-        <v>-18.167</v>
+        <v>-16.301</v>
       </c>
       <c r="AB83" s="0">
-        <v>-22.038</v>
+        <v>-19.562</v>
       </c>
       <c r="AC83" s="0">
-        <v>12.11</v>
+        <v>12.15</v>
       </c>
       <c r="AD83" s="0">
-        <v>12.49</v>
+        <v>12.69</v>
       </c>
       <c r="AE83" s="0">
-        <v>12.49</v>
+        <v>12.69</v>
       </c>
       <c r="AF83" s="0">
-        <v>2.33</v>
+        <v>2.68</v>
       </c>
       <c r="AG83" s="0">
-        <v>3.2</v>
+        <v>3.32</v>
       </c>
       <c r="AH83" s="0">
-        <v>3.2</v>
+        <v>3.32</v>
       </c>
       <c r="AI83" s="0" t="s">
         <v>47</v>
@@ -10097,13 +10097,13 @@
         <v>401.02</v>
       </c>
       <c r="O84" s="0">
-        <v>67.84</v>
+        <v>71</v>
       </c>
       <c r="P84" s="0">
         <v>0</v>
       </c>
       <c r="Q84" s="0">
-        <v>0.43447</v>
+        <v>0.43987</v>
       </c>
       <c r="R84" s="0">
         <v>0.44532</v>
@@ -10112,49 +10112,49 @@
         <v>0</v>
       </c>
       <c r="T84" s="0">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="U84" s="0">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="V84" s="0">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="W84" s="0">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="X84" s="0">
-        <v>6.42</v>
+        <v>6.08</v>
       </c>
       <c r="Y84" s="0">
-        <v>6.63</v>
+        <v>6.35</v>
       </c>
       <c r="Z84" s="0">
-        <v>6.63</v>
+        <v>6.35</v>
       </c>
       <c r="AA84" s="0">
-        <v>-11.896</v>
+        <v>-7.792</v>
       </c>
       <c r="AB84" s="0">
-        <v>-15.668</v>
+        <v>-10.998</v>
       </c>
       <c r="AC84" s="0">
-        <v>13.09</v>
+        <v>13.02</v>
       </c>
       <c r="AD84" s="0">
-        <v>14.94</v>
+        <v>15.56</v>
       </c>
       <c r="AE84" s="0">
-        <v>14.94</v>
+        <v>15.56</v>
       </c>
       <c r="AF84" s="0">
-        <v>2.3</v>
+        <v>1.63</v>
       </c>
       <c r="AG84" s="0">
-        <v>4.55</v>
+        <v>4.94</v>
       </c>
       <c r="AH84" s="0">
-        <v>4.55</v>
+        <v>4.94</v>
       </c>
       <c r="AI84" s="0" t="s">
         <v>47</v>
@@ -10204,13 +10204,13 @@
         <v>501.276</v>
       </c>
       <c r="O85" s="0">
-        <v>77.28</v>
+        <v>84.4</v>
       </c>
       <c r="P85" s="0">
         <v>0</v>
       </c>
       <c r="Q85" s="0">
-        <v>0.61866</v>
+        <v>0.65361</v>
       </c>
       <c r="R85" s="0">
         <v>0.71135</v>
@@ -10219,43 +10219,43 @@
         <v>0</v>
       </c>
       <c r="T85" s="0">
-        <v>418</v>
+        <v>347</v>
       </c>
       <c r="U85" s="0">
-        <v>243</v>
+        <v>172</v>
       </c>
       <c r="V85" s="0">
-        <v>380</v>
+        <v>353</v>
       </c>
       <c r="W85" s="0">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="X85" s="0">
-        <v>9.16</v>
+        <v>8.59</v>
       </c>
       <c r="Y85" s="0">
-        <v>10.89</v>
+        <v>9.21</v>
       </c>
       <c r="Z85" s="0">
-        <v>10.89</v>
+        <v>9.21</v>
       </c>
       <c r="AA85" s="0">
-        <v>-21.463</v>
+        <v>-14.228</v>
       </c>
       <c r="AB85" s="0">
-        <v>-24.003</v>
+        <v>-16.88</v>
       </c>
       <c r="AC85" s="0">
-        <v>3.14</v>
+        <v>3.76</v>
       </c>
       <c r="AD85" s="0">
-        <v>4.95</v>
+        <v>5</v>
       </c>
       <c r="AE85" s="0">
-        <v>4.95</v>
+        <v>5</v>
       </c>
       <c r="AF85" s="0">
-        <v>-0.3</v>
+        <v>-0.14</v>
       </c>
       <c r="AG85" s="0">
         <v>0.32</v>
@@ -10311,13 +10311,13 @@
         <v>501.276</v>
       </c>
       <c r="O86" s="0">
-        <v>78.4</v>
+        <v>93.92</v>
       </c>
       <c r="P86" s="0">
         <v>0</v>
       </c>
       <c r="Q86" s="0">
-        <v>0.62763</v>
+        <v>0.72734</v>
       </c>
       <c r="R86" s="0">
         <v>0.74027</v>
@@ -10326,43 +10326,43 @@
         <v>0</v>
       </c>
       <c r="T86" s="0">
-        <v>481</v>
+        <v>316</v>
       </c>
       <c r="U86" s="0">
-        <v>523</v>
+        <v>358</v>
       </c>
       <c r="V86" s="0">
-        <v>425</v>
+        <v>354</v>
       </c>
       <c r="W86" s="0">
-        <v>582</v>
+        <v>511</v>
       </c>
       <c r="X86" s="0">
-        <v>10.52</v>
+        <v>8.83</v>
       </c>
       <c r="Y86" s="0">
-        <v>24.6</v>
+        <v>11.33</v>
       </c>
       <c r="Z86" s="0">
-        <v>24.6</v>
+        <v>11.33</v>
       </c>
       <c r="AA86" s="0">
-        <v>-23.438</v>
+        <v>-8.281</v>
       </c>
       <c r="AB86" s="0">
-        <v>-24.512</v>
+        <v>-9.397</v>
       </c>
       <c r="AC86" s="0">
-        <v>-1.28</v>
+        <v>0.51</v>
       </c>
       <c r="AD86" s="0">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="AE86" s="0">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="AF86" s="0">
-        <v>-0.6</v>
+        <v>-0.22</v>
       </c>
       <c r="AG86" s="0">
         <v>0.03</v>
@@ -10418,13 +10418,13 @@
         <v>501.276</v>
       </c>
       <c r="O87" s="0">
-        <v>64.76</v>
+        <v>68.68</v>
       </c>
       <c r="P87" s="0">
         <v>0</v>
       </c>
       <c r="Q87" s="0">
-        <v>0.51843</v>
+        <v>0.53187</v>
       </c>
       <c r="R87" s="0">
         <v>0.49881</v>
@@ -10433,49 +10433,49 @@
         <v>0</v>
       </c>
       <c r="T87" s="0">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="U87" s="0">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="V87" s="0">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="W87" s="0">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="X87" s="0">
-        <v>6.41</v>
+        <v>5.97</v>
       </c>
       <c r="Y87" s="0">
-        <v>6.55</v>
+        <v>6.19</v>
       </c>
       <c r="Z87" s="0">
-        <v>6.55</v>
+        <v>6.19</v>
       </c>
       <c r="AA87" s="0">
-        <v>-6.145</v>
+        <v>-0.464</v>
       </c>
       <c r="AB87" s="0">
-        <v>-10.159</v>
+        <v>-3.791</v>
       </c>
       <c r="AC87" s="0">
-        <v>13.5</v>
+        <v>13.55</v>
       </c>
       <c r="AD87" s="0">
-        <v>15.1</v>
+        <v>15.94</v>
       </c>
       <c r="AE87" s="0">
-        <v>15.1</v>
+        <v>15.94</v>
       </c>
       <c r="AF87" s="0">
-        <v>3.3</v>
+        <v>1.94</v>
       </c>
       <c r="AG87" s="0">
-        <v>4.65</v>
+        <v>5.19</v>
       </c>
       <c r="AH87" s="0">
-        <v>4.65</v>
+        <v>5.19</v>
       </c>
       <c r="AI87" s="0" t="s">
         <v>47</v>
@@ -10525,13 +10525,13 @@
         <v>250.638</v>
       </c>
       <c r="O88" s="0">
-        <v>87.4</v>
+        <v>91.4</v>
       </c>
       <c r="P88" s="0">
         <v>0</v>
       </c>
       <c r="Q88" s="0">
-        <v>0.34984</v>
+        <v>0.35391</v>
       </c>
       <c r="R88" s="0">
         <v>0.33543</v>
@@ -10540,49 +10540,49 @@
         <v>0</v>
       </c>
       <c r="T88" s="0">
-        <v>197</v>
+        <v>135</v>
       </c>
       <c r="U88" s="0">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="V88" s="0">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="W88" s="0">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="X88" s="0">
-        <v>5.62</v>
+        <v>5.05</v>
       </c>
       <c r="Y88" s="0">
-        <v>6.65</v>
+        <v>6.37</v>
       </c>
       <c r="Z88" s="0">
-        <v>6.65</v>
+        <v>6.37</v>
       </c>
       <c r="AA88" s="0">
-        <v>-5.819</v>
+        <v>-1.509</v>
       </c>
       <c r="AB88" s="0">
-        <v>-8.452</v>
+        <v>-3.947</v>
       </c>
       <c r="AC88" s="0">
-        <v>8.53</v>
+        <v>7.54</v>
       </c>
       <c r="AD88" s="0">
-        <v>14.88</v>
+        <v>15.49</v>
       </c>
       <c r="AE88" s="0">
-        <v>14.88</v>
+        <v>15.49</v>
       </c>
       <c r="AF88" s="0">
-        <v>-0.74</v>
+        <v>-1.39</v>
       </c>
       <c r="AG88" s="0">
-        <v>4.51</v>
+        <v>4.9</v>
       </c>
       <c r="AH88" s="0">
-        <v>4.51</v>
+        <v>4.9</v>
       </c>
       <c r="AI88" s="0" t="s">
         <v>47</v>
@@ -10632,64 +10632,64 @@
         <v>731.862</v>
       </c>
       <c r="O89" s="0">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="P89" s="0">
         <v>0</v>
       </c>
       <c r="Q89" s="0">
-        <v>0.55635</v>
+        <v>0</v>
       </c>
       <c r="R89" s="0">
         <v>0.76078</v>
       </c>
       <c r="S89" s="0">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T89" s="0">
-        <v>718</v>
+        <v>10000</v>
       </c>
       <c r="U89" s="0">
-        <v>427</v>
+        <v>9709</v>
       </c>
       <c r="V89" s="0">
-        <v>358</v>
+        <v>496</v>
       </c>
       <c r="W89" s="0">
-        <v>97</v>
+        <v>235</v>
       </c>
       <c r="X89" s="0">
-        <v>10.88</v>
+        <v>99.99</v>
       </c>
       <c r="Y89" s="0">
-        <v>10.88</v>
+        <v>99.99</v>
       </c>
       <c r="Z89" s="0">
-        <v>10.88</v>
+        <v>99.99</v>
       </c>
       <c r="AA89" s="0">
-        <v>-33.962</v>
+        <v>-100</v>
       </c>
       <c r="AB89" s="0">
-        <v>-37.671</v>
+        <v>-103.152</v>
       </c>
       <c r="AC89" s="0">
-        <v>8.95</v>
+        <v>30.79</v>
       </c>
       <c r="AD89" s="0">
-        <v>8.88</v>
+        <v>30.79</v>
       </c>
       <c r="AE89" s="0">
-        <v>8.88</v>
+        <v>30.79</v>
       </c>
       <c r="AF89" s="0">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="AG89" s="0">
-        <v>1.65</v>
+        <v>0.69</v>
       </c>
       <c r="AH89" s="0">
-        <v>1.65</v>
+        <v>0.69</v>
       </c>
       <c r="AI89" s="0" t="s">
         <v>47</v>
@@ -10739,13 +10739,13 @@
         <v>601.531</v>
       </c>
       <c r="O90" s="0">
-        <v>71.76</v>
+        <v>78.44</v>
       </c>
       <c r="P90" s="0">
         <v>0</v>
       </c>
       <c r="Q90" s="0">
-        <v>0.68936</v>
+        <v>0.72895</v>
       </c>
       <c r="R90" s="0">
         <v>0.72072</v>
@@ -10754,49 +10754,49 @@
         <v>0</v>
       </c>
       <c r="T90" s="0">
-        <v>230</v>
+        <v>147</v>
       </c>
       <c r="U90" s="0">
-        <v>173</v>
+        <v>90</v>
       </c>
       <c r="V90" s="0">
-        <v>220</v>
+        <v>136</v>
       </c>
       <c r="W90" s="0">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="X90" s="0">
-        <v>5.95</v>
+        <v>5.17</v>
       </c>
       <c r="Y90" s="0">
-        <v>6.26</v>
+        <v>5.74</v>
       </c>
       <c r="Z90" s="0">
-        <v>6.26</v>
+        <v>5.74</v>
       </c>
       <c r="AA90" s="0">
-        <v>-13.625</v>
+        <v>-5.585</v>
       </c>
       <c r="AB90" s="0">
-        <v>-17.288</v>
+        <v>-8.75</v>
       </c>
       <c r="AC90" s="0">
-        <v>12.8</v>
+        <v>12.15</v>
       </c>
       <c r="AD90" s="0">
-        <v>15.81</v>
+        <v>17.22</v>
       </c>
       <c r="AE90" s="0">
-        <v>15.81</v>
+        <v>17.22</v>
       </c>
       <c r="AF90" s="0">
-        <v>1.36</v>
+        <v>1.06</v>
       </c>
       <c r="AG90" s="0">
-        <v>5.09</v>
+        <v>6.04</v>
       </c>
       <c r="AH90" s="0">
-        <v>5.09</v>
+        <v>6.04</v>
       </c>
       <c r="AI90" s="0" t="s">
         <v>47</v>
@@ -10846,13 +10846,13 @@
         <v>751.913</v>
       </c>
       <c r="O91" s="0">
-        <v>91.2</v>
+        <v>94.36</v>
       </c>
       <c r="P91" s="0">
         <v>0</v>
       </c>
       <c r="Q91" s="0">
-        <v>1.09514</v>
+        <v>1.09612</v>
       </c>
       <c r="R91" s="0">
         <v>1.08394</v>
@@ -10861,49 +10861,49 @@
         <v>0</v>
       </c>
       <c r="T91" s="0">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="U91" s="0">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="V91" s="0">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="W91" s="0">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="X91" s="0">
-        <v>5.21</v>
+        <v>4.72</v>
       </c>
       <c r="Y91" s="0">
-        <v>6.59</v>
+        <v>6.39</v>
       </c>
       <c r="Z91" s="0">
-        <v>6.59</v>
+        <v>6.39</v>
       </c>
       <c r="AA91" s="0">
-        <v>-8.764</v>
+        <v>-5.602</v>
       </c>
       <c r="AB91" s="0">
-        <v>-9.701</v>
+        <v>-6.627</v>
       </c>
       <c r="AC91" s="0">
-        <v>7.28</v>
+        <v>6.26</v>
       </c>
       <c r="AD91" s="0">
-        <v>15.01</v>
+        <v>15.45</v>
       </c>
       <c r="AE91" s="0">
-        <v>15.01</v>
+        <v>15.45</v>
       </c>
       <c r="AF91" s="0">
-        <v>-1.14</v>
+        <v>-2.08</v>
       </c>
       <c r="AG91" s="0">
-        <v>4.59</v>
+        <v>4.87</v>
       </c>
       <c r="AH91" s="0">
-        <v>4.59</v>
+        <v>4.87</v>
       </c>
       <c r="AI91" s="0" t="s">
         <v>47</v>
@@ -10953,13 +10953,13 @@
         <v>300.765</v>
       </c>
       <c r="O92" s="0">
-        <v>61.84</v>
+        <v>64.64</v>
       </c>
       <c r="P92" s="0">
         <v>0</v>
       </c>
       <c r="Q92" s="0">
-        <v>0.29703</v>
+        <v>0.30035</v>
       </c>
       <c r="R92" s="0">
         <v>0.32722</v>
@@ -10968,49 +10968,49 @@
         <v>0</v>
       </c>
       <c r="T92" s="0">
-        <v>361</v>
+        <v>322</v>
       </c>
       <c r="U92" s="0">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="V92" s="0">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="W92" s="0">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="X92" s="0">
-        <v>7.28</v>
+        <v>6.95</v>
       </c>
       <c r="Y92" s="0">
-        <v>7.34</v>
+        <v>7.04</v>
       </c>
       <c r="Z92" s="0">
-        <v>7.34</v>
+        <v>7.04</v>
       </c>
       <c r="AA92" s="0">
-        <v>-18.028</v>
+        <v>-14.316</v>
       </c>
       <c r="AB92" s="0">
-        <v>-21.845</v>
+        <v>-17.55</v>
       </c>
       <c r="AC92" s="0">
-        <v>12.61</v>
+        <v>12.88</v>
       </c>
       <c r="AD92" s="0">
-        <v>13.5</v>
+        <v>14.03</v>
       </c>
       <c r="AE92" s="0">
-        <v>13.5</v>
+        <v>14.03</v>
       </c>
       <c r="AF92" s="0">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="AG92" s="0">
-        <v>3.71</v>
+        <v>4.02</v>
       </c>
       <c r="AH92" s="0">
-        <v>3.71</v>
+        <v>4.02</v>
       </c>
       <c r="AI92" s="0" t="s">
         <v>47</v>
@@ -11060,64 +11060,64 @@
         <v>350.893</v>
       </c>
       <c r="O93" s="0">
-        <v>60.92</v>
+        <v>0</v>
       </c>
       <c r="P93" s="0">
         <v>0</v>
       </c>
       <c r="Q93" s="0">
-        <v>0.34138</v>
+        <v>0</v>
       </c>
       <c r="R93" s="0">
         <v>0.41151</v>
       </c>
       <c r="S93" s="0">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T93" s="0">
-        <v>508</v>
+        <v>10000</v>
       </c>
       <c r="U93" s="0">
-        <v>311</v>
+        <v>9803</v>
       </c>
       <c r="V93" s="0">
-        <v>342</v>
+        <v>514</v>
       </c>
       <c r="W93" s="0">
-        <v>167</v>
+        <v>339</v>
       </c>
       <c r="X93" s="0">
-        <v>8.77</v>
+        <v>100</v>
       </c>
       <c r="Y93" s="0">
-        <v>8.77</v>
+        <v>99.99</v>
       </c>
       <c r="Z93" s="0">
-        <v>8.77</v>
+        <v>99.99</v>
       </c>
       <c r="AA93" s="0">
-        <v>-25.086</v>
+        <v>-100</v>
       </c>
       <c r="AB93" s="0">
-        <v>-28.575</v>
+        <v>-103.048</v>
       </c>
       <c r="AC93" s="0">
-        <v>11.06</v>
+        <v>0.22</v>
       </c>
       <c r="AD93" s="0">
-        <v>11.2</v>
+        <v>2.81</v>
       </c>
       <c r="AE93" s="0">
-        <v>11.2</v>
+        <v>2.81</v>
       </c>
       <c r="AF93" s="0">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="AG93" s="0">
-        <v>2.58</v>
+        <v>0.06</v>
       </c>
       <c r="AH93" s="0">
-        <v>2.58</v>
+        <v>0.06</v>
       </c>
       <c r="AI93" s="0" t="s">
         <v>47</v>
@@ -11167,58 +11167,58 @@
         <v>350.893</v>
       </c>
       <c r="O94" s="0">
-        <v>65.56</v>
+        <v>83.44</v>
       </c>
       <c r="P94" s="0">
         <v>0</v>
       </c>
       <c r="Q94" s="0">
-        <v>0.36739</v>
+        <v>0.45232</v>
       </c>
       <c r="R94" s="0">
         <v>0.49795</v>
       </c>
       <c r="S94" s="0">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="T94" s="0">
-        <v>822</v>
+        <v>552</v>
       </c>
       <c r="U94" s="0">
-        <v>477</v>
+        <v>207</v>
       </c>
       <c r="V94" s="0">
-        <v>528</v>
+        <v>457</v>
       </c>
       <c r="W94" s="0">
-        <v>173</v>
+        <v>102</v>
       </c>
       <c r="X94" s="0">
-        <v>11.82</v>
+        <v>9.28</v>
       </c>
       <c r="Y94" s="0">
-        <v>71.26</v>
+        <v>32.17</v>
       </c>
       <c r="Z94" s="0">
-        <v>71.26</v>
+        <v>32.17</v>
       </c>
       <c r="AA94" s="0">
-        <v>-33.374</v>
+        <v>-13.711</v>
       </c>
       <c r="AB94" s="0">
-        <v>-34.2</v>
+        <v>-14.611</v>
       </c>
       <c r="AC94" s="0">
-        <v>-3.26</v>
+        <v>-1.06</v>
       </c>
       <c r="AD94" s="0">
-        <v>0.64</v>
+        <v>0.79</v>
       </c>
       <c r="AE94" s="0">
-        <v>0.64</v>
+        <v>0.79</v>
       </c>
       <c r="AF94" s="0">
-        <v>-0.7</v>
+        <v>-0.36</v>
       </c>
       <c r="AG94" s="0">
         <v>0.01</v>
@@ -11274,13 +11274,13 @@
         <v>501.276</v>
       </c>
       <c r="O95" s="0">
-        <v>94.92</v>
+        <v>99.68</v>
       </c>
       <c r="P95" s="0">
         <v>0</v>
       </c>
       <c r="Q95" s="0">
-        <v>0.75988</v>
+        <v>0.77194</v>
       </c>
       <c r="R95" s="0">
         <v>0.7287</v>
@@ -11289,49 +11289,49 @@
         <v>0</v>
       </c>
       <c r="T95" s="0">
-        <v>295</v>
+        <v>157</v>
       </c>
       <c r="U95" s="0">
-        <v>251</v>
+        <v>113</v>
       </c>
       <c r="V95" s="0">
-        <v>348</v>
+        <v>227</v>
       </c>
       <c r="W95" s="0">
-        <v>270</v>
+        <v>149</v>
       </c>
       <c r="X95" s="0">
-        <v>8.09</v>
+        <v>6.71</v>
       </c>
       <c r="Y95" s="0">
-        <v>7.31</v>
+        <v>5.59</v>
       </c>
       <c r="Z95" s="0">
-        <v>7.31</v>
+        <v>5.59</v>
       </c>
       <c r="AA95" s="0">
-        <v>-5.833</v>
+        <v>-1.111</v>
       </c>
       <c r="AB95" s="0">
-        <v>-7.683</v>
+        <v>-2.984</v>
       </c>
       <c r="AC95" s="0">
-        <v>2.48</v>
+        <v>2.66</v>
       </c>
       <c r="AD95" s="0">
-        <v>2.69</v>
+        <v>2.67</v>
       </c>
       <c r="AE95" s="0">
-        <v>2.69</v>
+        <v>2.67</v>
       </c>
       <c r="AF95" s="0">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="AG95" s="0">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AH95" s="0">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AI95" s="0" t="s">
         <v>47</v>
@@ -11381,13 +11381,13 @@
         <v>751.913</v>
       </c>
       <c r="O96" s="0">
-        <v>94.4</v>
+        <v>92.76</v>
       </c>
       <c r="P96" s="0">
         <v>0</v>
       </c>
       <c r="Q96" s="0">
-        <v>1.13357</v>
+        <v>1.07753</v>
       </c>
       <c r="R96" s="0">
         <v>1.08525</v>
@@ -11396,49 +11396,49 @@
         <v>0</v>
       </c>
       <c r="T96" s="0">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="U96" s="0">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="V96" s="0">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="W96" s="0">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="X96" s="0">
-        <v>8.27</v>
+        <v>8.76</v>
       </c>
       <c r="Y96" s="0">
-        <v>12.07</v>
+        <v>14.7</v>
       </c>
       <c r="Z96" s="0">
-        <v>12.07</v>
+        <v>14.7</v>
       </c>
       <c r="AA96" s="0">
-        <v>-5.675</v>
+        <v>-7.314</v>
       </c>
       <c r="AB96" s="0">
-        <v>-6.407</v>
+        <v>-8.118</v>
       </c>
       <c r="AC96" s="0">
-        <v>0.14</v>
+        <v>-0.1</v>
       </c>
       <c r="AD96" s="0">
-        <v>0.92</v>
+        <v>0.87</v>
       </c>
       <c r="AE96" s="0">
-        <v>0.92</v>
+        <v>0.87</v>
       </c>
       <c r="AF96" s="0">
-        <v>-0.23</v>
+        <v>-0.27</v>
       </c>
       <c r="AG96" s="0">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AH96" s="0">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AI96" s="0" t="s">
         <v>47</v>
@@ -11488,13 +11488,13 @@
         <v>751.913</v>
       </c>
       <c r="O97" s="0">
-        <v>59.26</v>
+        <v>68.8</v>
       </c>
       <c r="P97" s="0">
         <v>0</v>
       </c>
       <c r="Q97" s="0">
-        <v>0.7116</v>
+        <v>0.7992</v>
       </c>
       <c r="R97" s="0">
         <v>0.81632</v>
@@ -11503,49 +11503,49 @@
         <v>0</v>
       </c>
       <c r="T97" s="0">
-        <v>598</v>
+        <v>453</v>
       </c>
       <c r="U97" s="0">
-        <v>265</v>
+        <v>120</v>
       </c>
       <c r="V97" s="0">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="W97" s="0">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="X97" s="0">
-        <v>9.68</v>
+        <v>8.27</v>
       </c>
       <c r="Y97" s="0">
-        <v>9.68</v>
+        <v>8.35</v>
       </c>
       <c r="Z97" s="0">
-        <v>9.68</v>
+        <v>8.35</v>
       </c>
       <c r="AA97" s="0">
-        <v>-21.281</v>
+        <v>-8.608</v>
       </c>
       <c r="AB97" s="0">
-        <v>-24.843</v>
+        <v>-11.693</v>
       </c>
       <c r="AC97" s="0">
-        <v>10.23</v>
+        <v>11.05</v>
       </c>
       <c r="AD97" s="0">
-        <v>10.13</v>
+        <v>11.74</v>
       </c>
       <c r="AE97" s="0">
-        <v>10.13</v>
+        <v>11.74</v>
       </c>
       <c r="AF97" s="0">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AG97" s="0">
-        <v>2.12</v>
+        <v>2.84</v>
       </c>
       <c r="AH97" s="0">
-        <v>2.12</v>
+        <v>2.84</v>
       </c>
       <c r="AI97" s="0" t="s">
         <v>47</v>
@@ -11595,13 +11595,13 @@
         <v>300.765</v>
       </c>
       <c r="O98" s="0">
-        <v>67.6</v>
+        <v>74.08</v>
       </c>
       <c r="P98" s="0">
         <v>0</v>
       </c>
       <c r="Q98" s="0">
-        <v>0.3247</v>
+        <v>0.34421</v>
       </c>
       <c r="R98" s="0">
         <v>0.37823</v>
@@ -11610,49 +11610,49 @@
         <v>0</v>
       </c>
       <c r="T98" s="0">
-        <v>484</v>
+        <v>394</v>
       </c>
       <c r="U98" s="0">
-        <v>309</v>
+        <v>219</v>
       </c>
       <c r="V98" s="0">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="W98" s="0">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="X98" s="0">
-        <v>8.53</v>
+        <v>7.68</v>
       </c>
       <c r="Y98" s="0">
-        <v>8.59</v>
+        <v>7.86</v>
       </c>
       <c r="Z98" s="0">
-        <v>8.59</v>
+        <v>7.86</v>
       </c>
       <c r="AA98" s="0">
-        <v>-22.477</v>
+        <v>-15.046</v>
       </c>
       <c r="AB98" s="0">
-        <v>-25.737</v>
+        <v>-17.978</v>
       </c>
       <c r="AC98" s="0">
-        <v>10.9</v>
+        <v>10.98</v>
       </c>
       <c r="AD98" s="0">
-        <v>11.52</v>
+        <v>12.55</v>
       </c>
       <c r="AE98" s="0">
-        <v>11.52</v>
+        <v>12.55</v>
       </c>
       <c r="AF98" s="0">
-        <v>2.15</v>
+        <v>1.42</v>
       </c>
       <c r="AG98" s="0">
-        <v>2.71</v>
+        <v>3.22</v>
       </c>
       <c r="AH98" s="0">
-        <v>2.71</v>
+        <v>3.22</v>
       </c>
       <c r="AI98" s="0" t="s">
         <v>47</v>
@@ -11702,13 +11702,13 @@
         <v>927.36</v>
       </c>
       <c r="O99" s="0">
-        <v>73.44</v>
+        <v>82.44</v>
       </c>
       <c r="P99" s="0">
         <v>0</v>
       </c>
       <c r="Q99" s="0">
-        <v>1.08765</v>
+        <v>1.1811</v>
       </c>
       <c r="R99" s="0">
         <v>1.11432</v>
@@ -11717,49 +11717,49 @@
         <v>0</v>
       </c>
       <c r="T99" s="0">
-        <v>255</v>
+        <v>139</v>
       </c>
       <c r="U99" s="0">
-        <v>159</v>
+        <v>43</v>
       </c>
       <c r="V99" s="0">
-        <v>245</v>
+        <v>136</v>
       </c>
       <c r="W99" s="0">
-        <v>138</v>
+        <v>29</v>
       </c>
       <c r="X99" s="0">
-        <v>6.21</v>
+        <v>5.09</v>
       </c>
       <c r="Y99" s="0">
-        <v>6.54</v>
+        <v>5.83</v>
       </c>
       <c r="Z99" s="0">
-        <v>6.54</v>
+        <v>5.83</v>
       </c>
       <c r="AA99" s="0">
-        <v>-11.858</v>
+        <v>-1.056</v>
       </c>
       <c r="AB99" s="0">
-        <v>-15.405</v>
+        <v>-4.146</v>
       </c>
       <c r="AC99" s="0">
-        <v>12.17</v>
+        <v>11.02</v>
       </c>
       <c r="AD99" s="0">
-        <v>15.14</v>
+        <v>16.95</v>
       </c>
       <c r="AE99" s="0">
-        <v>15.14</v>
+        <v>16.95</v>
       </c>
       <c r="AF99" s="0">
-        <v>1.39</v>
+        <v>0.12</v>
       </c>
       <c r="AG99" s="0">
-        <v>4.67</v>
+        <v>5.85</v>
       </c>
       <c r="AH99" s="0">
-        <v>4.67</v>
+        <v>5.85</v>
       </c>
       <c r="AI99" s="0" t="s">
         <v>47</v>
@@ -11809,13 +11809,13 @@
         <v>576.467</v>
       </c>
       <c r="O100" s="0">
-        <v>82.08</v>
+        <v>91.2</v>
       </c>
       <c r="P100" s="0">
         <v>0</v>
       </c>
       <c r="Q100" s="0">
-        <v>0.75565</v>
+        <v>0.81221</v>
       </c>
       <c r="R100" s="0">
         <v>0.77482</v>
@@ -11824,49 +11824,49 @@
         <v>0</v>
       </c>
       <c r="T100" s="0">
-        <v>213</v>
+        <v>78</v>
       </c>
       <c r="U100" s="0">
-        <v>207</v>
+        <v>72</v>
       </c>
       <c r="V100" s="0">
-        <v>185</v>
+        <v>101</v>
       </c>
       <c r="W100" s="0">
-        <v>141</v>
+        <v>57</v>
       </c>
       <c r="X100" s="0">
-        <v>5.78</v>
+        <v>4.47</v>
       </c>
       <c r="Y100" s="0">
-        <v>6.46</v>
+        <v>5.83</v>
       </c>
       <c r="Z100" s="0">
-        <v>6.46</v>
+        <v>5.83</v>
       </c>
       <c r="AA100" s="0">
-        <v>-11.931</v>
+        <v>-2.146</v>
       </c>
       <c r="AB100" s="0">
-        <v>-14.865</v>
+        <v>-4.835</v>
       </c>
       <c r="AC100" s="0">
-        <v>10.37</v>
+        <v>8.5</v>
       </c>
       <c r="AD100" s="0">
-        <v>15.32</v>
+        <v>16.96</v>
       </c>
       <c r="AE100" s="0">
-        <v>15.32</v>
+        <v>16.96</v>
       </c>
       <c r="AF100" s="0">
-        <v>0.08</v>
+        <v>-0.81</v>
       </c>
       <c r="AG100" s="0">
-        <v>4.78</v>
+        <v>5.86</v>
       </c>
       <c r="AH100" s="0">
-        <v>4.78</v>
+        <v>5.86</v>
       </c>
       <c r="AI100" s="0" t="s">
         <v>47</v>
@@ -11916,64 +11916,64 @@
         <v>501.276</v>
       </c>
       <c r="O101" s="0">
-        <v>62.52</v>
+        <v>71.44</v>
       </c>
       <c r="P101" s="0">
         <v>0</v>
       </c>
       <c r="Q101" s="0">
-        <v>0.5005</v>
+        <v>0.55325</v>
       </c>
       <c r="R101" s="0">
         <v>0.49534</v>
       </c>
       <c r="S101" s="0">
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="T101" s="0">
-        <v>231</v>
+        <v>115</v>
       </c>
       <c r="U101" s="0">
-        <v>98</v>
+        <v>-18</v>
       </c>
       <c r="V101" s="0">
-        <v>186</v>
+        <v>107</v>
       </c>
       <c r="W101" s="0">
-        <v>73</v>
+        <v>-6</v>
       </c>
       <c r="X101" s="0">
-        <v>5.96</v>
+        <v>4.84</v>
       </c>
       <c r="Y101" s="0">
-        <v>6.1</v>
+        <v>5.34</v>
       </c>
       <c r="Z101" s="0">
-        <v>6.1</v>
+        <v>5.34</v>
       </c>
       <c r="AA101" s="0">
-        <v>-8.757</v>
+        <v>5.63</v>
       </c>
       <c r="AB101" s="0">
-        <v>-12.931</v>
+        <v>2.22</v>
       </c>
       <c r="AC101" s="0">
-        <v>14.28</v>
+        <v>14.16</v>
       </c>
       <c r="AD101" s="0">
-        <v>16.1</v>
+        <v>18.39</v>
       </c>
       <c r="AE101" s="0">
-        <v>16.1</v>
+        <v>18.39</v>
       </c>
       <c r="AF101" s="0">
-        <v>3.79</v>
+        <v>1.74</v>
       </c>
       <c r="AG101" s="0">
-        <v>5.32</v>
+        <v>6.93</v>
       </c>
       <c r="AH101" s="0">
-        <v>5.32</v>
+        <v>6.93</v>
       </c>
       <c r="AI101" s="0" t="s">
         <v>47</v>
@@ -12023,64 +12023,64 @@
         <v>751.913</v>
       </c>
       <c r="O102" s="0">
-        <v>67</v>
+        <v>73.92</v>
       </c>
       <c r="P102" s="0">
         <v>0</v>
       </c>
       <c r="Q102" s="0">
-        <v>0.80455</v>
+        <v>0.85868</v>
       </c>
       <c r="R102" s="0">
         <v>0.7916</v>
       </c>
       <c r="S102" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T102" s="0">
-        <v>220</v>
+        <v>125</v>
       </c>
       <c r="U102" s="0">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="V102" s="0">
-        <v>195</v>
+        <v>117</v>
       </c>
       <c r="W102" s="0">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="X102" s="0">
-        <v>5.85</v>
+        <v>4.95</v>
       </c>
       <c r="Y102" s="0">
-        <v>6.07</v>
+        <v>5.51</v>
       </c>
       <c r="Z102" s="0">
-        <v>6.07</v>
+        <v>5.51</v>
       </c>
       <c r="AA102" s="0">
-        <v>-8.219</v>
+        <v>2.63</v>
       </c>
       <c r="AB102" s="0">
-        <v>-12.276</v>
+        <v>-0.736</v>
       </c>
       <c r="AC102" s="0">
-        <v>13.85</v>
+        <v>13.37</v>
       </c>
       <c r="AD102" s="0">
-        <v>16.18</v>
+        <v>17.82</v>
       </c>
       <c r="AE102" s="0">
-        <v>16.18</v>
+        <v>17.82</v>
       </c>
       <c r="AF102" s="0">
-        <v>2.63</v>
+        <v>1.66</v>
       </c>
       <c r="AG102" s="0">
-        <v>5.37</v>
+        <v>6.51</v>
       </c>
       <c r="AH102" s="0">
-        <v>5.37</v>
+        <v>6.51</v>
       </c>
       <c r="AI102" s="0" t="s">
         <v>47</v>
@@ -12130,64 +12130,64 @@
         <v>451.148</v>
       </c>
       <c r="O103" s="0">
-        <v>74.16</v>
+        <v>83.88</v>
       </c>
       <c r="P103" s="0">
         <v>0</v>
       </c>
       <c r="Q103" s="0">
-        <v>0.53432</v>
+        <v>0.58463</v>
       </c>
       <c r="R103" s="0">
         <v>0.52987</v>
       </c>
       <c r="S103" s="0">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="T103" s="0">
-        <v>214</v>
+        <v>78</v>
       </c>
       <c r="U103" s="0">
-        <v>121</v>
+        <v>-15</v>
       </c>
       <c r="V103" s="0">
-        <v>217</v>
+        <v>97</v>
       </c>
       <c r="W103" s="0">
-        <v>114</v>
+        <v>-6</v>
       </c>
       <c r="X103" s="0">
-        <v>5.79</v>
+        <v>4.47</v>
       </c>
       <c r="Y103" s="0">
-        <v>6.18</v>
+        <v>5.46</v>
       </c>
       <c r="Z103" s="0">
-        <v>6.18</v>
+        <v>5.46</v>
       </c>
       <c r="AA103" s="0">
-        <v>-8.939</v>
+        <v>4.377</v>
       </c>
       <c r="AB103" s="0">
-        <v>-12.663</v>
+        <v>1.179</v>
       </c>
       <c r="AC103" s="0">
-        <v>12.42</v>
+        <v>11.45</v>
       </c>
       <c r="AD103" s="0">
-        <v>15.91</v>
+        <v>17.98</v>
       </c>
       <c r="AE103" s="0">
-        <v>15.91</v>
+        <v>17.98</v>
       </c>
       <c r="AF103" s="0">
-        <v>1.78</v>
+        <v>0.67</v>
       </c>
       <c r="AG103" s="0">
-        <v>5.19</v>
+        <v>6.63</v>
       </c>
       <c r="AH103" s="0">
-        <v>5.19</v>
+        <v>6.63</v>
       </c>
       <c r="AI103" s="0" t="s">
         <v>47</v>
@@ -12237,64 +12237,64 @@
         <v>576.467</v>
       </c>
       <c r="O104" s="0">
-        <v>90.76</v>
+        <v>97.44</v>
       </c>
       <c r="P104" s="0">
         <v>0</v>
       </c>
       <c r="Q104" s="0">
-        <v>0.83556</v>
+        <v>0.86779</v>
       </c>
       <c r="R104" s="0">
         <v>0.81406</v>
       </c>
       <c r="S104" s="0">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="T104" s="0">
-        <v>114</v>
+        <v>-67</v>
       </c>
       <c r="U104" s="0">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="V104" s="0">
-        <v>124</v>
+        <v>-15</v>
       </c>
       <c r="W104" s="0">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="X104" s="0">
-        <v>4.77</v>
+        <v>2.97</v>
       </c>
       <c r="Y104" s="0">
-        <v>6.17</v>
+        <v>5.75</v>
       </c>
       <c r="Z104" s="0">
-        <v>6.17</v>
+        <v>5.75</v>
       </c>
       <c r="AA104" s="0">
-        <v>-7.312</v>
+        <v>0.914</v>
       </c>
       <c r="AB104" s="0">
-        <v>-9.25</v>
+        <v>-0.948</v>
       </c>
       <c r="AC104" s="0">
-        <v>7.76</v>
+        <v>4.21</v>
       </c>
       <c r="AD104" s="0">
-        <v>15.93</v>
+        <v>17.05</v>
       </c>
       <c r="AE104" s="0">
-        <v>15.93</v>
+        <v>17.05</v>
       </c>
       <c r="AF104" s="0">
-        <v>-1.19</v>
+        <v>-2.33</v>
       </c>
       <c r="AG104" s="0">
-        <v>5.21</v>
+        <v>5.97</v>
       </c>
       <c r="AH104" s="0">
-        <v>5.21</v>
+        <v>5.97</v>
       </c>
       <c r="AI104" s="0" t="s">
         <v>47</v>
@@ -12344,13 +12344,13 @@
         <v>300.765</v>
       </c>
       <c r="O105" s="0">
-        <v>89.8</v>
+        <v>89.56</v>
       </c>
       <c r="P105" s="0">
         <v>0</v>
       </c>
       <c r="Q105" s="0">
-        <v>0.43133</v>
+        <v>0.41614</v>
       </c>
       <c r="R105" s="0">
         <v>0.41727</v>
@@ -12359,49 +12359,49 @@
         <v>0</v>
       </c>
       <c r="T105" s="0">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="U105" s="0">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="V105" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="W105" s="0">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X105" s="0">
-        <v>6.76</v>
+        <v>6.81</v>
       </c>
       <c r="Y105" s="0">
-        <v>7.4</v>
+        <v>7.52</v>
       </c>
       <c r="Z105" s="0">
-        <v>7.4</v>
+        <v>7.52</v>
       </c>
       <c r="AA105" s="0">
-        <v>-6.653</v>
+        <v>-6.902</v>
       </c>
       <c r="AB105" s="0">
-        <v>-9.284</v>
+        <v>-9.639</v>
       </c>
       <c r="AC105" s="0">
-        <v>4.8</v>
+        <v>4.72</v>
       </c>
       <c r="AD105" s="0">
-        <v>5.27</v>
+        <v>5.22</v>
       </c>
       <c r="AE105" s="0">
-        <v>5.27</v>
+        <v>5.22</v>
       </c>
       <c r="AF105" s="0">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AG105" s="0">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="AH105" s="0">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="AI105" s="0" t="s">
         <v>47</v>
@@ -12451,64 +12451,64 @@
         <v>300.765</v>
       </c>
       <c r="O106" s="0">
-        <v>56</v>
+        <v>65.12</v>
       </c>
       <c r="P106" s="0">
         <v>0</v>
       </c>
       <c r="Q106" s="0">
-        <v>0.26898</v>
+        <v>0.30258</v>
       </c>
       <c r="R106" s="0">
         <v>0.34093</v>
       </c>
       <c r="S106" s="0">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="T106" s="0">
-        <v>524</v>
+        <v>372</v>
       </c>
       <c r="U106" s="0">
-        <v>339</v>
+        <v>187</v>
       </c>
       <c r="V106" s="0">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="W106" s="0">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="X106" s="0">
-        <v>8.93</v>
+        <v>7.45</v>
       </c>
       <c r="Y106" s="0">
-        <v>8.93</v>
+        <v>7.68</v>
       </c>
       <c r="Z106" s="0">
-        <v>8.93</v>
+        <v>7.68</v>
       </c>
       <c r="AA106" s="0">
-        <v>-28.753</v>
+        <v>-15.6</v>
       </c>
       <c r="AB106" s="0">
-        <v>-32.361</v>
+        <v>-18.707</v>
       </c>
       <c r="AC106" s="0">
-        <v>11.02</v>
+        <v>12.27</v>
       </c>
       <c r="AD106" s="0">
-        <v>10.92</v>
+        <v>12.7</v>
       </c>
       <c r="AE106" s="0">
-        <v>10.92</v>
+        <v>12.7</v>
       </c>
       <c r="AF106" s="0">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="AG106" s="0">
-        <v>2.47</v>
+        <v>3.34</v>
       </c>
       <c r="AH106" s="0">
-        <v>2.47</v>
+        <v>3.34</v>
       </c>
       <c r="AI106" s="0" t="s">
         <v>47</v>
@@ -12558,64 +12558,64 @@
         <v>300.765</v>
       </c>
       <c r="O107" s="0">
-        <v>32.04</v>
+        <v>53.6</v>
       </c>
       <c r="P107" s="0">
         <v>0</v>
       </c>
       <c r="Q107" s="0">
-        <v>0.1539</v>
+        <v>0.24905</v>
       </c>
       <c r="R107" s="0">
         <v>0.36782</v>
       </c>
       <c r="S107" s="0">
-        <v>-0</v>
+        <v>1.06</v>
       </c>
       <c r="T107" s="0">
-        <v>1433</v>
+        <v>740</v>
       </c>
       <c r="U107" s="0">
-        <v>1094</v>
+        <v>401</v>
       </c>
       <c r="V107" s="0">
-        <v>565</v>
+        <v>478</v>
       </c>
       <c r="W107" s="0">
-        <v>212</v>
+        <v>125</v>
       </c>
       <c r="X107" s="0">
-        <v>18.27</v>
+        <v>11.64</v>
       </c>
       <c r="Y107" s="0">
-        <v>45.18</v>
+        <v>25.05</v>
       </c>
       <c r="Z107" s="0">
-        <v>45.18</v>
+        <v>25.05</v>
       </c>
       <c r="AA107" s="0">
-        <v>-62.217</v>
+        <v>-35.54</v>
       </c>
       <c r="AB107" s="0">
-        <v>-63.857</v>
+        <v>-36.78</v>
       </c>
       <c r="AC107" s="0">
-        <v>-3.18</v>
+        <v>-1.32</v>
       </c>
       <c r="AD107" s="0">
-        <v>2.42</v>
+        <v>2.81</v>
       </c>
       <c r="AE107" s="0">
-        <v>2.42</v>
+        <v>2.81</v>
       </c>
       <c r="AF107" s="0">
-        <v>-0.93</v>
+        <v>-0.9</v>
       </c>
       <c r="AG107" s="0">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="AH107" s="0">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="AI107" s="0" t="s">
         <v>47</v>
@@ -12665,13 +12665,13 @@
         <v>1250</v>
       </c>
       <c r="O108" s="0">
-        <v>67.72</v>
+        <v>69.12</v>
       </c>
       <c r="P108" s="0">
         <v>0</v>
       </c>
       <c r="Q108" s="0">
-        <v>1.35187</v>
+        <v>1.33479</v>
       </c>
       <c r="R108" s="0">
         <v>1.31958</v>
@@ -12680,49 +12680,49 @@
         <v>0</v>
       </c>
       <c r="T108" s="0">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="U108" s="0">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="V108" s="0">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="W108" s="0">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="X108" s="0">
-        <v>6.11</v>
+        <v>5.99</v>
       </c>
       <c r="Y108" s="0">
-        <v>6.32</v>
+        <v>6.21</v>
       </c>
       <c r="Z108" s="0">
-        <v>6.32</v>
+        <v>6.21</v>
       </c>
       <c r="AA108" s="0">
-        <v>-7.486</v>
+        <v>-5.574</v>
       </c>
       <c r="AB108" s="0">
-        <v>-11.483</v>
+        <v>-8.914</v>
       </c>
       <c r="AC108" s="0">
-        <v>13.48</v>
+        <v>13.5</v>
       </c>
       <c r="AD108" s="0">
-        <v>15.69</v>
+        <v>15.93</v>
       </c>
       <c r="AE108" s="0">
-        <v>15.69</v>
+        <v>15.93</v>
       </c>
       <c r="AF108" s="0">
-        <v>2.24</v>
+        <v>1.8</v>
       </c>
       <c r="AG108" s="0">
-        <v>5</v>
+        <v>5.17</v>
       </c>
       <c r="AH108" s="0">
-        <v>5</v>
+        <v>5.17</v>
       </c>
       <c r="AI108" s="0" t="s">
         <v>47</v>
@@ -12772,13 +12772,13 @@
         <v>1050</v>
       </c>
       <c r="O109" s="0">
-        <v>68.2</v>
+        <v>70.72</v>
       </c>
       <c r="P109" s="0">
         <v>0</v>
       </c>
       <c r="Q109" s="0">
-        <v>1.14362</v>
+        <v>1.14718</v>
       </c>
       <c r="R109" s="0">
         <v>1.10965</v>
@@ -12787,49 +12787,49 @@
         <v>0</v>
       </c>
       <c r="T109" s="0">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="U109" s="0">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="V109" s="0">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="W109" s="0">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="X109" s="0">
-        <v>6.26</v>
+        <v>5.99</v>
       </c>
       <c r="Y109" s="0">
-        <v>6.47</v>
+        <v>6.25</v>
       </c>
       <c r="Z109" s="0">
-        <v>6.47</v>
+        <v>6.25</v>
       </c>
       <c r="AA109" s="0">
-        <v>-6.932</v>
+        <v>-3.493</v>
       </c>
       <c r="AB109" s="0">
-        <v>-10.886</v>
+        <v>-6.809</v>
       </c>
       <c r="AC109" s="0">
-        <v>13.22</v>
+        <v>13.18</v>
       </c>
       <c r="AD109" s="0">
-        <v>15.35</v>
+        <v>15.83</v>
       </c>
       <c r="AE109" s="0">
-        <v>15.35</v>
+        <v>15.83</v>
       </c>
       <c r="AF109" s="0">
-        <v>2.09</v>
+        <v>1.64</v>
       </c>
       <c r="AG109" s="0">
-        <v>4.79</v>
+        <v>5.11</v>
       </c>
       <c r="AH109" s="0">
-        <v>4.79</v>
+        <v>5.11</v>
       </c>
       <c r="AI109" s="0" t="s">
         <v>47</v>
@@ -12879,13 +12879,13 @@
         <v>1170</v>
       </c>
       <c r="O110" s="0">
-        <v>72.92</v>
+        <v>75.84</v>
       </c>
       <c r="P110" s="0">
         <v>0</v>
       </c>
       <c r="Q110" s="0">
-        <v>1.36251</v>
+        <v>1.37083</v>
       </c>
       <c r="R110" s="0">
         <v>1.33029</v>
@@ -12894,49 +12894,49 @@
         <v>0</v>
       </c>
       <c r="T110" s="0">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="U110" s="0">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="V110" s="0">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="W110" s="0">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="X110" s="0">
-        <v>6.18</v>
+        <v>5.86</v>
       </c>
       <c r="Y110" s="0">
-        <v>6.5</v>
+        <v>6.26</v>
       </c>
       <c r="Z110" s="0">
-        <v>6.5</v>
+        <v>6.26</v>
       </c>
       <c r="AA110" s="0">
-        <v>-7.509</v>
+        <v>-3.805</v>
       </c>
       <c r="AB110" s="0">
-        <v>-11.198</v>
+        <v>-6.973</v>
       </c>
       <c r="AC110" s="0">
-        <v>12.32</v>
+        <v>12.13</v>
       </c>
       <c r="AD110" s="0">
-        <v>15.27</v>
+        <v>15.8</v>
       </c>
       <c r="AE110" s="0">
-        <v>15.27</v>
+        <v>15.8</v>
       </c>
       <c r="AF110" s="0">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="AG110" s="0">
-        <v>4.74</v>
+        <v>5.09</v>
       </c>
       <c r="AH110" s="0">
-        <v>4.74</v>
+        <v>5.09</v>
       </c>
       <c r="AI110" s="0" t="s">
         <v>47</v>
@@ -12986,13 +12986,13 @@
         <v>2012.5</v>
       </c>
       <c r="O111" s="0">
-        <v>72.68</v>
+        <v>76.88</v>
       </c>
       <c r="P111" s="0">
         <v>0</v>
       </c>
       <c r="Q111" s="0">
-        <v>2.33593</v>
+        <v>2.39029</v>
       </c>
       <c r="R111" s="0">
         <v>2.32884</v>
@@ -13001,49 +13001,49 @@
         <v>0</v>
       </c>
       <c r="T111" s="0">
-        <v>263</v>
+        <v>209</v>
       </c>
       <c r="U111" s="0">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="V111" s="0">
-        <v>247</v>
+        <v>176</v>
       </c>
       <c r="W111" s="0">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="X111" s="0">
-        <v>6.29</v>
+        <v>5.8</v>
       </c>
       <c r="Y111" s="0">
-        <v>6.59</v>
+        <v>6.24</v>
       </c>
       <c r="Z111" s="0">
-        <v>6.59</v>
+        <v>6.24</v>
       </c>
       <c r="AA111" s="0">
-        <v>-9.422</v>
+        <v>-4.187</v>
       </c>
       <c r="AB111" s="0">
-        <v>-13.062</v>
+        <v>-7.329</v>
       </c>
       <c r="AC111" s="0">
-        <v>12.28</v>
+        <v>11.93</v>
       </c>
       <c r="AD111" s="0">
-        <v>15.06</v>
+        <v>15.85</v>
       </c>
       <c r="AE111" s="0">
-        <v>15.06</v>
+        <v>15.85</v>
       </c>
       <c r="AF111" s="0">
-        <v>1.36</v>
+        <v>1.17</v>
       </c>
       <c r="AG111" s="0">
-        <v>4.61</v>
+        <v>5.12</v>
       </c>
       <c r="AH111" s="0">
-        <v>4.61</v>
+        <v>5.12</v>
       </c>
       <c r="AI111" s="0" t="s">
         <v>47</v>
@@ -13093,13 +13093,13 @@
         <v>690</v>
       </c>
       <c r="O112" s="0">
-        <v>88.72</v>
+        <v>92.6</v>
       </c>
       <c r="P112" s="0">
         <v>0</v>
       </c>
       <c r="Q112" s="0">
-        <v>0.97764</v>
+        <v>0.9871</v>
       </c>
       <c r="R112" s="0">
         <v>0.9517</v>
@@ -13108,49 +13108,49 @@
         <v>0</v>
       </c>
       <c r="T112" s="0">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c r="U112" s="0">
-        <v>175</v>
+        <v>112</v>
       </c>
       <c r="V112" s="0">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="W112" s="0">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="X112" s="0">
-        <v>5.17</v>
+        <v>4.59</v>
       </c>
       <c r="Y112" s="0">
-        <v>6.39</v>
+        <v>6.14</v>
       </c>
       <c r="Z112" s="0">
-        <v>6.39</v>
+        <v>6.14</v>
       </c>
       <c r="AA112" s="0">
-        <v>-7.235</v>
+        <v>-3.179</v>
       </c>
       <c r="AB112" s="0">
-        <v>-9.436</v>
+        <v>-5.262</v>
       </c>
       <c r="AC112" s="0">
-        <v>8.21</v>
+        <v>7</v>
       </c>
       <c r="AD112" s="0">
-        <v>15.53</v>
+        <v>16.13</v>
       </c>
       <c r="AE112" s="0">
-        <v>15.53</v>
+        <v>16.13</v>
       </c>
       <c r="AF112" s="0">
-        <v>-1.14</v>
+        <v>-1.74</v>
       </c>
       <c r="AG112" s="0">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="AH112" s="0">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="AI112" s="0" t="s">
         <v>47</v>
@@ -13200,13 +13200,13 @@
         <v>1725</v>
       </c>
       <c r="O113" s="0">
-        <v>94.2</v>
+        <v>93.84</v>
       </c>
       <c r="P113" s="0">
         <v>0</v>
       </c>
       <c r="Q113" s="0">
-        <v>2.59507</v>
+        <v>2.50079</v>
       </c>
       <c r="R113" s="0">
         <v>2.46285</v>
@@ -13215,49 +13215,49 @@
         <v>0</v>
       </c>
       <c r="T113" s="0">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="U113" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="V113" s="0">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="W113" s="0">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="X113" s="0">
-        <v>8.37</v>
+        <v>8.74</v>
       </c>
       <c r="Y113" s="0">
-        <v>18.56</v>
+        <v>21.53</v>
       </c>
       <c r="Z113" s="0">
-        <v>18.56</v>
+        <v>21.53</v>
       </c>
       <c r="AA113" s="0">
-        <v>-4.848</v>
+        <v>-5.212</v>
       </c>
       <c r="AB113" s="0">
-        <v>-5.277</v>
+        <v>-5.777</v>
       </c>
       <c r="AC113" s="0">
-        <v>-0.44</v>
+        <v>-0.55</v>
       </c>
       <c r="AD113" s="0">
-        <v>0.46</v>
+        <v>0.41</v>
       </c>
       <c r="AE113" s="0">
-        <v>0.46</v>
+        <v>0.41</v>
       </c>
       <c r="AF113" s="0">
-        <v>-0.25</v>
+        <v>-0.26</v>
       </c>
       <c r="AG113" s="0">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AH113" s="0">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AI113" s="0" t="s">
         <v>47</v>
@@ -13307,13 +13307,13 @@
         <v>840</v>
       </c>
       <c r="O114" s="0">
-        <v>96.68</v>
+        <v>96.8</v>
       </c>
       <c r="P114" s="0">
         <v>0</v>
       </c>
       <c r="Q114" s="0">
-        <v>1.29695</v>
+        <v>1.25619</v>
       </c>
       <c r="R114" s="0">
         <v>1.22401</v>
@@ -13322,49 +13322,49 @@
         <v>0</v>
       </c>
       <c r="T114" s="0">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="U114" s="0">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="V114" s="0">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="W114" s="0">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="X114" s="0">
-        <v>8.65</v>
+        <v>8.94</v>
       </c>
       <c r="Y114" s="0">
-        <v>10.26</v>
+        <v>10.65</v>
       </c>
       <c r="Z114" s="0">
-        <v>10.26</v>
+        <v>10.65</v>
       </c>
       <c r="AA114" s="0">
-        <v>-4.315</v>
+        <v>-4.196</v>
       </c>
       <c r="AB114" s="0">
-        <v>-5.046</v>
+        <v>-4.999</v>
       </c>
       <c r="AC114" s="0">
-        <v>0.45</v>
+        <v>0.41</v>
       </c>
       <c r="AD114" s="0">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="AE114" s="0">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="AF114" s="0">
         <v>-0.14</v>
       </c>
       <c r="AG114" s="0">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AH114" s="0">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AI114" s="0" t="s">
         <v>47</v>
